--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ASML</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12978400</v>
+        <v>13091800</v>
       </c>
       <c r="E8" s="3">
-        <v>12016500</v>
+        <v>12121600</v>
       </c>
       <c r="F8" s="3">
-        <v>9841000</v>
+        <v>9927100</v>
       </c>
       <c r="G8" s="3">
-        <v>7548900</v>
+        <v>7614900</v>
       </c>
       <c r="H8" s="3">
-        <v>6903500</v>
+        <v>6963900</v>
       </c>
       <c r="I8" s="3">
-        <v>6430200</v>
+        <v>6486400</v>
       </c>
       <c r="J8" s="3">
-        <v>5759400</v>
+        <v>5809700</v>
       </c>
       <c r="K8" s="3">
         <v>5308800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7181100</v>
+        <v>7243900</v>
       </c>
       <c r="E9" s="3">
-        <v>6494500</v>
+        <v>6551200</v>
       </c>
       <c r="F9" s="3">
-        <v>5426900</v>
+        <v>5474300</v>
       </c>
       <c r="G9" s="3">
-        <v>4095300</v>
+        <v>4131100</v>
       </c>
       <c r="H9" s="3">
-        <v>3724000</v>
+        <v>3756600</v>
       </c>
       <c r="I9" s="3">
-        <v>3579400</v>
+        <v>3610700</v>
       </c>
       <c r="J9" s="3">
-        <v>3368700</v>
+        <v>3398200</v>
       </c>
       <c r="K9" s="3">
         <v>3058900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5797200</v>
+        <v>5847900</v>
       </c>
       <c r="E10" s="3">
-        <v>5522100</v>
+        <v>5570300</v>
       </c>
       <c r="F10" s="3">
-        <v>4414200</v>
+        <v>4452800</v>
       </c>
       <c r="G10" s="3">
-        <v>3453500</v>
+        <v>3483700</v>
       </c>
       <c r="H10" s="3">
-        <v>3179500</v>
+        <v>3207300</v>
       </c>
       <c r="I10" s="3">
-        <v>2850800</v>
+        <v>2875700</v>
       </c>
       <c r="J10" s="3">
-        <v>2390600</v>
+        <v>2411500</v>
       </c>
       <c r="K10" s="3">
         <v>2249900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2161400</v>
+        <v>2042200</v>
       </c>
       <c r="E12" s="3">
-        <v>1612600</v>
+        <v>1626700</v>
       </c>
       <c r="F12" s="3">
-        <v>1269200</v>
+        <v>1280300</v>
       </c>
       <c r="G12" s="3">
-        <v>1127100</v>
+        <v>1137000</v>
       </c>
       <c r="H12" s="3">
-        <v>1148800</v>
+        <v>1158900</v>
       </c>
       <c r="I12" s="3">
-        <v>1137200</v>
+        <v>1147200</v>
       </c>
       <c r="J12" s="3">
-        <v>922000</v>
+        <v>930100</v>
       </c>
       <c r="K12" s="3">
         <v>661100</v>
@@ -929,26 +929,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>163000</v>
       </c>
       <c r="E15" s="3">
-        <v>143100</v>
+        <v>144300</v>
       </c>
       <c r="F15" s="3">
-        <v>129900</v>
+        <v>131000</v>
       </c>
       <c r="G15" s="3">
-        <v>117400</v>
+        <v>118400</v>
       </c>
       <c r="H15" s="3">
-        <v>58600</v>
+        <v>59100</v>
       </c>
       <c r="I15" s="3">
-        <v>63200</v>
+        <v>63800</v>
       </c>
       <c r="J15" s="3">
-        <v>58900</v>
+        <v>59400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9914100</v>
+        <v>10000700</v>
       </c>
       <c r="E17" s="3">
-        <v>8760600</v>
+        <v>8837200</v>
       </c>
       <c r="F17" s="3">
-        <v>7162300</v>
+        <v>7224900</v>
       </c>
       <c r="G17" s="3">
-        <v>5618000</v>
+        <v>5667100</v>
       </c>
       <c r="H17" s="3">
-        <v>5185000</v>
+        <v>5230400</v>
       </c>
       <c r="I17" s="3">
-        <v>5022300</v>
+        <v>5066200</v>
       </c>
       <c r="J17" s="3">
-        <v>4608700</v>
+        <v>4649000</v>
       </c>
       <c r="K17" s="3">
         <v>4010900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3064300</v>
+        <v>3091100</v>
       </c>
       <c r="E18" s="3">
-        <v>3255900</v>
+        <v>3284400</v>
       </c>
       <c r="F18" s="3">
-        <v>2678800</v>
+        <v>2702200</v>
       </c>
       <c r="G18" s="3">
-        <v>1930800</v>
+        <v>1947700</v>
       </c>
       <c r="H18" s="3">
-        <v>1718500</v>
+        <v>1733500</v>
       </c>
       <c r="I18" s="3">
-        <v>1407900</v>
+        <v>1420200</v>
       </c>
       <c r="J18" s="3">
-        <v>1150600</v>
+        <v>1160700</v>
       </c>
       <c r="K18" s="3">
         <v>1297900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27400</v>
+        <v>12800</v>
       </c>
       <c r="E20" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G20" s="3">
-        <v>78700</v>
+        <v>79400</v>
       </c>
       <c r="H20" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="I20" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="J20" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="K20" s="3">
         <v>18600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3530100</v>
+        <v>3597400</v>
       </c>
       <c r="E21" s="3">
-        <v>3735600</v>
+        <v>3764400</v>
       </c>
       <c r="F21" s="3">
-        <v>3141600</v>
+        <v>3285600</v>
       </c>
       <c r="G21" s="3">
-        <v>2399200</v>
+        <v>2417000</v>
       </c>
       <c r="H21" s="3">
-        <v>2054000</v>
+        <v>2069300</v>
       </c>
       <c r="I21" s="3">
-        <v>1702500</v>
+        <v>1715100</v>
       </c>
       <c r="J21" s="3">
-        <v>1370800</v>
+        <v>1380700</v>
       </c>
       <c r="K21" s="3">
         <v>1526400</v>
@@ -1121,23 +1121,23 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>40500</v>
       </c>
       <c r="E22" s="3">
-        <v>45900</v>
+        <v>46300</v>
       </c>
       <c r="F22" s="3">
-        <v>63100</v>
+        <v>63700</v>
       </c>
       <c r="G22" s="3">
-        <v>41700</v>
+        <v>42100</v>
       </c>
       <c r="H22" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="I22" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3036800</v>
+        <v>3063400</v>
       </c>
       <c r="E23" s="3">
-        <v>3224800</v>
+        <v>3253000</v>
       </c>
       <c r="F23" s="3">
-        <v>2623600</v>
+        <v>2646500</v>
       </c>
       <c r="G23" s="3">
-        <v>1967800</v>
+        <v>1985000</v>
       </c>
       <c r="H23" s="3">
-        <v>1700400</v>
+        <v>1715300</v>
       </c>
       <c r="I23" s="3">
-        <v>1398500</v>
+        <v>1410700</v>
       </c>
       <c r="J23" s="3">
-        <v>1123800</v>
+        <v>1133600</v>
       </c>
       <c r="K23" s="3">
         <v>1290900</v>
@@ -1188,22 +1188,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>210500</v>
+        <v>212300</v>
       </c>
       <c r="E24" s="3">
-        <v>386100</v>
+        <v>389400</v>
       </c>
       <c r="F24" s="3">
-        <v>336000</v>
+        <v>338900</v>
       </c>
       <c r="G24" s="3">
-        <v>257400</v>
+        <v>259600</v>
       </c>
       <c r="H24" s="3">
-        <v>177300</v>
+        <v>178800</v>
       </c>
       <c r="I24" s="3">
-        <v>84500</v>
+        <v>85300</v>
       </c>
       <c r="J24" s="3">
         <v>8800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2826400</v>
+        <v>2851100</v>
       </c>
       <c r="E26" s="3">
-        <v>2838800</v>
+        <v>2863600</v>
       </c>
       <c r="F26" s="3">
-        <v>2287600</v>
+        <v>2307600</v>
       </c>
       <c r="G26" s="3">
-        <v>1710500</v>
+        <v>1725400</v>
       </c>
       <c r="H26" s="3">
-        <v>1523100</v>
+        <v>1536400</v>
       </c>
       <c r="I26" s="3">
-        <v>1313900</v>
+        <v>1325400</v>
       </c>
       <c r="J26" s="3">
-        <v>1115000</v>
+        <v>1124800</v>
       </c>
       <c r="K26" s="3">
         <v>1286200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2846300</v>
+        <v>2871200</v>
       </c>
       <c r="E27" s="3">
-        <v>2845600</v>
+        <v>2870500</v>
       </c>
       <c r="F27" s="3">
-        <v>2269200</v>
+        <v>2289100</v>
       </c>
       <c r="G27" s="3">
-        <v>1710500</v>
+        <v>1725400</v>
       </c>
       <c r="H27" s="3">
-        <v>1523100</v>
+        <v>1536400</v>
       </c>
       <c r="I27" s="3">
-        <v>1313900</v>
+        <v>1325400</v>
       </c>
       <c r="J27" s="3">
-        <v>1115000</v>
+        <v>1124800</v>
       </c>
       <c r="K27" s="3">
         <v>1286200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27400</v>
+        <v>-12800</v>
       </c>
       <c r="E32" s="3">
-        <v>-14800</v>
+        <v>-15000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="G32" s="3">
-        <v>-78700</v>
+        <v>-79400</v>
       </c>
       <c r="H32" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="I32" s="3">
-        <v>-15900</v>
+        <v>-16100</v>
       </c>
       <c r="J32" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="K32" s="3">
         <v>-18600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2846300</v>
+        <v>2871200</v>
       </c>
       <c r="E33" s="3">
-        <v>2845600</v>
+        <v>2870500</v>
       </c>
       <c r="F33" s="3">
-        <v>2269200</v>
+        <v>2289100</v>
       </c>
       <c r="G33" s="3">
-        <v>1710500</v>
+        <v>1725400</v>
       </c>
       <c r="H33" s="3">
-        <v>1523100</v>
+        <v>1536400</v>
       </c>
       <c r="I33" s="3">
-        <v>1313900</v>
+        <v>1325400</v>
       </c>
       <c r="J33" s="3">
-        <v>1115000</v>
+        <v>1124800</v>
       </c>
       <c r="K33" s="3">
         <v>1286200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2846300</v>
+        <v>2871200</v>
       </c>
       <c r="E35" s="3">
-        <v>2845600</v>
+        <v>2870500</v>
       </c>
       <c r="F35" s="3">
-        <v>2269200</v>
+        <v>2289100</v>
       </c>
       <c r="G35" s="3">
-        <v>1710500</v>
+        <v>1725400</v>
       </c>
       <c r="H35" s="3">
-        <v>1523100</v>
+        <v>1536400</v>
       </c>
       <c r="I35" s="3">
-        <v>1313900</v>
+        <v>1325400</v>
       </c>
       <c r="J35" s="3">
-        <v>1115000</v>
+        <v>1124800</v>
       </c>
       <c r="K35" s="3">
         <v>1286200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3878500</v>
+        <v>3920100</v>
       </c>
       <c r="E41" s="3">
-        <v>3427000</v>
+        <v>3463800</v>
       </c>
       <c r="F41" s="3">
-        <v>2480400</v>
+        <v>2507000</v>
       </c>
       <c r="G41" s="3">
-        <v>3191700</v>
+        <v>3226000</v>
       </c>
       <c r="H41" s="3">
-        <v>2699700</v>
+        <v>2728700</v>
       </c>
       <c r="I41" s="3">
-        <v>2656600</v>
+        <v>2685100</v>
       </c>
       <c r="J41" s="3">
-        <v>2559100</v>
+        <v>2586600</v>
       </c>
       <c r="K41" s="3">
         <v>1983200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1302000</v>
+        <v>1316000</v>
       </c>
       <c r="E42" s="3">
-        <v>1002800</v>
+        <v>1013600</v>
       </c>
       <c r="F42" s="3">
-        <v>1130200</v>
+        <v>1142300</v>
       </c>
       <c r="G42" s="3">
-        <v>1262700</v>
+        <v>1276300</v>
       </c>
       <c r="H42" s="3">
-        <v>1043100</v>
+        <v>1054300</v>
       </c>
       <c r="I42" s="3">
-        <v>367700</v>
+        <v>371600</v>
       </c>
       <c r="J42" s="3">
-        <v>746500</v>
+        <v>754500</v>
       </c>
       <c r="K42" s="3">
         <v>1043500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3031600</v>
+        <v>3163500</v>
       </c>
       <c r="E43" s="3">
-        <v>2636200</v>
+        <v>2664500</v>
       </c>
       <c r="F43" s="3">
-        <v>2414200</v>
+        <v>2440100</v>
       </c>
       <c r="G43" s="3">
-        <v>1340400</v>
+        <v>1354800</v>
       </c>
       <c r="H43" s="3">
-        <v>1278800</v>
+        <v>1292500</v>
       </c>
       <c r="I43" s="3">
-        <v>1464300</v>
+        <v>1480000</v>
       </c>
       <c r="J43" s="3">
-        <v>1306400</v>
+        <v>1320500</v>
       </c>
       <c r="K43" s="3">
         <v>1788300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4182500</v>
+        <v>4227500</v>
       </c>
       <c r="E44" s="3">
-        <v>3776600</v>
+        <v>3817200</v>
       </c>
       <c r="F44" s="3">
-        <v>3245200</v>
+        <v>3280100</v>
       </c>
       <c r="G44" s="3">
-        <v>3053400</v>
+        <v>3086200</v>
       </c>
       <c r="H44" s="3">
-        <v>2826000</v>
+        <v>2856300</v>
       </c>
       <c r="I44" s="3">
-        <v>2799700</v>
+        <v>2829800</v>
       </c>
       <c r="J44" s="3">
-        <v>2627500</v>
+        <v>2655800</v>
       </c>
       <c r="K44" s="3">
         <v>4167000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>925400</v>
+        <v>836000</v>
       </c>
       <c r="E45" s="3">
-        <v>720900</v>
+        <v>728700</v>
       </c>
       <c r="F45" s="3">
-        <v>486600</v>
+        <v>491900</v>
       </c>
       <c r="G45" s="3">
-        <v>547800</v>
+        <v>553700</v>
       </c>
       <c r="H45" s="3">
-        <v>615600</v>
+        <v>622200</v>
       </c>
       <c r="I45" s="3">
-        <v>558300</v>
+        <v>564300</v>
       </c>
       <c r="J45" s="3">
-        <v>474500</v>
+        <v>479600</v>
       </c>
       <c r="K45" s="3">
         <v>600000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13319900</v>
+        <v>13463100</v>
       </c>
       <c r="E46" s="3">
-        <v>11563500</v>
+        <v>11687700</v>
       </c>
       <c r="F46" s="3">
-        <v>9756600</v>
+        <v>9861500</v>
       </c>
       <c r="G46" s="3">
-        <v>9396100</v>
+        <v>9497000</v>
       </c>
       <c r="H46" s="3">
-        <v>8463100</v>
+        <v>8554000</v>
       </c>
       <c r="I46" s="3">
-        <v>7846500</v>
+        <v>7930900</v>
       </c>
       <c r="J46" s="3">
-        <v>7714100</v>
+        <v>7797000</v>
       </c>
       <c r="K46" s="3">
         <v>6543300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1377000</v>
+        <v>1467000</v>
       </c>
       <c r="E47" s="3">
-        <v>1307600</v>
+        <v>1488900</v>
       </c>
       <c r="F47" s="3">
-        <v>1253500</v>
+        <v>1266900</v>
       </c>
       <c r="G47" s="3">
-        <v>134700</v>
+        <v>136100</v>
       </c>
       <c r="H47" s="3">
-        <v>142200</v>
+        <v>143700</v>
       </c>
       <c r="I47" s="3">
-        <v>66700</v>
+        <v>67400</v>
       </c>
       <c r="J47" s="3">
-        <v>56500</v>
+        <v>57100</v>
       </c>
       <c r="K47" s="3">
         <v>43300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2550900</v>
+        <v>2578300</v>
       </c>
       <c r="E48" s="3">
-        <v>1896400</v>
+        <v>1916700</v>
       </c>
       <c r="F48" s="3">
-        <v>1882500</v>
+        <v>1902800</v>
       </c>
       <c r="G48" s="3">
-        <v>1852600</v>
+        <v>1872500</v>
       </c>
       <c r="H48" s="3">
-        <v>1779500</v>
+        <v>1798600</v>
       </c>
       <c r="I48" s="3">
-        <v>1589400</v>
+        <v>1606500</v>
       </c>
       <c r="J48" s="3">
-        <v>1337200</v>
+        <v>1351600</v>
       </c>
       <c r="K48" s="3">
         <v>2311100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6198800</v>
+        <v>6265400</v>
       </c>
       <c r="E49" s="3">
-        <v>6198300</v>
+        <v>6264900</v>
       </c>
       <c r="F49" s="3">
-        <v>6266400</v>
+        <v>6333700</v>
       </c>
       <c r="G49" s="3">
-        <v>6804100</v>
+        <v>6877200</v>
       </c>
       <c r="H49" s="3">
-        <v>3692300</v>
+        <v>3731900</v>
       </c>
       <c r="I49" s="3">
-        <v>3383300</v>
+        <v>3419700</v>
       </c>
       <c r="J49" s="3">
-        <v>3059300</v>
+        <v>3092200</v>
       </c>
       <c r="K49" s="3">
         <v>189700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400700</v>
+        <v>1340500</v>
       </c>
       <c r="E52" s="3">
-        <v>1144600</v>
+        <v>989600</v>
       </c>
       <c r="F52" s="3">
-        <v>812400</v>
+        <v>821100</v>
       </c>
       <c r="G52" s="3">
-        <v>704700</v>
+        <v>712300</v>
       </c>
       <c r="H52" s="3">
-        <v>520900</v>
+        <v>526500</v>
       </c>
       <c r="I52" s="3">
-        <v>514000</v>
+        <v>519500</v>
       </c>
       <c r="J52" s="3">
-        <v>475000</v>
+        <v>480100</v>
       </c>
       <c r="K52" s="3">
         <v>393800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24847300</v>
+        <v>25114300</v>
       </c>
       <c r="E54" s="3">
-        <v>22110300</v>
+        <v>22347900</v>
       </c>
       <c r="F54" s="3">
-        <v>19971400</v>
+        <v>20186000</v>
       </c>
       <c r="G54" s="3">
-        <v>18892100</v>
+        <v>19095200</v>
       </c>
       <c r="H54" s="3">
-        <v>14597900</v>
+        <v>14754800</v>
       </c>
       <c r="I54" s="3">
-        <v>13399900</v>
+        <v>13543900</v>
       </c>
       <c r="J54" s="3">
-        <v>12642100</v>
+        <v>12777900</v>
       </c>
       <c r="K54" s="3">
         <v>8314500</v>
@@ -2143,26 +2143,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>10</v>
+      <c r="D57" s="3">
+        <v>1178800</v>
       </c>
       <c r="E57" s="3">
-        <v>1058500</v>
+        <v>1069800</v>
       </c>
       <c r="F57" s="3">
-        <v>919400</v>
+        <v>929200</v>
       </c>
       <c r="G57" s="3">
-        <v>651300</v>
+        <v>658300</v>
       </c>
       <c r="H57" s="3">
-        <v>459900</v>
+        <v>464900</v>
       </c>
       <c r="I57" s="3">
-        <v>544900</v>
+        <v>550700</v>
       </c>
       <c r="J57" s="3">
-        <v>687200</v>
+        <v>694600</v>
       </c>
       <c r="K57" s="3">
         <v>212000</v>
@@ -2183,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>27700</v>
+        <v>28000</v>
       </c>
       <c r="G58" s="3">
-        <v>271900</v>
+        <v>274900</v>
       </c>
       <c r="H58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I58" s="3">
         <v>4700</v>
       </c>
       <c r="J58" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K58" s="3">
         <v>4100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5154100</v>
+        <v>4030700</v>
       </c>
       <c r="E59" s="3">
-        <v>3105000</v>
+        <v>3138400</v>
       </c>
       <c r="F59" s="3">
-        <v>5089100</v>
+        <v>5143800</v>
       </c>
       <c r="G59" s="3">
-        <v>2678800</v>
+        <v>2707600</v>
       </c>
       <c r="H59" s="3">
-        <v>2947100</v>
+        <v>2978800</v>
       </c>
       <c r="I59" s="3">
-        <v>2622400</v>
+        <v>2650600</v>
       </c>
       <c r="J59" s="3">
-        <v>2457800</v>
+        <v>2484200</v>
       </c>
       <c r="K59" s="3">
         <v>4465500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5154100</v>
+        <v>5209500</v>
       </c>
       <c r="E60" s="3">
-        <v>4163500</v>
+        <v>4208300</v>
       </c>
       <c r="F60" s="3">
-        <v>3480700</v>
+        <v>3518100</v>
       </c>
       <c r="G60" s="3">
-        <v>3602100</v>
+        <v>3640800</v>
       </c>
       <c r="H60" s="3">
-        <v>3411700</v>
+        <v>3448300</v>
       </c>
       <c r="I60" s="3">
-        <v>3172000</v>
+        <v>3206100</v>
       </c>
       <c r="J60" s="3">
-        <v>3149800</v>
+        <v>3183600</v>
       </c>
       <c r="K60" s="3">
         <v>2340800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3412900</v>
+        <v>3449600</v>
       </c>
       <c r="E61" s="3">
-        <v>3323100</v>
+        <v>3358800</v>
       </c>
       <c r="F61" s="3">
-        <v>3294100</v>
+        <v>3329500</v>
       </c>
       <c r="G61" s="3">
-        <v>3372800</v>
+        <v>3409100</v>
       </c>
       <c r="H61" s="3">
-        <v>1235800</v>
+        <v>1249100</v>
       </c>
       <c r="I61" s="3">
-        <v>1262600</v>
+        <v>1276100</v>
       </c>
       <c r="J61" s="3">
-        <v>1175100</v>
+        <v>1187700</v>
       </c>
       <c r="K61" s="3">
         <v>848100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2454000</v>
+        <v>2480400</v>
       </c>
       <c r="E62" s="3">
-        <v>1841900</v>
+        <v>1861700</v>
       </c>
       <c r="F62" s="3">
-        <v>2297800</v>
+        <v>2322500</v>
       </c>
       <c r="G62" s="3">
-        <v>1134300</v>
+        <v>1146500</v>
       </c>
       <c r="H62" s="3">
-        <v>739600</v>
+        <v>747500</v>
       </c>
       <c r="I62" s="3">
-        <v>716600</v>
+        <v>724300</v>
       </c>
       <c r="J62" s="3">
-        <v>716400</v>
+        <v>724100</v>
       </c>
       <c r="K62" s="3">
         <v>562600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11021100</v>
+        <v>11139500</v>
       </c>
       <c r="E66" s="3">
-        <v>9328500</v>
+        <v>9428700</v>
       </c>
       <c r="F66" s="3">
-        <v>8138900</v>
+        <v>8226400</v>
       </c>
       <c r="G66" s="3">
-        <v>8109300</v>
+        <v>8196400</v>
       </c>
       <c r="H66" s="3">
-        <v>5387000</v>
+        <v>5444900</v>
       </c>
       <c r="I66" s="3">
-        <v>5151100</v>
+        <v>5206500</v>
       </c>
       <c r="J66" s="3">
-        <v>5041300</v>
+        <v>5095400</v>
       </c>
       <c r="K66" s="3">
         <v>3751500</v>
@@ -2620,26 +2620,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>10541100</v>
       </c>
       <c r="E72" s="3">
-        <v>10092900</v>
+        <v>10201400</v>
       </c>
       <c r="F72" s="3">
-        <v>8026900</v>
+        <v>8113200</v>
       </c>
       <c r="G72" s="3">
-        <v>6898200</v>
+        <v>6972300</v>
       </c>
       <c r="H72" s="3">
-        <v>5801500</v>
+        <v>5863900</v>
       </c>
       <c r="I72" s="3">
-        <v>5104100</v>
+        <v>5159000</v>
       </c>
       <c r="J72" s="3">
-        <v>4759000</v>
+        <v>4810100</v>
       </c>
       <c r="K72" s="3">
         <v>4499600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13826200</v>
+        <v>13974800</v>
       </c>
       <c r="E76" s="3">
-        <v>12781800</v>
+        <v>12919200</v>
       </c>
       <c r="F76" s="3">
-        <v>11832500</v>
+        <v>11959600</v>
       </c>
       <c r="G76" s="3">
-        <v>10782900</v>
+        <v>10898800</v>
       </c>
       <c r="H76" s="3">
-        <v>9210900</v>
+        <v>9309900</v>
       </c>
       <c r="I76" s="3">
-        <v>8248800</v>
+        <v>8337500</v>
       </c>
       <c r="J76" s="3">
-        <v>7600800</v>
+        <v>7682500</v>
       </c>
       <c r="K76" s="3">
         <v>4563000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2846300</v>
+        <v>2871200</v>
       </c>
       <c r="E81" s="3">
-        <v>2845600</v>
+        <v>2870500</v>
       </c>
       <c r="F81" s="3">
-        <v>2269200</v>
+        <v>2289100</v>
       </c>
       <c r="G81" s="3">
-        <v>1710500</v>
+        <v>1725400</v>
       </c>
       <c r="H81" s="3">
-        <v>1523100</v>
+        <v>1536400</v>
       </c>
       <c r="I81" s="3">
-        <v>1313900</v>
+        <v>1325400</v>
       </c>
       <c r="J81" s="3">
-        <v>1115000</v>
+        <v>1124800</v>
       </c>
       <c r="K81" s="3">
         <v>1286200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>492500</v>
+        <v>496800</v>
       </c>
       <c r="E83" s="3">
-        <v>464100</v>
+        <v>468200</v>
       </c>
       <c r="F83" s="3">
-        <v>454200</v>
+        <v>579300</v>
       </c>
       <c r="G83" s="3">
-        <v>389000</v>
+        <v>392400</v>
       </c>
       <c r="H83" s="3">
-        <v>323000</v>
+        <v>325900</v>
       </c>
       <c r="I83" s="3">
-        <v>278200</v>
+        <v>280600</v>
       </c>
       <c r="J83" s="3">
-        <v>246600</v>
+        <v>248800</v>
       </c>
       <c r="K83" s="3">
         <v>209400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3597500</v>
+        <v>3628900</v>
       </c>
       <c r="E89" s="3">
-        <v>3373800</v>
+        <v>3403300</v>
       </c>
       <c r="F89" s="3">
-        <v>1974900</v>
+        <v>2013900</v>
       </c>
       <c r="G89" s="3">
-        <v>1829200</v>
+        <v>1845200</v>
       </c>
       <c r="H89" s="3">
-        <v>2224100</v>
+        <v>2243500</v>
       </c>
       <c r="I89" s="3">
-        <v>1125700</v>
+        <v>1135500</v>
       </c>
       <c r="J89" s="3">
-        <v>1157500</v>
+        <v>1167600</v>
       </c>
       <c r="K89" s="3">
         <v>789300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-841700</v>
+        <v>-849100</v>
       </c>
       <c r="E91" s="3">
-        <v>-630300</v>
+        <v>-635800</v>
       </c>
       <c r="F91" s="3">
-        <v>-372100</v>
+        <v>-375400</v>
       </c>
       <c r="G91" s="3">
-        <v>-347300</v>
+        <v>-350400</v>
       </c>
       <c r="H91" s="3">
-        <v>-408200</v>
+        <v>-411800</v>
       </c>
       <c r="I91" s="3">
-        <v>-393400</v>
+        <v>-396800</v>
       </c>
       <c r="J91" s="3">
-        <v>-231500</v>
+        <v>-233500</v>
       </c>
       <c r="K91" s="3">
         <v>-192800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1270900</v>
+        <v>-1282000</v>
       </c>
       <c r="E94" s="3">
-        <v>-539700</v>
+        <v>-544400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1327800</v>
+        <v>-1361200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3500900</v>
+        <v>-3531600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1273600</v>
+        <v>-1284700</v>
       </c>
       <c r="I94" s="3">
-        <v>-17800</v>
+        <v>-18000</v>
       </c>
       <c r="J94" s="3">
-        <v>-404400</v>
+        <v>-408000</v>
       </c>
       <c r="K94" s="3">
         <v>-1256400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1455600</v>
+        <v>-1468300</v>
       </c>
       <c r="E96" s="3">
-        <v>-655600</v>
+        <v>-661300</v>
       </c>
       <c r="F96" s="3">
-        <v>-567300</v>
+        <v>-572300</v>
       </c>
       <c r="G96" s="3">
-        <v>-489600</v>
+        <v>-493800</v>
       </c>
       <c r="H96" s="3">
-        <v>-331900</v>
+        <v>-334800</v>
       </c>
       <c r="I96" s="3">
-        <v>-294200</v>
+        <v>-296800</v>
       </c>
       <c r="J96" s="3">
-        <v>-237300</v>
+        <v>-239300</v>
       </c>
       <c r="K96" s="3">
         <v>-211900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1880100</v>
+        <v>-1896500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1893300</v>
+        <v>-1909800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1327600</v>
+        <v>-1339200</v>
       </c>
       <c r="G100" s="3">
-        <v>2156100</v>
+        <v>2174900</v>
       </c>
       <c r="H100" s="3">
-        <v>-915700</v>
+        <v>-923700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1019400</v>
+        <v>-1028300</v>
       </c>
       <c r="J100" s="3">
-        <v>-124200</v>
+        <v>-125300</v>
       </c>
       <c r="K100" s="3">
         <v>-612100</v>
@@ -3466,22 +3466,22 @@
         <v>5100</v>
       </c>
       <c r="E101" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F101" s="3">
-        <v>-30900</v>
+        <v>-31100</v>
       </c>
       <c r="G101" s="3">
         <v>7800</v>
       </c>
       <c r="H101" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="J101" s="3">
-        <v>-10600</v>
+        <v>-10700</v>
       </c>
       <c r="K101" s="3">
         <v>-2500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>451500</v>
+        <v>455400</v>
       </c>
       <c r="E102" s="3">
-        <v>946600</v>
+        <v>954900</v>
       </c>
       <c r="F102" s="3">
-        <v>-711400</v>
+        <v>-717600</v>
       </c>
       <c r="G102" s="3">
-        <v>492100</v>
+        <v>496400</v>
       </c>
       <c r="H102" s="3">
-        <v>43100</v>
+        <v>43500</v>
       </c>
       <c r="I102" s="3">
-        <v>97500</v>
+        <v>98300</v>
       </c>
       <c r="J102" s="3">
-        <v>618300</v>
+        <v>623700</v>
       </c>
       <c r="K102" s="3">
         <v>-1081800</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13091800</v>
+        <v>13981900</v>
       </c>
       <c r="E8" s="3">
-        <v>12121600</v>
+        <v>12945700</v>
       </c>
       <c r="F8" s="3">
-        <v>9927100</v>
+        <v>10602000</v>
       </c>
       <c r="G8" s="3">
-        <v>7614900</v>
+        <v>8132600</v>
       </c>
       <c r="H8" s="3">
-        <v>6963900</v>
+        <v>7437300</v>
       </c>
       <c r="I8" s="3">
-        <v>6486400</v>
+        <v>6927400</v>
       </c>
       <c r="J8" s="3">
-        <v>5809700</v>
+        <v>6204700</v>
       </c>
       <c r="K8" s="3">
         <v>5308800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7243900</v>
+        <v>7736400</v>
       </c>
       <c r="E9" s="3">
-        <v>6551200</v>
+        <v>6996600</v>
       </c>
       <c r="F9" s="3">
-        <v>5474300</v>
+        <v>5846500</v>
       </c>
       <c r="G9" s="3">
-        <v>4131100</v>
+        <v>4412000</v>
       </c>
       <c r="H9" s="3">
-        <v>3756600</v>
+        <v>4012000</v>
       </c>
       <c r="I9" s="3">
-        <v>3610700</v>
+        <v>3856100</v>
       </c>
       <c r="J9" s="3">
-        <v>3398200</v>
+        <v>3629200</v>
       </c>
       <c r="K9" s="3">
         <v>3058900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5847900</v>
+        <v>6245500</v>
       </c>
       <c r="E10" s="3">
-        <v>5570300</v>
+        <v>5949000</v>
       </c>
       <c r="F10" s="3">
-        <v>4452800</v>
+        <v>4755500</v>
       </c>
       <c r="G10" s="3">
-        <v>3483700</v>
+        <v>3720600</v>
       </c>
       <c r="H10" s="3">
-        <v>3207300</v>
+        <v>3425400</v>
       </c>
       <c r="I10" s="3">
-        <v>2875700</v>
+        <v>3071300</v>
       </c>
       <c r="J10" s="3">
-        <v>2411500</v>
+        <v>2575500</v>
       </c>
       <c r="K10" s="3">
         <v>2249900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2042200</v>
+        <v>2181000</v>
       </c>
       <c r="E12" s="3">
-        <v>1626700</v>
+        <v>1737300</v>
       </c>
       <c r="F12" s="3">
-        <v>1280300</v>
+        <v>1367300</v>
       </c>
       <c r="G12" s="3">
-        <v>1137000</v>
+        <v>1214200</v>
       </c>
       <c r="H12" s="3">
-        <v>1158900</v>
+        <v>1237600</v>
       </c>
       <c r="I12" s="3">
-        <v>1147200</v>
+        <v>1225200</v>
       </c>
       <c r="J12" s="3">
-        <v>930100</v>
+        <v>993300</v>
       </c>
       <c r="K12" s="3">
         <v>661100</v>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>163000</v>
+        <v>174100</v>
       </c>
       <c r="E15" s="3">
-        <v>144300</v>
+        <v>154100</v>
       </c>
       <c r="F15" s="3">
-        <v>131000</v>
+        <v>139900</v>
       </c>
       <c r="G15" s="3">
-        <v>118400</v>
+        <v>126500</v>
       </c>
       <c r="H15" s="3">
-        <v>59100</v>
+        <v>63200</v>
       </c>
       <c r="I15" s="3">
-        <v>63800</v>
+        <v>68100</v>
       </c>
       <c r="J15" s="3">
-        <v>59400</v>
+        <v>63400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10000700</v>
+        <v>10680600</v>
       </c>
       <c r="E17" s="3">
-        <v>8837200</v>
+        <v>9438000</v>
       </c>
       <c r="F17" s="3">
-        <v>7224900</v>
+        <v>7716100</v>
       </c>
       <c r="G17" s="3">
-        <v>5667100</v>
+        <v>6052400</v>
       </c>
       <c r="H17" s="3">
-        <v>5230400</v>
+        <v>5585900</v>
       </c>
       <c r="I17" s="3">
-        <v>5066200</v>
+        <v>5410600</v>
       </c>
       <c r="J17" s="3">
-        <v>4649000</v>
+        <v>4965100</v>
       </c>
       <c r="K17" s="3">
         <v>4010900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3091100</v>
+        <v>3301200</v>
       </c>
       <c r="E18" s="3">
-        <v>3284400</v>
+        <v>3507700</v>
       </c>
       <c r="F18" s="3">
-        <v>2702200</v>
+        <v>2885900</v>
       </c>
       <c r="G18" s="3">
-        <v>1947700</v>
+        <v>2080100</v>
       </c>
       <c r="H18" s="3">
-        <v>1733500</v>
+        <v>1851400</v>
       </c>
       <c r="I18" s="3">
-        <v>1420200</v>
+        <v>1516800</v>
       </c>
       <c r="J18" s="3">
-        <v>1160700</v>
+        <v>1239600</v>
       </c>
       <c r="K18" s="3">
         <v>1297900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12800</v>
+        <v>13700</v>
       </c>
       <c r="E20" s="3">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="F20" s="3">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="G20" s="3">
-        <v>79400</v>
+        <v>84800</v>
       </c>
       <c r="H20" s="3">
-        <v>12100</v>
+        <v>12900</v>
       </c>
       <c r="I20" s="3">
-        <v>16100</v>
+        <v>17200</v>
       </c>
       <c r="J20" s="3">
-        <v>-27100</v>
+        <v>-28900</v>
       </c>
       <c r="K20" s="3">
         <v>18600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3597400</v>
+        <v>3845700</v>
       </c>
       <c r="E21" s="3">
-        <v>3764400</v>
+        <v>4023800</v>
       </c>
       <c r="F21" s="3">
-        <v>3285600</v>
+        <v>3513300</v>
       </c>
       <c r="G21" s="3">
-        <v>2417000</v>
+        <v>2584200</v>
       </c>
       <c r="H21" s="3">
-        <v>2069300</v>
+        <v>2212400</v>
       </c>
       <c r="I21" s="3">
-        <v>1715100</v>
+        <v>1833700</v>
       </c>
       <c r="J21" s="3">
-        <v>1380700</v>
+        <v>1476500</v>
       </c>
       <c r="K21" s="3">
         <v>1526400</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40500</v>
+        <v>43300</v>
       </c>
       <c r="E22" s="3">
-        <v>46300</v>
+        <v>49400</v>
       </c>
       <c r="F22" s="3">
-        <v>63700</v>
+        <v>68000</v>
       </c>
       <c r="G22" s="3">
-        <v>42100</v>
+        <v>45000</v>
       </c>
       <c r="H22" s="3">
-        <v>30300</v>
+        <v>32400</v>
       </c>
       <c r="I22" s="3">
-        <v>25600</v>
+        <v>27300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3063400</v>
+        <v>3271700</v>
       </c>
       <c r="E23" s="3">
-        <v>3253000</v>
+        <v>3474200</v>
       </c>
       <c r="F23" s="3">
-        <v>2646500</v>
+        <v>2826400</v>
       </c>
       <c r="G23" s="3">
-        <v>1985000</v>
+        <v>2120000</v>
       </c>
       <c r="H23" s="3">
-        <v>1715300</v>
+        <v>1831900</v>
       </c>
       <c r="I23" s="3">
-        <v>1410700</v>
+        <v>1506600</v>
       </c>
       <c r="J23" s="3">
-        <v>1133600</v>
+        <v>1210700</v>
       </c>
       <c r="K23" s="3">
         <v>1290900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>212300</v>
+        <v>226800</v>
       </c>
       <c r="E24" s="3">
-        <v>389400</v>
+        <v>415900</v>
       </c>
       <c r="F24" s="3">
-        <v>338900</v>
+        <v>362000</v>
       </c>
       <c r="G24" s="3">
-        <v>259600</v>
+        <v>277300</v>
       </c>
       <c r="H24" s="3">
-        <v>178800</v>
+        <v>191000</v>
       </c>
       <c r="I24" s="3">
-        <v>85300</v>
+        <v>91100</v>
       </c>
       <c r="J24" s="3">
-        <v>8800</v>
+        <v>9400</v>
       </c>
       <c r="K24" s="3">
         <v>4800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2851100</v>
+        <v>3044900</v>
       </c>
       <c r="E26" s="3">
-        <v>2863600</v>
+        <v>3058300</v>
       </c>
       <c r="F26" s="3">
-        <v>2307600</v>
+        <v>2464500</v>
       </c>
       <c r="G26" s="3">
-        <v>1725400</v>
+        <v>1842700</v>
       </c>
       <c r="H26" s="3">
-        <v>1536400</v>
+        <v>1640900</v>
       </c>
       <c r="I26" s="3">
-        <v>1325400</v>
+        <v>1415500</v>
       </c>
       <c r="J26" s="3">
-        <v>1124800</v>
+        <v>1201200</v>
       </c>
       <c r="K26" s="3">
         <v>1286200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2871200</v>
+        <v>3066400</v>
       </c>
       <c r="E27" s="3">
-        <v>2870500</v>
+        <v>3065600</v>
       </c>
       <c r="F27" s="3">
-        <v>2289100</v>
+        <v>2444700</v>
       </c>
       <c r="G27" s="3">
-        <v>1725400</v>
+        <v>1842700</v>
       </c>
       <c r="H27" s="3">
-        <v>1536400</v>
+        <v>1640900</v>
       </c>
       <c r="I27" s="3">
-        <v>1325400</v>
+        <v>1415500</v>
       </c>
       <c r="J27" s="3">
-        <v>1124800</v>
+        <v>1201200</v>
       </c>
       <c r="K27" s="3">
         <v>1286200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12800</v>
+        <v>-13700</v>
       </c>
       <c r="E32" s="3">
-        <v>-15000</v>
+        <v>-16000</v>
       </c>
       <c r="F32" s="3">
-        <v>-8000</v>
+        <v>-8500</v>
       </c>
       <c r="G32" s="3">
-        <v>-79400</v>
+        <v>-84800</v>
       </c>
       <c r="H32" s="3">
-        <v>-12100</v>
+        <v>-12900</v>
       </c>
       <c r="I32" s="3">
-        <v>-16100</v>
+        <v>-17200</v>
       </c>
       <c r="J32" s="3">
-        <v>27100</v>
+        <v>28900</v>
       </c>
       <c r="K32" s="3">
         <v>-18600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2871200</v>
+        <v>3066400</v>
       </c>
       <c r="E33" s="3">
-        <v>2870500</v>
+        <v>3065600</v>
       </c>
       <c r="F33" s="3">
-        <v>2289100</v>
+        <v>2444700</v>
       </c>
       <c r="G33" s="3">
-        <v>1725400</v>
+        <v>1842700</v>
       </c>
       <c r="H33" s="3">
-        <v>1536400</v>
+        <v>1640900</v>
       </c>
       <c r="I33" s="3">
-        <v>1325400</v>
+        <v>1415500</v>
       </c>
       <c r="J33" s="3">
-        <v>1124800</v>
+        <v>1201200</v>
       </c>
       <c r="K33" s="3">
         <v>1286200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2871200</v>
+        <v>3066400</v>
       </c>
       <c r="E35" s="3">
-        <v>2870500</v>
+        <v>3065600</v>
       </c>
       <c r="F35" s="3">
-        <v>2289100</v>
+        <v>2444700</v>
       </c>
       <c r="G35" s="3">
-        <v>1725400</v>
+        <v>1842700</v>
       </c>
       <c r="H35" s="3">
-        <v>1536400</v>
+        <v>1640900</v>
       </c>
       <c r="I35" s="3">
-        <v>1325400</v>
+        <v>1415500</v>
       </c>
       <c r="J35" s="3">
-        <v>1124800</v>
+        <v>1201200</v>
       </c>
       <c r="K35" s="3">
         <v>1286200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3920100</v>
+        <v>4178400</v>
       </c>
       <c r="E41" s="3">
-        <v>3463800</v>
+        <v>3691900</v>
       </c>
       <c r="F41" s="3">
-        <v>2507000</v>
+        <v>2672200</v>
       </c>
       <c r="G41" s="3">
-        <v>3226000</v>
+        <v>3438500</v>
       </c>
       <c r="H41" s="3">
-        <v>2728700</v>
+        <v>2908400</v>
       </c>
       <c r="I41" s="3">
-        <v>2685100</v>
+        <v>2862000</v>
       </c>
       <c r="J41" s="3">
-        <v>2586600</v>
+        <v>2757000</v>
       </c>
       <c r="K41" s="3">
         <v>1983200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1316000</v>
+        <v>1402700</v>
       </c>
       <c r="E42" s="3">
-        <v>1013600</v>
+        <v>1080300</v>
       </c>
       <c r="F42" s="3">
-        <v>1142300</v>
+        <v>1217600</v>
       </c>
       <c r="G42" s="3">
-        <v>1276300</v>
+        <v>1360300</v>
       </c>
       <c r="H42" s="3">
-        <v>1054300</v>
+        <v>1123800</v>
       </c>
       <c r="I42" s="3">
-        <v>371600</v>
+        <v>396100</v>
       </c>
       <c r="J42" s="3">
-        <v>754500</v>
+        <v>804200</v>
       </c>
       <c r="K42" s="3">
         <v>1043500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3163500</v>
+        <v>3371900</v>
       </c>
       <c r="E43" s="3">
-        <v>2664500</v>
+        <v>2840000</v>
       </c>
       <c r="F43" s="3">
-        <v>2440100</v>
+        <v>2600800</v>
       </c>
       <c r="G43" s="3">
-        <v>1354800</v>
+        <v>1444100</v>
       </c>
       <c r="H43" s="3">
-        <v>1292500</v>
+        <v>1377600</v>
       </c>
       <c r="I43" s="3">
-        <v>1480000</v>
+        <v>1577500</v>
       </c>
       <c r="J43" s="3">
-        <v>1320500</v>
+        <v>1407500</v>
       </c>
       <c r="K43" s="3">
         <v>1788300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4227500</v>
+        <v>4505900</v>
       </c>
       <c r="E44" s="3">
-        <v>3817200</v>
+        <v>4068600</v>
       </c>
       <c r="F44" s="3">
-        <v>3280100</v>
+        <v>3496200</v>
       </c>
       <c r="G44" s="3">
-        <v>3086200</v>
+        <v>3289500</v>
       </c>
       <c r="H44" s="3">
-        <v>2856300</v>
+        <v>3044500</v>
       </c>
       <c r="I44" s="3">
-        <v>2829800</v>
+        <v>3016200</v>
       </c>
       <c r="J44" s="3">
-        <v>2655800</v>
+        <v>2830700</v>
       </c>
       <c r="K44" s="3">
         <v>4167000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>836000</v>
+        <v>891100</v>
       </c>
       <c r="E45" s="3">
-        <v>728700</v>
+        <v>776700</v>
       </c>
       <c r="F45" s="3">
-        <v>491900</v>
+        <v>524300</v>
       </c>
       <c r="G45" s="3">
-        <v>553700</v>
+        <v>590200</v>
       </c>
       <c r="H45" s="3">
-        <v>622200</v>
+        <v>663200</v>
       </c>
       <c r="I45" s="3">
-        <v>564300</v>
+        <v>601400</v>
       </c>
       <c r="J45" s="3">
-        <v>479600</v>
+        <v>511200</v>
       </c>
       <c r="K45" s="3">
         <v>600000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13463100</v>
+        <v>14349900</v>
       </c>
       <c r="E46" s="3">
-        <v>11687700</v>
+        <v>12457600</v>
       </c>
       <c r="F46" s="3">
-        <v>9861500</v>
+        <v>10511000</v>
       </c>
       <c r="G46" s="3">
-        <v>9497000</v>
+        <v>10122600</v>
       </c>
       <c r="H46" s="3">
-        <v>8554000</v>
+        <v>9117400</v>
       </c>
       <c r="I46" s="3">
-        <v>7930900</v>
+        <v>8453200</v>
       </c>
       <c r="J46" s="3">
-        <v>7797000</v>
+        <v>8310600</v>
       </c>
       <c r="K46" s="3">
         <v>6543300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1467000</v>
+        <v>1563700</v>
       </c>
       <c r="E47" s="3">
-        <v>1488900</v>
+        <v>1587000</v>
       </c>
       <c r="F47" s="3">
-        <v>1266900</v>
+        <v>1350400</v>
       </c>
       <c r="G47" s="3">
-        <v>136100</v>
+        <v>145100</v>
       </c>
       <c r="H47" s="3">
-        <v>143700</v>
+        <v>153200</v>
       </c>
       <c r="I47" s="3">
-        <v>67400</v>
+        <v>71800</v>
       </c>
       <c r="J47" s="3">
-        <v>57100</v>
+        <v>60900</v>
       </c>
       <c r="K47" s="3">
         <v>43300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2578300</v>
+        <v>2748100</v>
       </c>
       <c r="E48" s="3">
-        <v>1916700</v>
+        <v>2043000</v>
       </c>
       <c r="F48" s="3">
-        <v>1902800</v>
+        <v>2028100</v>
       </c>
       <c r="G48" s="3">
-        <v>1872500</v>
+        <v>1995800</v>
       </c>
       <c r="H48" s="3">
-        <v>1798600</v>
+        <v>1917100</v>
       </c>
       <c r="I48" s="3">
-        <v>1606500</v>
+        <v>1712300</v>
       </c>
       <c r="J48" s="3">
-        <v>1351600</v>
+        <v>1440600</v>
       </c>
       <c r="K48" s="3">
         <v>2311100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6265400</v>
+        <v>6678100</v>
       </c>
       <c r="E49" s="3">
-        <v>6264900</v>
+        <v>6677600</v>
       </c>
       <c r="F49" s="3">
-        <v>6333700</v>
+        <v>6750900</v>
       </c>
       <c r="G49" s="3">
-        <v>6877200</v>
+        <v>7330200</v>
       </c>
       <c r="H49" s="3">
-        <v>3731900</v>
+        <v>3977800</v>
       </c>
       <c r="I49" s="3">
-        <v>3419700</v>
+        <v>3645000</v>
       </c>
       <c r="J49" s="3">
-        <v>3092200</v>
+        <v>3295800</v>
       </c>
       <c r="K49" s="3">
         <v>189700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1340500</v>
+        <v>1428800</v>
       </c>
       <c r="E52" s="3">
-        <v>989600</v>
+        <v>1054800</v>
       </c>
       <c r="F52" s="3">
-        <v>821100</v>
+        <v>875200</v>
       </c>
       <c r="G52" s="3">
-        <v>712300</v>
+        <v>759200</v>
       </c>
       <c r="H52" s="3">
-        <v>526500</v>
+        <v>561200</v>
       </c>
       <c r="I52" s="3">
-        <v>519500</v>
+        <v>553800</v>
       </c>
       <c r="J52" s="3">
-        <v>480100</v>
+        <v>511800</v>
       </c>
       <c r="K52" s="3">
         <v>393800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25114300</v>
+        <v>26768600</v>
       </c>
       <c r="E54" s="3">
-        <v>22347900</v>
+        <v>23819900</v>
       </c>
       <c r="F54" s="3">
-        <v>20186000</v>
+        <v>21515600</v>
       </c>
       <c r="G54" s="3">
-        <v>19095200</v>
+        <v>20352900</v>
       </c>
       <c r="H54" s="3">
-        <v>14754800</v>
+        <v>15726700</v>
       </c>
       <c r="I54" s="3">
-        <v>13543900</v>
+        <v>14436000</v>
       </c>
       <c r="J54" s="3">
-        <v>12777900</v>
+        <v>13619600</v>
       </c>
       <c r="K54" s="3">
         <v>8314500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1178800</v>
+        <v>1256500</v>
       </c>
       <c r="E57" s="3">
-        <v>1069800</v>
+        <v>1140300</v>
       </c>
       <c r="F57" s="3">
-        <v>929200</v>
+        <v>990400</v>
       </c>
       <c r="G57" s="3">
-        <v>658300</v>
+        <v>701700</v>
       </c>
       <c r="H57" s="3">
-        <v>464900</v>
+        <v>495500</v>
       </c>
       <c r="I57" s="3">
-        <v>550700</v>
+        <v>587000</v>
       </c>
       <c r="J57" s="3">
-        <v>694600</v>
+        <v>740300</v>
       </c>
       <c r="K57" s="3">
         <v>212000</v>
@@ -2183,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>28000</v>
+        <v>29800</v>
       </c>
       <c r="G58" s="3">
-        <v>274900</v>
+        <v>293000</v>
       </c>
       <c r="H58" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="I58" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="J58" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="K58" s="3">
         <v>4100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4030700</v>
+        <v>4296200</v>
       </c>
       <c r="E59" s="3">
-        <v>3138400</v>
+        <v>3345100</v>
       </c>
       <c r="F59" s="3">
-        <v>5143800</v>
+        <v>5482600</v>
       </c>
       <c r="G59" s="3">
-        <v>2707600</v>
+        <v>2886000</v>
       </c>
       <c r="H59" s="3">
-        <v>2978800</v>
+        <v>3175000</v>
       </c>
       <c r="I59" s="3">
-        <v>2650600</v>
+        <v>2825200</v>
       </c>
       <c r="J59" s="3">
-        <v>2484200</v>
+        <v>2647800</v>
       </c>
       <c r="K59" s="3">
         <v>4465500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5209500</v>
+        <v>5552700</v>
       </c>
       <c r="E60" s="3">
-        <v>4208300</v>
+        <v>4485400</v>
       </c>
       <c r="F60" s="3">
-        <v>3518100</v>
+        <v>3749800</v>
       </c>
       <c r="G60" s="3">
-        <v>3640800</v>
+        <v>3880600</v>
       </c>
       <c r="H60" s="3">
-        <v>3448300</v>
+        <v>3675500</v>
       </c>
       <c r="I60" s="3">
-        <v>3206100</v>
+        <v>3417200</v>
       </c>
       <c r="J60" s="3">
-        <v>3183600</v>
+        <v>3393300</v>
       </c>
       <c r="K60" s="3">
         <v>2340800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3449600</v>
+        <v>3676800</v>
       </c>
       <c r="E61" s="3">
-        <v>3358800</v>
+        <v>3580000</v>
       </c>
       <c r="F61" s="3">
-        <v>3329500</v>
+        <v>3548800</v>
       </c>
       <c r="G61" s="3">
-        <v>3409100</v>
+        <v>3633600</v>
       </c>
       <c r="H61" s="3">
-        <v>1249100</v>
+        <v>1331300</v>
       </c>
       <c r="I61" s="3">
-        <v>1276100</v>
+        <v>1360200</v>
       </c>
       <c r="J61" s="3">
-        <v>1187700</v>
+        <v>1265900</v>
       </c>
       <c r="K61" s="3">
         <v>848100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2480400</v>
+        <v>2643800</v>
       </c>
       <c r="E62" s="3">
-        <v>1861700</v>
+        <v>1984300</v>
       </c>
       <c r="F62" s="3">
-        <v>2322500</v>
+        <v>2475500</v>
       </c>
       <c r="G62" s="3">
-        <v>1146500</v>
+        <v>1222000</v>
       </c>
       <c r="H62" s="3">
-        <v>747500</v>
+        <v>796700</v>
       </c>
       <c r="I62" s="3">
-        <v>724300</v>
+        <v>772000</v>
       </c>
       <c r="J62" s="3">
-        <v>724100</v>
+        <v>771800</v>
       </c>
       <c r="K62" s="3">
         <v>562600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11139500</v>
+        <v>11873200</v>
       </c>
       <c r="E66" s="3">
-        <v>9428700</v>
+        <v>10049800</v>
       </c>
       <c r="F66" s="3">
-        <v>8226400</v>
+        <v>8768200</v>
       </c>
       <c r="G66" s="3">
-        <v>8196400</v>
+        <v>8736300</v>
       </c>
       <c r="H66" s="3">
-        <v>5444900</v>
+        <v>5803500</v>
       </c>
       <c r="I66" s="3">
-        <v>5206500</v>
+        <v>5549400</v>
       </c>
       <c r="J66" s="3">
-        <v>5095400</v>
+        <v>5431100</v>
       </c>
       <c r="K66" s="3">
         <v>3751500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10541100</v>
+        <v>11235400</v>
       </c>
       <c r="E72" s="3">
-        <v>10201400</v>
+        <v>10873300</v>
       </c>
       <c r="F72" s="3">
-        <v>8113200</v>
+        <v>8647600</v>
       </c>
       <c r="G72" s="3">
-        <v>6972300</v>
+        <v>7431500</v>
       </c>
       <c r="H72" s="3">
-        <v>5863900</v>
+        <v>6250100</v>
       </c>
       <c r="I72" s="3">
-        <v>5159000</v>
+        <v>5498800</v>
       </c>
       <c r="J72" s="3">
-        <v>4810100</v>
+        <v>5126900</v>
       </c>
       <c r="K72" s="3">
         <v>4499600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13974800</v>
+        <v>14895300</v>
       </c>
       <c r="E76" s="3">
-        <v>12919200</v>
+        <v>13770100</v>
       </c>
       <c r="F76" s="3">
-        <v>11959600</v>
+        <v>12747400</v>
       </c>
       <c r="G76" s="3">
-        <v>10898800</v>
+        <v>11616600</v>
       </c>
       <c r="H76" s="3">
-        <v>9309900</v>
+        <v>9923100</v>
       </c>
       <c r="I76" s="3">
-        <v>8337500</v>
+        <v>8886600</v>
       </c>
       <c r="J76" s="3">
-        <v>7682500</v>
+        <v>8188500</v>
       </c>
       <c r="K76" s="3">
         <v>4563000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2871200</v>
+        <v>3066400</v>
       </c>
       <c r="E81" s="3">
-        <v>2870500</v>
+        <v>3065600</v>
       </c>
       <c r="F81" s="3">
-        <v>2289100</v>
+        <v>2444700</v>
       </c>
       <c r="G81" s="3">
-        <v>1725400</v>
+        <v>1842700</v>
       </c>
       <c r="H81" s="3">
-        <v>1536400</v>
+        <v>1640900</v>
       </c>
       <c r="I81" s="3">
-        <v>1325400</v>
+        <v>1415500</v>
       </c>
       <c r="J81" s="3">
-        <v>1124800</v>
+        <v>1201200</v>
       </c>
       <c r="K81" s="3">
         <v>1286200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>496800</v>
+        <v>530500</v>
       </c>
       <c r="E83" s="3">
-        <v>468200</v>
+        <v>500000</v>
       </c>
       <c r="F83" s="3">
-        <v>579300</v>
+        <v>618700</v>
       </c>
       <c r="G83" s="3">
-        <v>392400</v>
+        <v>419100</v>
       </c>
       <c r="H83" s="3">
-        <v>325900</v>
+        <v>348000</v>
       </c>
       <c r="I83" s="3">
-        <v>280600</v>
+        <v>299700</v>
       </c>
       <c r="J83" s="3">
-        <v>248800</v>
+        <v>265700</v>
       </c>
       <c r="K83" s="3">
         <v>209400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3628900</v>
+        <v>3875700</v>
       </c>
       <c r="E89" s="3">
-        <v>3403300</v>
+        <v>3634700</v>
       </c>
       <c r="F89" s="3">
-        <v>2013900</v>
+        <v>2150900</v>
       </c>
       <c r="G89" s="3">
-        <v>1845200</v>
+        <v>1970600</v>
       </c>
       <c r="H89" s="3">
-        <v>2243500</v>
+        <v>2396100</v>
       </c>
       <c r="I89" s="3">
-        <v>1135500</v>
+        <v>1212700</v>
       </c>
       <c r="J89" s="3">
-        <v>1167600</v>
+        <v>1247000</v>
       </c>
       <c r="K89" s="3">
         <v>789300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-849100</v>
+        <v>-906800</v>
       </c>
       <c r="E91" s="3">
-        <v>-635800</v>
+        <v>-679000</v>
       </c>
       <c r="F91" s="3">
-        <v>-375400</v>
+        <v>-400900</v>
       </c>
       <c r="G91" s="3">
-        <v>-350400</v>
+        <v>-374200</v>
       </c>
       <c r="H91" s="3">
-        <v>-411800</v>
+        <v>-439800</v>
       </c>
       <c r="I91" s="3">
-        <v>-396800</v>
+        <v>-423800</v>
       </c>
       <c r="J91" s="3">
-        <v>-233500</v>
+        <v>-249400</v>
       </c>
       <c r="K91" s="3">
         <v>-192800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1282000</v>
+        <v>-1369200</v>
       </c>
       <c r="E94" s="3">
-        <v>-544400</v>
+        <v>-581400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1361200</v>
+        <v>-1453800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3531600</v>
+        <v>-3771700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1284700</v>
+        <v>-1372100</v>
       </c>
       <c r="I94" s="3">
-        <v>-18000</v>
+        <v>-19200</v>
       </c>
       <c r="J94" s="3">
-        <v>-408000</v>
+        <v>-435700</v>
       </c>
       <c r="K94" s="3">
         <v>-1256400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1468300</v>
+        <v>-1568200</v>
       </c>
       <c r="E96" s="3">
-        <v>-661300</v>
+        <v>-706300</v>
       </c>
       <c r="F96" s="3">
-        <v>-572300</v>
+        <v>-611200</v>
       </c>
       <c r="G96" s="3">
-        <v>-493800</v>
+        <v>-527400</v>
       </c>
       <c r="H96" s="3">
-        <v>-334800</v>
+        <v>-357600</v>
       </c>
       <c r="I96" s="3">
-        <v>-296800</v>
+        <v>-317000</v>
       </c>
       <c r="J96" s="3">
-        <v>-239300</v>
+        <v>-255600</v>
       </c>
       <c r="K96" s="3">
         <v>-211900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1896500</v>
+        <v>-2025500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1909800</v>
+        <v>-2039700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1339200</v>
+        <v>-1430200</v>
       </c>
       <c r="G100" s="3">
-        <v>2174900</v>
+        <v>2322800</v>
       </c>
       <c r="H100" s="3">
-        <v>-923700</v>
+        <v>-986500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1028300</v>
+        <v>-1098300</v>
       </c>
       <c r="J100" s="3">
-        <v>-125300</v>
+        <v>-133800</v>
       </c>
       <c r="K100" s="3">
         <v>-612100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="E101" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>-31100</v>
+        <v>-33200</v>
       </c>
       <c r="G101" s="3">
-        <v>7800</v>
+        <v>8400</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>8900</v>
       </c>
       <c r="I101" s="3">
-        <v>9100</v>
+        <v>9700</v>
       </c>
       <c r="J101" s="3">
-        <v>-10700</v>
+        <v>-11400</v>
       </c>
       <c r="K101" s="3">
         <v>-2500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>455400</v>
+        <v>486400</v>
       </c>
       <c r="E102" s="3">
-        <v>954900</v>
+        <v>1019800</v>
       </c>
       <c r="F102" s="3">
-        <v>-717600</v>
+        <v>-766400</v>
       </c>
       <c r="G102" s="3">
-        <v>496400</v>
+        <v>530100</v>
       </c>
       <c r="H102" s="3">
-        <v>43500</v>
+        <v>46400</v>
       </c>
       <c r="I102" s="3">
-        <v>98300</v>
+        <v>105000</v>
       </c>
       <c r="J102" s="3">
-        <v>623700</v>
+        <v>666100</v>
       </c>
       <c r="K102" s="3">
         <v>-1081800</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13981900</v>
+        <v>14139100</v>
       </c>
       <c r="E8" s="3">
-        <v>12945700</v>
+        <v>13091200</v>
       </c>
       <c r="F8" s="3">
-        <v>10602000</v>
+        <v>10721200</v>
       </c>
       <c r="G8" s="3">
-        <v>8132600</v>
+        <v>8224000</v>
       </c>
       <c r="H8" s="3">
-        <v>7437300</v>
+        <v>7521000</v>
       </c>
       <c r="I8" s="3">
-        <v>6927400</v>
+        <v>7005300</v>
       </c>
       <c r="J8" s="3">
-        <v>6204700</v>
+        <v>6274500</v>
       </c>
       <c r="K8" s="3">
         <v>5308800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7736400</v>
+        <v>7823400</v>
       </c>
       <c r="E9" s="3">
-        <v>6996600</v>
+        <v>7075300</v>
       </c>
       <c r="F9" s="3">
-        <v>5846500</v>
+        <v>5912200</v>
       </c>
       <c r="G9" s="3">
-        <v>4412000</v>
+        <v>4461600</v>
       </c>
       <c r="H9" s="3">
-        <v>4012000</v>
+        <v>4057100</v>
       </c>
       <c r="I9" s="3">
-        <v>3856100</v>
+        <v>3899500</v>
       </c>
       <c r="J9" s="3">
-        <v>3629200</v>
+        <v>3670000</v>
       </c>
       <c r="K9" s="3">
         <v>3058900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6245500</v>
+        <v>6315700</v>
       </c>
       <c r="E10" s="3">
-        <v>5949000</v>
+        <v>6015900</v>
       </c>
       <c r="F10" s="3">
-        <v>4755500</v>
+        <v>4809000</v>
       </c>
       <c r="G10" s="3">
-        <v>3720600</v>
+        <v>3762400</v>
       </c>
       <c r="H10" s="3">
-        <v>3425400</v>
+        <v>3463900</v>
       </c>
       <c r="I10" s="3">
-        <v>3071300</v>
+        <v>3105800</v>
       </c>
       <c r="J10" s="3">
-        <v>2575500</v>
+        <v>2604400</v>
       </c>
       <c r="K10" s="3">
         <v>2249900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2181000</v>
+        <v>2205600</v>
       </c>
       <c r="E12" s="3">
-        <v>1737300</v>
+        <v>1756900</v>
       </c>
       <c r="F12" s="3">
-        <v>1367300</v>
+        <v>1382700</v>
       </c>
       <c r="G12" s="3">
-        <v>1214200</v>
+        <v>1227900</v>
       </c>
       <c r="H12" s="3">
-        <v>1237600</v>
+        <v>1251600</v>
       </c>
       <c r="I12" s="3">
-        <v>1225200</v>
+        <v>1238900</v>
       </c>
       <c r="J12" s="3">
-        <v>993300</v>
+        <v>1004500</v>
       </c>
       <c r="K12" s="3">
         <v>661100</v>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>174100</v>
+        <v>176100</v>
       </c>
       <c r="E15" s="3">
-        <v>154100</v>
+        <v>155900</v>
       </c>
       <c r="F15" s="3">
-        <v>139900</v>
+        <v>141500</v>
       </c>
       <c r="G15" s="3">
-        <v>126500</v>
+        <v>127900</v>
       </c>
       <c r="H15" s="3">
-        <v>63200</v>
+        <v>63900</v>
       </c>
       <c r="I15" s="3">
-        <v>68100</v>
+        <v>68900</v>
       </c>
       <c r="J15" s="3">
-        <v>63400</v>
+        <v>64100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10680600</v>
+        <v>10800700</v>
       </c>
       <c r="E17" s="3">
-        <v>9438000</v>
+        <v>9544100</v>
       </c>
       <c r="F17" s="3">
-        <v>7716100</v>
+        <v>7802800</v>
       </c>
       <c r="G17" s="3">
-        <v>6052400</v>
+        <v>6120500</v>
       </c>
       <c r="H17" s="3">
-        <v>5585900</v>
+        <v>5648700</v>
       </c>
       <c r="I17" s="3">
-        <v>5410600</v>
+        <v>5471500</v>
       </c>
       <c r="J17" s="3">
-        <v>4965100</v>
+        <v>5020900</v>
       </c>
       <c r="K17" s="3">
         <v>4010900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3301200</v>
+        <v>3338400</v>
       </c>
       <c r="E18" s="3">
-        <v>3507700</v>
+        <v>3547100</v>
       </c>
       <c r="F18" s="3">
-        <v>2885900</v>
+        <v>2918400</v>
       </c>
       <c r="G18" s="3">
-        <v>2080100</v>
+        <v>2103500</v>
       </c>
       <c r="H18" s="3">
-        <v>1851400</v>
+        <v>1872200</v>
       </c>
       <c r="I18" s="3">
-        <v>1516800</v>
+        <v>1533800</v>
       </c>
       <c r="J18" s="3">
-        <v>1239600</v>
+        <v>1253600</v>
       </c>
       <c r="K18" s="3">
         <v>1297900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="E20" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="F20" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G20" s="3">
-        <v>84800</v>
+        <v>85800</v>
       </c>
       <c r="H20" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="I20" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="J20" s="3">
-        <v>-28900</v>
+        <v>-29300</v>
       </c>
       <c r="K20" s="3">
         <v>18600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3845700</v>
+        <v>3886500</v>
       </c>
       <c r="E21" s="3">
-        <v>4023800</v>
+        <v>4066800</v>
       </c>
       <c r="F21" s="3">
-        <v>3513300</v>
+        <v>3550000</v>
       </c>
       <c r="G21" s="3">
-        <v>2584200</v>
+        <v>2611400</v>
       </c>
       <c r="H21" s="3">
-        <v>2212400</v>
+        <v>2235700</v>
       </c>
       <c r="I21" s="3">
-        <v>1833700</v>
+        <v>1853000</v>
       </c>
       <c r="J21" s="3">
-        <v>1476500</v>
+        <v>1491900</v>
       </c>
       <c r="K21" s="3">
         <v>1526400</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43300</v>
+        <v>43800</v>
       </c>
       <c r="E22" s="3">
-        <v>49400</v>
+        <v>50000</v>
       </c>
       <c r="F22" s="3">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="G22" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="H22" s="3">
-        <v>32400</v>
+        <v>32800</v>
       </c>
       <c r="I22" s="3">
-        <v>27300</v>
+        <v>27600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3271700</v>
+        <v>3308400</v>
       </c>
       <c r="E23" s="3">
-        <v>3474200</v>
+        <v>3513200</v>
       </c>
       <c r="F23" s="3">
-        <v>2826400</v>
+        <v>2858200</v>
       </c>
       <c r="G23" s="3">
-        <v>2120000</v>
+        <v>2143800</v>
       </c>
       <c r="H23" s="3">
-        <v>1831900</v>
+        <v>1852500</v>
       </c>
       <c r="I23" s="3">
-        <v>1506600</v>
+        <v>1523500</v>
       </c>
       <c r="J23" s="3">
-        <v>1210700</v>
+        <v>1224300</v>
       </c>
       <c r="K23" s="3">
         <v>1290900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>226800</v>
+        <v>229300</v>
       </c>
       <c r="E24" s="3">
-        <v>415900</v>
+        <v>420600</v>
       </c>
       <c r="F24" s="3">
-        <v>362000</v>
+        <v>366000</v>
       </c>
       <c r="G24" s="3">
-        <v>277300</v>
+        <v>280400</v>
       </c>
       <c r="H24" s="3">
-        <v>191000</v>
+        <v>193100</v>
       </c>
       <c r="I24" s="3">
-        <v>91100</v>
+        <v>92100</v>
       </c>
       <c r="J24" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="K24" s="3">
         <v>4800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3044900</v>
+        <v>3079100</v>
       </c>
       <c r="E26" s="3">
-        <v>3058300</v>
+        <v>3092700</v>
       </c>
       <c r="F26" s="3">
-        <v>2464500</v>
+        <v>2492200</v>
       </c>
       <c r="G26" s="3">
-        <v>1842700</v>
+        <v>1863400</v>
       </c>
       <c r="H26" s="3">
-        <v>1640900</v>
+        <v>1659300</v>
       </c>
       <c r="I26" s="3">
-        <v>1415500</v>
+        <v>1431400</v>
       </c>
       <c r="J26" s="3">
-        <v>1201200</v>
+        <v>1214700</v>
       </c>
       <c r="K26" s="3">
         <v>1286200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3066400</v>
+        <v>3100900</v>
       </c>
       <c r="E27" s="3">
-        <v>3065600</v>
+        <v>3100100</v>
       </c>
       <c r="F27" s="3">
-        <v>2444700</v>
+        <v>2472200</v>
       </c>
       <c r="G27" s="3">
-        <v>1842700</v>
+        <v>1863400</v>
       </c>
       <c r="H27" s="3">
-        <v>1640900</v>
+        <v>1659300</v>
       </c>
       <c r="I27" s="3">
-        <v>1415500</v>
+        <v>1431400</v>
       </c>
       <c r="J27" s="3">
-        <v>1201200</v>
+        <v>1214700</v>
       </c>
       <c r="K27" s="3">
         <v>1286200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13700</v>
+        <v>-13900</v>
       </c>
       <c r="E32" s="3">
-        <v>-16000</v>
+        <v>-16100</v>
       </c>
       <c r="F32" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="G32" s="3">
-        <v>-84800</v>
+        <v>-85800</v>
       </c>
       <c r="H32" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="I32" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="J32" s="3">
-        <v>28900</v>
+        <v>29300</v>
       </c>
       <c r="K32" s="3">
         <v>-18600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3066400</v>
+        <v>3100900</v>
       </c>
       <c r="E33" s="3">
-        <v>3065600</v>
+        <v>3100100</v>
       </c>
       <c r="F33" s="3">
-        <v>2444700</v>
+        <v>2472200</v>
       </c>
       <c r="G33" s="3">
-        <v>1842700</v>
+        <v>1863400</v>
       </c>
       <c r="H33" s="3">
-        <v>1640900</v>
+        <v>1659300</v>
       </c>
       <c r="I33" s="3">
-        <v>1415500</v>
+        <v>1431400</v>
       </c>
       <c r="J33" s="3">
-        <v>1201200</v>
+        <v>1214700</v>
       </c>
       <c r="K33" s="3">
         <v>1286200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3066400</v>
+        <v>3100900</v>
       </c>
       <c r="E35" s="3">
-        <v>3065600</v>
+        <v>3100100</v>
       </c>
       <c r="F35" s="3">
-        <v>2444700</v>
+        <v>2472200</v>
       </c>
       <c r="G35" s="3">
-        <v>1842700</v>
+        <v>1863400</v>
       </c>
       <c r="H35" s="3">
-        <v>1640900</v>
+        <v>1659300</v>
       </c>
       <c r="I35" s="3">
-        <v>1415500</v>
+        <v>1431400</v>
       </c>
       <c r="J35" s="3">
-        <v>1201200</v>
+        <v>1214700</v>
       </c>
       <c r="K35" s="3">
         <v>1286200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4178400</v>
+        <v>4225300</v>
       </c>
       <c r="E41" s="3">
-        <v>3691900</v>
+        <v>3733500</v>
       </c>
       <c r="F41" s="3">
-        <v>2672200</v>
+        <v>2702200</v>
       </c>
       <c r="G41" s="3">
-        <v>3438500</v>
+        <v>3477200</v>
       </c>
       <c r="H41" s="3">
-        <v>2908400</v>
+        <v>2941100</v>
       </c>
       <c r="I41" s="3">
-        <v>2862000</v>
+        <v>2894200</v>
       </c>
       <c r="J41" s="3">
-        <v>2757000</v>
+        <v>2788000</v>
       </c>
       <c r="K41" s="3">
         <v>1983200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1402700</v>
+        <v>1418500</v>
       </c>
       <c r="E42" s="3">
-        <v>1080300</v>
+        <v>1092500</v>
       </c>
       <c r="F42" s="3">
-        <v>1217600</v>
+        <v>1231200</v>
       </c>
       <c r="G42" s="3">
-        <v>1360300</v>
+        <v>1375600</v>
       </c>
       <c r="H42" s="3">
-        <v>1123800</v>
+        <v>1136400</v>
       </c>
       <c r="I42" s="3">
-        <v>396100</v>
+        <v>400600</v>
       </c>
       <c r="J42" s="3">
-        <v>804200</v>
+        <v>813300</v>
       </c>
       <c r="K42" s="3">
         <v>1043500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3371900</v>
+        <v>3409800</v>
       </c>
       <c r="E43" s="3">
-        <v>2840000</v>
+        <v>2872000</v>
       </c>
       <c r="F43" s="3">
-        <v>2600800</v>
+        <v>2630100</v>
       </c>
       <c r="G43" s="3">
-        <v>1444100</v>
+        <v>1460300</v>
       </c>
       <c r="H43" s="3">
-        <v>1377600</v>
+        <v>1393100</v>
       </c>
       <c r="I43" s="3">
-        <v>1577500</v>
+        <v>1595200</v>
       </c>
       <c r="J43" s="3">
-        <v>1407500</v>
+        <v>1423300</v>
       </c>
       <c r="K43" s="3">
         <v>1788300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4505900</v>
+        <v>4556600</v>
       </c>
       <c r="E44" s="3">
-        <v>4068600</v>
+        <v>4114300</v>
       </c>
       <c r="F44" s="3">
-        <v>3496200</v>
+        <v>3535500</v>
       </c>
       <c r="G44" s="3">
-        <v>3289500</v>
+        <v>3326500</v>
       </c>
       <c r="H44" s="3">
-        <v>3044500</v>
+        <v>3078700</v>
       </c>
       <c r="I44" s="3">
-        <v>3016200</v>
+        <v>3050100</v>
       </c>
       <c r="J44" s="3">
-        <v>2830700</v>
+        <v>2862500</v>
       </c>
       <c r="K44" s="3">
         <v>4167000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>891100</v>
+        <v>901100</v>
       </c>
       <c r="E45" s="3">
-        <v>776700</v>
+        <v>785400</v>
       </c>
       <c r="F45" s="3">
-        <v>524300</v>
+        <v>530200</v>
       </c>
       <c r="G45" s="3">
-        <v>590200</v>
+        <v>596800</v>
       </c>
       <c r="H45" s="3">
-        <v>663200</v>
+        <v>670600</v>
       </c>
       <c r="I45" s="3">
-        <v>601400</v>
+        <v>608200</v>
       </c>
       <c r="J45" s="3">
-        <v>511200</v>
+        <v>516900</v>
       </c>
       <c r="K45" s="3">
         <v>600000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14349900</v>
+        <v>14511200</v>
       </c>
       <c r="E46" s="3">
-        <v>12457600</v>
+        <v>12597700</v>
       </c>
       <c r="F46" s="3">
-        <v>10511000</v>
+        <v>10629200</v>
       </c>
       <c r="G46" s="3">
-        <v>10122600</v>
+        <v>10236400</v>
       </c>
       <c r="H46" s="3">
-        <v>9117400</v>
+        <v>9220000</v>
       </c>
       <c r="I46" s="3">
-        <v>8453200</v>
+        <v>8548300</v>
       </c>
       <c r="J46" s="3">
-        <v>8310600</v>
+        <v>8404000</v>
       </c>
       <c r="K46" s="3">
         <v>6543300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1563700</v>
+        <v>1581300</v>
       </c>
       <c r="E47" s="3">
-        <v>1587000</v>
+        <v>1604800</v>
       </c>
       <c r="F47" s="3">
-        <v>1350400</v>
+        <v>1365600</v>
       </c>
       <c r="G47" s="3">
-        <v>145100</v>
+        <v>146700</v>
       </c>
       <c r="H47" s="3">
-        <v>153200</v>
+        <v>154900</v>
       </c>
       <c r="I47" s="3">
-        <v>71800</v>
+        <v>72600</v>
       </c>
       <c r="J47" s="3">
-        <v>60900</v>
+        <v>61600</v>
       </c>
       <c r="K47" s="3">
         <v>43300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2748100</v>
+        <v>2779000</v>
       </c>
       <c r="E48" s="3">
-        <v>2043000</v>
+        <v>2066000</v>
       </c>
       <c r="F48" s="3">
-        <v>2028100</v>
+        <v>2050900</v>
       </c>
       <c r="G48" s="3">
-        <v>1995800</v>
+        <v>2018300</v>
       </c>
       <c r="H48" s="3">
-        <v>1917100</v>
+        <v>1938700</v>
       </c>
       <c r="I48" s="3">
-        <v>1712300</v>
+        <v>1731500</v>
       </c>
       <c r="J48" s="3">
-        <v>1440600</v>
+        <v>1456800</v>
       </c>
       <c r="K48" s="3">
         <v>2311100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6678100</v>
+        <v>6753100</v>
       </c>
       <c r="E49" s="3">
-        <v>6677600</v>
+        <v>6752700</v>
       </c>
       <c r="F49" s="3">
-        <v>6750900</v>
+        <v>6826800</v>
       </c>
       <c r="G49" s="3">
-        <v>7330200</v>
+        <v>7412600</v>
       </c>
       <c r="H49" s="3">
-        <v>3977800</v>
+        <v>4022500</v>
       </c>
       <c r="I49" s="3">
-        <v>3645000</v>
+        <v>3685900</v>
       </c>
       <c r="J49" s="3">
-        <v>3295800</v>
+        <v>3332900</v>
       </c>
       <c r="K49" s="3">
         <v>189700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1428800</v>
+        <v>1444900</v>
       </c>
       <c r="E52" s="3">
-        <v>1054800</v>
+        <v>1066700</v>
       </c>
       <c r="F52" s="3">
-        <v>875200</v>
+        <v>885100</v>
       </c>
       <c r="G52" s="3">
-        <v>759200</v>
+        <v>767700</v>
       </c>
       <c r="H52" s="3">
-        <v>561200</v>
+        <v>567500</v>
       </c>
       <c r="I52" s="3">
-        <v>553800</v>
+        <v>560000</v>
       </c>
       <c r="J52" s="3">
-        <v>511800</v>
+        <v>517500</v>
       </c>
       <c r="K52" s="3">
         <v>393800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26768600</v>
+        <v>27069500</v>
       </c>
       <c r="E54" s="3">
-        <v>23819900</v>
+        <v>24087800</v>
       </c>
       <c r="F54" s="3">
-        <v>21515600</v>
+        <v>21757600</v>
       </c>
       <c r="G54" s="3">
-        <v>20352900</v>
+        <v>20581800</v>
       </c>
       <c r="H54" s="3">
-        <v>15726700</v>
+        <v>15903500</v>
       </c>
       <c r="I54" s="3">
-        <v>14436000</v>
+        <v>14598400</v>
       </c>
       <c r="J54" s="3">
-        <v>13619600</v>
+        <v>13772700</v>
       </c>
       <c r="K54" s="3">
         <v>8314500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1256500</v>
+        <v>1270600</v>
       </c>
       <c r="E57" s="3">
-        <v>1140300</v>
+        <v>1153100</v>
       </c>
       <c r="F57" s="3">
-        <v>990400</v>
+        <v>1001600</v>
       </c>
       <c r="G57" s="3">
-        <v>701700</v>
+        <v>709600</v>
       </c>
       <c r="H57" s="3">
-        <v>495500</v>
+        <v>501100</v>
       </c>
       <c r="I57" s="3">
-        <v>587000</v>
+        <v>593600</v>
       </c>
       <c r="J57" s="3">
-        <v>740300</v>
+        <v>748700</v>
       </c>
       <c r="K57" s="3">
         <v>212000</v>
@@ -2183,16 +2183,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>29800</v>
+        <v>30100</v>
       </c>
       <c r="G58" s="3">
-        <v>293000</v>
+        <v>296300</v>
       </c>
       <c r="H58" s="3">
         <v>5000</v>
       </c>
       <c r="I58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J58" s="3">
         <v>5200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4296200</v>
+        <v>4344500</v>
       </c>
       <c r="E59" s="3">
-        <v>3345100</v>
+        <v>3382700</v>
       </c>
       <c r="F59" s="3">
-        <v>5482600</v>
+        <v>5544300</v>
       </c>
       <c r="G59" s="3">
-        <v>2886000</v>
+        <v>2918400</v>
       </c>
       <c r="H59" s="3">
-        <v>3175000</v>
+        <v>3210700</v>
       </c>
       <c r="I59" s="3">
-        <v>2825200</v>
+        <v>2857000</v>
       </c>
       <c r="J59" s="3">
-        <v>2647800</v>
+        <v>2677600</v>
       </c>
       <c r="K59" s="3">
         <v>4465500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5552700</v>
+        <v>5615100</v>
       </c>
       <c r="E60" s="3">
-        <v>4485400</v>
+        <v>4535900</v>
       </c>
       <c r="F60" s="3">
-        <v>3749800</v>
+        <v>3792000</v>
       </c>
       <c r="G60" s="3">
-        <v>3880600</v>
+        <v>3924200</v>
       </c>
       <c r="H60" s="3">
-        <v>3675500</v>
+        <v>3716800</v>
       </c>
       <c r="I60" s="3">
-        <v>3417200</v>
+        <v>3455700</v>
       </c>
       <c r="J60" s="3">
-        <v>3393300</v>
+        <v>3431500</v>
       </c>
       <c r="K60" s="3">
         <v>2340800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3676800</v>
+        <v>3718100</v>
       </c>
       <c r="E61" s="3">
-        <v>3580000</v>
+        <v>3620300</v>
       </c>
       <c r="F61" s="3">
-        <v>3548800</v>
+        <v>3588700</v>
       </c>
       <c r="G61" s="3">
-        <v>3633600</v>
+        <v>3674500</v>
       </c>
       <c r="H61" s="3">
-        <v>1331300</v>
+        <v>1346300</v>
       </c>
       <c r="I61" s="3">
-        <v>1360200</v>
+        <v>1375500</v>
       </c>
       <c r="J61" s="3">
-        <v>1265900</v>
+        <v>1280200</v>
       </c>
       <c r="K61" s="3">
         <v>848100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2643800</v>
+        <v>2673500</v>
       </c>
       <c r="E62" s="3">
-        <v>1984300</v>
+        <v>2006600</v>
       </c>
       <c r="F62" s="3">
-        <v>2475500</v>
+        <v>2503300</v>
       </c>
       <c r="G62" s="3">
-        <v>1222000</v>
+        <v>1235800</v>
       </c>
       <c r="H62" s="3">
-        <v>796700</v>
+        <v>805700</v>
       </c>
       <c r="I62" s="3">
-        <v>772000</v>
+        <v>780600</v>
       </c>
       <c r="J62" s="3">
-        <v>771800</v>
+        <v>780500</v>
       </c>
       <c r="K62" s="3">
         <v>562600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11873200</v>
+        <v>12006700</v>
       </c>
       <c r="E66" s="3">
-        <v>10049800</v>
+        <v>10162800</v>
       </c>
       <c r="F66" s="3">
-        <v>8768200</v>
+        <v>8866800</v>
       </c>
       <c r="G66" s="3">
-        <v>8736300</v>
+        <v>8834500</v>
       </c>
       <c r="H66" s="3">
-        <v>5803500</v>
+        <v>5868800</v>
       </c>
       <c r="I66" s="3">
-        <v>5549400</v>
+        <v>5611800</v>
       </c>
       <c r="J66" s="3">
-        <v>5431100</v>
+        <v>5492100</v>
       </c>
       <c r="K66" s="3">
         <v>3751500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11235400</v>
+        <v>11361700</v>
       </c>
       <c r="E72" s="3">
-        <v>10873300</v>
+        <v>10995600</v>
       </c>
       <c r="F72" s="3">
-        <v>8647600</v>
+        <v>8744800</v>
       </c>
       <c r="G72" s="3">
-        <v>7431500</v>
+        <v>7515100</v>
       </c>
       <c r="H72" s="3">
-        <v>6250100</v>
+        <v>6320400</v>
       </c>
       <c r="I72" s="3">
-        <v>5498800</v>
+        <v>5560600</v>
       </c>
       <c r="J72" s="3">
-        <v>5126900</v>
+        <v>5184600</v>
       </c>
       <c r="K72" s="3">
         <v>4499600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14895300</v>
+        <v>15062800</v>
       </c>
       <c r="E76" s="3">
-        <v>13770100</v>
+        <v>13925000</v>
       </c>
       <c r="F76" s="3">
-        <v>12747400</v>
+        <v>12890700</v>
       </c>
       <c r="G76" s="3">
-        <v>11616600</v>
+        <v>11747300</v>
       </c>
       <c r="H76" s="3">
-        <v>9923100</v>
+        <v>10034700</v>
       </c>
       <c r="I76" s="3">
-        <v>8886600</v>
+        <v>8986600</v>
       </c>
       <c r="J76" s="3">
-        <v>8188500</v>
+        <v>8280600</v>
       </c>
       <c r="K76" s="3">
         <v>4563000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3066400</v>
+        <v>3100900</v>
       </c>
       <c r="E81" s="3">
-        <v>3065600</v>
+        <v>3100100</v>
       </c>
       <c r="F81" s="3">
-        <v>2444700</v>
+        <v>2472200</v>
       </c>
       <c r="G81" s="3">
-        <v>1842700</v>
+        <v>1863400</v>
       </c>
       <c r="H81" s="3">
-        <v>1640900</v>
+        <v>1659300</v>
       </c>
       <c r="I81" s="3">
-        <v>1415500</v>
+        <v>1431400</v>
       </c>
       <c r="J81" s="3">
-        <v>1201200</v>
+        <v>1214700</v>
       </c>
       <c r="K81" s="3">
         <v>1286200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>530500</v>
+        <v>536500</v>
       </c>
       <c r="E83" s="3">
-        <v>500000</v>
+        <v>505600</v>
       </c>
       <c r="F83" s="3">
-        <v>618700</v>
+        <v>625600</v>
       </c>
       <c r="G83" s="3">
-        <v>419100</v>
+        <v>423800</v>
       </c>
       <c r="H83" s="3">
-        <v>348000</v>
+        <v>351900</v>
       </c>
       <c r="I83" s="3">
-        <v>299700</v>
+        <v>303100</v>
       </c>
       <c r="J83" s="3">
-        <v>265700</v>
+        <v>268700</v>
       </c>
       <c r="K83" s="3">
         <v>209400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3875700</v>
+        <v>3919200</v>
       </c>
       <c r="E89" s="3">
-        <v>3634700</v>
+        <v>3675600</v>
       </c>
       <c r="F89" s="3">
-        <v>2150900</v>
+        <v>2175100</v>
       </c>
       <c r="G89" s="3">
-        <v>1970600</v>
+        <v>1992800</v>
       </c>
       <c r="H89" s="3">
-        <v>2396100</v>
+        <v>2423000</v>
       </c>
       <c r="I89" s="3">
-        <v>1212700</v>
+        <v>1226400</v>
       </c>
       <c r="J89" s="3">
-        <v>1247000</v>
+        <v>1261000</v>
       </c>
       <c r="K89" s="3">
         <v>789300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-906800</v>
+        <v>-917000</v>
       </c>
       <c r="E91" s="3">
-        <v>-679000</v>
+        <v>-686600</v>
       </c>
       <c r="F91" s="3">
-        <v>-400900</v>
+        <v>-405400</v>
       </c>
       <c r="G91" s="3">
-        <v>-374200</v>
+        <v>-378400</v>
       </c>
       <c r="H91" s="3">
-        <v>-439800</v>
+        <v>-444700</v>
       </c>
       <c r="I91" s="3">
-        <v>-423800</v>
+        <v>-428600</v>
       </c>
       <c r="J91" s="3">
-        <v>-249400</v>
+        <v>-252200</v>
       </c>
       <c r="K91" s="3">
         <v>-192800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1369200</v>
+        <v>-1384600</v>
       </c>
       <c r="E94" s="3">
-        <v>-581400</v>
+        <v>-587900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1453800</v>
+        <v>-1470100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3771700</v>
+        <v>-3814100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1372100</v>
+        <v>-1387500</v>
       </c>
       <c r="I94" s="3">
-        <v>-19200</v>
+        <v>-19400</v>
       </c>
       <c r="J94" s="3">
-        <v>-435700</v>
+        <v>-440600</v>
       </c>
       <c r="K94" s="3">
         <v>-1256400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1568200</v>
+        <v>-1585800</v>
       </c>
       <c r="E96" s="3">
-        <v>-706300</v>
+        <v>-714300</v>
       </c>
       <c r="F96" s="3">
-        <v>-611200</v>
+        <v>-618100</v>
       </c>
       <c r="G96" s="3">
-        <v>-527400</v>
+        <v>-533300</v>
       </c>
       <c r="H96" s="3">
-        <v>-357600</v>
+        <v>-361600</v>
       </c>
       <c r="I96" s="3">
-        <v>-317000</v>
+        <v>-320500</v>
       </c>
       <c r="J96" s="3">
-        <v>-255600</v>
+        <v>-258500</v>
       </c>
       <c r="K96" s="3">
         <v>-211900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2025500</v>
+        <v>-2048300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2039700</v>
+        <v>-2062600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1430200</v>
+        <v>-1446300</v>
       </c>
       <c r="G100" s="3">
-        <v>2322800</v>
+        <v>2348900</v>
       </c>
       <c r="H100" s="3">
-        <v>-986500</v>
+        <v>-997600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1098300</v>
+        <v>-1110600</v>
       </c>
       <c r="J100" s="3">
-        <v>-133800</v>
+        <v>-135300</v>
       </c>
       <c r="K100" s="3">
         <v>-612100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="3">
         <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>-33200</v>
+        <v>-33600</v>
       </c>
       <c r="G101" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="H101" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="I101" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J101" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="K101" s="3">
         <v>-2500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>486400</v>
+        <v>491900</v>
       </c>
       <c r="E102" s="3">
-        <v>1019800</v>
+        <v>1031200</v>
       </c>
       <c r="F102" s="3">
-        <v>-766400</v>
+        <v>-775000</v>
       </c>
       <c r="G102" s="3">
-        <v>530100</v>
+        <v>536100</v>
       </c>
       <c r="H102" s="3">
-        <v>46400</v>
+        <v>46900</v>
       </c>
       <c r="I102" s="3">
-        <v>105000</v>
+        <v>106200</v>
       </c>
       <c r="J102" s="3">
-        <v>666100</v>
+        <v>673600</v>
       </c>
       <c r="K102" s="3">
         <v>-1081800</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>ASML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14139100</v>
+        <v>16444300</v>
       </c>
       <c r="E8" s="3">
-        <v>13091200</v>
+        <v>13905000</v>
       </c>
       <c r="F8" s="3">
-        <v>10721200</v>
+        <v>12874500</v>
       </c>
       <c r="G8" s="3">
-        <v>8224000</v>
+        <v>10543700</v>
       </c>
       <c r="H8" s="3">
-        <v>7521000</v>
+        <v>8087900</v>
       </c>
       <c r="I8" s="3">
-        <v>7005300</v>
+        <v>7396500</v>
       </c>
       <c r="J8" s="3">
+        <v>6889300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6274500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5308800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6633200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7823400</v>
+        <v>8448100</v>
       </c>
       <c r="E9" s="3">
-        <v>7075300</v>
+        <v>7693900</v>
       </c>
       <c r="F9" s="3">
-        <v>5912200</v>
+        <v>6958200</v>
       </c>
       <c r="G9" s="3">
-        <v>4461600</v>
+        <v>5814400</v>
       </c>
       <c r="H9" s="3">
-        <v>4057100</v>
+        <v>4387700</v>
       </c>
       <c r="I9" s="3">
-        <v>3899500</v>
+        <v>3989900</v>
       </c>
       <c r="J9" s="3">
+        <v>3834900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3670000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3058900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3758100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6315700</v>
+        <v>7996200</v>
       </c>
       <c r="E10" s="3">
-        <v>6015900</v>
+        <v>6211200</v>
       </c>
       <c r="F10" s="3">
-        <v>4809000</v>
+        <v>5916400</v>
       </c>
       <c r="G10" s="3">
-        <v>3762400</v>
+        <v>4729400</v>
       </c>
       <c r="H10" s="3">
-        <v>3463900</v>
+        <v>3700100</v>
       </c>
       <c r="I10" s="3">
-        <v>3105800</v>
+        <v>3406600</v>
       </c>
       <c r="J10" s="3">
+        <v>3054400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2604400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2249900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2875100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2205600</v>
+        <v>2433900</v>
       </c>
       <c r="E12" s="3">
-        <v>1756900</v>
+        <v>2169000</v>
       </c>
       <c r="F12" s="3">
-        <v>1382700</v>
+        <v>1727800</v>
       </c>
       <c r="G12" s="3">
-        <v>1227900</v>
+        <v>1359800</v>
       </c>
       <c r="H12" s="3">
-        <v>1251600</v>
+        <v>1207600</v>
       </c>
       <c r="I12" s="3">
-        <v>1238900</v>
+        <v>1230800</v>
       </c>
       <c r="J12" s="3">
+        <v>1218400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1004500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>661100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>692900</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>8100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>176100</v>
+        <v>197000</v>
       </c>
       <c r="E15" s="3">
-        <v>155900</v>
+        <v>173200</v>
       </c>
       <c r="F15" s="3">
-        <v>141500</v>
+        <v>153300</v>
       </c>
       <c r="G15" s="3">
-        <v>127900</v>
+        <v>139200</v>
       </c>
       <c r="H15" s="3">
-        <v>63900</v>
+        <v>125800</v>
       </c>
       <c r="I15" s="3">
-        <v>68900</v>
+        <v>62800</v>
       </c>
       <c r="J15" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K15" s="3">
         <v>64100</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10800700</v>
+        <v>11678100</v>
       </c>
       <c r="E17" s="3">
-        <v>9544100</v>
+        <v>10622000</v>
       </c>
       <c r="F17" s="3">
-        <v>7802800</v>
+        <v>9386100</v>
       </c>
       <c r="G17" s="3">
-        <v>6120500</v>
+        <v>7673700</v>
       </c>
       <c r="H17" s="3">
-        <v>5648700</v>
+        <v>6019200</v>
       </c>
       <c r="I17" s="3">
-        <v>5471500</v>
+        <v>5555200</v>
       </c>
       <c r="J17" s="3">
+        <v>5380900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5020900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4010900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4706800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3338400</v>
+        <v>4766200</v>
       </c>
       <c r="E18" s="3">
-        <v>3547100</v>
+        <v>3283100</v>
       </c>
       <c r="F18" s="3">
-        <v>2918400</v>
+        <v>3488400</v>
       </c>
       <c r="G18" s="3">
-        <v>2103500</v>
+        <v>2870100</v>
       </c>
       <c r="H18" s="3">
-        <v>1872200</v>
+        <v>2068700</v>
       </c>
       <c r="I18" s="3">
-        <v>1533800</v>
+        <v>1841200</v>
       </c>
       <c r="J18" s="3">
+        <v>1508400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1253600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1297900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1926500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13900</v>
+        <v>9900</v>
       </c>
       <c r="E20" s="3">
-        <v>16100</v>
+        <v>13600</v>
       </c>
       <c r="F20" s="3">
-        <v>8600</v>
+        <v>15900</v>
       </c>
       <c r="G20" s="3">
-        <v>85800</v>
+        <v>8500</v>
       </c>
       <c r="H20" s="3">
-        <v>13000</v>
+        <v>84300</v>
       </c>
       <c r="I20" s="3">
-        <v>17300</v>
+        <v>12800</v>
       </c>
       <c r="J20" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-29300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3886500</v>
+        <v>5355800</v>
       </c>
       <c r="E21" s="3">
-        <v>4066800</v>
+        <v>3826500</v>
       </c>
       <c r="F21" s="3">
-        <v>3550000</v>
+        <v>4003600</v>
       </c>
       <c r="G21" s="3">
-        <v>2611400</v>
+        <v>3496300</v>
       </c>
       <c r="H21" s="3">
-        <v>2235700</v>
+        <v>2571500</v>
       </c>
       <c r="I21" s="3">
-        <v>1853000</v>
+        <v>2201500</v>
       </c>
       <c r="J21" s="3">
+        <v>1824800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1491900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1526400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2168800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43800</v>
+        <v>50900</v>
       </c>
       <c r="E22" s="3">
-        <v>50000</v>
+        <v>43100</v>
       </c>
       <c r="F22" s="3">
-        <v>68800</v>
+        <v>49200</v>
       </c>
       <c r="G22" s="3">
-        <v>45500</v>
+        <v>67600</v>
       </c>
       <c r="H22" s="3">
-        <v>32800</v>
+        <v>44700</v>
       </c>
       <c r="I22" s="3">
-        <v>27600</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>32200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3308400</v>
+        <v>4725100</v>
       </c>
       <c r="E23" s="3">
-        <v>3513200</v>
+        <v>3253700</v>
       </c>
       <c r="F23" s="3">
-        <v>2858200</v>
+        <v>3455100</v>
       </c>
       <c r="G23" s="3">
-        <v>2143800</v>
+        <v>2810900</v>
       </c>
       <c r="H23" s="3">
-        <v>1852500</v>
+        <v>2108300</v>
       </c>
       <c r="I23" s="3">
-        <v>1523500</v>
+        <v>1821800</v>
       </c>
       <c r="J23" s="3">
+        <v>1498300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1224300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1290900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1935200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>229300</v>
+        <v>648800</v>
       </c>
       <c r="E24" s="3">
-        <v>420600</v>
+        <v>225500</v>
       </c>
       <c r="F24" s="3">
-        <v>366000</v>
+        <v>413600</v>
       </c>
       <c r="G24" s="3">
-        <v>280400</v>
+        <v>360000</v>
       </c>
       <c r="H24" s="3">
-        <v>193100</v>
+        <v>275700</v>
       </c>
       <c r="I24" s="3">
-        <v>92100</v>
+        <v>189900</v>
       </c>
       <c r="J24" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K24" s="3">
         <v>9600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>213300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3079100</v>
+        <v>4076300</v>
       </c>
       <c r="E26" s="3">
-        <v>3092700</v>
+        <v>3028200</v>
       </c>
       <c r="F26" s="3">
-        <v>2492200</v>
+        <v>3041500</v>
       </c>
       <c r="G26" s="3">
-        <v>1863400</v>
+        <v>2450900</v>
       </c>
       <c r="H26" s="3">
-        <v>1659300</v>
+        <v>1832600</v>
       </c>
       <c r="I26" s="3">
-        <v>1431400</v>
+        <v>1631900</v>
       </c>
       <c r="J26" s="3">
+        <v>1407700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1214700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1286200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1721900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3100900</v>
+        <v>4180600</v>
       </c>
       <c r="E27" s="3">
-        <v>3100100</v>
+        <v>3049600</v>
       </c>
       <c r="F27" s="3">
-        <v>2472200</v>
+        <v>3048800</v>
       </c>
       <c r="G27" s="3">
-        <v>1863400</v>
+        <v>2431300</v>
       </c>
       <c r="H27" s="3">
-        <v>1659300</v>
+        <v>1832600</v>
       </c>
       <c r="I27" s="3">
-        <v>1431400</v>
+        <v>1631900</v>
       </c>
       <c r="J27" s="3">
+        <v>1407700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1214700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1286200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1721900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13900</v>
+        <v>-9900</v>
       </c>
       <c r="E32" s="3">
-        <v>-16100</v>
+        <v>-13600</v>
       </c>
       <c r="F32" s="3">
-        <v>-8600</v>
+        <v>-15900</v>
       </c>
       <c r="G32" s="3">
-        <v>-85800</v>
+        <v>-8500</v>
       </c>
       <c r="H32" s="3">
-        <v>-13000</v>
+        <v>-84300</v>
       </c>
       <c r="I32" s="3">
-        <v>-17300</v>
+        <v>-12800</v>
       </c>
       <c r="J32" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K32" s="3">
         <v>29300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-48300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3100900</v>
+        <v>4180600</v>
       </c>
       <c r="E33" s="3">
-        <v>3100100</v>
+        <v>3049600</v>
       </c>
       <c r="F33" s="3">
-        <v>2472200</v>
+        <v>3048800</v>
       </c>
       <c r="G33" s="3">
-        <v>1863400</v>
+        <v>2431300</v>
       </c>
       <c r="H33" s="3">
-        <v>1659300</v>
+        <v>1832600</v>
       </c>
       <c r="I33" s="3">
-        <v>1431400</v>
+        <v>1631900</v>
       </c>
       <c r="J33" s="3">
+        <v>1407700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1214700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1286200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1721900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3100900</v>
+        <v>4180600</v>
       </c>
       <c r="E35" s="3">
-        <v>3100100</v>
+        <v>3049600</v>
       </c>
       <c r="F35" s="3">
-        <v>2472200</v>
+        <v>3048800</v>
       </c>
       <c r="G35" s="3">
-        <v>1863400</v>
+        <v>2431300</v>
       </c>
       <c r="H35" s="3">
-        <v>1659300</v>
+        <v>1832600</v>
       </c>
       <c r="I35" s="3">
-        <v>1431400</v>
+        <v>1631900</v>
       </c>
       <c r="J35" s="3">
+        <v>1407700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1214700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1286200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1721900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4225300</v>
+        <v>7116500</v>
       </c>
       <c r="E41" s="3">
-        <v>3733500</v>
+        <v>4155400</v>
       </c>
       <c r="F41" s="3">
-        <v>2702200</v>
+        <v>3671700</v>
       </c>
       <c r="G41" s="3">
-        <v>3477200</v>
+        <v>2657500</v>
       </c>
       <c r="H41" s="3">
-        <v>2941100</v>
+        <v>3419600</v>
       </c>
       <c r="I41" s="3">
-        <v>2894200</v>
+        <v>2892400</v>
       </c>
       <c r="J41" s="3">
+        <v>2846300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2788000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1983200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3206600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1418500</v>
+        <v>1531900</v>
       </c>
       <c r="E42" s="3">
-        <v>1092500</v>
+        <v>1395000</v>
       </c>
       <c r="F42" s="3">
-        <v>1231200</v>
+        <v>1074400</v>
       </c>
       <c r="G42" s="3">
-        <v>1375600</v>
+        <v>1210900</v>
       </c>
       <c r="H42" s="3">
-        <v>1136400</v>
+        <v>1352900</v>
       </c>
       <c r="I42" s="3">
-        <v>400600</v>
+        <v>1117600</v>
       </c>
       <c r="J42" s="3">
+        <v>393900</v>
+      </c>
+      <c r="K42" s="3">
         <v>813300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1043500</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3409800</v>
+        <v>3920800</v>
       </c>
       <c r="E43" s="3">
-        <v>2872000</v>
+        <v>3353300</v>
       </c>
       <c r="F43" s="3">
-        <v>2630100</v>
+        <v>2824400</v>
       </c>
       <c r="G43" s="3">
-        <v>1460300</v>
+        <v>2586600</v>
       </c>
       <c r="H43" s="3">
-        <v>1393100</v>
+        <v>1436100</v>
       </c>
       <c r="I43" s="3">
-        <v>1595200</v>
+        <v>1370100</v>
       </c>
       <c r="J43" s="3">
+        <v>1568800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1423300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1788300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1259900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4556600</v>
+        <v>5375400</v>
       </c>
       <c r="E44" s="3">
-        <v>4114300</v>
+        <v>4481100</v>
       </c>
       <c r="F44" s="3">
-        <v>3535500</v>
+        <v>4046200</v>
       </c>
       <c r="G44" s="3">
-        <v>3326500</v>
+        <v>3477000</v>
       </c>
       <c r="H44" s="3">
-        <v>3078700</v>
+        <v>3271400</v>
       </c>
       <c r="I44" s="3">
-        <v>3050100</v>
+        <v>3027700</v>
       </c>
       <c r="J44" s="3">
+        <v>2999600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2862500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4167000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1907000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>901100</v>
+        <v>795400</v>
       </c>
       <c r="E45" s="3">
-        <v>785400</v>
+        <v>886200</v>
       </c>
       <c r="F45" s="3">
-        <v>530200</v>
+        <v>772400</v>
       </c>
       <c r="G45" s="3">
-        <v>596800</v>
+        <v>521400</v>
       </c>
       <c r="H45" s="3">
-        <v>670600</v>
+        <v>586900</v>
       </c>
       <c r="I45" s="3">
-        <v>608200</v>
+        <v>659500</v>
       </c>
       <c r="J45" s="3">
+        <v>598100</v>
+      </c>
+      <c r="K45" s="3">
         <v>516900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>325200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14511200</v>
+        <v>18740100</v>
       </c>
       <c r="E46" s="3">
-        <v>12597700</v>
+        <v>14271000</v>
       </c>
       <c r="F46" s="3">
-        <v>10629200</v>
+        <v>12389100</v>
       </c>
       <c r="G46" s="3">
-        <v>10236400</v>
+        <v>10453300</v>
       </c>
       <c r="H46" s="3">
-        <v>9220000</v>
+        <v>10067000</v>
       </c>
       <c r="I46" s="3">
-        <v>8548300</v>
+        <v>9067300</v>
       </c>
       <c r="J46" s="3">
+        <v>8406800</v>
+      </c>
+      <c r="K46" s="3">
         <v>8404000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6543300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6698700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1581300</v>
+        <v>1463200</v>
       </c>
       <c r="E47" s="3">
-        <v>1604800</v>
+        <v>1555100</v>
       </c>
       <c r="F47" s="3">
-        <v>1365600</v>
+        <v>1578300</v>
       </c>
       <c r="G47" s="3">
-        <v>146700</v>
+        <v>1343000</v>
       </c>
       <c r="H47" s="3">
-        <v>154900</v>
+        <v>144300</v>
       </c>
       <c r="I47" s="3">
-        <v>72600</v>
+        <v>152300</v>
       </c>
       <c r="J47" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K47" s="3">
         <v>61600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43300</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2779000</v>
+        <v>3311800</v>
       </c>
       <c r="E48" s="3">
-        <v>2066000</v>
+        <v>2733000</v>
       </c>
       <c r="F48" s="3">
-        <v>2050900</v>
+        <v>2031800</v>
       </c>
       <c r="G48" s="3">
-        <v>2018300</v>
+        <v>2016900</v>
       </c>
       <c r="H48" s="3">
-        <v>1938700</v>
+        <v>1984900</v>
       </c>
       <c r="I48" s="3">
-        <v>1731500</v>
+        <v>1906600</v>
       </c>
       <c r="J48" s="3">
+        <v>1702900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1456800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2311100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1236700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6753100</v>
+        <v>6679600</v>
       </c>
       <c r="E49" s="3">
-        <v>6752700</v>
+        <v>6641400</v>
       </c>
       <c r="F49" s="3">
-        <v>6826800</v>
+        <v>6640900</v>
       </c>
       <c r="G49" s="3">
-        <v>7412600</v>
+        <v>6713800</v>
       </c>
       <c r="H49" s="3">
-        <v>4022500</v>
+        <v>7289900</v>
       </c>
       <c r="I49" s="3">
-        <v>3685900</v>
+        <v>3955900</v>
       </c>
       <c r="J49" s="3">
+        <v>3624900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3332900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>189700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>181200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1444900</v>
+        <v>1882700</v>
       </c>
       <c r="E52" s="3">
-        <v>1066700</v>
+        <v>1421000</v>
       </c>
       <c r="F52" s="3">
-        <v>885100</v>
+        <v>1049000</v>
       </c>
       <c r="G52" s="3">
-        <v>767700</v>
+        <v>870400</v>
       </c>
       <c r="H52" s="3">
-        <v>567500</v>
+        <v>755000</v>
       </c>
       <c r="I52" s="3">
-        <v>560000</v>
+        <v>558100</v>
       </c>
       <c r="J52" s="3">
+        <v>550700</v>
+      </c>
+      <c r="K52" s="3">
         <v>517500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>393800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>406100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27069500</v>
+        <v>32077400</v>
       </c>
       <c r="E54" s="3">
-        <v>24087800</v>
+        <v>26621500</v>
       </c>
       <c r="F54" s="3">
-        <v>21757600</v>
+        <v>23689000</v>
       </c>
       <c r="G54" s="3">
-        <v>20581800</v>
+        <v>21397400</v>
       </c>
       <c r="H54" s="3">
-        <v>15903500</v>
+        <v>20241100</v>
       </c>
       <c r="I54" s="3">
-        <v>14598400</v>
+        <v>15640300</v>
       </c>
       <c r="J54" s="3">
+        <v>14356700</v>
+      </c>
+      <c r="K54" s="3">
         <v>13772700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8314500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8522800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1270600</v>
+        <v>1621000</v>
       </c>
       <c r="E57" s="3">
-        <v>1153100</v>
+        <v>1249600</v>
       </c>
       <c r="F57" s="3">
-        <v>1001600</v>
+        <v>1134000</v>
       </c>
       <c r="G57" s="3">
-        <v>709600</v>
+        <v>985000</v>
       </c>
       <c r="H57" s="3">
-        <v>501100</v>
+        <v>697800</v>
       </c>
       <c r="I57" s="3">
-        <v>593600</v>
+        <v>492800</v>
       </c>
       <c r="J57" s="3">
+        <v>583800</v>
+      </c>
+      <c r="K57" s="3">
         <v>748700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>212000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>521500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>30100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>296300</v>
+        <v>29600</v>
       </c>
       <c r="H58" s="3">
+        <v>291400</v>
+      </c>
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
-        <v>5100</v>
-      </c>
       <c r="J58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4344500</v>
+        <v>6123800</v>
       </c>
       <c r="E59" s="3">
-        <v>3382700</v>
+        <v>4272600</v>
       </c>
       <c r="F59" s="3">
-        <v>5544300</v>
+        <v>3326700</v>
       </c>
       <c r="G59" s="3">
-        <v>2918400</v>
+        <v>5452500</v>
       </c>
       <c r="H59" s="3">
-        <v>3210700</v>
+        <v>2870100</v>
       </c>
       <c r="I59" s="3">
-        <v>2857000</v>
+        <v>3157500</v>
       </c>
       <c r="J59" s="3">
+        <v>2809700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2677600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4465500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2096600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5615100</v>
+        <v>7768400</v>
       </c>
       <c r="E60" s="3">
-        <v>4535900</v>
+        <v>5522100</v>
       </c>
       <c r="F60" s="3">
-        <v>3792000</v>
+        <v>4460800</v>
       </c>
       <c r="G60" s="3">
-        <v>3924200</v>
+        <v>3729200</v>
       </c>
       <c r="H60" s="3">
-        <v>3716800</v>
+        <v>3859300</v>
       </c>
       <c r="I60" s="3">
-        <v>3455700</v>
+        <v>3655300</v>
       </c>
       <c r="J60" s="3">
+        <v>3398500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3431500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2340800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2621200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3718100</v>
+        <v>5485300</v>
       </c>
       <c r="E61" s="3">
-        <v>3620300</v>
+        <v>3656600</v>
       </c>
       <c r="F61" s="3">
-        <v>3588700</v>
+        <v>3560400</v>
       </c>
       <c r="G61" s="3">
-        <v>3674500</v>
+        <v>3529300</v>
       </c>
       <c r="H61" s="3">
-        <v>1346300</v>
+        <v>3613700</v>
       </c>
       <c r="I61" s="3">
-        <v>1375500</v>
+        <v>1324000</v>
       </c>
       <c r="J61" s="3">
+        <v>1352700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1280200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>848100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>861300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2673500</v>
+        <v>2512400</v>
       </c>
       <c r="E62" s="3">
-        <v>2006600</v>
+        <v>2629300</v>
       </c>
       <c r="F62" s="3">
-        <v>2503300</v>
+        <v>1973400</v>
       </c>
       <c r="G62" s="3">
-        <v>1235800</v>
+        <v>2461900</v>
       </c>
       <c r="H62" s="3">
-        <v>805700</v>
+        <v>1215300</v>
       </c>
       <c r="I62" s="3">
-        <v>780600</v>
+        <v>792400</v>
       </c>
       <c r="J62" s="3">
+        <v>767700</v>
+      </c>
+      <c r="K62" s="3">
         <v>780500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>562600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>997500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12006700</v>
+        <v>15766100</v>
       </c>
       <c r="E66" s="3">
-        <v>10162800</v>
+        <v>11808000</v>
       </c>
       <c r="F66" s="3">
-        <v>8866800</v>
+        <v>9994600</v>
       </c>
       <c r="G66" s="3">
-        <v>8834500</v>
+        <v>8720100</v>
       </c>
       <c r="H66" s="3">
-        <v>5868800</v>
+        <v>8688300</v>
       </c>
       <c r="I66" s="3">
-        <v>5611800</v>
+        <v>5771700</v>
       </c>
       <c r="J66" s="3">
+        <v>5518900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5492100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3751500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4480000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11361700</v>
+        <v>12624500</v>
       </c>
       <c r="E72" s="3">
-        <v>10995600</v>
+        <v>11203800</v>
       </c>
       <c r="F72" s="3">
-        <v>8744800</v>
+        <v>10820400</v>
       </c>
       <c r="G72" s="3">
-        <v>7515100</v>
+        <v>8601200</v>
       </c>
       <c r="H72" s="3">
-        <v>6320400</v>
+        <v>7390700</v>
       </c>
       <c r="I72" s="3">
-        <v>5560600</v>
+        <v>6216500</v>
       </c>
       <c r="J72" s="3">
+        <v>5468500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5184600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4499600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3839200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15062800</v>
+        <v>16311300</v>
       </c>
       <c r="E76" s="3">
-        <v>13925000</v>
+        <v>14813500</v>
       </c>
       <c r="F76" s="3">
-        <v>12890700</v>
+        <v>13694500</v>
       </c>
       <c r="G76" s="3">
-        <v>11747300</v>
+        <v>12677400</v>
       </c>
       <c r="H76" s="3">
-        <v>10034700</v>
+        <v>11552800</v>
       </c>
       <c r="I76" s="3">
-        <v>8986600</v>
+        <v>9868600</v>
       </c>
       <c r="J76" s="3">
+        <v>8837800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8280600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4563000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4042800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3100900</v>
+        <v>4180600</v>
       </c>
       <c r="E81" s="3">
-        <v>3100100</v>
+        <v>3049600</v>
       </c>
       <c r="F81" s="3">
-        <v>2472200</v>
+        <v>3048800</v>
       </c>
       <c r="G81" s="3">
-        <v>1863400</v>
+        <v>2431300</v>
       </c>
       <c r="H81" s="3">
-        <v>1659300</v>
+        <v>1832600</v>
       </c>
       <c r="I81" s="3">
-        <v>1431400</v>
+        <v>1631900</v>
       </c>
       <c r="J81" s="3">
+        <v>1407700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1214700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1286200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1721900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>536500</v>
+        <v>577400</v>
       </c>
       <c r="E83" s="3">
-        <v>505600</v>
+        <v>527600</v>
       </c>
       <c r="F83" s="3">
-        <v>625600</v>
+        <v>497300</v>
       </c>
       <c r="G83" s="3">
-        <v>423800</v>
+        <v>615300</v>
       </c>
       <c r="H83" s="3">
-        <v>351900</v>
+        <v>416800</v>
       </c>
       <c r="I83" s="3">
-        <v>303100</v>
+        <v>346100</v>
       </c>
       <c r="J83" s="3">
+        <v>298100</v>
+      </c>
+      <c r="K83" s="3">
         <v>268700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>209400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>193900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3919200</v>
+        <v>5443900</v>
       </c>
       <c r="E89" s="3">
-        <v>3675600</v>
+        <v>3854400</v>
       </c>
       <c r="F89" s="3">
-        <v>2175100</v>
+        <v>3614700</v>
       </c>
       <c r="G89" s="3">
-        <v>1992800</v>
+        <v>2139000</v>
       </c>
       <c r="H89" s="3">
-        <v>2423000</v>
+        <v>1959800</v>
       </c>
       <c r="I89" s="3">
-        <v>1226400</v>
+        <v>2382900</v>
       </c>
       <c r="J89" s="3">
+        <v>1206100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1261000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>789300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2430300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-917000</v>
+        <v>-1131700</v>
       </c>
       <c r="E91" s="3">
-        <v>-686600</v>
+        <v>-901800</v>
       </c>
       <c r="F91" s="3">
-        <v>-405400</v>
+        <v>-675300</v>
       </c>
       <c r="G91" s="3">
-        <v>-378400</v>
+        <v>-398700</v>
       </c>
       <c r="H91" s="3">
-        <v>-444700</v>
+        <v>-372100</v>
       </c>
       <c r="I91" s="3">
-        <v>-428600</v>
+        <v>-437400</v>
       </c>
       <c r="J91" s="3">
+        <v>-421500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-252200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-192800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-353200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1384600</v>
+        <v>-1590700</v>
       </c>
       <c r="E94" s="3">
-        <v>-587900</v>
+        <v>-1361700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1470100</v>
+        <v>-578200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3814100</v>
+        <v>-1445800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1387500</v>
+        <v>-3750900</v>
       </c>
       <c r="I94" s="3">
-        <v>-19400</v>
+        <v>-1364500</v>
       </c>
       <c r="J94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-440600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1256400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-353200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1585800</v>
+        <v>-1254500</v>
       </c>
       <c r="E96" s="3">
-        <v>-714300</v>
+        <v>-1559600</v>
       </c>
       <c r="F96" s="3">
-        <v>-618100</v>
+        <v>-702400</v>
       </c>
       <c r="G96" s="3">
-        <v>-533300</v>
+        <v>-607800</v>
       </c>
       <c r="H96" s="3">
-        <v>-361600</v>
+        <v>-524500</v>
       </c>
       <c r="I96" s="3">
-        <v>-320500</v>
+        <v>-355600</v>
       </c>
       <c r="J96" s="3">
+        <v>-315200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-258500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-211900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-202700</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2048300</v>
+        <v>-885800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2062600</v>
+        <v>-2014300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1446300</v>
+        <v>-2028500</v>
       </c>
       <c r="G100" s="3">
-        <v>2348900</v>
+        <v>-1422400</v>
       </c>
       <c r="H100" s="3">
-        <v>-997600</v>
+        <v>2310000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1110600</v>
+        <v>-981100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1092200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-135300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-612100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1163900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5500</v>
+        <v>-6200</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="F101" s="3">
-        <v>-33600</v>
+        <v>6100</v>
       </c>
       <c r="G101" s="3">
-        <v>8500</v>
+        <v>-33100</v>
       </c>
       <c r="H101" s="3">
-        <v>9000</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
-        <v>9900</v>
+        <v>8800</v>
       </c>
       <c r="J101" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-11500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>491900</v>
+        <v>2961100</v>
       </c>
       <c r="E102" s="3">
-        <v>1031200</v>
+        <v>483700</v>
       </c>
       <c r="F102" s="3">
-        <v>-775000</v>
+        <v>1014200</v>
       </c>
       <c r="G102" s="3">
-        <v>536100</v>
+        <v>-762200</v>
       </c>
       <c r="H102" s="3">
-        <v>46900</v>
+        <v>527200</v>
       </c>
       <c r="I102" s="3">
-        <v>106200</v>
+        <v>46200</v>
       </c>
       <c r="J102" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K102" s="3">
         <v>673600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1081800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>917900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16444300</v>
+        <v>17123500</v>
       </c>
       <c r="E8" s="3">
-        <v>13905000</v>
+        <v>14479400</v>
       </c>
       <c r="F8" s="3">
-        <v>12874500</v>
+        <v>13406300</v>
       </c>
       <c r="G8" s="3">
-        <v>10543700</v>
+        <v>10979200</v>
       </c>
       <c r="H8" s="3">
-        <v>8087900</v>
+        <v>8421900</v>
       </c>
       <c r="I8" s="3">
-        <v>7396500</v>
+        <v>7702000</v>
       </c>
       <c r="J8" s="3">
-        <v>6889300</v>
+        <v>7173900</v>
       </c>
       <c r="K8" s="3">
         <v>6274500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8448100</v>
+        <v>8797000</v>
       </c>
       <c r="E9" s="3">
-        <v>7693900</v>
+        <v>8011700</v>
       </c>
       <c r="F9" s="3">
-        <v>6958200</v>
+        <v>7245600</v>
       </c>
       <c r="G9" s="3">
-        <v>5814400</v>
+        <v>6054500</v>
       </c>
       <c r="H9" s="3">
-        <v>4387700</v>
+        <v>4569000</v>
       </c>
       <c r="I9" s="3">
-        <v>3989900</v>
+        <v>4154700</v>
       </c>
       <c r="J9" s="3">
-        <v>3834900</v>
+        <v>3993300</v>
       </c>
       <c r="K9" s="3">
         <v>3670000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7996200</v>
+        <v>8326500</v>
       </c>
       <c r="E10" s="3">
-        <v>6211200</v>
+        <v>6467700</v>
       </c>
       <c r="F10" s="3">
-        <v>5916400</v>
+        <v>6160700</v>
       </c>
       <c r="G10" s="3">
-        <v>4729400</v>
+        <v>4924700</v>
       </c>
       <c r="H10" s="3">
-        <v>3700100</v>
+        <v>3853000</v>
       </c>
       <c r="I10" s="3">
-        <v>3406600</v>
+        <v>3547300</v>
       </c>
       <c r="J10" s="3">
-        <v>3054400</v>
+        <v>3180500</v>
       </c>
       <c r="K10" s="3">
         <v>2604400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2433900</v>
+        <v>2534400</v>
       </c>
       <c r="E12" s="3">
-        <v>2169000</v>
+        <v>2258600</v>
       </c>
       <c r="F12" s="3">
-        <v>1727800</v>
+        <v>1799100</v>
       </c>
       <c r="G12" s="3">
-        <v>1359800</v>
+        <v>1416000</v>
       </c>
       <c r="H12" s="3">
-        <v>1207600</v>
+        <v>1257500</v>
       </c>
       <c r="I12" s="3">
-        <v>1230800</v>
+        <v>1281700</v>
       </c>
       <c r="J12" s="3">
-        <v>1218400</v>
+        <v>1268800</v>
       </c>
       <c r="K12" s="3">
         <v>1004500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>197000</v>
+        <v>205200</v>
       </c>
       <c r="E15" s="3">
-        <v>173200</v>
+        <v>180300</v>
       </c>
       <c r="F15" s="3">
-        <v>153300</v>
+        <v>159600</v>
       </c>
       <c r="G15" s="3">
-        <v>139200</v>
+        <v>144900</v>
       </c>
       <c r="H15" s="3">
-        <v>125800</v>
+        <v>131000</v>
       </c>
       <c r="I15" s="3">
-        <v>62800</v>
+        <v>65400</v>
       </c>
       <c r="J15" s="3">
-        <v>67800</v>
+        <v>70600</v>
       </c>
       <c r="K15" s="3">
         <v>64100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11678100</v>
+        <v>12160500</v>
       </c>
       <c r="E17" s="3">
-        <v>10622000</v>
+        <v>11060700</v>
       </c>
       <c r="F17" s="3">
-        <v>9386100</v>
+        <v>9773800</v>
       </c>
       <c r="G17" s="3">
-        <v>7673700</v>
+        <v>7990600</v>
       </c>
       <c r="H17" s="3">
-        <v>6019200</v>
+        <v>6267800</v>
       </c>
       <c r="I17" s="3">
-        <v>5555200</v>
+        <v>5784700</v>
       </c>
       <c r="J17" s="3">
-        <v>5380900</v>
+        <v>5603200</v>
       </c>
       <c r="K17" s="3">
         <v>5020900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4766200</v>
+        <v>4963000</v>
       </c>
       <c r="E18" s="3">
-        <v>3283100</v>
+        <v>3418700</v>
       </c>
       <c r="F18" s="3">
-        <v>3488400</v>
+        <v>3632500</v>
       </c>
       <c r="G18" s="3">
-        <v>2870100</v>
+        <v>2988600</v>
       </c>
       <c r="H18" s="3">
-        <v>2068700</v>
+        <v>2154100</v>
       </c>
       <c r="I18" s="3">
-        <v>1841200</v>
+        <v>1917300</v>
       </c>
       <c r="J18" s="3">
-        <v>1508400</v>
+        <v>1570700</v>
       </c>
       <c r="K18" s="3">
         <v>1253600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="E20" s="3">
-        <v>13600</v>
+        <v>14200</v>
       </c>
       <c r="F20" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="G20" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="H20" s="3">
-        <v>84300</v>
+        <v>87800</v>
       </c>
       <c r="I20" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="J20" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="K20" s="3">
         <v>-29300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5355800</v>
+        <v>5572800</v>
       </c>
       <c r="E21" s="3">
-        <v>3826500</v>
+        <v>3980800</v>
       </c>
       <c r="F21" s="3">
-        <v>4003600</v>
+        <v>4165300</v>
       </c>
       <c r="G21" s="3">
-        <v>3496300</v>
+        <v>3636300</v>
       </c>
       <c r="H21" s="3">
-        <v>2571500</v>
+        <v>2674800</v>
       </c>
       <c r="I21" s="3">
-        <v>2201500</v>
+        <v>2290000</v>
       </c>
       <c r="J21" s="3">
-        <v>1824800</v>
+        <v>1898000</v>
       </c>
       <c r="K21" s="3">
         <v>1491900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50900</v>
+        <v>53000</v>
       </c>
       <c r="E22" s="3">
-        <v>43100</v>
+        <v>44800</v>
       </c>
       <c r="F22" s="3">
-        <v>49200</v>
+        <v>51200</v>
       </c>
       <c r="G22" s="3">
-        <v>67600</v>
+        <v>70400</v>
       </c>
       <c r="H22" s="3">
-        <v>44700</v>
+        <v>46500</v>
       </c>
       <c r="I22" s="3">
-        <v>32200</v>
+        <v>33600</v>
       </c>
       <c r="J22" s="3">
-        <v>27200</v>
+        <v>28300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4725100</v>
+        <v>4920300</v>
       </c>
       <c r="E23" s="3">
-        <v>3253700</v>
+        <v>3388100</v>
       </c>
       <c r="F23" s="3">
-        <v>3455100</v>
+        <v>3597800</v>
       </c>
       <c r="G23" s="3">
-        <v>2810900</v>
+        <v>2927000</v>
       </c>
       <c r="H23" s="3">
-        <v>2108300</v>
+        <v>2195400</v>
       </c>
       <c r="I23" s="3">
-        <v>1821800</v>
+        <v>1897000</v>
       </c>
       <c r="J23" s="3">
-        <v>1498300</v>
+        <v>1560200</v>
       </c>
       <c r="K23" s="3">
         <v>1224300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>648800</v>
+        <v>675600</v>
       </c>
       <c r="E24" s="3">
-        <v>225500</v>
+        <v>234800</v>
       </c>
       <c r="F24" s="3">
-        <v>413600</v>
+        <v>430700</v>
       </c>
       <c r="G24" s="3">
-        <v>360000</v>
+        <v>374800</v>
       </c>
       <c r="H24" s="3">
-        <v>275700</v>
+        <v>287100</v>
       </c>
       <c r="I24" s="3">
-        <v>189900</v>
+        <v>197800</v>
       </c>
       <c r="J24" s="3">
-        <v>90600</v>
+        <v>94300</v>
       </c>
       <c r="K24" s="3">
         <v>9600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4076300</v>
+        <v>4244700</v>
       </c>
       <c r="E26" s="3">
-        <v>3028200</v>
+        <v>3153200</v>
       </c>
       <c r="F26" s="3">
-        <v>3041500</v>
+        <v>3167100</v>
       </c>
       <c r="G26" s="3">
-        <v>2450900</v>
+        <v>2552100</v>
       </c>
       <c r="H26" s="3">
-        <v>1832600</v>
+        <v>1908300</v>
       </c>
       <c r="I26" s="3">
-        <v>1631900</v>
+        <v>1699300</v>
       </c>
       <c r="J26" s="3">
-        <v>1407700</v>
+        <v>1465900</v>
       </c>
       <c r="K26" s="3">
         <v>1214700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4180600</v>
+        <v>4353200</v>
       </c>
       <c r="E27" s="3">
-        <v>3049600</v>
+        <v>3175500</v>
       </c>
       <c r="F27" s="3">
-        <v>3048800</v>
+        <v>3174700</v>
       </c>
       <c r="G27" s="3">
-        <v>2431300</v>
+        <v>2531700</v>
       </c>
       <c r="H27" s="3">
-        <v>1832600</v>
+        <v>1908300</v>
       </c>
       <c r="I27" s="3">
-        <v>1631900</v>
+        <v>1699300</v>
       </c>
       <c r="J27" s="3">
-        <v>1407700</v>
+        <v>1465900</v>
       </c>
       <c r="K27" s="3">
         <v>1214700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9900</v>
+        <v>-10300</v>
       </c>
       <c r="E32" s="3">
-        <v>-13600</v>
+        <v>-14200</v>
       </c>
       <c r="F32" s="3">
-        <v>-15900</v>
+        <v>-16500</v>
       </c>
       <c r="G32" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="H32" s="3">
-        <v>-84300</v>
+        <v>-87800</v>
       </c>
       <c r="I32" s="3">
-        <v>-12800</v>
+        <v>-13300</v>
       </c>
       <c r="J32" s="3">
-        <v>-17100</v>
+        <v>-17800</v>
       </c>
       <c r="K32" s="3">
         <v>29300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4180600</v>
+        <v>4353200</v>
       </c>
       <c r="E33" s="3">
-        <v>3049600</v>
+        <v>3175500</v>
       </c>
       <c r="F33" s="3">
-        <v>3048800</v>
+        <v>3174700</v>
       </c>
       <c r="G33" s="3">
-        <v>2431300</v>
+        <v>2531700</v>
       </c>
       <c r="H33" s="3">
-        <v>1832600</v>
+        <v>1908300</v>
       </c>
       <c r="I33" s="3">
-        <v>1631900</v>
+        <v>1699300</v>
       </c>
       <c r="J33" s="3">
-        <v>1407700</v>
+        <v>1465900</v>
       </c>
       <c r="K33" s="3">
         <v>1214700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4180600</v>
+        <v>4353200</v>
       </c>
       <c r="E35" s="3">
-        <v>3049600</v>
+        <v>3175500</v>
       </c>
       <c r="F35" s="3">
-        <v>3048800</v>
+        <v>3174700</v>
       </c>
       <c r="G35" s="3">
-        <v>2431300</v>
+        <v>2531700</v>
       </c>
       <c r="H35" s="3">
-        <v>1832600</v>
+        <v>1908300</v>
       </c>
       <c r="I35" s="3">
-        <v>1631900</v>
+        <v>1699300</v>
       </c>
       <c r="J35" s="3">
-        <v>1407700</v>
+        <v>1465900</v>
       </c>
       <c r="K35" s="3">
         <v>1214700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7116500</v>
+        <v>7410500</v>
       </c>
       <c r="E41" s="3">
-        <v>4155400</v>
+        <v>4327000</v>
       </c>
       <c r="F41" s="3">
-        <v>3671700</v>
+        <v>3823300</v>
       </c>
       <c r="G41" s="3">
-        <v>2657500</v>
+        <v>2767300</v>
       </c>
       <c r="H41" s="3">
-        <v>3419600</v>
+        <v>3560900</v>
       </c>
       <c r="I41" s="3">
-        <v>2892400</v>
+        <v>3011900</v>
       </c>
       <c r="J41" s="3">
-        <v>2846300</v>
+        <v>2963800</v>
       </c>
       <c r="K41" s="3">
         <v>2788000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1531900</v>
+        <v>1595200</v>
       </c>
       <c r="E42" s="3">
-        <v>1395000</v>
+        <v>1452600</v>
       </c>
       <c r="F42" s="3">
-        <v>1074400</v>
+        <v>1118800</v>
       </c>
       <c r="G42" s="3">
-        <v>1210900</v>
+        <v>1260900</v>
       </c>
       <c r="H42" s="3">
-        <v>1352900</v>
+        <v>1408700</v>
       </c>
       <c r="I42" s="3">
-        <v>1117600</v>
+        <v>1163700</v>
       </c>
       <c r="J42" s="3">
-        <v>393900</v>
+        <v>410200</v>
       </c>
       <c r="K42" s="3">
         <v>813300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3920800</v>
+        <v>4082800</v>
       </c>
       <c r="E43" s="3">
-        <v>3353300</v>
+        <v>3491800</v>
       </c>
       <c r="F43" s="3">
-        <v>2824400</v>
+        <v>2941100</v>
       </c>
       <c r="G43" s="3">
-        <v>2586600</v>
+        <v>2693400</v>
       </c>
       <c r="H43" s="3">
-        <v>1436100</v>
+        <v>1495400</v>
       </c>
       <c r="I43" s="3">
-        <v>1370100</v>
+        <v>1426700</v>
       </c>
       <c r="J43" s="3">
-        <v>1568800</v>
+        <v>1633600</v>
       </c>
       <c r="K43" s="3">
         <v>1423300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5375400</v>
+        <v>5597500</v>
       </c>
       <c r="E44" s="3">
-        <v>4481100</v>
+        <v>4666200</v>
       </c>
       <c r="F44" s="3">
-        <v>4046200</v>
+        <v>4213400</v>
       </c>
       <c r="G44" s="3">
-        <v>3477000</v>
+        <v>3620600</v>
       </c>
       <c r="H44" s="3">
-        <v>3271400</v>
+        <v>3406500</v>
       </c>
       <c r="I44" s="3">
-        <v>3027700</v>
+        <v>3152800</v>
       </c>
       <c r="J44" s="3">
-        <v>2999600</v>
+        <v>3123500</v>
       </c>
       <c r="K44" s="3">
         <v>2862500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>795400</v>
+        <v>828200</v>
       </c>
       <c r="E45" s="3">
-        <v>886200</v>
+        <v>922800</v>
       </c>
       <c r="F45" s="3">
-        <v>772400</v>
+        <v>804300</v>
       </c>
       <c r="G45" s="3">
-        <v>521400</v>
+        <v>542900</v>
       </c>
       <c r="H45" s="3">
-        <v>586900</v>
+        <v>611200</v>
       </c>
       <c r="I45" s="3">
-        <v>659500</v>
+        <v>686800</v>
       </c>
       <c r="J45" s="3">
-        <v>598100</v>
+        <v>622800</v>
       </c>
       <c r="K45" s="3">
         <v>516900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18740100</v>
+        <v>19514100</v>
       </c>
       <c r="E46" s="3">
-        <v>14271000</v>
+        <v>14860500</v>
       </c>
       <c r="F46" s="3">
-        <v>12389100</v>
+        <v>12900900</v>
       </c>
       <c r="G46" s="3">
-        <v>10453300</v>
+        <v>10885000</v>
       </c>
       <c r="H46" s="3">
-        <v>10067000</v>
+        <v>10482800</v>
       </c>
       <c r="I46" s="3">
-        <v>9067300</v>
+        <v>9441900</v>
       </c>
       <c r="J46" s="3">
-        <v>8406800</v>
+        <v>8754000</v>
       </c>
       <c r="K46" s="3">
         <v>8404000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1463200</v>
+        <v>1523600</v>
       </c>
       <c r="E47" s="3">
-        <v>1555100</v>
+        <v>1619300</v>
       </c>
       <c r="F47" s="3">
-        <v>1578300</v>
+        <v>1643400</v>
       </c>
       <c r="G47" s="3">
-        <v>1343000</v>
+        <v>1398400</v>
       </c>
       <c r="H47" s="3">
-        <v>144300</v>
+        <v>150300</v>
       </c>
       <c r="I47" s="3">
-        <v>152300</v>
+        <v>158600</v>
       </c>
       <c r="J47" s="3">
-        <v>71400</v>
+        <v>74400</v>
       </c>
       <c r="K47" s="3">
         <v>61600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3311800</v>
+        <v>3448600</v>
       </c>
       <c r="E48" s="3">
-        <v>2733000</v>
+        <v>2845900</v>
       </c>
       <c r="F48" s="3">
-        <v>2031800</v>
+        <v>2115700</v>
       </c>
       <c r="G48" s="3">
-        <v>2016900</v>
+        <v>2100200</v>
       </c>
       <c r="H48" s="3">
-        <v>1984900</v>
+        <v>2066800</v>
       </c>
       <c r="I48" s="3">
-        <v>1906600</v>
+        <v>1985300</v>
       </c>
       <c r="J48" s="3">
-        <v>1702900</v>
+        <v>1773200</v>
       </c>
       <c r="K48" s="3">
         <v>1456800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6679600</v>
+        <v>6955500</v>
       </c>
       <c r="E49" s="3">
-        <v>6641400</v>
+        <v>6915700</v>
       </c>
       <c r="F49" s="3">
-        <v>6640900</v>
+        <v>6915200</v>
       </c>
       <c r="G49" s="3">
-        <v>6713800</v>
+        <v>6991100</v>
       </c>
       <c r="H49" s="3">
-        <v>7289900</v>
+        <v>7591000</v>
       </c>
       <c r="I49" s="3">
-        <v>3955900</v>
+        <v>4119300</v>
       </c>
       <c r="J49" s="3">
-        <v>3624900</v>
+        <v>3774700</v>
       </c>
       <c r="K49" s="3">
         <v>3332900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1882700</v>
+        <v>1960500</v>
       </c>
       <c r="E52" s="3">
-        <v>1421000</v>
+        <v>1479700</v>
       </c>
       <c r="F52" s="3">
-        <v>1049000</v>
+        <v>1092300</v>
       </c>
       <c r="G52" s="3">
-        <v>870400</v>
+        <v>906400</v>
       </c>
       <c r="H52" s="3">
-        <v>755000</v>
+        <v>786200</v>
       </c>
       <c r="I52" s="3">
-        <v>558100</v>
+        <v>581200</v>
       </c>
       <c r="J52" s="3">
-        <v>550700</v>
+        <v>573500</v>
       </c>
       <c r="K52" s="3">
         <v>517500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32077400</v>
+        <v>33402300</v>
       </c>
       <c r="E54" s="3">
-        <v>26621500</v>
+        <v>27721000</v>
       </c>
       <c r="F54" s="3">
-        <v>23689000</v>
+        <v>24667500</v>
       </c>
       <c r="G54" s="3">
-        <v>21397400</v>
+        <v>22281200</v>
       </c>
       <c r="H54" s="3">
-        <v>20241100</v>
+        <v>21077100</v>
       </c>
       <c r="I54" s="3">
-        <v>15640300</v>
+        <v>16286300</v>
       </c>
       <c r="J54" s="3">
-        <v>14356700</v>
+        <v>14949700</v>
       </c>
       <c r="K54" s="3">
         <v>13772700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1621000</v>
+        <v>1687900</v>
       </c>
       <c r="E57" s="3">
-        <v>1249600</v>
+        <v>1301200</v>
       </c>
       <c r="F57" s="3">
-        <v>1134000</v>
+        <v>1180900</v>
       </c>
       <c r="G57" s="3">
-        <v>985000</v>
+        <v>1025700</v>
       </c>
       <c r="H57" s="3">
-        <v>697800</v>
+        <v>726700</v>
       </c>
       <c r="I57" s="3">
-        <v>492800</v>
+        <v>513100</v>
       </c>
       <c r="J57" s="3">
-        <v>583800</v>
+        <v>607900</v>
       </c>
       <c r="K57" s="3">
         <v>748700</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23600</v>
+        <v>24600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -2319,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>29600</v>
+        <v>30900</v>
       </c>
       <c r="H58" s="3">
-        <v>291400</v>
+        <v>303400</v>
       </c>
       <c r="I58" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J58" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="K58" s="3">
         <v>5200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6123800</v>
+        <v>6376700</v>
       </c>
       <c r="E59" s="3">
-        <v>4272600</v>
+        <v>4449000</v>
       </c>
       <c r="F59" s="3">
-        <v>3326700</v>
+        <v>3464100</v>
       </c>
       <c r="G59" s="3">
-        <v>5452500</v>
+        <v>5677700</v>
       </c>
       <c r="H59" s="3">
-        <v>2870100</v>
+        <v>2988600</v>
       </c>
       <c r="I59" s="3">
-        <v>3157500</v>
+        <v>3288000</v>
       </c>
       <c r="J59" s="3">
-        <v>2809700</v>
+        <v>2925700</v>
       </c>
       <c r="K59" s="3">
         <v>2677600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7768400</v>
+        <v>8089200</v>
       </c>
       <c r="E60" s="3">
-        <v>5522100</v>
+        <v>5750200</v>
       </c>
       <c r="F60" s="3">
-        <v>4460800</v>
+        <v>4645000</v>
       </c>
       <c r="G60" s="3">
-        <v>3729200</v>
+        <v>3883200</v>
       </c>
       <c r="H60" s="3">
-        <v>3859300</v>
+        <v>4018700</v>
       </c>
       <c r="I60" s="3">
-        <v>3655300</v>
+        <v>3806300</v>
       </c>
       <c r="J60" s="3">
-        <v>3398500</v>
+        <v>3538800</v>
       </c>
       <c r="K60" s="3">
         <v>3431500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5485300</v>
+        <v>5711900</v>
       </c>
       <c r="E61" s="3">
-        <v>3656600</v>
+        <v>3807600</v>
       </c>
       <c r="F61" s="3">
-        <v>3560400</v>
+        <v>3707400</v>
       </c>
       <c r="G61" s="3">
-        <v>3529300</v>
+        <v>3675100</v>
       </c>
       <c r="H61" s="3">
-        <v>3613700</v>
+        <v>3762900</v>
       </c>
       <c r="I61" s="3">
-        <v>1324000</v>
+        <v>1378700</v>
       </c>
       <c r="J61" s="3">
-        <v>1352700</v>
+        <v>1408600</v>
       </c>
       <c r="K61" s="3">
         <v>1280200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2512400</v>
+        <v>2616200</v>
       </c>
       <c r="E62" s="3">
-        <v>2629300</v>
+        <v>2737900</v>
       </c>
       <c r="F62" s="3">
-        <v>1973400</v>
+        <v>2054900</v>
       </c>
       <c r="G62" s="3">
-        <v>2461900</v>
+        <v>2563500</v>
       </c>
       <c r="H62" s="3">
-        <v>1215300</v>
+        <v>1265500</v>
       </c>
       <c r="I62" s="3">
-        <v>792400</v>
+        <v>825100</v>
       </c>
       <c r="J62" s="3">
-        <v>767700</v>
+        <v>799400</v>
       </c>
       <c r="K62" s="3">
         <v>780500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15766100</v>
+        <v>16417300</v>
       </c>
       <c r="E66" s="3">
-        <v>11808000</v>
+        <v>12295700</v>
       </c>
       <c r="F66" s="3">
-        <v>9994600</v>
+        <v>10407400</v>
       </c>
       <c r="G66" s="3">
-        <v>8720100</v>
+        <v>9080200</v>
       </c>
       <c r="H66" s="3">
-        <v>8688300</v>
+        <v>9047100</v>
       </c>
       <c r="I66" s="3">
-        <v>5771700</v>
+        <v>6010000</v>
       </c>
       <c r="J66" s="3">
-        <v>5518900</v>
+        <v>5746900</v>
       </c>
       <c r="K66" s="3">
         <v>5492100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12624500</v>
+        <v>13146000</v>
       </c>
       <c r="E72" s="3">
-        <v>11203800</v>
+        <v>11666600</v>
       </c>
       <c r="F72" s="3">
-        <v>10820400</v>
+        <v>11267300</v>
       </c>
       <c r="G72" s="3">
-        <v>8601200</v>
+        <v>8956500</v>
       </c>
       <c r="H72" s="3">
-        <v>7390700</v>
+        <v>7696000</v>
       </c>
       <c r="I72" s="3">
-        <v>6216500</v>
+        <v>6473200</v>
       </c>
       <c r="J72" s="3">
-        <v>5468500</v>
+        <v>5694400</v>
       </c>
       <c r="K72" s="3">
         <v>5184600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16311300</v>
+        <v>16985000</v>
       </c>
       <c r="E76" s="3">
-        <v>14813500</v>
+        <v>15425300</v>
       </c>
       <c r="F76" s="3">
-        <v>13694500</v>
+        <v>14260100</v>
       </c>
       <c r="G76" s="3">
-        <v>12677400</v>
+        <v>13201000</v>
       </c>
       <c r="H76" s="3">
-        <v>11552800</v>
+        <v>12030000</v>
       </c>
       <c r="I76" s="3">
-        <v>9868600</v>
+        <v>10276200</v>
       </c>
       <c r="J76" s="3">
-        <v>8837800</v>
+        <v>9202800</v>
       </c>
       <c r="K76" s="3">
         <v>8280600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4180600</v>
+        <v>4353200</v>
       </c>
       <c r="E81" s="3">
-        <v>3049600</v>
+        <v>3175500</v>
       </c>
       <c r="F81" s="3">
-        <v>3048800</v>
+        <v>3174700</v>
       </c>
       <c r="G81" s="3">
-        <v>2431300</v>
+        <v>2531700</v>
       </c>
       <c r="H81" s="3">
-        <v>1832600</v>
+        <v>1908300</v>
       </c>
       <c r="I81" s="3">
-        <v>1631900</v>
+        <v>1699300</v>
       </c>
       <c r="J81" s="3">
-        <v>1407700</v>
+        <v>1465900</v>
       </c>
       <c r="K81" s="3">
         <v>1214700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>577400</v>
+        <v>601200</v>
       </c>
       <c r="E83" s="3">
-        <v>527600</v>
+        <v>549400</v>
       </c>
       <c r="F83" s="3">
-        <v>497300</v>
+        <v>517800</v>
       </c>
       <c r="G83" s="3">
-        <v>615300</v>
+        <v>640700</v>
       </c>
       <c r="H83" s="3">
-        <v>416800</v>
+        <v>434000</v>
       </c>
       <c r="I83" s="3">
-        <v>346100</v>
+        <v>360400</v>
       </c>
       <c r="J83" s="3">
-        <v>298100</v>
+        <v>310400</v>
       </c>
       <c r="K83" s="3">
         <v>268700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5443900</v>
+        <v>5668800</v>
       </c>
       <c r="E89" s="3">
-        <v>3854400</v>
+        <v>4013600</v>
       </c>
       <c r="F89" s="3">
-        <v>3614700</v>
+        <v>3764000</v>
       </c>
       <c r="G89" s="3">
-        <v>2139000</v>
+        <v>2227400</v>
       </c>
       <c r="H89" s="3">
-        <v>1959800</v>
+        <v>2040700</v>
       </c>
       <c r="I89" s="3">
-        <v>2382900</v>
+        <v>2481300</v>
       </c>
       <c r="J89" s="3">
-        <v>1206100</v>
+        <v>1255900</v>
       </c>
       <c r="K89" s="3">
         <v>1261000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1131700</v>
+        <v>-1178400</v>
       </c>
       <c r="E91" s="3">
-        <v>-901800</v>
+        <v>-939100</v>
       </c>
       <c r="F91" s="3">
-        <v>-675300</v>
+        <v>-703100</v>
       </c>
       <c r="G91" s="3">
-        <v>-398700</v>
+        <v>-415100</v>
       </c>
       <c r="H91" s="3">
-        <v>-372100</v>
+        <v>-387500</v>
       </c>
       <c r="I91" s="3">
-        <v>-437400</v>
+        <v>-455400</v>
       </c>
       <c r="J91" s="3">
-        <v>-421500</v>
+        <v>-438900</v>
       </c>
       <c r="K91" s="3">
         <v>-252200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1590700</v>
+        <v>-1656400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1361700</v>
+        <v>-1417900</v>
       </c>
       <c r="F94" s="3">
-        <v>-578200</v>
+        <v>-602100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1445800</v>
+        <v>-1505500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3750900</v>
+        <v>-3905900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1364500</v>
+        <v>-1420900</v>
       </c>
       <c r="J94" s="3">
-        <v>-19100</v>
+        <v>-19900</v>
       </c>
       <c r="K94" s="3">
         <v>-440600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1254500</v>
+        <v>-1306300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1559600</v>
+        <v>-1624000</v>
       </c>
       <c r="F96" s="3">
-        <v>-702400</v>
+        <v>-731400</v>
       </c>
       <c r="G96" s="3">
-        <v>-607800</v>
+        <v>-633000</v>
       </c>
       <c r="H96" s="3">
-        <v>-524500</v>
+        <v>-546200</v>
       </c>
       <c r="I96" s="3">
-        <v>-355600</v>
+        <v>-370300</v>
       </c>
       <c r="J96" s="3">
-        <v>-315200</v>
+        <v>-328300</v>
       </c>
       <c r="K96" s="3">
         <v>-258500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-885800</v>
+        <v>-922400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2014300</v>
+        <v>-2097600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2028500</v>
+        <v>-2112300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1422400</v>
+        <v>-1481100</v>
       </c>
       <c r="H100" s="3">
-        <v>2310000</v>
+        <v>2405400</v>
       </c>
       <c r="I100" s="3">
-        <v>-981100</v>
+        <v>-1021600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1092200</v>
+        <v>-1137300</v>
       </c>
       <c r="K100" s="3">
         <v>-135300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="E101" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F101" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="G101" s="3">
-        <v>-33100</v>
+        <v>-34400</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="I101" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="J101" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="K101" s="3">
         <v>-11500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2961100</v>
+        <v>3083400</v>
       </c>
       <c r="E102" s="3">
-        <v>483700</v>
+        <v>503700</v>
       </c>
       <c r="F102" s="3">
-        <v>1014200</v>
+        <v>1056100</v>
       </c>
       <c r="G102" s="3">
-        <v>-762200</v>
+        <v>-793700</v>
       </c>
       <c r="H102" s="3">
-        <v>527200</v>
+        <v>549000</v>
       </c>
       <c r="I102" s="3">
-        <v>46200</v>
+        <v>48100</v>
       </c>
       <c r="J102" s="3">
-        <v>104500</v>
+        <v>108800</v>
       </c>
       <c r="K102" s="3">
         <v>673600</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17123500</v>
+        <v>16318600</v>
       </c>
       <c r="E8" s="3">
-        <v>14479400</v>
+        <v>13798800</v>
       </c>
       <c r="F8" s="3">
-        <v>13406300</v>
+        <v>12776100</v>
       </c>
       <c r="G8" s="3">
-        <v>10979200</v>
+        <v>10463100</v>
       </c>
       <c r="H8" s="3">
-        <v>8421900</v>
+        <v>8026100</v>
       </c>
       <c r="I8" s="3">
-        <v>7702000</v>
+        <v>7339900</v>
       </c>
       <c r="J8" s="3">
-        <v>7173900</v>
+        <v>6836700</v>
       </c>
       <c r="K8" s="3">
         <v>6274500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8797000</v>
+        <v>8383500</v>
       </c>
       <c r="E9" s="3">
-        <v>8011700</v>
+        <v>7635100</v>
       </c>
       <c r="F9" s="3">
-        <v>7245600</v>
+        <v>6905000</v>
       </c>
       <c r="G9" s="3">
-        <v>6054500</v>
+        <v>5769900</v>
       </c>
       <c r="H9" s="3">
-        <v>4569000</v>
+        <v>4354200</v>
       </c>
       <c r="I9" s="3">
-        <v>4154700</v>
+        <v>3959400</v>
       </c>
       <c r="J9" s="3">
-        <v>3993300</v>
+        <v>3805600</v>
       </c>
       <c r="K9" s="3">
         <v>3670000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8326500</v>
+        <v>7935100</v>
       </c>
       <c r="E10" s="3">
-        <v>6467700</v>
+        <v>6163700</v>
       </c>
       <c r="F10" s="3">
-        <v>6160700</v>
+        <v>5871100</v>
       </c>
       <c r="G10" s="3">
-        <v>4924700</v>
+        <v>4693200</v>
       </c>
       <c r="H10" s="3">
-        <v>3853000</v>
+        <v>3671900</v>
       </c>
       <c r="I10" s="3">
-        <v>3547300</v>
+        <v>3380500</v>
       </c>
       <c r="J10" s="3">
-        <v>3180500</v>
+        <v>3031000</v>
       </c>
       <c r="K10" s="3">
         <v>2604400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2534400</v>
+        <v>2415300</v>
       </c>
       <c r="E12" s="3">
-        <v>2258600</v>
+        <v>2152500</v>
       </c>
       <c r="F12" s="3">
-        <v>1799100</v>
+        <v>1714600</v>
       </c>
       <c r="G12" s="3">
-        <v>1416000</v>
+        <v>1349400</v>
       </c>
       <c r="H12" s="3">
-        <v>1257500</v>
+        <v>1198300</v>
       </c>
       <c r="I12" s="3">
-        <v>1281700</v>
+        <v>1221400</v>
       </c>
       <c r="J12" s="3">
-        <v>1268800</v>
+        <v>1209100</v>
       </c>
       <c r="K12" s="3">
         <v>1004500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>205200</v>
+        <v>195500</v>
       </c>
       <c r="E15" s="3">
-        <v>180300</v>
+        <v>171800</v>
       </c>
       <c r="F15" s="3">
-        <v>159600</v>
+        <v>152100</v>
       </c>
       <c r="G15" s="3">
-        <v>144900</v>
+        <v>138100</v>
       </c>
       <c r="H15" s="3">
-        <v>131000</v>
+        <v>124800</v>
       </c>
       <c r="I15" s="3">
-        <v>65400</v>
+        <v>62300</v>
       </c>
       <c r="J15" s="3">
-        <v>70600</v>
+        <v>67200</v>
       </c>
       <c r="K15" s="3">
         <v>64100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12160500</v>
+        <v>11588900</v>
       </c>
       <c r="E17" s="3">
-        <v>11060700</v>
+        <v>10540800</v>
       </c>
       <c r="F17" s="3">
-        <v>9773800</v>
+        <v>9314400</v>
       </c>
       <c r="G17" s="3">
-        <v>7990600</v>
+        <v>7615000</v>
       </c>
       <c r="H17" s="3">
-        <v>6267800</v>
+        <v>5973200</v>
       </c>
       <c r="I17" s="3">
-        <v>5784700</v>
+        <v>5512800</v>
       </c>
       <c r="J17" s="3">
-        <v>5603200</v>
+        <v>5339800</v>
       </c>
       <c r="K17" s="3">
         <v>5020900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4963000</v>
+        <v>4729800</v>
       </c>
       <c r="E18" s="3">
-        <v>3418700</v>
+        <v>3258000</v>
       </c>
       <c r="F18" s="3">
-        <v>3632500</v>
+        <v>3461700</v>
       </c>
       <c r="G18" s="3">
-        <v>2988600</v>
+        <v>2848100</v>
       </c>
       <c r="H18" s="3">
-        <v>2154100</v>
+        <v>2052900</v>
       </c>
       <c r="I18" s="3">
-        <v>1917300</v>
+        <v>1827200</v>
       </c>
       <c r="J18" s="3">
-        <v>1570700</v>
+        <v>1496900</v>
       </c>
       <c r="K18" s="3">
         <v>1253600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="E20" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="F20" s="3">
-        <v>16500</v>
+        <v>15800</v>
       </c>
       <c r="G20" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="H20" s="3">
-        <v>87800</v>
+        <v>83700</v>
       </c>
       <c r="I20" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="J20" s="3">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="K20" s="3">
         <v>-29300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5572800</v>
+        <v>5314300</v>
       </c>
       <c r="E21" s="3">
-        <v>3980800</v>
+        <v>3796700</v>
       </c>
       <c r="F21" s="3">
-        <v>4165300</v>
+        <v>3972500</v>
       </c>
       <c r="G21" s="3">
-        <v>3636300</v>
+        <v>3469000</v>
       </c>
       <c r="H21" s="3">
-        <v>2674800</v>
+        <v>2551500</v>
       </c>
       <c r="I21" s="3">
-        <v>2290000</v>
+        <v>2184400</v>
       </c>
       <c r="J21" s="3">
-        <v>1898000</v>
+        <v>1810500</v>
       </c>
       <c r="K21" s="3">
         <v>1491900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="E22" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="F22" s="3">
-        <v>51200</v>
+        <v>48800</v>
       </c>
       <c r="G22" s="3">
-        <v>70400</v>
+        <v>67100</v>
       </c>
       <c r="H22" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="I22" s="3">
-        <v>33600</v>
+        <v>32000</v>
       </c>
       <c r="J22" s="3">
-        <v>28300</v>
+        <v>27000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4920300</v>
+        <v>4689000</v>
       </c>
       <c r="E23" s="3">
-        <v>3388100</v>
+        <v>3228800</v>
       </c>
       <c r="F23" s="3">
-        <v>3597800</v>
+        <v>3428700</v>
       </c>
       <c r="G23" s="3">
-        <v>2927000</v>
+        <v>2789400</v>
       </c>
       <c r="H23" s="3">
-        <v>2195400</v>
+        <v>2092200</v>
       </c>
       <c r="I23" s="3">
-        <v>1897000</v>
+        <v>1807900</v>
       </c>
       <c r="J23" s="3">
-        <v>1560200</v>
+        <v>1486900</v>
       </c>
       <c r="K23" s="3">
         <v>1224300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>675600</v>
+        <v>643800</v>
       </c>
       <c r="E24" s="3">
-        <v>234800</v>
+        <v>223800</v>
       </c>
       <c r="F24" s="3">
-        <v>430700</v>
+        <v>410500</v>
       </c>
       <c r="G24" s="3">
-        <v>374800</v>
+        <v>357200</v>
       </c>
       <c r="H24" s="3">
-        <v>287100</v>
+        <v>273600</v>
       </c>
       <c r="I24" s="3">
-        <v>197800</v>
+        <v>188500</v>
       </c>
       <c r="J24" s="3">
-        <v>94300</v>
+        <v>89900</v>
       </c>
       <c r="K24" s="3">
         <v>9600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4244700</v>
+        <v>4045200</v>
       </c>
       <c r="E26" s="3">
-        <v>3153200</v>
+        <v>3005000</v>
       </c>
       <c r="F26" s="3">
-        <v>3167100</v>
+        <v>3018200</v>
       </c>
       <c r="G26" s="3">
-        <v>2552100</v>
+        <v>2432200</v>
       </c>
       <c r="H26" s="3">
-        <v>1908300</v>
+        <v>1818600</v>
       </c>
       <c r="I26" s="3">
-        <v>1699300</v>
+        <v>1619400</v>
       </c>
       <c r="J26" s="3">
-        <v>1465900</v>
+        <v>1397000</v>
       </c>
       <c r="K26" s="3">
         <v>1214700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4353200</v>
+        <v>4148600</v>
       </c>
       <c r="E27" s="3">
-        <v>3175500</v>
+        <v>3026300</v>
       </c>
       <c r="F27" s="3">
-        <v>3174700</v>
+        <v>3025500</v>
       </c>
       <c r="G27" s="3">
-        <v>2531700</v>
+        <v>2412700</v>
       </c>
       <c r="H27" s="3">
-        <v>1908300</v>
+        <v>1818600</v>
       </c>
       <c r="I27" s="3">
-        <v>1699300</v>
+        <v>1619400</v>
       </c>
       <c r="J27" s="3">
-        <v>1465900</v>
+        <v>1397000</v>
       </c>
       <c r="K27" s="3">
         <v>1214700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10300</v>
+        <v>-9800</v>
       </c>
       <c r="E32" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="F32" s="3">
-        <v>-16500</v>
+        <v>-15800</v>
       </c>
       <c r="G32" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="H32" s="3">
-        <v>-87800</v>
+        <v>-83700</v>
       </c>
       <c r="I32" s="3">
-        <v>-13300</v>
+        <v>-12700</v>
       </c>
       <c r="J32" s="3">
-        <v>-17800</v>
+        <v>-16900</v>
       </c>
       <c r="K32" s="3">
         <v>29300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4353200</v>
+        <v>4148600</v>
       </c>
       <c r="E33" s="3">
-        <v>3175500</v>
+        <v>3026300</v>
       </c>
       <c r="F33" s="3">
-        <v>3174700</v>
+        <v>3025500</v>
       </c>
       <c r="G33" s="3">
-        <v>2531700</v>
+        <v>2412700</v>
       </c>
       <c r="H33" s="3">
-        <v>1908300</v>
+        <v>1818600</v>
       </c>
       <c r="I33" s="3">
-        <v>1699300</v>
+        <v>1619400</v>
       </c>
       <c r="J33" s="3">
-        <v>1465900</v>
+        <v>1397000</v>
       </c>
       <c r="K33" s="3">
         <v>1214700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4353200</v>
+        <v>4148600</v>
       </c>
       <c r="E35" s="3">
-        <v>3175500</v>
+        <v>3026300</v>
       </c>
       <c r="F35" s="3">
-        <v>3174700</v>
+        <v>3025500</v>
       </c>
       <c r="G35" s="3">
-        <v>2531700</v>
+        <v>2412700</v>
       </c>
       <c r="H35" s="3">
-        <v>1908300</v>
+        <v>1818600</v>
       </c>
       <c r="I35" s="3">
-        <v>1699300</v>
+        <v>1619400</v>
       </c>
       <c r="J35" s="3">
-        <v>1465900</v>
+        <v>1397000</v>
       </c>
       <c r="K35" s="3">
         <v>1214700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7410500</v>
+        <v>7062100</v>
       </c>
       <c r="E41" s="3">
-        <v>4327000</v>
+        <v>4123600</v>
       </c>
       <c r="F41" s="3">
-        <v>3823300</v>
+        <v>3643600</v>
       </c>
       <c r="G41" s="3">
-        <v>2767300</v>
+        <v>2637200</v>
       </c>
       <c r="H41" s="3">
-        <v>3560900</v>
+        <v>3393500</v>
       </c>
       <c r="I41" s="3">
-        <v>3011900</v>
+        <v>2870300</v>
       </c>
       <c r="J41" s="3">
-        <v>2963800</v>
+        <v>2824500</v>
       </c>
       <c r="K41" s="3">
         <v>2788000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1595200</v>
+        <v>1520200</v>
       </c>
       <c r="E42" s="3">
-        <v>1452600</v>
+        <v>1384300</v>
       </c>
       <c r="F42" s="3">
-        <v>1118800</v>
+        <v>1066200</v>
       </c>
       <c r="G42" s="3">
-        <v>1260900</v>
+        <v>1201600</v>
       </c>
       <c r="H42" s="3">
-        <v>1408700</v>
+        <v>1342500</v>
       </c>
       <c r="I42" s="3">
-        <v>1163700</v>
+        <v>1109000</v>
       </c>
       <c r="J42" s="3">
-        <v>410200</v>
+        <v>390900</v>
       </c>
       <c r="K42" s="3">
         <v>813300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4082800</v>
+        <v>3890900</v>
       </c>
       <c r="E43" s="3">
-        <v>3491800</v>
+        <v>3327700</v>
       </c>
       <c r="F43" s="3">
-        <v>2941100</v>
+        <v>2802800</v>
       </c>
       <c r="G43" s="3">
-        <v>2693400</v>
+        <v>2566800</v>
       </c>
       <c r="H43" s="3">
-        <v>1495400</v>
+        <v>1425100</v>
       </c>
       <c r="I43" s="3">
-        <v>1426700</v>
+        <v>1359600</v>
       </c>
       <c r="J43" s="3">
-        <v>1633600</v>
+        <v>1556800</v>
       </c>
       <c r="K43" s="3">
         <v>1423300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5597500</v>
+        <v>5334400</v>
       </c>
       <c r="E44" s="3">
-        <v>4666200</v>
+        <v>4446900</v>
       </c>
       <c r="F44" s="3">
-        <v>4213400</v>
+        <v>4015300</v>
       </c>
       <c r="G44" s="3">
-        <v>3620600</v>
+        <v>3450400</v>
       </c>
       <c r="H44" s="3">
-        <v>3406500</v>
+        <v>3246400</v>
       </c>
       <c r="I44" s="3">
-        <v>3152800</v>
+        <v>3004600</v>
       </c>
       <c r="J44" s="3">
-        <v>3123500</v>
+        <v>2976700</v>
       </c>
       <c r="K44" s="3">
         <v>2862500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>828200</v>
+        <v>789300</v>
       </c>
       <c r="E45" s="3">
-        <v>922800</v>
+        <v>879400</v>
       </c>
       <c r="F45" s="3">
-        <v>804300</v>
+        <v>766500</v>
       </c>
       <c r="G45" s="3">
-        <v>542900</v>
+        <v>517400</v>
       </c>
       <c r="H45" s="3">
-        <v>611200</v>
+        <v>582400</v>
       </c>
       <c r="I45" s="3">
-        <v>686800</v>
+        <v>654500</v>
       </c>
       <c r="J45" s="3">
-        <v>622800</v>
+        <v>593500</v>
       </c>
       <c r="K45" s="3">
         <v>516900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19514100</v>
+        <v>18596800</v>
       </c>
       <c r="E46" s="3">
-        <v>14860500</v>
+        <v>14162000</v>
       </c>
       <c r="F46" s="3">
-        <v>12900900</v>
+        <v>12294500</v>
       </c>
       <c r="G46" s="3">
-        <v>10885000</v>
+        <v>10373400</v>
       </c>
       <c r="H46" s="3">
-        <v>10482800</v>
+        <v>9990000</v>
       </c>
       <c r="I46" s="3">
-        <v>9441900</v>
+        <v>8998000</v>
       </c>
       <c r="J46" s="3">
-        <v>8754000</v>
+        <v>8342600</v>
       </c>
       <c r="K46" s="3">
         <v>8404000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1523600</v>
+        <v>1452000</v>
       </c>
       <c r="E47" s="3">
-        <v>1619300</v>
+        <v>1543200</v>
       </c>
       <c r="F47" s="3">
-        <v>1643400</v>
+        <v>1566200</v>
       </c>
       <c r="G47" s="3">
-        <v>1398400</v>
+        <v>1332700</v>
       </c>
       <c r="H47" s="3">
-        <v>150300</v>
+        <v>143200</v>
       </c>
       <c r="I47" s="3">
-        <v>158600</v>
+        <v>151200</v>
       </c>
       <c r="J47" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="K47" s="3">
         <v>61600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3448600</v>
+        <v>3286500</v>
       </c>
       <c r="E48" s="3">
-        <v>2845900</v>
+        <v>2712100</v>
       </c>
       <c r="F48" s="3">
-        <v>2115700</v>
+        <v>2016200</v>
       </c>
       <c r="G48" s="3">
-        <v>2100200</v>
+        <v>2001500</v>
       </c>
       <c r="H48" s="3">
-        <v>2066800</v>
+        <v>1969700</v>
       </c>
       <c r="I48" s="3">
-        <v>1985300</v>
+        <v>1892000</v>
       </c>
       <c r="J48" s="3">
-        <v>1773200</v>
+        <v>1689900</v>
       </c>
       <c r="K48" s="3">
         <v>1456800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6955500</v>
+        <v>6628600</v>
       </c>
       <c r="E49" s="3">
-        <v>6915700</v>
+        <v>6590600</v>
       </c>
       <c r="F49" s="3">
-        <v>6915200</v>
+        <v>6590100</v>
       </c>
       <c r="G49" s="3">
-        <v>6991100</v>
+        <v>6662500</v>
       </c>
       <c r="H49" s="3">
-        <v>7591000</v>
+        <v>7234200</v>
       </c>
       <c r="I49" s="3">
-        <v>4119300</v>
+        <v>3925700</v>
       </c>
       <c r="J49" s="3">
-        <v>3774700</v>
+        <v>3597200</v>
       </c>
       <c r="K49" s="3">
         <v>3332900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1960500</v>
+        <v>1868300</v>
       </c>
       <c r="E52" s="3">
-        <v>1479700</v>
+        <v>1410100</v>
       </c>
       <c r="F52" s="3">
-        <v>1092300</v>
+        <v>1041000</v>
       </c>
       <c r="G52" s="3">
-        <v>906400</v>
+        <v>863800</v>
       </c>
       <c r="H52" s="3">
-        <v>786200</v>
+        <v>749200</v>
       </c>
       <c r="I52" s="3">
-        <v>581200</v>
+        <v>553900</v>
       </c>
       <c r="J52" s="3">
-        <v>573500</v>
+        <v>546500</v>
       </c>
       <c r="K52" s="3">
         <v>517500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33402300</v>
+        <v>31832200</v>
       </c>
       <c r="E54" s="3">
-        <v>27721000</v>
+        <v>26418000</v>
       </c>
       <c r="F54" s="3">
-        <v>24667500</v>
+        <v>23508000</v>
       </c>
       <c r="G54" s="3">
-        <v>22281200</v>
+        <v>21233900</v>
       </c>
       <c r="H54" s="3">
-        <v>21077100</v>
+        <v>20086400</v>
       </c>
       <c r="I54" s="3">
-        <v>16286300</v>
+        <v>15520800</v>
       </c>
       <c r="J54" s="3">
-        <v>14949700</v>
+        <v>14247000</v>
       </c>
       <c r="K54" s="3">
         <v>13772700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1687900</v>
+        <v>1608600</v>
       </c>
       <c r="E57" s="3">
-        <v>1301200</v>
+        <v>1240000</v>
       </c>
       <c r="F57" s="3">
-        <v>1180900</v>
+        <v>1125400</v>
       </c>
       <c r="G57" s="3">
-        <v>1025700</v>
+        <v>977500</v>
       </c>
       <c r="H57" s="3">
-        <v>726700</v>
+        <v>692500</v>
       </c>
       <c r="I57" s="3">
-        <v>513100</v>
+        <v>489000</v>
       </c>
       <c r="J57" s="3">
-        <v>607900</v>
+        <v>579300</v>
       </c>
       <c r="K57" s="3">
         <v>748700</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -2319,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>30900</v>
+        <v>29400</v>
       </c>
       <c r="H58" s="3">
-        <v>303400</v>
+        <v>289100</v>
       </c>
       <c r="I58" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J58" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K58" s="3">
         <v>5200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6376700</v>
+        <v>6077000</v>
       </c>
       <c r="E59" s="3">
-        <v>4449000</v>
+        <v>4239900</v>
       </c>
       <c r="F59" s="3">
-        <v>3464100</v>
+        <v>3301300</v>
       </c>
       <c r="G59" s="3">
-        <v>5677700</v>
+        <v>5410800</v>
       </c>
       <c r="H59" s="3">
-        <v>2988600</v>
+        <v>2848200</v>
       </c>
       <c r="I59" s="3">
-        <v>3288000</v>
+        <v>3133400</v>
       </c>
       <c r="J59" s="3">
-        <v>2925700</v>
+        <v>2788200</v>
       </c>
       <c r="K59" s="3">
         <v>2677600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8089200</v>
+        <v>7709000</v>
       </c>
       <c r="E60" s="3">
-        <v>5750200</v>
+        <v>5479900</v>
       </c>
       <c r="F60" s="3">
-        <v>4645000</v>
+        <v>4426700</v>
       </c>
       <c r="G60" s="3">
-        <v>3883200</v>
+        <v>3700700</v>
       </c>
       <c r="H60" s="3">
-        <v>4018700</v>
+        <v>3829800</v>
       </c>
       <c r="I60" s="3">
-        <v>3806300</v>
+        <v>3627300</v>
       </c>
       <c r="J60" s="3">
-        <v>3538800</v>
+        <v>3372500</v>
       </c>
       <c r="K60" s="3">
         <v>3431500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5711900</v>
+        <v>5443400</v>
       </c>
       <c r="E61" s="3">
-        <v>3807600</v>
+        <v>3628700</v>
       </c>
       <c r="F61" s="3">
-        <v>3707400</v>
+        <v>3533200</v>
       </c>
       <c r="G61" s="3">
-        <v>3675100</v>
+        <v>3502300</v>
       </c>
       <c r="H61" s="3">
-        <v>3762900</v>
+        <v>3586000</v>
       </c>
       <c r="I61" s="3">
-        <v>1378700</v>
+        <v>1313900</v>
       </c>
       <c r="J61" s="3">
-        <v>1408600</v>
+        <v>1342400</v>
       </c>
       <c r="K61" s="3">
         <v>1280200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2616200</v>
+        <v>2493200</v>
       </c>
       <c r="E62" s="3">
-        <v>2737900</v>
+        <v>2609200</v>
       </c>
       <c r="F62" s="3">
-        <v>2054900</v>
+        <v>1958300</v>
       </c>
       <c r="G62" s="3">
-        <v>2563500</v>
+        <v>2443000</v>
       </c>
       <c r="H62" s="3">
-        <v>1265500</v>
+        <v>1206000</v>
       </c>
       <c r="I62" s="3">
-        <v>825100</v>
+        <v>786300</v>
       </c>
       <c r="J62" s="3">
-        <v>799400</v>
+        <v>761900</v>
       </c>
       <c r="K62" s="3">
         <v>780500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16417300</v>
+        <v>15645600</v>
       </c>
       <c r="E66" s="3">
-        <v>12295700</v>
+        <v>11717800</v>
       </c>
       <c r="F66" s="3">
-        <v>10407400</v>
+        <v>9918200</v>
       </c>
       <c r="G66" s="3">
-        <v>9080200</v>
+        <v>8653400</v>
       </c>
       <c r="H66" s="3">
-        <v>9047100</v>
+        <v>8621900</v>
       </c>
       <c r="I66" s="3">
-        <v>6010000</v>
+        <v>5727500</v>
       </c>
       <c r="J66" s="3">
-        <v>5746900</v>
+        <v>5476700</v>
       </c>
       <c r="K66" s="3">
         <v>5492100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13146000</v>
+        <v>12528100</v>
       </c>
       <c r="E72" s="3">
-        <v>11666600</v>
+        <v>11118200</v>
       </c>
       <c r="F72" s="3">
-        <v>11267300</v>
+        <v>10737700</v>
       </c>
       <c r="G72" s="3">
-        <v>8956500</v>
+        <v>8535500</v>
       </c>
       <c r="H72" s="3">
-        <v>7696000</v>
+        <v>7334300</v>
       </c>
       <c r="I72" s="3">
-        <v>6473200</v>
+        <v>6169000</v>
       </c>
       <c r="J72" s="3">
-        <v>5694400</v>
+        <v>5426800</v>
       </c>
       <c r="K72" s="3">
         <v>5184600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16985000</v>
+        <v>16186600</v>
       </c>
       <c r="E76" s="3">
-        <v>15425300</v>
+        <v>14700300</v>
       </c>
       <c r="F76" s="3">
-        <v>14260100</v>
+        <v>13589800</v>
       </c>
       <c r="G76" s="3">
-        <v>13201000</v>
+        <v>12580500</v>
       </c>
       <c r="H76" s="3">
-        <v>12030000</v>
+        <v>11464500</v>
       </c>
       <c r="I76" s="3">
-        <v>10276200</v>
+        <v>9793200</v>
       </c>
       <c r="J76" s="3">
-        <v>9202800</v>
+        <v>8770300</v>
       </c>
       <c r="K76" s="3">
         <v>8280600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4353200</v>
+        <v>4148600</v>
       </c>
       <c r="E81" s="3">
-        <v>3175500</v>
+        <v>3026300</v>
       </c>
       <c r="F81" s="3">
-        <v>3174700</v>
+        <v>3025500</v>
       </c>
       <c r="G81" s="3">
-        <v>2531700</v>
+        <v>2412700</v>
       </c>
       <c r="H81" s="3">
-        <v>1908300</v>
+        <v>1818600</v>
       </c>
       <c r="I81" s="3">
-        <v>1699300</v>
+        <v>1619400</v>
       </c>
       <c r="J81" s="3">
-        <v>1465900</v>
+        <v>1397000</v>
       </c>
       <c r="K81" s="3">
         <v>1214700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>601200</v>
+        <v>573000</v>
       </c>
       <c r="E83" s="3">
-        <v>549400</v>
+        <v>523600</v>
       </c>
       <c r="F83" s="3">
-        <v>517800</v>
+        <v>493500</v>
       </c>
       <c r="G83" s="3">
-        <v>640700</v>
+        <v>610600</v>
       </c>
       <c r="H83" s="3">
-        <v>434000</v>
+        <v>413600</v>
       </c>
       <c r="I83" s="3">
-        <v>360400</v>
+        <v>343500</v>
       </c>
       <c r="J83" s="3">
-        <v>310400</v>
+        <v>295800</v>
       </c>
       <c r="K83" s="3">
         <v>268700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5668800</v>
+        <v>5402300</v>
       </c>
       <c r="E89" s="3">
-        <v>4013600</v>
+        <v>3824900</v>
       </c>
       <c r="F89" s="3">
-        <v>3764000</v>
+        <v>3587100</v>
       </c>
       <c r="G89" s="3">
-        <v>2227400</v>
+        <v>2122700</v>
       </c>
       <c r="H89" s="3">
-        <v>2040700</v>
+        <v>1944800</v>
       </c>
       <c r="I89" s="3">
-        <v>2481300</v>
+        <v>2364700</v>
       </c>
       <c r="J89" s="3">
-        <v>1255900</v>
+        <v>1196800</v>
       </c>
       <c r="K89" s="3">
         <v>1261000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1178400</v>
+        <v>-1123000</v>
       </c>
       <c r="E91" s="3">
-        <v>-939100</v>
+        <v>-894900</v>
       </c>
       <c r="F91" s="3">
-        <v>-703100</v>
+        <v>-670100</v>
       </c>
       <c r="G91" s="3">
-        <v>-415100</v>
+        <v>-395600</v>
       </c>
       <c r="H91" s="3">
-        <v>-387500</v>
+        <v>-369300</v>
       </c>
       <c r="I91" s="3">
-        <v>-455400</v>
+        <v>-434000</v>
       </c>
       <c r="J91" s="3">
-        <v>-438900</v>
+        <v>-418300</v>
       </c>
       <c r="K91" s="3">
         <v>-252200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1656400</v>
+        <v>-1578600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1417900</v>
+        <v>-1351300</v>
       </c>
       <c r="F94" s="3">
-        <v>-602100</v>
+        <v>-573800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1505500</v>
+        <v>-1434700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3905900</v>
+        <v>-3722300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1420900</v>
+        <v>-1354100</v>
       </c>
       <c r="J94" s="3">
-        <v>-19900</v>
+        <v>-18900</v>
       </c>
       <c r="K94" s="3">
         <v>-440600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1306300</v>
+        <v>-1244900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1624000</v>
+        <v>-1547600</v>
       </c>
       <c r="F96" s="3">
-        <v>-731400</v>
+        <v>-697100</v>
       </c>
       <c r="G96" s="3">
-        <v>-633000</v>
+        <v>-603200</v>
       </c>
       <c r="H96" s="3">
-        <v>-546200</v>
+        <v>-520500</v>
       </c>
       <c r="I96" s="3">
-        <v>-370300</v>
+        <v>-352900</v>
       </c>
       <c r="J96" s="3">
-        <v>-328300</v>
+        <v>-312800</v>
       </c>
       <c r="K96" s="3">
         <v>-258500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-922400</v>
+        <v>-879100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2097600</v>
+        <v>-1999000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2112300</v>
+        <v>-2013000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1481100</v>
+        <v>-1411500</v>
       </c>
       <c r="H100" s="3">
-        <v>2405400</v>
+        <v>2292400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1021600</v>
+        <v>-973600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1137300</v>
+        <v>-1083900</v>
       </c>
       <c r="K100" s="3">
         <v>-135300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6500</v>
+        <v>-6200</v>
       </c>
       <c r="E101" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F101" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="G101" s="3">
-        <v>-34400</v>
+        <v>-32800</v>
       </c>
       <c r="H101" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="J101" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="K101" s="3">
         <v>-11500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3083400</v>
+        <v>2938500</v>
       </c>
       <c r="E102" s="3">
-        <v>503700</v>
+        <v>480000</v>
       </c>
       <c r="F102" s="3">
-        <v>1056100</v>
+        <v>1006400</v>
       </c>
       <c r="G102" s="3">
-        <v>-793700</v>
+        <v>-756400</v>
       </c>
       <c r="H102" s="3">
-        <v>549000</v>
+        <v>523200</v>
       </c>
       <c r="I102" s="3">
-        <v>48100</v>
+        <v>45800</v>
       </c>
       <c r="J102" s="3">
-        <v>108800</v>
+        <v>103700</v>
       </c>
       <c r="K102" s="3">
         <v>673600</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16318600</v>
+        <v>15783100</v>
       </c>
       <c r="E8" s="3">
-        <v>13798800</v>
+        <v>13346000</v>
       </c>
       <c r="F8" s="3">
-        <v>12776100</v>
+        <v>12356900</v>
       </c>
       <c r="G8" s="3">
-        <v>10463100</v>
+        <v>10119800</v>
       </c>
       <c r="H8" s="3">
-        <v>8026100</v>
+        <v>7762700</v>
       </c>
       <c r="I8" s="3">
-        <v>7339900</v>
+        <v>7099100</v>
       </c>
       <c r="J8" s="3">
-        <v>6836700</v>
+        <v>6612300</v>
       </c>
       <c r="K8" s="3">
         <v>6274500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8383500</v>
+        <v>8108400</v>
       </c>
       <c r="E9" s="3">
-        <v>7635100</v>
+        <v>7384500</v>
       </c>
       <c r="F9" s="3">
-        <v>6905000</v>
+        <v>6678400</v>
       </c>
       <c r="G9" s="3">
-        <v>5769900</v>
+        <v>5580600</v>
       </c>
       <c r="H9" s="3">
-        <v>4354200</v>
+        <v>4211300</v>
       </c>
       <c r="I9" s="3">
-        <v>3959400</v>
+        <v>3829500</v>
       </c>
       <c r="J9" s="3">
-        <v>3805600</v>
+        <v>3680800</v>
       </c>
       <c r="K9" s="3">
         <v>3670000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7935100</v>
+        <v>7674700</v>
       </c>
       <c r="E10" s="3">
-        <v>6163700</v>
+        <v>5961400</v>
       </c>
       <c r="F10" s="3">
-        <v>5871100</v>
+        <v>5678500</v>
       </c>
       <c r="G10" s="3">
-        <v>4693200</v>
+        <v>4539200</v>
       </c>
       <c r="H10" s="3">
-        <v>3671900</v>
+        <v>3551400</v>
       </c>
       <c r="I10" s="3">
-        <v>3380500</v>
+        <v>3269600</v>
       </c>
       <c r="J10" s="3">
-        <v>3031000</v>
+        <v>2931600</v>
       </c>
       <c r="K10" s="3">
         <v>2604400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2415300</v>
+        <v>2336000</v>
       </c>
       <c r="E12" s="3">
-        <v>2152500</v>
+        <v>2081800</v>
       </c>
       <c r="F12" s="3">
-        <v>1714600</v>
+        <v>1658300</v>
       </c>
       <c r="G12" s="3">
-        <v>1349400</v>
+        <v>1305100</v>
       </c>
       <c r="H12" s="3">
-        <v>1198300</v>
+        <v>1159000</v>
       </c>
       <c r="I12" s="3">
-        <v>1221400</v>
+        <v>1181400</v>
       </c>
       <c r="J12" s="3">
-        <v>1209100</v>
+        <v>1169400</v>
       </c>
       <c r="K12" s="3">
         <v>1004500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>195500</v>
+        <v>189100</v>
       </c>
       <c r="E15" s="3">
-        <v>171800</v>
+        <v>166200</v>
       </c>
       <c r="F15" s="3">
-        <v>152100</v>
+        <v>147100</v>
       </c>
       <c r="G15" s="3">
-        <v>138100</v>
+        <v>133600</v>
       </c>
       <c r="H15" s="3">
-        <v>124800</v>
+        <v>120700</v>
       </c>
       <c r="I15" s="3">
-        <v>62300</v>
+        <v>60300</v>
       </c>
       <c r="J15" s="3">
-        <v>67200</v>
+        <v>65000</v>
       </c>
       <c r="K15" s="3">
         <v>64100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11588900</v>
+        <v>11208600</v>
       </c>
       <c r="E17" s="3">
-        <v>10540800</v>
+        <v>10194900</v>
       </c>
       <c r="F17" s="3">
-        <v>9314400</v>
+        <v>9008800</v>
       </c>
       <c r="G17" s="3">
-        <v>7615000</v>
+        <v>7365100</v>
       </c>
       <c r="H17" s="3">
-        <v>5973200</v>
+        <v>5777200</v>
       </c>
       <c r="I17" s="3">
-        <v>5512800</v>
+        <v>5331900</v>
       </c>
       <c r="J17" s="3">
-        <v>5339800</v>
+        <v>5164600</v>
       </c>
       <c r="K17" s="3">
         <v>5020900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4729800</v>
+        <v>4574500</v>
       </c>
       <c r="E18" s="3">
-        <v>3258000</v>
+        <v>3151100</v>
       </c>
       <c r="F18" s="3">
-        <v>3461700</v>
+        <v>3348100</v>
       </c>
       <c r="G18" s="3">
-        <v>2848100</v>
+        <v>2754700</v>
       </c>
       <c r="H18" s="3">
-        <v>2052900</v>
+        <v>1985500</v>
       </c>
       <c r="I18" s="3">
-        <v>1827200</v>
+        <v>1767200</v>
       </c>
       <c r="J18" s="3">
-        <v>1496900</v>
+        <v>1447800</v>
       </c>
       <c r="K18" s="3">
         <v>1253600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="E20" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="F20" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="G20" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="H20" s="3">
-        <v>83700</v>
+        <v>81000</v>
       </c>
       <c r="I20" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="J20" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="K20" s="3">
         <v>-29300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5314300</v>
+        <v>5139500</v>
       </c>
       <c r="E21" s="3">
-        <v>3796700</v>
+        <v>3671800</v>
       </c>
       <c r="F21" s="3">
-        <v>3972500</v>
+        <v>3841700</v>
       </c>
       <c r="G21" s="3">
-        <v>3469000</v>
+        <v>3354700</v>
       </c>
       <c r="H21" s="3">
-        <v>2551500</v>
+        <v>2467400</v>
       </c>
       <c r="I21" s="3">
-        <v>2184400</v>
+        <v>2112400</v>
       </c>
       <c r="J21" s="3">
-        <v>1810500</v>
+        <v>1750900</v>
       </c>
       <c r="K21" s="3">
         <v>1491900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50500</v>
+        <v>48900</v>
       </c>
       <c r="E22" s="3">
-        <v>42700</v>
+        <v>41300</v>
       </c>
       <c r="F22" s="3">
-        <v>48800</v>
+        <v>47200</v>
       </c>
       <c r="G22" s="3">
-        <v>67100</v>
+        <v>64900</v>
       </c>
       <c r="H22" s="3">
-        <v>44400</v>
+        <v>42900</v>
       </c>
       <c r="I22" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="J22" s="3">
-        <v>27000</v>
+        <v>26100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4689000</v>
+        <v>4535100</v>
       </c>
       <c r="E23" s="3">
-        <v>3228800</v>
+        <v>3122900</v>
       </c>
       <c r="F23" s="3">
-        <v>3428700</v>
+        <v>3316200</v>
       </c>
       <c r="G23" s="3">
-        <v>2789400</v>
+        <v>2697900</v>
       </c>
       <c r="H23" s="3">
-        <v>2092200</v>
+        <v>2023600</v>
       </c>
       <c r="I23" s="3">
-        <v>1807900</v>
+        <v>1748500</v>
       </c>
       <c r="J23" s="3">
-        <v>1486900</v>
+        <v>1438100</v>
       </c>
       <c r="K23" s="3">
         <v>1224300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>643800</v>
+        <v>622700</v>
       </c>
       <c r="E24" s="3">
-        <v>223800</v>
+        <v>216400</v>
       </c>
       <c r="F24" s="3">
-        <v>410500</v>
+        <v>397000</v>
       </c>
       <c r="G24" s="3">
-        <v>357200</v>
+        <v>345500</v>
       </c>
       <c r="H24" s="3">
-        <v>273600</v>
+        <v>264700</v>
       </c>
       <c r="I24" s="3">
-        <v>188500</v>
+        <v>182300</v>
       </c>
       <c r="J24" s="3">
-        <v>89900</v>
+        <v>86900</v>
       </c>
       <c r="K24" s="3">
         <v>9600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4045200</v>
+        <v>3912400</v>
       </c>
       <c r="E26" s="3">
-        <v>3005000</v>
+        <v>2906400</v>
       </c>
       <c r="F26" s="3">
-        <v>3018200</v>
+        <v>2919200</v>
       </c>
       <c r="G26" s="3">
-        <v>2432200</v>
+        <v>2352400</v>
       </c>
       <c r="H26" s="3">
-        <v>1818600</v>
+        <v>1758900</v>
       </c>
       <c r="I26" s="3">
-        <v>1619400</v>
+        <v>1566300</v>
       </c>
       <c r="J26" s="3">
-        <v>1397000</v>
+        <v>1351100</v>
       </c>
       <c r="K26" s="3">
         <v>1214700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4148600</v>
+        <v>4012500</v>
       </c>
       <c r="E27" s="3">
-        <v>3026300</v>
+        <v>2927000</v>
       </c>
       <c r="F27" s="3">
-        <v>3025500</v>
+        <v>2926200</v>
       </c>
       <c r="G27" s="3">
-        <v>2412700</v>
+        <v>2333500</v>
       </c>
       <c r="H27" s="3">
-        <v>1818600</v>
+        <v>1758900</v>
       </c>
       <c r="I27" s="3">
-        <v>1619400</v>
+        <v>1566300</v>
       </c>
       <c r="J27" s="3">
-        <v>1397000</v>
+        <v>1351100</v>
       </c>
       <c r="K27" s="3">
         <v>1214700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="E32" s="3">
-        <v>-13500</v>
+        <v>-13100</v>
       </c>
       <c r="F32" s="3">
-        <v>-15800</v>
+        <v>-15200</v>
       </c>
       <c r="G32" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="H32" s="3">
-        <v>-83700</v>
+        <v>-81000</v>
       </c>
       <c r="I32" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="J32" s="3">
-        <v>-16900</v>
+        <v>-16400</v>
       </c>
       <c r="K32" s="3">
         <v>29300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4148600</v>
+        <v>4012500</v>
       </c>
       <c r="E33" s="3">
-        <v>3026300</v>
+        <v>2927000</v>
       </c>
       <c r="F33" s="3">
-        <v>3025500</v>
+        <v>2926200</v>
       </c>
       <c r="G33" s="3">
-        <v>2412700</v>
+        <v>2333500</v>
       </c>
       <c r="H33" s="3">
-        <v>1818600</v>
+        <v>1758900</v>
       </c>
       <c r="I33" s="3">
-        <v>1619400</v>
+        <v>1566300</v>
       </c>
       <c r="J33" s="3">
-        <v>1397000</v>
+        <v>1351100</v>
       </c>
       <c r="K33" s="3">
         <v>1214700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4148600</v>
+        <v>4012500</v>
       </c>
       <c r="E35" s="3">
-        <v>3026300</v>
+        <v>2927000</v>
       </c>
       <c r="F35" s="3">
-        <v>3025500</v>
+        <v>2926200</v>
       </c>
       <c r="G35" s="3">
-        <v>2412700</v>
+        <v>2333500</v>
       </c>
       <c r="H35" s="3">
-        <v>1818600</v>
+        <v>1758900</v>
       </c>
       <c r="I35" s="3">
-        <v>1619400</v>
+        <v>1566300</v>
       </c>
       <c r="J35" s="3">
-        <v>1397000</v>
+        <v>1351100</v>
       </c>
       <c r="K35" s="3">
         <v>1214700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7062100</v>
+        <v>6830400</v>
       </c>
       <c r="E41" s="3">
-        <v>4123600</v>
+        <v>3988300</v>
       </c>
       <c r="F41" s="3">
-        <v>3643600</v>
+        <v>3524000</v>
       </c>
       <c r="G41" s="3">
-        <v>2637200</v>
+        <v>2550600</v>
       </c>
       <c r="H41" s="3">
-        <v>3393500</v>
+        <v>3282100</v>
       </c>
       <c r="I41" s="3">
-        <v>2870300</v>
+        <v>2776100</v>
       </c>
       <c r="J41" s="3">
-        <v>2824500</v>
+        <v>2731800</v>
       </c>
       <c r="K41" s="3">
         <v>2788000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1520200</v>
+        <v>1470300</v>
       </c>
       <c r="E42" s="3">
-        <v>1384300</v>
+        <v>1338900</v>
       </c>
       <c r="F42" s="3">
-        <v>1066200</v>
+        <v>1031200</v>
       </c>
       <c r="G42" s="3">
-        <v>1201600</v>
+        <v>1162200</v>
       </c>
       <c r="H42" s="3">
-        <v>1342500</v>
+        <v>1298500</v>
       </c>
       <c r="I42" s="3">
-        <v>1109000</v>
+        <v>1072600</v>
       </c>
       <c r="J42" s="3">
-        <v>390900</v>
+        <v>378100</v>
       </c>
       <c r="K42" s="3">
         <v>813300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3890900</v>
+        <v>3763200</v>
       </c>
       <c r="E43" s="3">
-        <v>3327700</v>
+        <v>3218500</v>
       </c>
       <c r="F43" s="3">
-        <v>2802800</v>
+        <v>2710900</v>
       </c>
       <c r="G43" s="3">
-        <v>2566800</v>
+        <v>2482600</v>
       </c>
       <c r="H43" s="3">
-        <v>1425100</v>
+        <v>1378400</v>
       </c>
       <c r="I43" s="3">
-        <v>1359600</v>
+        <v>1315000</v>
       </c>
       <c r="J43" s="3">
-        <v>1556800</v>
+        <v>1505800</v>
       </c>
       <c r="K43" s="3">
         <v>1423300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5334400</v>
+        <v>5159300</v>
       </c>
       <c r="E44" s="3">
-        <v>4446900</v>
+        <v>4301000</v>
       </c>
       <c r="F44" s="3">
-        <v>4015300</v>
+        <v>3883500</v>
       </c>
       <c r="G44" s="3">
-        <v>3450400</v>
+        <v>3337200</v>
       </c>
       <c r="H44" s="3">
-        <v>3246400</v>
+        <v>3139900</v>
       </c>
       <c r="I44" s="3">
-        <v>3004600</v>
+        <v>2906000</v>
       </c>
       <c r="J44" s="3">
-        <v>2976700</v>
+        <v>2879000</v>
       </c>
       <c r="K44" s="3">
         <v>2862500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>789300</v>
+        <v>763400</v>
       </c>
       <c r="E45" s="3">
-        <v>879400</v>
+        <v>850600</v>
       </c>
       <c r="F45" s="3">
-        <v>766500</v>
+        <v>741400</v>
       </c>
       <c r="G45" s="3">
-        <v>517400</v>
+        <v>500400</v>
       </c>
       <c r="H45" s="3">
-        <v>582400</v>
+        <v>563300</v>
       </c>
       <c r="I45" s="3">
-        <v>654500</v>
+        <v>633000</v>
       </c>
       <c r="J45" s="3">
-        <v>593500</v>
+        <v>574100</v>
       </c>
       <c r="K45" s="3">
         <v>516900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18596800</v>
+        <v>17986600</v>
       </c>
       <c r="E46" s="3">
-        <v>14162000</v>
+        <v>13697200</v>
       </c>
       <c r="F46" s="3">
-        <v>12294500</v>
+        <v>11891000</v>
       </c>
       <c r="G46" s="3">
-        <v>10373400</v>
+        <v>10033000</v>
       </c>
       <c r="H46" s="3">
-        <v>9990000</v>
+        <v>9662200</v>
       </c>
       <c r="I46" s="3">
-        <v>8998000</v>
+        <v>8702800</v>
       </c>
       <c r="J46" s="3">
-        <v>8342600</v>
+        <v>8068800</v>
       </c>
       <c r="K46" s="3">
         <v>8404000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1452000</v>
+        <v>1404400</v>
       </c>
       <c r="E47" s="3">
-        <v>1543200</v>
+        <v>1492600</v>
       </c>
       <c r="F47" s="3">
-        <v>1566200</v>
+        <v>1514800</v>
       </c>
       <c r="G47" s="3">
-        <v>1332700</v>
+        <v>1289000</v>
       </c>
       <c r="H47" s="3">
-        <v>143200</v>
+        <v>138500</v>
       </c>
       <c r="I47" s="3">
-        <v>151200</v>
+        <v>146200</v>
       </c>
       <c r="J47" s="3">
-        <v>70900</v>
+        <v>68500</v>
       </c>
       <c r="K47" s="3">
         <v>61600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3286500</v>
+        <v>3178600</v>
       </c>
       <c r="E48" s="3">
-        <v>2712100</v>
+        <v>2623100</v>
       </c>
       <c r="F48" s="3">
-        <v>2016200</v>
+        <v>1950100</v>
       </c>
       <c r="G48" s="3">
-        <v>2001500</v>
+        <v>1935800</v>
       </c>
       <c r="H48" s="3">
-        <v>1969700</v>
+        <v>1905100</v>
       </c>
       <c r="I48" s="3">
-        <v>1892000</v>
+        <v>1829900</v>
       </c>
       <c r="J48" s="3">
-        <v>1689900</v>
+        <v>1634400</v>
       </c>
       <c r="K48" s="3">
         <v>1456800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6628600</v>
+        <v>6411000</v>
       </c>
       <c r="E49" s="3">
-        <v>6590600</v>
+        <v>6374300</v>
       </c>
       <c r="F49" s="3">
-        <v>6590100</v>
+        <v>6373900</v>
       </c>
       <c r="G49" s="3">
-        <v>6662500</v>
+        <v>6443900</v>
       </c>
       <c r="H49" s="3">
-        <v>7234200</v>
+        <v>6996800</v>
       </c>
       <c r="I49" s="3">
-        <v>3925700</v>
+        <v>3796800</v>
       </c>
       <c r="J49" s="3">
-        <v>3597200</v>
+        <v>3479200</v>
       </c>
       <c r="K49" s="3">
         <v>3332900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1868300</v>
+        <v>1807000</v>
       </c>
       <c r="E52" s="3">
-        <v>1410100</v>
+        <v>1363800</v>
       </c>
       <c r="F52" s="3">
-        <v>1041000</v>
+        <v>1006800</v>
       </c>
       <c r="G52" s="3">
-        <v>863800</v>
+        <v>835400</v>
       </c>
       <c r="H52" s="3">
-        <v>749200</v>
+        <v>724700</v>
       </c>
       <c r="I52" s="3">
-        <v>553900</v>
+        <v>535700</v>
       </c>
       <c r="J52" s="3">
-        <v>546500</v>
+        <v>528600</v>
       </c>
       <c r="K52" s="3">
         <v>517500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31832200</v>
+        <v>30787600</v>
       </c>
       <c r="E54" s="3">
-        <v>26418000</v>
+        <v>25551100</v>
       </c>
       <c r="F54" s="3">
-        <v>23508000</v>
+        <v>22736600</v>
       </c>
       <c r="G54" s="3">
-        <v>21233900</v>
+        <v>20537100</v>
       </c>
       <c r="H54" s="3">
-        <v>20086400</v>
+        <v>19427300</v>
       </c>
       <c r="I54" s="3">
-        <v>15520800</v>
+        <v>15011400</v>
       </c>
       <c r="J54" s="3">
-        <v>14247000</v>
+        <v>13779500</v>
       </c>
       <c r="K54" s="3">
         <v>13772700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1608600</v>
+        <v>1555800</v>
       </c>
       <c r="E57" s="3">
-        <v>1240000</v>
+        <v>1199300</v>
       </c>
       <c r="F57" s="3">
-        <v>1125400</v>
+        <v>1088500</v>
       </c>
       <c r="G57" s="3">
-        <v>977500</v>
+        <v>945400</v>
       </c>
       <c r="H57" s="3">
-        <v>692500</v>
+        <v>669800</v>
       </c>
       <c r="I57" s="3">
-        <v>489000</v>
+        <v>473000</v>
       </c>
       <c r="J57" s="3">
-        <v>579300</v>
+        <v>560300</v>
       </c>
       <c r="K57" s="3">
         <v>748700</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23500</v>
+        <v>22700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -2319,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="H58" s="3">
-        <v>289100</v>
+        <v>279600</v>
       </c>
       <c r="I58" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="J58" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K58" s="3">
         <v>5200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6077000</v>
+        <v>5877500</v>
       </c>
       <c r="E59" s="3">
-        <v>4239900</v>
+        <v>4100800</v>
       </c>
       <c r="F59" s="3">
-        <v>3301300</v>
+        <v>3193000</v>
       </c>
       <c r="G59" s="3">
-        <v>5410800</v>
+        <v>5233300</v>
       </c>
       <c r="H59" s="3">
-        <v>2848200</v>
+        <v>2754700</v>
       </c>
       <c r="I59" s="3">
-        <v>3133400</v>
+        <v>3030600</v>
       </c>
       <c r="J59" s="3">
-        <v>2788200</v>
+        <v>2696700</v>
       </c>
       <c r="K59" s="3">
         <v>2677600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7709000</v>
+        <v>7456000</v>
       </c>
       <c r="E60" s="3">
-        <v>5479900</v>
+        <v>5300100</v>
       </c>
       <c r="F60" s="3">
-        <v>4426700</v>
+        <v>4281400</v>
       </c>
       <c r="G60" s="3">
-        <v>3700700</v>
+        <v>3579200</v>
       </c>
       <c r="H60" s="3">
-        <v>3829800</v>
+        <v>3704100</v>
       </c>
       <c r="I60" s="3">
-        <v>3627300</v>
+        <v>3508300</v>
       </c>
       <c r="J60" s="3">
-        <v>3372500</v>
+        <v>3261800</v>
       </c>
       <c r="K60" s="3">
         <v>3431500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5443400</v>
+        <v>5264800</v>
       </c>
       <c r="E61" s="3">
-        <v>3628700</v>
+        <v>3509600</v>
       </c>
       <c r="F61" s="3">
-        <v>3533200</v>
+        <v>3417200</v>
       </c>
       <c r="G61" s="3">
-        <v>3502300</v>
+        <v>3387400</v>
       </c>
       <c r="H61" s="3">
-        <v>3586000</v>
+        <v>3468400</v>
       </c>
       <c r="I61" s="3">
-        <v>1313900</v>
+        <v>1270800</v>
       </c>
       <c r="J61" s="3">
-        <v>1342400</v>
+        <v>1298300</v>
       </c>
       <c r="K61" s="3">
         <v>1280200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2493200</v>
+        <v>2411400</v>
       </c>
       <c r="E62" s="3">
-        <v>2609200</v>
+        <v>2523500</v>
       </c>
       <c r="F62" s="3">
-        <v>1958300</v>
+        <v>1894100</v>
       </c>
       <c r="G62" s="3">
-        <v>2443000</v>
+        <v>2362900</v>
       </c>
       <c r="H62" s="3">
-        <v>1206000</v>
+        <v>1166500</v>
       </c>
       <c r="I62" s="3">
-        <v>786300</v>
+        <v>760500</v>
       </c>
       <c r="J62" s="3">
-        <v>761900</v>
+        <v>736900</v>
       </c>
       <c r="K62" s="3">
         <v>780500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15645600</v>
+        <v>15132200</v>
       </c>
       <c r="E66" s="3">
-        <v>11717800</v>
+        <v>11333200</v>
       </c>
       <c r="F66" s="3">
-        <v>9918200</v>
+        <v>9592700</v>
       </c>
       <c r="G66" s="3">
-        <v>8653400</v>
+        <v>8369500</v>
       </c>
       <c r="H66" s="3">
-        <v>8621900</v>
+        <v>8338900</v>
       </c>
       <c r="I66" s="3">
-        <v>5727500</v>
+        <v>5539600</v>
       </c>
       <c r="J66" s="3">
-        <v>5476700</v>
+        <v>5297000</v>
       </c>
       <c r="K66" s="3">
         <v>5492100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12528100</v>
+        <v>12116900</v>
       </c>
       <c r="E72" s="3">
-        <v>11118200</v>
+        <v>10753300</v>
       </c>
       <c r="F72" s="3">
-        <v>10737700</v>
+        <v>10385300</v>
       </c>
       <c r="G72" s="3">
-        <v>8535500</v>
+        <v>8255400</v>
       </c>
       <c r="H72" s="3">
-        <v>7334300</v>
+        <v>7093600</v>
       </c>
       <c r="I72" s="3">
-        <v>6169000</v>
+        <v>5966500</v>
       </c>
       <c r="J72" s="3">
-        <v>5426800</v>
+        <v>5248700</v>
       </c>
       <c r="K72" s="3">
         <v>5184600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16186600</v>
+        <v>15655400</v>
       </c>
       <c r="E76" s="3">
-        <v>14700300</v>
+        <v>14217900</v>
       </c>
       <c r="F76" s="3">
-        <v>13589800</v>
+        <v>13143900</v>
       </c>
       <c r="G76" s="3">
-        <v>12580500</v>
+        <v>12167600</v>
       </c>
       <c r="H76" s="3">
-        <v>11464500</v>
+        <v>11088300</v>
       </c>
       <c r="I76" s="3">
-        <v>9793200</v>
+        <v>9471800</v>
       </c>
       <c r="J76" s="3">
-        <v>8770300</v>
+        <v>8482500</v>
       </c>
       <c r="K76" s="3">
         <v>8280600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4148600</v>
+        <v>4012500</v>
       </c>
       <c r="E81" s="3">
-        <v>3026300</v>
+        <v>2927000</v>
       </c>
       <c r="F81" s="3">
-        <v>3025500</v>
+        <v>2926200</v>
       </c>
       <c r="G81" s="3">
-        <v>2412700</v>
+        <v>2333500</v>
       </c>
       <c r="H81" s="3">
-        <v>1818600</v>
+        <v>1758900</v>
       </c>
       <c r="I81" s="3">
-        <v>1619400</v>
+        <v>1566300</v>
       </c>
       <c r="J81" s="3">
-        <v>1397000</v>
+        <v>1351100</v>
       </c>
       <c r="K81" s="3">
         <v>1214700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>573000</v>
+        <v>554200</v>
       </c>
       <c r="E83" s="3">
-        <v>523600</v>
+        <v>506400</v>
       </c>
       <c r="F83" s="3">
-        <v>493500</v>
+        <v>477300</v>
       </c>
       <c r="G83" s="3">
-        <v>610600</v>
+        <v>590500</v>
       </c>
       <c r="H83" s="3">
-        <v>413600</v>
+        <v>400000</v>
       </c>
       <c r="I83" s="3">
-        <v>343500</v>
+        <v>332200</v>
       </c>
       <c r="J83" s="3">
-        <v>295800</v>
+        <v>286100</v>
       </c>
       <c r="K83" s="3">
         <v>268700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5402300</v>
+        <v>5225000</v>
       </c>
       <c r="E89" s="3">
-        <v>3824900</v>
+        <v>3699400</v>
       </c>
       <c r="F89" s="3">
-        <v>3587100</v>
+        <v>3469400</v>
       </c>
       <c r="G89" s="3">
-        <v>2122700</v>
+        <v>2053000</v>
       </c>
       <c r="H89" s="3">
-        <v>1944800</v>
+        <v>1881000</v>
       </c>
       <c r="I89" s="3">
-        <v>2364700</v>
+        <v>2287100</v>
       </c>
       <c r="J89" s="3">
-        <v>1196800</v>
+        <v>1157600</v>
       </c>
       <c r="K89" s="3">
         <v>1261000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1123000</v>
+        <v>-1086200</v>
       </c>
       <c r="E91" s="3">
-        <v>-894900</v>
+        <v>-865600</v>
       </c>
       <c r="F91" s="3">
-        <v>-670100</v>
+        <v>-648100</v>
       </c>
       <c r="G91" s="3">
-        <v>-395600</v>
+        <v>-382700</v>
       </c>
       <c r="H91" s="3">
-        <v>-369300</v>
+        <v>-357200</v>
       </c>
       <c r="I91" s="3">
-        <v>-434000</v>
+        <v>-419800</v>
       </c>
       <c r="J91" s="3">
-        <v>-418300</v>
+        <v>-404500</v>
       </c>
       <c r="K91" s="3">
         <v>-252200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1578600</v>
+        <v>-1526800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1351300</v>
+        <v>-1306900</v>
       </c>
       <c r="F94" s="3">
-        <v>-573800</v>
+        <v>-555000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1434700</v>
+        <v>-1387700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3722300</v>
+        <v>-3600100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1354100</v>
+        <v>-1309700</v>
       </c>
       <c r="J94" s="3">
-        <v>-18900</v>
+        <v>-18300</v>
       </c>
       <c r="K94" s="3">
         <v>-440600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1244900</v>
+        <v>-1204100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1547600</v>
+        <v>-1496800</v>
       </c>
       <c r="F96" s="3">
-        <v>-697100</v>
+        <v>-674200</v>
       </c>
       <c r="G96" s="3">
-        <v>-603200</v>
+        <v>-583400</v>
       </c>
       <c r="H96" s="3">
-        <v>-520500</v>
+        <v>-503400</v>
       </c>
       <c r="I96" s="3">
-        <v>-352900</v>
+        <v>-341300</v>
       </c>
       <c r="J96" s="3">
-        <v>-312800</v>
+        <v>-302600</v>
       </c>
       <c r="K96" s="3">
         <v>-258500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-879100</v>
+        <v>-850200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1999000</v>
+        <v>-1933400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2013000</v>
+        <v>-1946900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1411500</v>
+        <v>-1365200</v>
       </c>
       <c r="H100" s="3">
-        <v>2292400</v>
+        <v>2217100</v>
       </c>
       <c r="I100" s="3">
-        <v>-973600</v>
+        <v>-941600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1083900</v>
+        <v>-1048300</v>
       </c>
       <c r="K100" s="3">
         <v>-135300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="E101" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="F101" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="G101" s="3">
-        <v>-32800</v>
+        <v>-31700</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="I101" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="J101" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="K101" s="3">
         <v>-11500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2938500</v>
+        <v>2842100</v>
       </c>
       <c r="E102" s="3">
-        <v>480000</v>
+        <v>464300</v>
       </c>
       <c r="F102" s="3">
-        <v>1006400</v>
+        <v>973400</v>
       </c>
       <c r="G102" s="3">
-        <v>-756400</v>
+        <v>-731500</v>
       </c>
       <c r="H102" s="3">
-        <v>523200</v>
+        <v>506000</v>
       </c>
       <c r="I102" s="3">
-        <v>45800</v>
+        <v>44300</v>
       </c>
       <c r="J102" s="3">
-        <v>103700</v>
+        <v>100300</v>
       </c>
       <c r="K102" s="3">
         <v>673600</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ASML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,178 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15783100</v>
+        <v>20302900</v>
       </c>
       <c r="E8" s="3">
-        <v>13346000</v>
+        <v>15249300</v>
       </c>
       <c r="F8" s="3">
-        <v>12356900</v>
+        <v>12894600</v>
       </c>
       <c r="G8" s="3">
-        <v>10119800</v>
+        <v>11938900</v>
       </c>
       <c r="H8" s="3">
-        <v>7762700</v>
+        <v>9777500</v>
       </c>
       <c r="I8" s="3">
-        <v>7099100</v>
+        <v>7500100</v>
       </c>
       <c r="J8" s="3">
+        <v>6859000</v>
+      </c>
+      <c r="K8" s="3">
         <v>6612300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6274500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5308800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6633200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8108400</v>
+        <v>9602200</v>
       </c>
       <c r="E9" s="3">
-        <v>7384500</v>
+        <v>7834200</v>
       </c>
       <c r="F9" s="3">
-        <v>6678400</v>
+        <v>7134800</v>
       </c>
       <c r="G9" s="3">
-        <v>5580600</v>
+        <v>6452500</v>
       </c>
       <c r="H9" s="3">
-        <v>4211300</v>
+        <v>5391800</v>
       </c>
       <c r="I9" s="3">
-        <v>3829500</v>
+        <v>4068900</v>
       </c>
       <c r="J9" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3680800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3670000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3058900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3758100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7674700</v>
+        <v>10700700</v>
       </c>
       <c r="E10" s="3">
-        <v>5961400</v>
+        <v>7415100</v>
       </c>
       <c r="F10" s="3">
-        <v>5678500</v>
+        <v>5759800</v>
       </c>
       <c r="G10" s="3">
-        <v>4539200</v>
+        <v>5486400</v>
       </c>
       <c r="H10" s="3">
-        <v>3551400</v>
+        <v>4385700</v>
       </c>
       <c r="I10" s="3">
-        <v>3269600</v>
+        <v>3431200</v>
       </c>
       <c r="J10" s="3">
+        <v>3159000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2931600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2604400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2249900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2875100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2336000</v>
+        <v>2652100</v>
       </c>
       <c r="E12" s="3">
-        <v>2081800</v>
+        <v>2257000</v>
       </c>
       <c r="F12" s="3">
-        <v>1658300</v>
+        <v>2011400</v>
       </c>
       <c r="G12" s="3">
-        <v>1305100</v>
+        <v>1602200</v>
       </c>
       <c r="H12" s="3">
-        <v>1159000</v>
+        <v>1261000</v>
       </c>
       <c r="I12" s="3">
-        <v>1181400</v>
+        <v>1119800</v>
       </c>
       <c r="J12" s="3">
+        <v>1141400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1169400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1004500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>661100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>692900</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +926,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-233100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>8100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>189100</v>
+        <v>172600</v>
       </c>
       <c r="E15" s="3">
-        <v>166200</v>
+        <v>182700</v>
       </c>
       <c r="F15" s="3">
-        <v>147100</v>
+        <v>160600</v>
       </c>
       <c r="G15" s="3">
-        <v>133600</v>
+        <v>142100</v>
       </c>
       <c r="H15" s="3">
-        <v>120700</v>
+        <v>129100</v>
       </c>
       <c r="I15" s="3">
-        <v>60300</v>
+        <v>116600</v>
       </c>
       <c r="J15" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K15" s="3">
         <v>65000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64100</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11208600</v>
+        <v>12939200</v>
       </c>
       <c r="E17" s="3">
-        <v>10194900</v>
+        <v>10829500</v>
       </c>
       <c r="F17" s="3">
-        <v>9008800</v>
+        <v>9850000</v>
       </c>
       <c r="G17" s="3">
-        <v>7365100</v>
+        <v>8704000</v>
       </c>
       <c r="H17" s="3">
-        <v>5777200</v>
+        <v>7116000</v>
       </c>
       <c r="I17" s="3">
-        <v>5331900</v>
+        <v>5581800</v>
       </c>
       <c r="J17" s="3">
+        <v>5151500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5164600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5020900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4010900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4706800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4574500</v>
+        <v>7363800</v>
       </c>
       <c r="E18" s="3">
-        <v>3151100</v>
+        <v>4419800</v>
       </c>
       <c r="F18" s="3">
-        <v>3348100</v>
+        <v>3044500</v>
       </c>
       <c r="G18" s="3">
-        <v>2754700</v>
+        <v>3234900</v>
       </c>
       <c r="H18" s="3">
-        <v>1985500</v>
+        <v>2661500</v>
       </c>
       <c r="I18" s="3">
-        <v>1767200</v>
+        <v>1918400</v>
       </c>
       <c r="J18" s="3">
+        <v>1707400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1447800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1253600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1297900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1926500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9500</v>
+        <v>10900</v>
       </c>
       <c r="E20" s="3">
-        <v>13100</v>
+        <v>9200</v>
       </c>
       <c r="F20" s="3">
-        <v>15200</v>
+        <v>12700</v>
       </c>
       <c r="G20" s="3">
-        <v>8100</v>
+        <v>14700</v>
       </c>
       <c r="H20" s="3">
-        <v>81000</v>
+        <v>7900</v>
       </c>
       <c r="I20" s="3">
-        <v>12300</v>
+        <v>78200</v>
       </c>
       <c r="J20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K20" s="3">
         <v>16400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>48300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5139500</v>
+        <v>7896300</v>
       </c>
       <c r="E21" s="3">
-        <v>3671800</v>
+        <v>4972600</v>
       </c>
       <c r="F21" s="3">
-        <v>3841700</v>
+        <v>3553900</v>
       </c>
       <c r="G21" s="3">
-        <v>3354700</v>
+        <v>3717700</v>
       </c>
       <c r="H21" s="3">
-        <v>2467400</v>
+        <v>3248600</v>
       </c>
       <c r="I21" s="3">
-        <v>2112400</v>
+        <v>2389000</v>
       </c>
       <c r="J21" s="3">
+        <v>2045100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1750900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1491900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1526400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2168800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48900</v>
+        <v>59600</v>
       </c>
       <c r="E22" s="3">
-        <v>41300</v>
+        <v>47200</v>
       </c>
       <c r="F22" s="3">
-        <v>47200</v>
+        <v>39900</v>
       </c>
       <c r="G22" s="3">
-        <v>64900</v>
+        <v>45600</v>
       </c>
       <c r="H22" s="3">
-        <v>42900</v>
+        <v>62700</v>
       </c>
       <c r="I22" s="3">
-        <v>30900</v>
+        <v>41500</v>
       </c>
       <c r="J22" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K22" s="3">
         <v>26100</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4535100</v>
+        <v>7315100</v>
       </c>
       <c r="E23" s="3">
-        <v>3122900</v>
+        <v>4381700</v>
       </c>
       <c r="F23" s="3">
-        <v>3316200</v>
+        <v>3017200</v>
       </c>
       <c r="G23" s="3">
-        <v>2697900</v>
+        <v>3204000</v>
       </c>
       <c r="H23" s="3">
-        <v>2023600</v>
+        <v>2606600</v>
       </c>
       <c r="I23" s="3">
-        <v>1748500</v>
+        <v>1955100</v>
       </c>
       <c r="J23" s="3">
+        <v>1689400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1438100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1224300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1290900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1935200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>622700</v>
+        <v>1114300</v>
       </c>
       <c r="E24" s="3">
-        <v>216400</v>
+        <v>601600</v>
       </c>
       <c r="F24" s="3">
-        <v>397000</v>
+        <v>209100</v>
       </c>
       <c r="G24" s="3">
-        <v>345500</v>
+        <v>383600</v>
       </c>
       <c r="H24" s="3">
-        <v>264700</v>
+        <v>333800</v>
       </c>
       <c r="I24" s="3">
-        <v>182300</v>
+        <v>255700</v>
       </c>
       <c r="J24" s="3">
+        <v>176100</v>
+      </c>
+      <c r="K24" s="3">
         <v>86900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>213300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3912400</v>
+        <v>6200800</v>
       </c>
       <c r="E26" s="3">
-        <v>2906400</v>
+        <v>3780100</v>
       </c>
       <c r="F26" s="3">
-        <v>2919200</v>
+        <v>2808100</v>
       </c>
       <c r="G26" s="3">
-        <v>2352400</v>
+        <v>2820400</v>
       </c>
       <c r="H26" s="3">
-        <v>1758900</v>
+        <v>2272800</v>
       </c>
       <c r="I26" s="3">
-        <v>1566300</v>
+        <v>1699400</v>
       </c>
       <c r="J26" s="3">
+        <v>1513300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1351100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1214700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1286200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1721900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4012500</v>
+        <v>6418000</v>
       </c>
       <c r="E27" s="3">
-        <v>2927000</v>
+        <v>3876800</v>
       </c>
       <c r="F27" s="3">
-        <v>2926200</v>
+        <v>2828000</v>
       </c>
       <c r="G27" s="3">
-        <v>2333500</v>
+        <v>2827200</v>
       </c>
       <c r="H27" s="3">
-        <v>1758900</v>
+        <v>2254600</v>
       </c>
       <c r="I27" s="3">
-        <v>1566300</v>
+        <v>1699400</v>
       </c>
       <c r="J27" s="3">
+        <v>1513300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1351100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1214700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1286200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1721900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9500</v>
+        <v>-10900</v>
       </c>
       <c r="E32" s="3">
-        <v>-13100</v>
+        <v>-9200</v>
       </c>
       <c r="F32" s="3">
-        <v>-15200</v>
+        <v>-12700</v>
       </c>
       <c r="G32" s="3">
-        <v>-8100</v>
+        <v>-14700</v>
       </c>
       <c r="H32" s="3">
-        <v>-81000</v>
+        <v>-7900</v>
       </c>
       <c r="I32" s="3">
-        <v>-12300</v>
+        <v>-78200</v>
       </c>
       <c r="J32" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-48300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4012500</v>
+        <v>6418000</v>
       </c>
       <c r="E33" s="3">
-        <v>2927000</v>
+        <v>3876800</v>
       </c>
       <c r="F33" s="3">
-        <v>2926200</v>
+        <v>2828000</v>
       </c>
       <c r="G33" s="3">
-        <v>2333500</v>
+        <v>2827200</v>
       </c>
       <c r="H33" s="3">
-        <v>1758900</v>
+        <v>2254600</v>
       </c>
       <c r="I33" s="3">
-        <v>1566300</v>
+        <v>1699400</v>
       </c>
       <c r="J33" s="3">
+        <v>1513300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1351100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1214700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1286200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1721900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4012500</v>
+        <v>6418000</v>
       </c>
       <c r="E35" s="3">
-        <v>2927000</v>
+        <v>3876800</v>
       </c>
       <c r="F35" s="3">
-        <v>2926200</v>
+        <v>2828000</v>
       </c>
       <c r="G35" s="3">
-        <v>2333500</v>
+        <v>2827200</v>
       </c>
       <c r="H35" s="3">
-        <v>1758900</v>
+        <v>2254600</v>
       </c>
       <c r="I35" s="3">
-        <v>1566300</v>
+        <v>1699400</v>
       </c>
       <c r="J35" s="3">
+        <v>1513300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1351100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1214700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1286200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1721900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1818,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6830400</v>
+        <v>7583800</v>
       </c>
       <c r="E41" s="3">
-        <v>3988300</v>
+        <v>6599400</v>
       </c>
       <c r="F41" s="3">
-        <v>3524000</v>
+        <v>3853400</v>
       </c>
       <c r="G41" s="3">
-        <v>2550600</v>
+        <v>3404800</v>
       </c>
       <c r="H41" s="3">
-        <v>3282100</v>
+        <v>2464400</v>
       </c>
       <c r="I41" s="3">
-        <v>2776100</v>
+        <v>3171100</v>
       </c>
       <c r="J41" s="3">
+        <v>2682200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2731800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2788000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1983200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3206600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1470300</v>
+        <v>696500</v>
       </c>
       <c r="E42" s="3">
-        <v>1338900</v>
+        <v>1420600</v>
       </c>
       <c r="F42" s="3">
-        <v>1031200</v>
+        <v>1293600</v>
       </c>
       <c r="G42" s="3">
-        <v>1162200</v>
+        <v>996300</v>
       </c>
       <c r="H42" s="3">
-        <v>1298500</v>
+        <v>1122900</v>
       </c>
       <c r="I42" s="3">
-        <v>1072600</v>
+        <v>1254500</v>
       </c>
       <c r="J42" s="3">
+        <v>1036400</v>
+      </c>
+      <c r="K42" s="3">
         <v>378100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>813300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1043500</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3763200</v>
+        <v>4971200</v>
       </c>
       <c r="E43" s="3">
-        <v>3218500</v>
+        <v>3635900</v>
       </c>
       <c r="F43" s="3">
-        <v>2710900</v>
+        <v>3109600</v>
       </c>
       <c r="G43" s="3">
-        <v>2482600</v>
+        <v>2619200</v>
       </c>
       <c r="H43" s="3">
-        <v>1378400</v>
+        <v>2398600</v>
       </c>
       <c r="I43" s="3">
-        <v>1315000</v>
+        <v>1331800</v>
       </c>
       <c r="J43" s="3">
+        <v>1270500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1505800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1423300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1788300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1259900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5159300</v>
+        <v>5650000</v>
       </c>
       <c r="E44" s="3">
-        <v>4301000</v>
+        <v>4984800</v>
       </c>
       <c r="F44" s="3">
-        <v>3883500</v>
+        <v>4155500</v>
       </c>
       <c r="G44" s="3">
-        <v>3337200</v>
+        <v>3752200</v>
       </c>
       <c r="H44" s="3">
-        <v>3139900</v>
+        <v>3224300</v>
       </c>
       <c r="I44" s="3">
-        <v>2906000</v>
+        <v>3033700</v>
       </c>
       <c r="J44" s="3">
+        <v>2807700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2879000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2862500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4167000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1907000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>763400</v>
+        <v>942300</v>
       </c>
       <c r="E45" s="3">
-        <v>850600</v>
+        <v>737600</v>
       </c>
       <c r="F45" s="3">
-        <v>741400</v>
+        <v>821800</v>
       </c>
       <c r="G45" s="3">
-        <v>500400</v>
+        <v>716300</v>
       </c>
       <c r="H45" s="3">
-        <v>563300</v>
+        <v>483500</v>
       </c>
       <c r="I45" s="3">
-        <v>633000</v>
+        <v>544300</v>
       </c>
       <c r="J45" s="3">
+        <v>611600</v>
+      </c>
+      <c r="K45" s="3">
         <v>574100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>516900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>325200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17986600</v>
+        <v>19843900</v>
       </c>
       <c r="E46" s="3">
-        <v>13697200</v>
+        <v>17378200</v>
       </c>
       <c r="F46" s="3">
-        <v>11891000</v>
+        <v>13233900</v>
       </c>
       <c r="G46" s="3">
-        <v>10033000</v>
+        <v>11488800</v>
       </c>
       <c r="H46" s="3">
-        <v>9662200</v>
+        <v>9693600</v>
       </c>
       <c r="I46" s="3">
-        <v>8702800</v>
+        <v>9335400</v>
       </c>
       <c r="J46" s="3">
+        <v>8408400</v>
+      </c>
+      <c r="K46" s="3">
         <v>8068800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8404000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6543300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6698700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1404400</v>
+        <v>1535900</v>
       </c>
       <c r="E47" s="3">
-        <v>1492600</v>
+        <v>1356900</v>
       </c>
       <c r="F47" s="3">
-        <v>1514800</v>
+        <v>1442100</v>
       </c>
       <c r="G47" s="3">
-        <v>1289000</v>
+        <v>1463600</v>
       </c>
       <c r="H47" s="3">
-        <v>138500</v>
+        <v>1245400</v>
       </c>
       <c r="I47" s="3">
-        <v>146200</v>
+        <v>133800</v>
       </c>
       <c r="J47" s="3">
+        <v>141300</v>
+      </c>
+      <c r="K47" s="3">
         <v>68500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>61600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43300</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3178600</v>
+        <v>3433600</v>
       </c>
       <c r="E48" s="3">
-        <v>2623100</v>
+        <v>3071100</v>
       </c>
       <c r="F48" s="3">
-        <v>1950100</v>
+        <v>2534400</v>
       </c>
       <c r="G48" s="3">
-        <v>1935800</v>
+        <v>1884100</v>
       </c>
       <c r="H48" s="3">
-        <v>1905100</v>
+        <v>1870400</v>
       </c>
       <c r="I48" s="3">
-        <v>1829900</v>
+        <v>1840600</v>
       </c>
       <c r="J48" s="3">
+        <v>1768000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1634400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1456800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2311100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1236700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6411000</v>
+        <v>6008400</v>
       </c>
       <c r="E49" s="3">
-        <v>6374300</v>
+        <v>6194200</v>
       </c>
       <c r="F49" s="3">
-        <v>6373900</v>
+        <v>6158700</v>
       </c>
       <c r="G49" s="3">
-        <v>6443900</v>
+        <v>6158300</v>
       </c>
       <c r="H49" s="3">
-        <v>6996800</v>
+        <v>6225900</v>
       </c>
       <c r="I49" s="3">
-        <v>3796800</v>
+        <v>6760200</v>
       </c>
       <c r="J49" s="3">
+        <v>3668400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3479200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3332900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>189700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>181200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1807000</v>
+        <v>2157500</v>
       </c>
       <c r="E52" s="3">
-        <v>1363800</v>
+        <v>1745900</v>
       </c>
       <c r="F52" s="3">
-        <v>1006800</v>
+        <v>1317700</v>
       </c>
       <c r="G52" s="3">
-        <v>835400</v>
+        <v>972800</v>
       </c>
       <c r="H52" s="3">
-        <v>724700</v>
+        <v>807200</v>
       </c>
       <c r="I52" s="3">
-        <v>535700</v>
+        <v>700100</v>
       </c>
       <c r="J52" s="3">
+        <v>517600</v>
+      </c>
+      <c r="K52" s="3">
         <v>528600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>517500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>393800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>406100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30787600</v>
+        <v>32979300</v>
       </c>
       <c r="E54" s="3">
-        <v>25551100</v>
+        <v>29746300</v>
       </c>
       <c r="F54" s="3">
-        <v>22736600</v>
+        <v>24686900</v>
       </c>
       <c r="G54" s="3">
-        <v>20537100</v>
+        <v>21967500</v>
       </c>
       <c r="H54" s="3">
-        <v>19427300</v>
+        <v>19842500</v>
       </c>
       <c r="I54" s="3">
-        <v>15011400</v>
+        <v>18770200</v>
       </c>
       <c r="J54" s="3">
+        <v>14503700</v>
+      </c>
+      <c r="K54" s="3">
         <v>13779500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13772700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8314500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8522800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1555800</v>
+        <v>2308700</v>
       </c>
       <c r="E57" s="3">
-        <v>1199300</v>
+        <v>1503200</v>
       </c>
       <c r="F57" s="3">
-        <v>1088500</v>
+        <v>1158800</v>
       </c>
       <c r="G57" s="3">
-        <v>945400</v>
+        <v>1051600</v>
       </c>
       <c r="H57" s="3">
-        <v>669800</v>
+        <v>913400</v>
       </c>
       <c r="I57" s="3">
-        <v>473000</v>
+        <v>647100</v>
       </c>
       <c r="J57" s="3">
+        <v>457000</v>
+      </c>
+      <c r="K57" s="3">
         <v>560300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>748700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>212000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>521500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22700</v>
-      </c>
-      <c r="E58" s="3" t="s">
+        <v>558500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
-        <v>28500</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>279600</v>
+        <v>27500</v>
       </c>
       <c r="I58" s="3">
+        <v>270200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5877500</v>
+        <v>10548800</v>
       </c>
       <c r="E59" s="3">
-        <v>4100800</v>
+        <v>5678700</v>
       </c>
       <c r="F59" s="3">
-        <v>3193000</v>
+        <v>3962100</v>
       </c>
       <c r="G59" s="3">
-        <v>5233300</v>
+        <v>3085000</v>
       </c>
       <c r="H59" s="3">
-        <v>2754700</v>
+        <v>5056300</v>
       </c>
       <c r="I59" s="3">
-        <v>3030600</v>
+        <v>2661500</v>
       </c>
       <c r="J59" s="3">
+        <v>2928100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2696700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2677600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4465500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2096600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7456000</v>
+        <v>13416000</v>
       </c>
       <c r="E60" s="3">
-        <v>5300100</v>
+        <v>7203800</v>
       </c>
       <c r="F60" s="3">
-        <v>4281400</v>
+        <v>5120800</v>
       </c>
       <c r="G60" s="3">
-        <v>3579200</v>
+        <v>4136600</v>
       </c>
       <c r="H60" s="3">
-        <v>3704100</v>
+        <v>3458200</v>
       </c>
       <c r="I60" s="3">
-        <v>3508300</v>
+        <v>3578800</v>
       </c>
       <c r="J60" s="3">
+        <v>3389600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3261800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3431500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2340800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2621200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5264800</v>
+        <v>4445500</v>
       </c>
       <c r="E61" s="3">
-        <v>3509600</v>
+        <v>5086700</v>
       </c>
       <c r="F61" s="3">
-        <v>3417200</v>
+        <v>3390900</v>
       </c>
       <c r="G61" s="3">
-        <v>3387400</v>
+        <v>3301600</v>
       </c>
       <c r="H61" s="3">
-        <v>3468400</v>
+        <v>3272800</v>
       </c>
       <c r="I61" s="3">
-        <v>1270800</v>
+        <v>3351000</v>
       </c>
       <c r="J61" s="3">
+        <v>1227800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1298300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1280200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>848100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>861300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2411400</v>
+        <v>4055300</v>
       </c>
       <c r="E62" s="3">
-        <v>2523500</v>
+        <v>2329900</v>
       </c>
       <c r="F62" s="3">
-        <v>1894100</v>
+        <v>2438200</v>
       </c>
       <c r="G62" s="3">
-        <v>2362900</v>
+        <v>1830000</v>
       </c>
       <c r="H62" s="3">
-        <v>1166500</v>
+        <v>2282900</v>
       </c>
       <c r="I62" s="3">
-        <v>760500</v>
+        <v>1127000</v>
       </c>
       <c r="J62" s="3">
+        <v>734800</v>
+      </c>
+      <c r="K62" s="3">
         <v>736900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>780500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>562600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>997500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15132200</v>
+        <v>21916800</v>
       </c>
       <c r="E66" s="3">
-        <v>11333200</v>
+        <v>14620400</v>
       </c>
       <c r="F66" s="3">
-        <v>9592700</v>
+        <v>10949900</v>
       </c>
       <c r="G66" s="3">
-        <v>8369500</v>
+        <v>9268300</v>
       </c>
       <c r="H66" s="3">
-        <v>8338900</v>
+        <v>8086400</v>
       </c>
       <c r="I66" s="3">
-        <v>5539600</v>
+        <v>8056900</v>
       </c>
       <c r="J66" s="3">
+        <v>5352200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5297000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5492100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3751500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4480000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12116900</v>
+        <v>9073400</v>
       </c>
       <c r="E72" s="3">
-        <v>10753300</v>
+        <v>11707100</v>
       </c>
       <c r="F72" s="3">
-        <v>10385300</v>
+        <v>10389600</v>
       </c>
       <c r="G72" s="3">
-        <v>8255400</v>
+        <v>10034100</v>
       </c>
       <c r="H72" s="3">
-        <v>7093600</v>
+        <v>7976200</v>
       </c>
       <c r="I72" s="3">
-        <v>5966500</v>
+        <v>6853600</v>
       </c>
       <c r="J72" s="3">
+        <v>5764700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5248700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5184600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4499600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3839200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15655400</v>
+        <v>11062500</v>
       </c>
       <c r="E76" s="3">
-        <v>14217900</v>
+        <v>15125900</v>
       </c>
       <c r="F76" s="3">
-        <v>13143900</v>
+        <v>13737000</v>
       </c>
       <c r="G76" s="3">
-        <v>12167600</v>
+        <v>12699300</v>
       </c>
       <c r="H76" s="3">
-        <v>11088300</v>
+        <v>11756100</v>
       </c>
       <c r="I76" s="3">
-        <v>9471800</v>
+        <v>10713300</v>
       </c>
       <c r="J76" s="3">
+        <v>9151500</v>
+      </c>
+      <c r="K76" s="3">
         <v>8482500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8280600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4563000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4042800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4012500</v>
+        <v>6418000</v>
       </c>
       <c r="E81" s="3">
-        <v>2927000</v>
+        <v>3876800</v>
       </c>
       <c r="F81" s="3">
-        <v>2926200</v>
+        <v>2828000</v>
       </c>
       <c r="G81" s="3">
-        <v>2333500</v>
+        <v>2827200</v>
       </c>
       <c r="H81" s="3">
-        <v>1758900</v>
+        <v>2254600</v>
       </c>
       <c r="I81" s="3">
-        <v>1566300</v>
+        <v>1699400</v>
       </c>
       <c r="J81" s="3">
+        <v>1513300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1351100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1214700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1286200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1721900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>554200</v>
+        <v>513800</v>
       </c>
       <c r="E83" s="3">
-        <v>506400</v>
+        <v>535400</v>
       </c>
       <c r="F83" s="3">
-        <v>477300</v>
+        <v>489300</v>
       </c>
       <c r="G83" s="3">
-        <v>590500</v>
+        <v>461100</v>
       </c>
       <c r="H83" s="3">
-        <v>400000</v>
+        <v>570500</v>
       </c>
       <c r="I83" s="3">
-        <v>332200</v>
+        <v>386500</v>
       </c>
       <c r="J83" s="3">
+        <v>320900</v>
+      </c>
+      <c r="K83" s="3">
         <v>286100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>268700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>209400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>193900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5225000</v>
+        <v>11831800</v>
       </c>
       <c r="E89" s="3">
-        <v>3699400</v>
+        <v>5048300</v>
       </c>
       <c r="F89" s="3">
-        <v>3469400</v>
+        <v>3574300</v>
       </c>
       <c r="G89" s="3">
-        <v>2053000</v>
+        <v>3352000</v>
       </c>
       <c r="H89" s="3">
-        <v>1881000</v>
+        <v>1983600</v>
       </c>
       <c r="I89" s="3">
-        <v>2287100</v>
+        <v>1817400</v>
       </c>
       <c r="J89" s="3">
+        <v>2209700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1157600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1261000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>789300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2430300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1086200</v>
+        <v>-982600</v>
       </c>
       <c r="E91" s="3">
-        <v>-865600</v>
+        <v>-1049500</v>
       </c>
       <c r="F91" s="3">
-        <v>-648100</v>
+        <v>-836300</v>
       </c>
       <c r="G91" s="3">
-        <v>-382700</v>
+        <v>-626200</v>
       </c>
       <c r="H91" s="3">
-        <v>-357200</v>
+        <v>-369700</v>
       </c>
       <c r="I91" s="3">
-        <v>-419800</v>
+        <v>-345100</v>
       </c>
       <c r="J91" s="3">
+        <v>-405600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-404500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-252200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-192800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-353200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1526800</v>
+        <v>-78500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1306900</v>
+        <v>-1475100</v>
       </c>
       <c r="F94" s="3">
-        <v>-555000</v>
+        <v>-1262700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1387700</v>
+        <v>-536200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3600100</v>
+        <v>-1340700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1309700</v>
+        <v>-3478300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1265400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-440600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1256400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-353200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1204100</v>
+        <v>-1492700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1496800</v>
+        <v>-1163300</v>
       </c>
       <c r="F96" s="3">
-        <v>-674200</v>
+        <v>-1446200</v>
       </c>
       <c r="G96" s="3">
-        <v>-583400</v>
+        <v>-651400</v>
       </c>
       <c r="H96" s="3">
-        <v>-503400</v>
+        <v>-563700</v>
       </c>
       <c r="I96" s="3">
-        <v>-341300</v>
+        <v>-486400</v>
       </c>
       <c r="J96" s="3">
+        <v>-329800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-302600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-258500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-211900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-202700</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-850200</v>
+        <v>-10791000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1933400</v>
+        <v>-821500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1946900</v>
+        <v>-1868000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1365200</v>
+        <v>-1881100</v>
       </c>
       <c r="H100" s="3">
-        <v>2217100</v>
+        <v>-1319000</v>
       </c>
       <c r="I100" s="3">
-        <v>-941600</v>
+        <v>2142200</v>
       </c>
       <c r="J100" s="3">
+        <v>-909800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1048300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-135300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-612100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1163900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6000</v>
+        <v>22100</v>
       </c>
       <c r="E101" s="3">
-        <v>5200</v>
+        <v>-5800</v>
       </c>
       <c r="F101" s="3">
-        <v>5900</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="3">
-        <v>-31700</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
-        <v>8000</v>
+        <v>-30700</v>
       </c>
       <c r="I101" s="3">
-        <v>8500</v>
+        <v>7700</v>
       </c>
       <c r="J101" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K101" s="3">
         <v>9300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2842100</v>
+        <v>984400</v>
       </c>
       <c r="E102" s="3">
-        <v>464300</v>
+        <v>2745900</v>
       </c>
       <c r="F102" s="3">
-        <v>973400</v>
+        <v>448600</v>
       </c>
       <c r="G102" s="3">
-        <v>-731500</v>
+        <v>940500</v>
       </c>
       <c r="H102" s="3">
-        <v>506000</v>
+        <v>-706800</v>
       </c>
       <c r="I102" s="3">
-        <v>44300</v>
+        <v>488900</v>
       </c>
       <c r="J102" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K102" s="3">
         <v>100300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>673600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1081800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>917900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20302900</v>
+        <v>19316400</v>
       </c>
       <c r="E8" s="3">
-        <v>15249300</v>
+        <v>14508300</v>
       </c>
       <c r="F8" s="3">
-        <v>12894600</v>
+        <v>12268000</v>
       </c>
       <c r="G8" s="3">
-        <v>11938900</v>
+        <v>11358800</v>
       </c>
       <c r="H8" s="3">
-        <v>9777500</v>
+        <v>9302400</v>
       </c>
       <c r="I8" s="3">
-        <v>7500100</v>
+        <v>7135700</v>
       </c>
       <c r="J8" s="3">
-        <v>6859000</v>
+        <v>6525700</v>
       </c>
       <c r="K8" s="3">
         <v>6612300</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9602200</v>
+        <v>9135600</v>
       </c>
       <c r="E9" s="3">
-        <v>7834200</v>
+        <v>7453500</v>
       </c>
       <c r="F9" s="3">
-        <v>7134800</v>
+        <v>6788100</v>
       </c>
       <c r="G9" s="3">
-        <v>6452500</v>
+        <v>6139000</v>
       </c>
       <c r="H9" s="3">
-        <v>5391800</v>
+        <v>5129800</v>
       </c>
       <c r="I9" s="3">
-        <v>4068900</v>
+        <v>3871200</v>
       </c>
       <c r="J9" s="3">
-        <v>3700000</v>
+        <v>3520200</v>
       </c>
       <c r="K9" s="3">
         <v>3680800</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10700700</v>
+        <v>10180800</v>
       </c>
       <c r="E10" s="3">
-        <v>7415100</v>
+        <v>7054800</v>
       </c>
       <c r="F10" s="3">
-        <v>5759800</v>
+        <v>5479900</v>
       </c>
       <c r="G10" s="3">
-        <v>5486400</v>
+        <v>5219800</v>
       </c>
       <c r="H10" s="3">
-        <v>4385700</v>
+        <v>4172600</v>
       </c>
       <c r="I10" s="3">
-        <v>3431200</v>
+        <v>3264500</v>
       </c>
       <c r="J10" s="3">
-        <v>3159000</v>
+        <v>3005500</v>
       </c>
       <c r="K10" s="3">
         <v>2931600</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2652100</v>
+        <v>2523200</v>
       </c>
       <c r="E12" s="3">
-        <v>2257000</v>
+        <v>2147300</v>
       </c>
       <c r="F12" s="3">
-        <v>2011400</v>
+        <v>1913700</v>
       </c>
       <c r="G12" s="3">
-        <v>1602200</v>
+        <v>1524400</v>
       </c>
       <c r="H12" s="3">
-        <v>1261000</v>
+        <v>1199700</v>
       </c>
       <c r="I12" s="3">
-        <v>1119800</v>
+        <v>1065400</v>
       </c>
       <c r="J12" s="3">
-        <v>1141400</v>
+        <v>1085900</v>
       </c>
       <c r="K12" s="3">
         <v>1169400</v>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-233100</v>
+        <v>-221800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>172600</v>
+        <v>164200</v>
       </c>
       <c r="E15" s="3">
-        <v>182700</v>
+        <v>173800</v>
       </c>
       <c r="F15" s="3">
-        <v>160600</v>
+        <v>152800</v>
       </c>
       <c r="G15" s="3">
-        <v>142100</v>
+        <v>135200</v>
       </c>
       <c r="H15" s="3">
-        <v>129100</v>
+        <v>122800</v>
       </c>
       <c r="I15" s="3">
-        <v>116600</v>
+        <v>111000</v>
       </c>
       <c r="J15" s="3">
-        <v>58300</v>
+        <v>55400</v>
       </c>
       <c r="K15" s="3">
         <v>65000</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12939200</v>
+        <v>12310400</v>
       </c>
       <c r="E17" s="3">
-        <v>10829500</v>
+        <v>10303200</v>
       </c>
       <c r="F17" s="3">
-        <v>9850000</v>
+        <v>9371400</v>
       </c>
       <c r="G17" s="3">
-        <v>8704000</v>
+        <v>8281100</v>
       </c>
       <c r="H17" s="3">
-        <v>7116000</v>
+        <v>6770200</v>
       </c>
       <c r="I17" s="3">
-        <v>5581800</v>
+        <v>5310500</v>
       </c>
       <c r="J17" s="3">
-        <v>5151500</v>
+        <v>4901200</v>
       </c>
       <c r="K17" s="3">
         <v>5164600</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7363800</v>
+        <v>7005900</v>
       </c>
       <c r="E18" s="3">
-        <v>4419800</v>
+        <v>4205100</v>
       </c>
       <c r="F18" s="3">
-        <v>3044500</v>
+        <v>2896600</v>
       </c>
       <c r="G18" s="3">
-        <v>3234900</v>
+        <v>3077700</v>
       </c>
       <c r="H18" s="3">
-        <v>2661500</v>
+        <v>2532200</v>
       </c>
       <c r="I18" s="3">
-        <v>1918400</v>
+        <v>1825100</v>
       </c>
       <c r="J18" s="3">
-        <v>1707400</v>
+        <v>1624500</v>
       </c>
       <c r="K18" s="3">
         <v>1447800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="E20" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="F20" s="3">
-        <v>12700</v>
+        <v>12000</v>
       </c>
       <c r="G20" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="H20" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="I20" s="3">
-        <v>78200</v>
+        <v>74400</v>
       </c>
       <c r="J20" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="K20" s="3">
         <v>16400</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7896300</v>
+        <v>7511400</v>
       </c>
       <c r="E21" s="3">
-        <v>4972600</v>
+        <v>4729700</v>
       </c>
       <c r="F21" s="3">
-        <v>3553900</v>
+        <v>3380000</v>
       </c>
       <c r="G21" s="3">
-        <v>3717700</v>
+        <v>3536000</v>
       </c>
       <c r="H21" s="3">
-        <v>3248600</v>
+        <v>3089400</v>
       </c>
       <c r="I21" s="3">
-        <v>2389000</v>
+        <v>2272000</v>
       </c>
       <c r="J21" s="3">
-        <v>2045100</v>
+        <v>1945000</v>
       </c>
       <c r="K21" s="3">
         <v>1750900</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59600</v>
+        <v>56700</v>
       </c>
       <c r="E22" s="3">
-        <v>47200</v>
+        <v>44900</v>
       </c>
       <c r="F22" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="G22" s="3">
-        <v>45600</v>
+        <v>43400</v>
       </c>
       <c r="H22" s="3">
-        <v>62700</v>
+        <v>59700</v>
       </c>
       <c r="I22" s="3">
-        <v>41500</v>
+        <v>39400</v>
       </c>
       <c r="J22" s="3">
-        <v>29900</v>
+        <v>28400</v>
       </c>
       <c r="K22" s="3">
         <v>26100</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7315100</v>
+        <v>6959600</v>
       </c>
       <c r="E23" s="3">
-        <v>4381700</v>
+        <v>4168800</v>
       </c>
       <c r="F23" s="3">
-        <v>3017200</v>
+        <v>2870600</v>
       </c>
       <c r="G23" s="3">
-        <v>3204000</v>
+        <v>3048300</v>
       </c>
       <c r="H23" s="3">
-        <v>2606600</v>
+        <v>2480000</v>
       </c>
       <c r="I23" s="3">
-        <v>1955100</v>
+        <v>1860100</v>
       </c>
       <c r="J23" s="3">
-        <v>1689400</v>
+        <v>1607300</v>
       </c>
       <c r="K23" s="3">
         <v>1438100</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1114300</v>
+        <v>1060100</v>
       </c>
       <c r="E24" s="3">
-        <v>601600</v>
+        <v>572400</v>
       </c>
       <c r="F24" s="3">
-        <v>209100</v>
+        <v>199000</v>
       </c>
       <c r="G24" s="3">
-        <v>383600</v>
+        <v>364900</v>
       </c>
       <c r="H24" s="3">
-        <v>333800</v>
+        <v>317600</v>
       </c>
       <c r="I24" s="3">
-        <v>255700</v>
+        <v>243300</v>
       </c>
       <c r="J24" s="3">
-        <v>176100</v>
+        <v>167600</v>
       </c>
       <c r="K24" s="3">
         <v>86900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6200800</v>
+        <v>5899500</v>
       </c>
       <c r="E26" s="3">
-        <v>3780100</v>
+        <v>3596400</v>
       </c>
       <c r="F26" s="3">
-        <v>2808100</v>
+        <v>2671700</v>
       </c>
       <c r="G26" s="3">
-        <v>2820400</v>
+        <v>2683400</v>
       </c>
       <c r="H26" s="3">
-        <v>2272800</v>
+        <v>2162400</v>
       </c>
       <c r="I26" s="3">
-        <v>1699400</v>
+        <v>1616800</v>
       </c>
       <c r="J26" s="3">
-        <v>1513300</v>
+        <v>1439700</v>
       </c>
       <c r="K26" s="3">
         <v>1351100</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6418000</v>
+        <v>6106200</v>
       </c>
       <c r="E27" s="3">
-        <v>3876800</v>
+        <v>3688400</v>
       </c>
       <c r="F27" s="3">
-        <v>2828000</v>
+        <v>2690500</v>
       </c>
       <c r="G27" s="3">
-        <v>2827200</v>
+        <v>2689800</v>
       </c>
       <c r="H27" s="3">
-        <v>2254600</v>
+        <v>2145000</v>
       </c>
       <c r="I27" s="3">
-        <v>1699400</v>
+        <v>1616800</v>
       </c>
       <c r="J27" s="3">
-        <v>1513300</v>
+        <v>1439700</v>
       </c>
       <c r="K27" s="3">
         <v>1351100</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="E32" s="3">
-        <v>-9200</v>
+        <v>-8700</v>
       </c>
       <c r="F32" s="3">
-        <v>-12700</v>
+        <v>-12000</v>
       </c>
       <c r="G32" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="H32" s="3">
-        <v>-7900</v>
+        <v>-7500</v>
       </c>
       <c r="I32" s="3">
-        <v>-78200</v>
+        <v>-74400</v>
       </c>
       <c r="J32" s="3">
-        <v>-11900</v>
+        <v>-11300</v>
       </c>
       <c r="K32" s="3">
         <v>-16400</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6418000</v>
+        <v>6106200</v>
       </c>
       <c r="E33" s="3">
-        <v>3876800</v>
+        <v>3688400</v>
       </c>
       <c r="F33" s="3">
-        <v>2828000</v>
+        <v>2690500</v>
       </c>
       <c r="G33" s="3">
-        <v>2827200</v>
+        <v>2689800</v>
       </c>
       <c r="H33" s="3">
-        <v>2254600</v>
+        <v>2145000</v>
       </c>
       <c r="I33" s="3">
-        <v>1699400</v>
+        <v>1616800</v>
       </c>
       <c r="J33" s="3">
-        <v>1513300</v>
+        <v>1439700</v>
       </c>
       <c r="K33" s="3">
         <v>1351100</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6418000</v>
+        <v>6106200</v>
       </c>
       <c r="E35" s="3">
-        <v>3876800</v>
+        <v>3688400</v>
       </c>
       <c r="F35" s="3">
-        <v>2828000</v>
+        <v>2690500</v>
       </c>
       <c r="G35" s="3">
-        <v>2827200</v>
+        <v>2689800</v>
       </c>
       <c r="H35" s="3">
-        <v>2254600</v>
+        <v>2145000</v>
       </c>
       <c r="I35" s="3">
-        <v>1699400</v>
+        <v>1616800</v>
       </c>
       <c r="J35" s="3">
-        <v>1513300</v>
+        <v>1439700</v>
       </c>
       <c r="K35" s="3">
         <v>1351100</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7583800</v>
+        <v>7215300</v>
       </c>
       <c r="E41" s="3">
-        <v>6599400</v>
+        <v>6278700</v>
       </c>
       <c r="F41" s="3">
-        <v>3853400</v>
+        <v>3666200</v>
       </c>
       <c r="G41" s="3">
-        <v>3404800</v>
+        <v>3239400</v>
       </c>
       <c r="H41" s="3">
-        <v>2464400</v>
+        <v>2344600</v>
       </c>
       <c r="I41" s="3">
-        <v>3171100</v>
+        <v>3017000</v>
       </c>
       <c r="J41" s="3">
-        <v>2682200</v>
+        <v>2551900</v>
       </c>
       <c r="K41" s="3">
         <v>2731800</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>696500</v>
+        <v>662700</v>
       </c>
       <c r="E42" s="3">
-        <v>1420600</v>
+        <v>1351600</v>
       </c>
       <c r="F42" s="3">
-        <v>1293600</v>
+        <v>1230700</v>
       </c>
       <c r="G42" s="3">
-        <v>996300</v>
+        <v>947900</v>
       </c>
       <c r="H42" s="3">
-        <v>1122900</v>
+        <v>1068300</v>
       </c>
       <c r="I42" s="3">
-        <v>1254500</v>
+        <v>1193600</v>
       </c>
       <c r="J42" s="3">
-        <v>1036400</v>
+        <v>986000</v>
       </c>
       <c r="K42" s="3">
         <v>378100</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4971200</v>
+        <v>4729600</v>
       </c>
       <c r="E43" s="3">
-        <v>3635900</v>
+        <v>3459200</v>
       </c>
       <c r="F43" s="3">
-        <v>3109600</v>
+        <v>2958500</v>
       </c>
       <c r="G43" s="3">
-        <v>2619200</v>
+        <v>2491900</v>
       </c>
       <c r="H43" s="3">
-        <v>2398600</v>
+        <v>2282000</v>
       </c>
       <c r="I43" s="3">
-        <v>1331800</v>
+        <v>1267000</v>
       </c>
       <c r="J43" s="3">
-        <v>1270500</v>
+        <v>1208800</v>
       </c>
       <c r="K43" s="3">
         <v>1505800</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5650000</v>
+        <v>5375500</v>
       </c>
       <c r="E44" s="3">
-        <v>4984800</v>
+        <v>4742600</v>
       </c>
       <c r="F44" s="3">
-        <v>4155500</v>
+        <v>3953600</v>
       </c>
       <c r="G44" s="3">
-        <v>3752200</v>
+        <v>3569900</v>
       </c>
       <c r="H44" s="3">
-        <v>3224300</v>
+        <v>3067600</v>
       </c>
       <c r="I44" s="3">
-        <v>3033700</v>
+        <v>2886300</v>
       </c>
       <c r="J44" s="3">
-        <v>2807700</v>
+        <v>2671300</v>
       </c>
       <c r="K44" s="3">
         <v>2879000</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>942300</v>
+        <v>896500</v>
       </c>
       <c r="E45" s="3">
-        <v>737600</v>
+        <v>701700</v>
       </c>
       <c r="F45" s="3">
-        <v>821800</v>
+        <v>781900</v>
       </c>
       <c r="G45" s="3">
-        <v>716300</v>
+        <v>681500</v>
       </c>
       <c r="H45" s="3">
-        <v>483500</v>
+        <v>460000</v>
       </c>
       <c r="I45" s="3">
-        <v>544300</v>
+        <v>517800</v>
       </c>
       <c r="J45" s="3">
-        <v>611600</v>
+        <v>581900</v>
       </c>
       <c r="K45" s="3">
         <v>574100</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19843900</v>
+        <v>18879600</v>
       </c>
       <c r="E46" s="3">
-        <v>17378200</v>
+        <v>16533700</v>
       </c>
       <c r="F46" s="3">
-        <v>13233900</v>
+        <v>12590900</v>
       </c>
       <c r="G46" s="3">
-        <v>11488800</v>
+        <v>10930500</v>
       </c>
       <c r="H46" s="3">
-        <v>9693600</v>
+        <v>9222600</v>
       </c>
       <c r="I46" s="3">
-        <v>9335400</v>
+        <v>8881800</v>
       </c>
       <c r="J46" s="3">
-        <v>8408400</v>
+        <v>7999800</v>
       </c>
       <c r="K46" s="3">
         <v>8068800</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1535900</v>
+        <v>1461300</v>
       </c>
       <c r="E47" s="3">
-        <v>1356900</v>
+        <v>1290900</v>
       </c>
       <c r="F47" s="3">
-        <v>1442100</v>
+        <v>1372000</v>
       </c>
       <c r="G47" s="3">
-        <v>1463600</v>
+        <v>1392400</v>
       </c>
       <c r="H47" s="3">
-        <v>1245400</v>
+        <v>1184900</v>
       </c>
       <c r="I47" s="3">
-        <v>133800</v>
+        <v>127300</v>
       </c>
       <c r="J47" s="3">
-        <v>141300</v>
+        <v>134400</v>
       </c>
       <c r="K47" s="3">
         <v>68500</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3433600</v>
+        <v>3266800</v>
       </c>
       <c r="E48" s="3">
-        <v>3071100</v>
+        <v>2921900</v>
       </c>
       <c r="F48" s="3">
-        <v>2534400</v>
+        <v>2411200</v>
       </c>
       <c r="G48" s="3">
-        <v>1884100</v>
+        <v>1792600</v>
       </c>
       <c r="H48" s="3">
-        <v>1870400</v>
+        <v>1779500</v>
       </c>
       <c r="I48" s="3">
-        <v>1840600</v>
+        <v>1751200</v>
       </c>
       <c r="J48" s="3">
-        <v>1768000</v>
+        <v>1682100</v>
       </c>
       <c r="K48" s="3">
         <v>1634400</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6008400</v>
+        <v>5716400</v>
       </c>
       <c r="E49" s="3">
-        <v>6194200</v>
+        <v>5893200</v>
       </c>
       <c r="F49" s="3">
-        <v>6158700</v>
+        <v>5859500</v>
       </c>
       <c r="G49" s="3">
-        <v>6158300</v>
+        <v>5859000</v>
       </c>
       <c r="H49" s="3">
-        <v>6225900</v>
+        <v>5923400</v>
       </c>
       <c r="I49" s="3">
-        <v>6760200</v>
+        <v>6431700</v>
       </c>
       <c r="J49" s="3">
-        <v>3668400</v>
+        <v>3490200</v>
       </c>
       <c r="K49" s="3">
         <v>3479200</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2157500</v>
+        <v>2052700</v>
       </c>
       <c r="E52" s="3">
-        <v>1745900</v>
+        <v>1661100</v>
       </c>
       <c r="F52" s="3">
-        <v>1317700</v>
+        <v>1253700</v>
       </c>
       <c r="G52" s="3">
-        <v>972800</v>
+        <v>925500</v>
       </c>
       <c r="H52" s="3">
-        <v>807200</v>
+        <v>767900</v>
       </c>
       <c r="I52" s="3">
-        <v>700100</v>
+        <v>666100</v>
       </c>
       <c r="J52" s="3">
-        <v>517600</v>
+        <v>492400</v>
       </c>
       <c r="K52" s="3">
         <v>528600</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32979300</v>
+        <v>31376800</v>
       </c>
       <c r="E54" s="3">
-        <v>29746300</v>
+        <v>28300800</v>
       </c>
       <c r="F54" s="3">
-        <v>24686900</v>
+        <v>23487300</v>
       </c>
       <c r="G54" s="3">
-        <v>21967500</v>
+        <v>20900100</v>
       </c>
       <c r="H54" s="3">
-        <v>19842500</v>
+        <v>18878300</v>
       </c>
       <c r="I54" s="3">
-        <v>18770200</v>
+        <v>17858100</v>
       </c>
       <c r="J54" s="3">
-        <v>14503700</v>
+        <v>13798900</v>
       </c>
       <c r="K54" s="3">
         <v>13779500</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2308700</v>
+        <v>2196500</v>
       </c>
       <c r="E57" s="3">
-        <v>1503200</v>
+        <v>1430100</v>
       </c>
       <c r="F57" s="3">
-        <v>1158800</v>
+        <v>1102500</v>
       </c>
       <c r="G57" s="3">
-        <v>1051600</v>
+        <v>1000500</v>
       </c>
       <c r="H57" s="3">
-        <v>913400</v>
+        <v>869000</v>
       </c>
       <c r="I57" s="3">
-        <v>647100</v>
+        <v>615700</v>
       </c>
       <c r="J57" s="3">
-        <v>457000</v>
+        <v>434800</v>
       </c>
       <c r="K57" s="3">
         <v>560300</v>
@@ -2444,10 +2444,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>558500</v>
+        <v>531400</v>
       </c>
       <c r="E58" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="I58" s="3">
-        <v>270200</v>
+        <v>257100</v>
       </c>
       <c r="J58" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K58" s="3">
         <v>4800</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10548800</v>
+        <v>10036200</v>
       </c>
       <c r="E59" s="3">
-        <v>5678700</v>
+        <v>5402800</v>
       </c>
       <c r="F59" s="3">
-        <v>3962100</v>
+        <v>3769500</v>
       </c>
       <c r="G59" s="3">
-        <v>3085000</v>
+        <v>2935100</v>
       </c>
       <c r="H59" s="3">
-        <v>5056300</v>
+        <v>4810600</v>
       </c>
       <c r="I59" s="3">
-        <v>2661500</v>
+        <v>2532200</v>
       </c>
       <c r="J59" s="3">
-        <v>2928100</v>
+        <v>2785800</v>
       </c>
       <c r="K59" s="3">
         <v>2696700</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13416000</v>
+        <v>12764100</v>
       </c>
       <c r="E60" s="3">
-        <v>7203800</v>
+        <v>6853800</v>
       </c>
       <c r="F60" s="3">
-        <v>5120800</v>
+        <v>4872000</v>
       </c>
       <c r="G60" s="3">
-        <v>4136600</v>
+        <v>3935600</v>
       </c>
       <c r="H60" s="3">
-        <v>3458200</v>
+        <v>3290100</v>
       </c>
       <c r="I60" s="3">
-        <v>3578800</v>
+        <v>3404900</v>
       </c>
       <c r="J60" s="3">
-        <v>3389600</v>
+        <v>3224900</v>
       </c>
       <c r="K60" s="3">
         <v>3261800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4445500</v>
+        <v>4229400</v>
       </c>
       <c r="E61" s="3">
-        <v>5086700</v>
+        <v>4839500</v>
       </c>
       <c r="F61" s="3">
-        <v>3390900</v>
+        <v>3226100</v>
       </c>
       <c r="G61" s="3">
-        <v>3301600</v>
+        <v>3141200</v>
       </c>
       <c r="H61" s="3">
-        <v>3272800</v>
+        <v>3113800</v>
       </c>
       <c r="I61" s="3">
-        <v>3351000</v>
+        <v>3188200</v>
       </c>
       <c r="J61" s="3">
-        <v>1227800</v>
+        <v>1168100</v>
       </c>
       <c r="K61" s="3">
         <v>1298300</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4055300</v>
+        <v>3858300</v>
       </c>
       <c r="E62" s="3">
-        <v>2329900</v>
+        <v>2216600</v>
       </c>
       <c r="F62" s="3">
-        <v>2438200</v>
+        <v>2319700</v>
       </c>
       <c r="G62" s="3">
-        <v>1830000</v>
+        <v>1741100</v>
       </c>
       <c r="H62" s="3">
-        <v>2282900</v>
+        <v>2172000</v>
       </c>
       <c r="I62" s="3">
-        <v>1127000</v>
+        <v>1072200</v>
       </c>
       <c r="J62" s="3">
-        <v>734800</v>
+        <v>699100</v>
       </c>
       <c r="K62" s="3">
         <v>736900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21916800</v>
+        <v>20851800</v>
       </c>
       <c r="E66" s="3">
-        <v>14620400</v>
+        <v>13909900</v>
       </c>
       <c r="F66" s="3">
-        <v>10949900</v>
+        <v>10417800</v>
       </c>
       <c r="G66" s="3">
-        <v>9268300</v>
+        <v>8817900</v>
       </c>
       <c r="H66" s="3">
-        <v>8086400</v>
+        <v>7693400</v>
       </c>
       <c r="I66" s="3">
-        <v>8056900</v>
+        <v>7665400</v>
       </c>
       <c r="J66" s="3">
-        <v>5352200</v>
+        <v>5092100</v>
       </c>
       <c r="K66" s="3">
         <v>5297000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9073400</v>
+        <v>8632500</v>
       </c>
       <c r="E72" s="3">
-        <v>11707100</v>
+        <v>11138200</v>
       </c>
       <c r="F72" s="3">
-        <v>10389600</v>
+        <v>9884800</v>
       </c>
       <c r="G72" s="3">
-        <v>10034100</v>
+        <v>9546500</v>
       </c>
       <c r="H72" s="3">
-        <v>7976200</v>
+        <v>7588600</v>
       </c>
       <c r="I72" s="3">
-        <v>6853600</v>
+        <v>6520600</v>
       </c>
       <c r="J72" s="3">
-        <v>5764700</v>
+        <v>5484600</v>
       </c>
       <c r="K72" s="3">
         <v>5248700</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11062500</v>
+        <v>10524900</v>
       </c>
       <c r="E76" s="3">
-        <v>15125900</v>
+        <v>14390900</v>
       </c>
       <c r="F76" s="3">
-        <v>13737000</v>
+        <v>13069400</v>
       </c>
       <c r="G76" s="3">
-        <v>12699300</v>
+        <v>12082200</v>
       </c>
       <c r="H76" s="3">
-        <v>11756100</v>
+        <v>11184800</v>
       </c>
       <c r="I76" s="3">
-        <v>10713300</v>
+        <v>10192700</v>
       </c>
       <c r="J76" s="3">
-        <v>9151500</v>
+        <v>8706800</v>
       </c>
       <c r="K76" s="3">
         <v>8482500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6418000</v>
+        <v>6106200</v>
       </c>
       <c r="E81" s="3">
-        <v>3876800</v>
+        <v>3688400</v>
       </c>
       <c r="F81" s="3">
-        <v>2828000</v>
+        <v>2690500</v>
       </c>
       <c r="G81" s="3">
-        <v>2827200</v>
+        <v>2689800</v>
       </c>
       <c r="H81" s="3">
-        <v>2254600</v>
+        <v>2145000</v>
       </c>
       <c r="I81" s="3">
-        <v>1699400</v>
+        <v>1616800</v>
       </c>
       <c r="J81" s="3">
-        <v>1513300</v>
+        <v>1439700</v>
       </c>
       <c r="K81" s="3">
         <v>1351100</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>513800</v>
+        <v>488900</v>
       </c>
       <c r="E83" s="3">
-        <v>535400</v>
+        <v>509400</v>
       </c>
       <c r="F83" s="3">
-        <v>489300</v>
+        <v>465500</v>
       </c>
       <c r="G83" s="3">
-        <v>461100</v>
+        <v>438700</v>
       </c>
       <c r="H83" s="3">
-        <v>570500</v>
+        <v>542800</v>
       </c>
       <c r="I83" s="3">
-        <v>386500</v>
+        <v>367700</v>
       </c>
       <c r="J83" s="3">
-        <v>320900</v>
+        <v>305400</v>
       </c>
       <c r="K83" s="3">
         <v>286100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11831800</v>
+        <v>11256900</v>
       </c>
       <c r="E89" s="3">
-        <v>5048300</v>
+        <v>4803000</v>
       </c>
       <c r="F89" s="3">
-        <v>3574300</v>
+        <v>3400600</v>
       </c>
       <c r="G89" s="3">
-        <v>3352000</v>
+        <v>3189200</v>
       </c>
       <c r="H89" s="3">
-        <v>1983600</v>
+        <v>1887200</v>
       </c>
       <c r="I89" s="3">
-        <v>1817400</v>
+        <v>1729000</v>
       </c>
       <c r="J89" s="3">
-        <v>2209700</v>
+        <v>2102300</v>
       </c>
       <c r="K89" s="3">
         <v>1157600</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-982600</v>
+        <v>-934800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1049500</v>
+        <v>-998500</v>
       </c>
       <c r="F91" s="3">
-        <v>-836300</v>
+        <v>-795700</v>
       </c>
       <c r="G91" s="3">
-        <v>-626200</v>
+        <v>-595800</v>
       </c>
       <c r="H91" s="3">
-        <v>-369700</v>
+        <v>-351700</v>
       </c>
       <c r="I91" s="3">
-        <v>-345100</v>
+        <v>-328300</v>
       </c>
       <c r="J91" s="3">
-        <v>-405600</v>
+        <v>-385900</v>
       </c>
       <c r="K91" s="3">
         <v>-404500</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78500</v>
+        <v>-74700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1475100</v>
+        <v>-1403400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1262700</v>
+        <v>-1201400</v>
       </c>
       <c r="G94" s="3">
-        <v>-536200</v>
+        <v>-510100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1340700</v>
+        <v>-1275600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3478300</v>
+        <v>-3309300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1265400</v>
+        <v>-1203900</v>
       </c>
       <c r="K94" s="3">
         <v>-18300</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1492700</v>
+        <v>-1420200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1163300</v>
+        <v>-1106800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1446200</v>
+        <v>-1375900</v>
       </c>
       <c r="G96" s="3">
-        <v>-651400</v>
+        <v>-619700</v>
       </c>
       <c r="H96" s="3">
-        <v>-563700</v>
+        <v>-536300</v>
       </c>
       <c r="I96" s="3">
-        <v>-486400</v>
+        <v>-462800</v>
       </c>
       <c r="J96" s="3">
-        <v>-329800</v>
+        <v>-313800</v>
       </c>
       <c r="K96" s="3">
         <v>-302600</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10791000</v>
+        <v>-10266600</v>
       </c>
       <c r="E100" s="3">
-        <v>-821500</v>
+        <v>-781500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1868000</v>
+        <v>-1777200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1881100</v>
+        <v>-1789700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1319000</v>
+        <v>-1254900</v>
       </c>
       <c r="I100" s="3">
-        <v>2142200</v>
+        <v>2038100</v>
       </c>
       <c r="J100" s="3">
-        <v>-909800</v>
+        <v>-865600</v>
       </c>
       <c r="K100" s="3">
         <v>-1048300</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="F101" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G101" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H101" s="3">
-        <v>-30700</v>
+        <v>-29200</v>
       </c>
       <c r="I101" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J101" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="K101" s="3">
         <v>9300</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>984400</v>
+        <v>936600</v>
       </c>
       <c r="E102" s="3">
-        <v>2745900</v>
+        <v>2612500</v>
       </c>
       <c r="F102" s="3">
-        <v>448600</v>
+        <v>426800</v>
       </c>
       <c r="G102" s="3">
-        <v>940500</v>
+        <v>894800</v>
       </c>
       <c r="H102" s="3">
-        <v>-706800</v>
+        <v>-672500</v>
       </c>
       <c r="I102" s="3">
-        <v>488900</v>
+        <v>465100</v>
       </c>
       <c r="J102" s="3">
-        <v>42800</v>
+        <v>40700</v>
       </c>
       <c r="K102" s="3">
         <v>100300</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -724,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19316400</v>
+        <v>18562600</v>
       </c>
       <c r="E8" s="3">
-        <v>14508300</v>
+        <v>13942200</v>
       </c>
       <c r="F8" s="3">
-        <v>12268000</v>
+        <v>11789300</v>
       </c>
       <c r="G8" s="3">
-        <v>11358800</v>
+        <v>10915500</v>
       </c>
       <c r="H8" s="3">
-        <v>9302400</v>
+        <v>8939400</v>
       </c>
       <c r="I8" s="3">
-        <v>7135700</v>
+        <v>6857200</v>
       </c>
       <c r="J8" s="3">
-        <v>6525700</v>
+        <v>6271000</v>
       </c>
       <c r="K8" s="3">
         <v>6612300</v>
@@ -763,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9135600</v>
+        <v>8779100</v>
       </c>
       <c r="E9" s="3">
-        <v>7453500</v>
+        <v>7162600</v>
       </c>
       <c r="F9" s="3">
-        <v>6788100</v>
+        <v>6523200</v>
       </c>
       <c r="G9" s="3">
-        <v>6139000</v>
+        <v>5899400</v>
       </c>
       <c r="H9" s="3">
-        <v>5129800</v>
+        <v>4929600</v>
       </c>
       <c r="I9" s="3">
-        <v>3871200</v>
+        <v>3720100</v>
       </c>
       <c r="J9" s="3">
-        <v>3520200</v>
+        <v>3382800</v>
       </c>
       <c r="K9" s="3">
         <v>3680800</v>
@@ -802,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10180800</v>
+        <v>9783500</v>
       </c>
       <c r="E10" s="3">
-        <v>7054800</v>
+        <v>6779500</v>
       </c>
       <c r="F10" s="3">
-        <v>5479900</v>
+        <v>5266100</v>
       </c>
       <c r="G10" s="3">
-        <v>5219800</v>
+        <v>5016100</v>
       </c>
       <c r="H10" s="3">
-        <v>4172600</v>
+        <v>4009700</v>
       </c>
       <c r="I10" s="3">
-        <v>3264500</v>
+        <v>3137100</v>
       </c>
       <c r="J10" s="3">
-        <v>3005500</v>
+        <v>2888200</v>
       </c>
       <c r="K10" s="3">
         <v>2931600</v>
@@ -858,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2523200</v>
+        <v>2424800</v>
       </c>
       <c r="E12" s="3">
-        <v>2147300</v>
+        <v>2063500</v>
       </c>
       <c r="F12" s="3">
-        <v>1913700</v>
+        <v>1839000</v>
       </c>
       <c r="G12" s="3">
-        <v>1524400</v>
+        <v>1464900</v>
       </c>
       <c r="H12" s="3">
-        <v>1199700</v>
+        <v>1152900</v>
       </c>
       <c r="I12" s="3">
-        <v>1065400</v>
+        <v>1023800</v>
       </c>
       <c r="J12" s="3">
-        <v>1085900</v>
+        <v>1043600</v>
       </c>
       <c r="K12" s="3">
         <v>1169400</v>
@@ -936,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-221800</v>
+        <v>-213100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -975,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>164200</v>
+        <v>157800</v>
       </c>
       <c r="E15" s="3">
-        <v>173800</v>
+        <v>167100</v>
       </c>
       <c r="F15" s="3">
-        <v>152800</v>
+        <v>146800</v>
       </c>
       <c r="G15" s="3">
-        <v>135200</v>
+        <v>130000</v>
       </c>
       <c r="H15" s="3">
-        <v>122800</v>
+        <v>118000</v>
       </c>
       <c r="I15" s="3">
-        <v>111000</v>
+        <v>106600</v>
       </c>
       <c r="J15" s="3">
-        <v>55400</v>
+        <v>53300</v>
       </c>
       <c r="K15" s="3">
         <v>65000</v>
@@ -1028,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12310400</v>
+        <v>11830100</v>
       </c>
       <c r="E17" s="3">
-        <v>10303200</v>
+        <v>9901200</v>
       </c>
       <c r="F17" s="3">
-        <v>9371400</v>
+        <v>9005700</v>
       </c>
       <c r="G17" s="3">
-        <v>8281100</v>
+        <v>7958000</v>
       </c>
       <c r="H17" s="3">
-        <v>6770200</v>
+        <v>6506000</v>
       </c>
       <c r="I17" s="3">
-        <v>5310500</v>
+        <v>5103300</v>
       </c>
       <c r="J17" s="3">
-        <v>4901200</v>
+        <v>4710000</v>
       </c>
       <c r="K17" s="3">
         <v>5164600</v>
@@ -1067,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7005900</v>
+        <v>6732500</v>
       </c>
       <c r="E18" s="3">
-        <v>4205100</v>
+        <v>4041000</v>
       </c>
       <c r="F18" s="3">
-        <v>2896600</v>
+        <v>2783500</v>
       </c>
       <c r="G18" s="3">
-        <v>3077700</v>
+        <v>2957600</v>
       </c>
       <c r="H18" s="3">
-        <v>2532200</v>
+        <v>2433400</v>
       </c>
       <c r="I18" s="3">
-        <v>1825100</v>
+        <v>1753900</v>
       </c>
       <c r="J18" s="3">
-        <v>1624500</v>
+        <v>1561100</v>
       </c>
       <c r="K18" s="3">
         <v>1447800</v>
@@ -1123,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F20" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="G20" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="H20" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="I20" s="3">
-        <v>74400</v>
+        <v>71500</v>
       </c>
       <c r="J20" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="K20" s="3">
         <v>16400</v>
@@ -1162,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7511400</v>
+        <v>7211900</v>
       </c>
       <c r="E21" s="3">
-        <v>4729700</v>
+        <v>4538400</v>
       </c>
       <c r="F21" s="3">
-        <v>3380000</v>
+        <v>3242000</v>
       </c>
       <c r="G21" s="3">
-        <v>3536000</v>
+        <v>3392300</v>
       </c>
       <c r="H21" s="3">
-        <v>3089400</v>
+        <v>2961700</v>
       </c>
       <c r="I21" s="3">
-        <v>2272000</v>
+        <v>2178500</v>
       </c>
       <c r="J21" s="3">
-        <v>1945000</v>
+        <v>1865100</v>
       </c>
       <c r="K21" s="3">
         <v>1750900</v>
@@ -1201,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56700</v>
+        <v>54500</v>
       </c>
       <c r="E22" s="3">
-        <v>44900</v>
+        <v>43200</v>
       </c>
       <c r="F22" s="3">
-        <v>38000</v>
+        <v>36500</v>
       </c>
       <c r="G22" s="3">
-        <v>43400</v>
+        <v>41700</v>
       </c>
       <c r="H22" s="3">
-        <v>59700</v>
+        <v>57400</v>
       </c>
       <c r="I22" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="J22" s="3">
-        <v>28400</v>
+        <v>27300</v>
       </c>
       <c r="K22" s="3">
         <v>26100</v>
@@ -1240,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6959600</v>
+        <v>6688100</v>
       </c>
       <c r="E23" s="3">
-        <v>4168800</v>
+        <v>4006200</v>
       </c>
       <c r="F23" s="3">
-        <v>2870600</v>
+        <v>2758600</v>
       </c>
       <c r="G23" s="3">
-        <v>3048300</v>
+        <v>2929400</v>
       </c>
       <c r="H23" s="3">
-        <v>2480000</v>
+        <v>2383200</v>
       </c>
       <c r="I23" s="3">
-        <v>1860100</v>
+        <v>1787500</v>
       </c>
       <c r="J23" s="3">
-        <v>1607300</v>
+        <v>1544600</v>
       </c>
       <c r="K23" s="3">
         <v>1438100</v>
@@ -1279,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1060100</v>
+        <v>1018700</v>
       </c>
       <c r="E24" s="3">
-        <v>572400</v>
+        <v>550100</v>
       </c>
       <c r="F24" s="3">
-        <v>199000</v>
+        <v>191200</v>
       </c>
       <c r="G24" s="3">
-        <v>364900</v>
+        <v>350700</v>
       </c>
       <c r="H24" s="3">
-        <v>317600</v>
+        <v>305200</v>
       </c>
       <c r="I24" s="3">
-        <v>243300</v>
+        <v>233800</v>
       </c>
       <c r="J24" s="3">
-        <v>167600</v>
+        <v>161000</v>
       </c>
       <c r="K24" s="3">
         <v>86900</v>
@@ -1357,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5899500</v>
+        <v>5669300</v>
       </c>
       <c r="E26" s="3">
-        <v>3596400</v>
+        <v>3456100</v>
       </c>
       <c r="F26" s="3">
-        <v>2671700</v>
+        <v>2567400</v>
       </c>
       <c r="G26" s="3">
-        <v>2683400</v>
+        <v>2578700</v>
       </c>
       <c r="H26" s="3">
-        <v>2162400</v>
+        <v>2078000</v>
       </c>
       <c r="I26" s="3">
-        <v>1616800</v>
+        <v>1553700</v>
       </c>
       <c r="J26" s="3">
-        <v>1439700</v>
+        <v>1383600</v>
       </c>
       <c r="K26" s="3">
         <v>1351100</v>
@@ -1396,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6106200</v>
+        <v>5867900</v>
       </c>
       <c r="E27" s="3">
-        <v>3688400</v>
+        <v>3544500</v>
       </c>
       <c r="F27" s="3">
-        <v>2690500</v>
+        <v>2585600</v>
       </c>
       <c r="G27" s="3">
-        <v>2689800</v>
+        <v>2584900</v>
       </c>
       <c r="H27" s="3">
-        <v>2145000</v>
+        <v>2061300</v>
       </c>
       <c r="I27" s="3">
-        <v>1616800</v>
+        <v>1553700</v>
       </c>
       <c r="J27" s="3">
-        <v>1439700</v>
+        <v>1383600</v>
       </c>
       <c r="K27" s="3">
         <v>1351100</v>
@@ -1591,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="E32" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="F32" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="G32" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="H32" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="I32" s="3">
-        <v>-74400</v>
+        <v>-71500</v>
       </c>
       <c r="J32" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K32" s="3">
         <v>-16400</v>
@@ -1630,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6106200</v>
+        <v>5867900</v>
       </c>
       <c r="E33" s="3">
-        <v>3688400</v>
+        <v>3544500</v>
       </c>
       <c r="F33" s="3">
-        <v>2690500</v>
+        <v>2585600</v>
       </c>
       <c r="G33" s="3">
-        <v>2689800</v>
+        <v>2584900</v>
       </c>
       <c r="H33" s="3">
-        <v>2145000</v>
+        <v>2061300</v>
       </c>
       <c r="I33" s="3">
-        <v>1616800</v>
+        <v>1553700</v>
       </c>
       <c r="J33" s="3">
-        <v>1439700</v>
+        <v>1383600</v>
       </c>
       <c r="K33" s="3">
         <v>1351100</v>
@@ -1708,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6106200</v>
+        <v>5867900</v>
       </c>
       <c r="E35" s="3">
-        <v>3688400</v>
+        <v>3544500</v>
       </c>
       <c r="F35" s="3">
-        <v>2690500</v>
+        <v>2585600</v>
       </c>
       <c r="G35" s="3">
-        <v>2689800</v>
+        <v>2584900</v>
       </c>
       <c r="H35" s="3">
-        <v>2145000</v>
+        <v>2061300</v>
       </c>
       <c r="I35" s="3">
-        <v>1616800</v>
+        <v>1553700</v>
       </c>
       <c r="J35" s="3">
-        <v>1439700</v>
+        <v>1383600</v>
       </c>
       <c r="K35" s="3">
         <v>1351100</v>
@@ -1825,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7215300</v>
+        <v>6933700</v>
       </c>
       <c r="E41" s="3">
-        <v>6278700</v>
+        <v>6033700</v>
       </c>
       <c r="F41" s="3">
-        <v>3666200</v>
+        <v>3523100</v>
       </c>
       <c r="G41" s="3">
-        <v>3239400</v>
+        <v>3113000</v>
       </c>
       <c r="H41" s="3">
-        <v>2344600</v>
+        <v>2253100</v>
       </c>
       <c r="I41" s="3">
-        <v>3017000</v>
+        <v>2899300</v>
       </c>
       <c r="J41" s="3">
-        <v>2551900</v>
+        <v>2452300</v>
       </c>
       <c r="K41" s="3">
         <v>2731800</v>
@@ -1864,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>662700</v>
+        <v>636800</v>
       </c>
       <c r="E42" s="3">
-        <v>1351600</v>
+        <v>1298800</v>
       </c>
       <c r="F42" s="3">
-        <v>1230700</v>
+        <v>1182700</v>
       </c>
       <c r="G42" s="3">
-        <v>947900</v>
+        <v>910900</v>
       </c>
       <c r="H42" s="3">
-        <v>1068300</v>
+        <v>1026600</v>
       </c>
       <c r="I42" s="3">
-        <v>1193600</v>
+        <v>1147000</v>
       </c>
       <c r="J42" s="3">
-        <v>986000</v>
+        <v>947500</v>
       </c>
       <c r="K42" s="3">
         <v>378100</v>
@@ -1903,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4729600</v>
+        <v>4545100</v>
       </c>
       <c r="E43" s="3">
-        <v>3459200</v>
+        <v>3324200</v>
       </c>
       <c r="F43" s="3">
-        <v>2958500</v>
+        <v>2843100</v>
       </c>
       <c r="G43" s="3">
-        <v>2491900</v>
+        <v>2394700</v>
       </c>
       <c r="H43" s="3">
-        <v>2282000</v>
+        <v>2193000</v>
       </c>
       <c r="I43" s="3">
-        <v>1267000</v>
+        <v>1217600</v>
       </c>
       <c r="J43" s="3">
-        <v>1208800</v>
+        <v>1161600</v>
       </c>
       <c r="K43" s="3">
         <v>1505800</v>
@@ -1942,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5375500</v>
+        <v>5165700</v>
       </c>
       <c r="E44" s="3">
-        <v>4742600</v>
+        <v>4557500</v>
       </c>
       <c r="F44" s="3">
-        <v>3953600</v>
+        <v>3799300</v>
       </c>
       <c r="G44" s="3">
-        <v>3569900</v>
+        <v>3430600</v>
       </c>
       <c r="H44" s="3">
-        <v>3067600</v>
+        <v>2947900</v>
       </c>
       <c r="I44" s="3">
-        <v>2886300</v>
+        <v>2773600</v>
       </c>
       <c r="J44" s="3">
-        <v>2671300</v>
+        <v>2567000</v>
       </c>
       <c r="K44" s="3">
         <v>2879000</v>
@@ -1981,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>896500</v>
+        <v>861600</v>
       </c>
       <c r="E45" s="3">
-        <v>701700</v>
+        <v>674300</v>
       </c>
       <c r="F45" s="3">
-        <v>781900</v>
+        <v>751300</v>
       </c>
       <c r="G45" s="3">
-        <v>681500</v>
+        <v>654900</v>
       </c>
       <c r="H45" s="3">
-        <v>460000</v>
+        <v>442000</v>
       </c>
       <c r="I45" s="3">
-        <v>517800</v>
+        <v>497600</v>
       </c>
       <c r="J45" s="3">
-        <v>581900</v>
+        <v>559200</v>
       </c>
       <c r="K45" s="3">
         <v>574100</v>
@@ -2020,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18879600</v>
+        <v>18142900</v>
       </c>
       <c r="E46" s="3">
-        <v>16533700</v>
+        <v>15888600</v>
       </c>
       <c r="F46" s="3">
-        <v>12590900</v>
+        <v>12099600</v>
       </c>
       <c r="G46" s="3">
-        <v>10930500</v>
+        <v>10504000</v>
       </c>
       <c r="H46" s="3">
-        <v>9222600</v>
+        <v>8862700</v>
       </c>
       <c r="I46" s="3">
-        <v>8881800</v>
+        <v>8535200</v>
       </c>
       <c r="J46" s="3">
-        <v>7999800</v>
+        <v>7687700</v>
       </c>
       <c r="K46" s="3">
         <v>8068800</v>
@@ -2059,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1461300</v>
+        <v>1404200</v>
       </c>
       <c r="E47" s="3">
-        <v>1290900</v>
+        <v>1240600</v>
       </c>
       <c r="F47" s="3">
-        <v>1372000</v>
+        <v>1318500</v>
       </c>
       <c r="G47" s="3">
-        <v>1392400</v>
+        <v>1338100</v>
       </c>
       <c r="H47" s="3">
-        <v>1184900</v>
+        <v>1138600</v>
       </c>
       <c r="I47" s="3">
-        <v>127300</v>
+        <v>122400</v>
       </c>
       <c r="J47" s="3">
-        <v>134400</v>
+        <v>129100</v>
       </c>
       <c r="K47" s="3">
         <v>68500</v>
@@ -2098,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3266800</v>
+        <v>3139300</v>
       </c>
       <c r="E48" s="3">
-        <v>2921900</v>
+        <v>2807900</v>
       </c>
       <c r="F48" s="3">
-        <v>2411200</v>
+        <v>2317200</v>
       </c>
       <c r="G48" s="3">
-        <v>1792600</v>
+        <v>1722600</v>
       </c>
       <c r="H48" s="3">
-        <v>1779500</v>
+        <v>1710000</v>
       </c>
       <c r="I48" s="3">
-        <v>1751200</v>
+        <v>1682900</v>
       </c>
       <c r="J48" s="3">
-        <v>1682100</v>
+        <v>1616500</v>
       </c>
       <c r="K48" s="3">
         <v>1634400</v>
@@ -2137,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5716400</v>
+        <v>5493400</v>
       </c>
       <c r="E49" s="3">
-        <v>5893200</v>
+        <v>5663200</v>
       </c>
       <c r="F49" s="3">
-        <v>5859500</v>
+        <v>5630800</v>
       </c>
       <c r="G49" s="3">
-        <v>5859000</v>
+        <v>5630400</v>
       </c>
       <c r="H49" s="3">
-        <v>5923400</v>
+        <v>5692300</v>
       </c>
       <c r="I49" s="3">
-        <v>6431700</v>
+        <v>6180700</v>
       </c>
       <c r="J49" s="3">
-        <v>3490200</v>
+        <v>3354000</v>
       </c>
       <c r="K49" s="3">
         <v>3479200</v>
@@ -2254,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2052700</v>
+        <v>1972600</v>
       </c>
       <c r="E52" s="3">
-        <v>1661100</v>
+        <v>1596200</v>
       </c>
       <c r="F52" s="3">
-        <v>1253700</v>
+        <v>1204800</v>
       </c>
       <c r="G52" s="3">
-        <v>925500</v>
+        <v>889400</v>
       </c>
       <c r="H52" s="3">
-        <v>767900</v>
+        <v>738000</v>
       </c>
       <c r="I52" s="3">
-        <v>666100</v>
+        <v>640100</v>
       </c>
       <c r="J52" s="3">
-        <v>492400</v>
+        <v>473200</v>
       </c>
       <c r="K52" s="3">
         <v>528600</v>
@@ -2332,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31376800</v>
+        <v>30152400</v>
       </c>
       <c r="E54" s="3">
-        <v>28300800</v>
+        <v>27196500</v>
       </c>
       <c r="F54" s="3">
-        <v>23487300</v>
+        <v>22570800</v>
       </c>
       <c r="G54" s="3">
-        <v>20900100</v>
+        <v>20084500</v>
       </c>
       <c r="H54" s="3">
-        <v>18878300</v>
+        <v>18141600</v>
       </c>
       <c r="I54" s="3">
-        <v>17858100</v>
+        <v>17161200</v>
       </c>
       <c r="J54" s="3">
-        <v>13798900</v>
+        <v>13260500</v>
       </c>
       <c r="K54" s="3">
         <v>13779500</v>
@@ -2405,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2196500</v>
+        <v>2110800</v>
       </c>
       <c r="E57" s="3">
-        <v>1430100</v>
+        <v>1374300</v>
       </c>
       <c r="F57" s="3">
-        <v>1102500</v>
+        <v>1059400</v>
       </c>
       <c r="G57" s="3">
-        <v>1000500</v>
+        <v>961500</v>
       </c>
       <c r="H57" s="3">
-        <v>869000</v>
+        <v>835100</v>
       </c>
       <c r="I57" s="3">
-        <v>615700</v>
+        <v>591700</v>
       </c>
       <c r="J57" s="3">
-        <v>434800</v>
+        <v>417800</v>
       </c>
       <c r="K57" s="3">
         <v>560300</v>
@@ -2444,10 +2443,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>531400</v>
+        <v>507800</v>
       </c>
       <c r="E58" s="3">
-        <v>20900</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2456,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>26200</v>
+        <v>25100</v>
       </c>
       <c r="I58" s="3">
-        <v>257100</v>
+        <v>247000</v>
       </c>
       <c r="J58" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K58" s="3">
         <v>4800</v>
@@ -2483,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10036200</v>
+        <v>9647500</v>
       </c>
       <c r="E59" s="3">
-        <v>5402800</v>
+        <v>5196700</v>
       </c>
       <c r="F59" s="3">
-        <v>3769500</v>
+        <v>3622500</v>
       </c>
       <c r="G59" s="3">
-        <v>2935100</v>
+        <v>2820500</v>
       </c>
       <c r="H59" s="3">
-        <v>4810600</v>
+        <v>4622800</v>
       </c>
       <c r="I59" s="3">
-        <v>2532200</v>
+        <v>2433400</v>
       </c>
       <c r="J59" s="3">
-        <v>2785800</v>
+        <v>2677100</v>
       </c>
       <c r="K59" s="3">
         <v>2696700</v>
@@ -2522,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12764100</v>
+        <v>12266000</v>
       </c>
       <c r="E60" s="3">
-        <v>6853800</v>
+        <v>6586300</v>
       </c>
       <c r="F60" s="3">
-        <v>4872000</v>
+        <v>4681900</v>
       </c>
       <c r="G60" s="3">
-        <v>3935600</v>
+        <v>3782000</v>
       </c>
       <c r="H60" s="3">
-        <v>3290100</v>
+        <v>3161800</v>
       </c>
       <c r="I60" s="3">
-        <v>3404900</v>
+        <v>3272100</v>
       </c>
       <c r="J60" s="3">
-        <v>3224900</v>
+        <v>3099100</v>
       </c>
       <c r="K60" s="3">
         <v>3261800</v>
@@ -2561,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4229400</v>
+        <v>4064400</v>
       </c>
       <c r="E61" s="3">
-        <v>4839500</v>
+        <v>4650700</v>
       </c>
       <c r="F61" s="3">
-        <v>3226100</v>
+        <v>3100200</v>
       </c>
       <c r="G61" s="3">
-        <v>3141200</v>
+        <v>3018600</v>
       </c>
       <c r="H61" s="3">
-        <v>3113800</v>
+        <v>2992300</v>
       </c>
       <c r="I61" s="3">
-        <v>3188200</v>
+        <v>3063800</v>
       </c>
       <c r="J61" s="3">
-        <v>1168100</v>
+        <v>1122500</v>
       </c>
       <c r="K61" s="3">
         <v>1298300</v>
@@ -2600,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3858300</v>
+        <v>3707700</v>
       </c>
       <c r="E62" s="3">
-        <v>2216600</v>
+        <v>2130100</v>
       </c>
       <c r="F62" s="3">
-        <v>2319700</v>
+        <v>2229200</v>
       </c>
       <c r="G62" s="3">
-        <v>1741100</v>
+        <v>1673100</v>
       </c>
       <c r="H62" s="3">
-        <v>2172000</v>
+        <v>2087300</v>
       </c>
       <c r="I62" s="3">
-        <v>1072200</v>
+        <v>1030400</v>
       </c>
       <c r="J62" s="3">
-        <v>699100</v>
+        <v>671800</v>
       </c>
       <c r="K62" s="3">
         <v>736900</v>
@@ -2756,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20851800</v>
+        <v>20038200</v>
       </c>
       <c r="E66" s="3">
-        <v>13909900</v>
+        <v>13367200</v>
       </c>
       <c r="F66" s="3">
-        <v>10417800</v>
+        <v>10011300</v>
       </c>
       <c r="G66" s="3">
-        <v>8817900</v>
+        <v>8473800</v>
       </c>
       <c r="H66" s="3">
-        <v>7693400</v>
+        <v>7393200</v>
       </c>
       <c r="I66" s="3">
-        <v>7665400</v>
+        <v>7366300</v>
       </c>
       <c r="J66" s="3">
-        <v>5092100</v>
+        <v>4893400</v>
       </c>
       <c r="K66" s="3">
         <v>5297000</v>
@@ -2968,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8632500</v>
+        <v>8295700</v>
       </c>
       <c r="E72" s="3">
-        <v>11138200</v>
+        <v>10703600</v>
       </c>
       <c r="F72" s="3">
-        <v>9884800</v>
+        <v>9499000</v>
       </c>
       <c r="G72" s="3">
-        <v>9546500</v>
+        <v>9174000</v>
       </c>
       <c r="H72" s="3">
-        <v>7588600</v>
+        <v>7292500</v>
       </c>
       <c r="I72" s="3">
-        <v>6520600</v>
+        <v>6266200</v>
       </c>
       <c r="J72" s="3">
-        <v>5484600</v>
+        <v>5270600</v>
       </c>
       <c r="K72" s="3">
         <v>5248700</v>
@@ -3124,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10524900</v>
+        <v>10114200</v>
       </c>
       <c r="E76" s="3">
-        <v>14390900</v>
+        <v>13829300</v>
       </c>
       <c r="F76" s="3">
-        <v>13069400</v>
+        <v>12559500</v>
       </c>
       <c r="G76" s="3">
-        <v>12082200</v>
+        <v>11610700</v>
       </c>
       <c r="H76" s="3">
-        <v>11184800</v>
+        <v>10748400</v>
       </c>
       <c r="I76" s="3">
-        <v>10192700</v>
+        <v>9794900</v>
       </c>
       <c r="J76" s="3">
-        <v>8706800</v>
+        <v>8367000</v>
       </c>
       <c r="K76" s="3">
         <v>8482500</v>
@@ -3246,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6106200</v>
+        <v>5867900</v>
       </c>
       <c r="E81" s="3">
-        <v>3688400</v>
+        <v>3544500</v>
       </c>
       <c r="F81" s="3">
-        <v>2690500</v>
+        <v>2585600</v>
       </c>
       <c r="G81" s="3">
-        <v>2689800</v>
+        <v>2584900</v>
       </c>
       <c r="H81" s="3">
-        <v>2145000</v>
+        <v>2061300</v>
       </c>
       <c r="I81" s="3">
-        <v>1616800</v>
+        <v>1553700</v>
       </c>
       <c r="J81" s="3">
-        <v>1439700</v>
+        <v>1383600</v>
       </c>
       <c r="K81" s="3">
         <v>1351100</v>
@@ -3302,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>488900</v>
+        <v>469800</v>
       </c>
       <c r="E83" s="3">
-        <v>509400</v>
+        <v>489500</v>
       </c>
       <c r="F83" s="3">
-        <v>465500</v>
+        <v>447300</v>
       </c>
       <c r="G83" s="3">
-        <v>438700</v>
+        <v>421600</v>
       </c>
       <c r="H83" s="3">
-        <v>542800</v>
+        <v>521600</v>
       </c>
       <c r="I83" s="3">
-        <v>367700</v>
+        <v>353400</v>
       </c>
       <c r="J83" s="3">
-        <v>305400</v>
+        <v>293400</v>
       </c>
       <c r="K83" s="3">
         <v>286100</v>
@@ -3536,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11256900</v>
+        <v>10817600</v>
       </c>
       <c r="E89" s="3">
-        <v>4803000</v>
+        <v>4615600</v>
       </c>
       <c r="F89" s="3">
-        <v>3400600</v>
+        <v>3267900</v>
       </c>
       <c r="G89" s="3">
-        <v>3189200</v>
+        <v>3064700</v>
       </c>
       <c r="H89" s="3">
-        <v>1887200</v>
+        <v>1813600</v>
       </c>
       <c r="I89" s="3">
-        <v>1729000</v>
+        <v>1661600</v>
       </c>
       <c r="J89" s="3">
-        <v>2102300</v>
+        <v>2020300</v>
       </c>
       <c r="K89" s="3">
         <v>1157600</v>
@@ -3592,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-934800</v>
+        <v>-898400</v>
       </c>
       <c r="E91" s="3">
-        <v>-998500</v>
+        <v>-959500</v>
       </c>
       <c r="F91" s="3">
-        <v>-795700</v>
+        <v>-764600</v>
       </c>
       <c r="G91" s="3">
-        <v>-595800</v>
+        <v>-572500</v>
       </c>
       <c r="H91" s="3">
-        <v>-351700</v>
+        <v>-338000</v>
       </c>
       <c r="I91" s="3">
-        <v>-328300</v>
+        <v>-315500</v>
       </c>
       <c r="J91" s="3">
-        <v>-385900</v>
+        <v>-370800</v>
       </c>
       <c r="K91" s="3">
         <v>-404500</v>
@@ -3709,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74700</v>
+        <v>-71800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1403400</v>
+        <v>-1348700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1201400</v>
+        <v>-1154500</v>
       </c>
       <c r="G94" s="3">
-        <v>-510100</v>
+        <v>-490200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1275600</v>
+        <v>-1225800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3309300</v>
+        <v>-3180200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1203900</v>
+        <v>-1156900</v>
       </c>
       <c r="K94" s="3">
         <v>-18300</v>
@@ -3765,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1420200</v>
+        <v>-1364700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1106800</v>
+        <v>-1063600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1375900</v>
+        <v>-1322300</v>
       </c>
       <c r="G96" s="3">
-        <v>-619700</v>
+        <v>-595500</v>
       </c>
       <c r="H96" s="3">
-        <v>-536300</v>
+        <v>-515400</v>
       </c>
       <c r="I96" s="3">
-        <v>-462800</v>
+        <v>-444700</v>
       </c>
       <c r="J96" s="3">
-        <v>-313800</v>
+        <v>-301500</v>
       </c>
       <c r="K96" s="3">
         <v>-302600</v>
@@ -3921,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10266600</v>
+        <v>-9866000</v>
       </c>
       <c r="E100" s="3">
-        <v>-781500</v>
+        <v>-751000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1777200</v>
+        <v>-1707800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1789700</v>
+        <v>-1719800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1254900</v>
+        <v>-1206000</v>
       </c>
       <c r="I100" s="3">
-        <v>2038100</v>
+        <v>1958500</v>
       </c>
       <c r="J100" s="3">
-        <v>-865600</v>
+        <v>-831800</v>
       </c>
       <c r="K100" s="3">
         <v>-1048300</v>
@@ -3960,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21100</v>
+        <v>20200</v>
       </c>
       <c r="E101" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="F101" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G101" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H101" s="3">
-        <v>-29200</v>
+        <v>-28000</v>
       </c>
       <c r="I101" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="J101" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="K101" s="3">
         <v>9300</v>
@@ -3999,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>936600</v>
+        <v>900100</v>
       </c>
       <c r="E102" s="3">
-        <v>2612500</v>
+        <v>2510600</v>
       </c>
       <c r="F102" s="3">
-        <v>426800</v>
+        <v>410100</v>
       </c>
       <c r="G102" s="3">
-        <v>894800</v>
+        <v>859900</v>
       </c>
       <c r="H102" s="3">
-        <v>-672500</v>
+        <v>-646200</v>
       </c>
       <c r="I102" s="3">
-        <v>465100</v>
+        <v>447000</v>
       </c>
       <c r="J102" s="3">
-        <v>40700</v>
+        <v>39100</v>
       </c>
       <c r="K102" s="3">
         <v>100300</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -723,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18562600</v>
+        <v>18998100</v>
       </c>
       <c r="E8" s="3">
-        <v>13942200</v>
+        <v>14269300</v>
       </c>
       <c r="F8" s="3">
-        <v>11789300</v>
+        <v>12065900</v>
       </c>
       <c r="G8" s="3">
-        <v>10915500</v>
+        <v>11171600</v>
       </c>
       <c r="H8" s="3">
-        <v>8939400</v>
+        <v>9149100</v>
       </c>
       <c r="I8" s="3">
-        <v>6857200</v>
+        <v>7018100</v>
       </c>
       <c r="J8" s="3">
-        <v>6271000</v>
+        <v>6418200</v>
       </c>
       <c r="K8" s="3">
         <v>6612300</v>
@@ -762,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8779100</v>
+        <v>8985100</v>
       </c>
       <c r="E9" s="3">
-        <v>7162600</v>
+        <v>7330700</v>
       </c>
       <c r="F9" s="3">
-        <v>6523200</v>
+        <v>6676200</v>
       </c>
       <c r="G9" s="3">
-        <v>5899400</v>
+        <v>6037800</v>
       </c>
       <c r="H9" s="3">
-        <v>4929600</v>
+        <v>5045300</v>
       </c>
       <c r="I9" s="3">
-        <v>3720100</v>
+        <v>3807400</v>
       </c>
       <c r="J9" s="3">
-        <v>3382800</v>
+        <v>3462200</v>
       </c>
       <c r="K9" s="3">
         <v>3680800</v>
@@ -801,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9783500</v>
+        <v>10013000</v>
       </c>
       <c r="E10" s="3">
-        <v>6779500</v>
+        <v>6938600</v>
       </c>
       <c r="F10" s="3">
-        <v>5266100</v>
+        <v>5389600</v>
       </c>
       <c r="G10" s="3">
-        <v>5016100</v>
+        <v>5133800</v>
       </c>
       <c r="H10" s="3">
-        <v>4009700</v>
+        <v>4103800</v>
       </c>
       <c r="I10" s="3">
-        <v>3137100</v>
+        <v>3210700</v>
       </c>
       <c r="J10" s="3">
-        <v>2888200</v>
+        <v>2956000</v>
       </c>
       <c r="K10" s="3">
         <v>2931600</v>
@@ -857,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2424800</v>
+        <v>2481700</v>
       </c>
       <c r="E12" s="3">
-        <v>2063500</v>
+        <v>2111900</v>
       </c>
       <c r="F12" s="3">
-        <v>1839000</v>
+        <v>1882200</v>
       </c>
       <c r="G12" s="3">
-        <v>1464900</v>
+        <v>1499200</v>
       </c>
       <c r="H12" s="3">
-        <v>1152900</v>
+        <v>1179900</v>
       </c>
       <c r="I12" s="3">
-        <v>1023800</v>
+        <v>1047900</v>
       </c>
       <c r="J12" s="3">
-        <v>1043600</v>
+        <v>1068000</v>
       </c>
       <c r="K12" s="3">
         <v>1169400</v>
@@ -935,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-213100</v>
+        <v>-218100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -974,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>157800</v>
+        <v>161500</v>
       </c>
       <c r="E15" s="3">
-        <v>167100</v>
+        <v>171000</v>
       </c>
       <c r="F15" s="3">
-        <v>146800</v>
+        <v>150300</v>
       </c>
       <c r="G15" s="3">
-        <v>130000</v>
+        <v>133000</v>
       </c>
       <c r="H15" s="3">
-        <v>118000</v>
+        <v>120800</v>
       </c>
       <c r="I15" s="3">
-        <v>106600</v>
+        <v>109100</v>
       </c>
       <c r="J15" s="3">
-        <v>53300</v>
+        <v>54500</v>
       </c>
       <c r="K15" s="3">
         <v>65000</v>
@@ -1027,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11830100</v>
+        <v>12107600</v>
       </c>
       <c r="E17" s="3">
-        <v>9901200</v>
+        <v>10133500</v>
       </c>
       <c r="F17" s="3">
-        <v>9005700</v>
+        <v>9217000</v>
       </c>
       <c r="G17" s="3">
-        <v>7958000</v>
+        <v>8144700</v>
       </c>
       <c r="H17" s="3">
-        <v>6506000</v>
+        <v>6658700</v>
       </c>
       <c r="I17" s="3">
-        <v>5103300</v>
+        <v>5223000</v>
       </c>
       <c r="J17" s="3">
-        <v>4710000</v>
+        <v>4820500</v>
       </c>
       <c r="K17" s="3">
         <v>5164600</v>
@@ -1066,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6732500</v>
+        <v>6890500</v>
       </c>
       <c r="E18" s="3">
-        <v>4041000</v>
+        <v>4135800</v>
       </c>
       <c r="F18" s="3">
-        <v>2783500</v>
+        <v>2848800</v>
       </c>
       <c r="G18" s="3">
-        <v>2957600</v>
+        <v>3027000</v>
       </c>
       <c r="H18" s="3">
-        <v>2433400</v>
+        <v>2490400</v>
       </c>
       <c r="I18" s="3">
-        <v>1753900</v>
+        <v>1795100</v>
       </c>
       <c r="J18" s="3">
-        <v>1561100</v>
+        <v>1597700</v>
       </c>
       <c r="K18" s="3">
         <v>1447800</v>
@@ -1122,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="E20" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="F20" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="G20" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="H20" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I20" s="3">
-        <v>71500</v>
+        <v>73200</v>
       </c>
       <c r="J20" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="K20" s="3">
         <v>16400</v>
@@ -1161,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7211900</v>
+        <v>7372200</v>
       </c>
       <c r="E21" s="3">
-        <v>4538400</v>
+        <v>4635700</v>
       </c>
       <c r="F21" s="3">
-        <v>3242000</v>
+        <v>3309700</v>
       </c>
       <c r="G21" s="3">
-        <v>3392300</v>
+        <v>3463900</v>
       </c>
       <c r="H21" s="3">
-        <v>2961700</v>
+        <v>3021400</v>
       </c>
       <c r="I21" s="3">
-        <v>2178500</v>
+        <v>2223000</v>
       </c>
       <c r="J21" s="3">
-        <v>1865100</v>
+        <v>1903300</v>
       </c>
       <c r="K21" s="3">
         <v>1750900</v>
@@ -1200,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>54500</v>
+        <v>55700</v>
       </c>
       <c r="E22" s="3">
-        <v>43200</v>
+        <v>44200</v>
       </c>
       <c r="F22" s="3">
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="G22" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="H22" s="3">
-        <v>57400</v>
+        <v>58700</v>
       </c>
       <c r="I22" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="J22" s="3">
-        <v>27300</v>
+        <v>28000</v>
       </c>
       <c r="K22" s="3">
         <v>26100</v>
@@ -1239,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6688100</v>
+        <v>6845000</v>
       </c>
       <c r="E23" s="3">
-        <v>4006200</v>
+        <v>4100100</v>
       </c>
       <c r="F23" s="3">
-        <v>2758600</v>
+        <v>2823300</v>
       </c>
       <c r="G23" s="3">
-        <v>2929400</v>
+        <v>2998100</v>
       </c>
       <c r="H23" s="3">
-        <v>2383200</v>
+        <v>2439100</v>
       </c>
       <c r="I23" s="3">
-        <v>1787500</v>
+        <v>1829500</v>
       </c>
       <c r="J23" s="3">
-        <v>1544600</v>
+        <v>1580800</v>
       </c>
       <c r="K23" s="3">
         <v>1438100</v>
@@ -1278,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1018700</v>
+        <v>1042600</v>
       </c>
       <c r="E24" s="3">
-        <v>550100</v>
+        <v>563000</v>
       </c>
       <c r="F24" s="3">
-        <v>191200</v>
+        <v>195700</v>
       </c>
       <c r="G24" s="3">
-        <v>350700</v>
+        <v>358900</v>
       </c>
       <c r="H24" s="3">
-        <v>305200</v>
+        <v>312400</v>
       </c>
       <c r="I24" s="3">
-        <v>233800</v>
+        <v>239300</v>
       </c>
       <c r="J24" s="3">
-        <v>161000</v>
+        <v>164800</v>
       </c>
       <c r="K24" s="3">
         <v>86900</v>
@@ -1356,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5669300</v>
+        <v>5802300</v>
       </c>
       <c r="E26" s="3">
-        <v>3456100</v>
+        <v>3537200</v>
       </c>
       <c r="F26" s="3">
-        <v>2567400</v>
+        <v>2627600</v>
       </c>
       <c r="G26" s="3">
-        <v>2578700</v>
+        <v>2639200</v>
       </c>
       <c r="H26" s="3">
-        <v>2078000</v>
+        <v>2126700</v>
       </c>
       <c r="I26" s="3">
-        <v>1553700</v>
+        <v>1590200</v>
       </c>
       <c r="J26" s="3">
-        <v>1383600</v>
+        <v>1416000</v>
       </c>
       <c r="K26" s="3">
         <v>1351100</v>
@@ -1395,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5867900</v>
+        <v>6005600</v>
       </c>
       <c r="E27" s="3">
-        <v>3544500</v>
+        <v>3627600</v>
       </c>
       <c r="F27" s="3">
-        <v>2585600</v>
+        <v>2646200</v>
       </c>
       <c r="G27" s="3">
-        <v>2584900</v>
+        <v>2645500</v>
       </c>
       <c r="H27" s="3">
-        <v>2061300</v>
+        <v>2109700</v>
       </c>
       <c r="I27" s="3">
-        <v>1553700</v>
+        <v>1590200</v>
       </c>
       <c r="J27" s="3">
-        <v>1383600</v>
+        <v>1416000</v>
       </c>
       <c r="K27" s="3">
         <v>1351100</v>
@@ -1590,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="E32" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="F32" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="G32" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="H32" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-71500</v>
+        <v>-73200</v>
       </c>
       <c r="J32" s="3">
-        <v>-10900</v>
+        <v>-11100</v>
       </c>
       <c r="K32" s="3">
         <v>-16400</v>
@@ -1629,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5867900</v>
+        <v>6005600</v>
       </c>
       <c r="E33" s="3">
-        <v>3544500</v>
+        <v>3627600</v>
       </c>
       <c r="F33" s="3">
-        <v>2585600</v>
+        <v>2646200</v>
       </c>
       <c r="G33" s="3">
-        <v>2584900</v>
+        <v>2645500</v>
       </c>
       <c r="H33" s="3">
-        <v>2061300</v>
+        <v>2109700</v>
       </c>
       <c r="I33" s="3">
-        <v>1553700</v>
+        <v>1590200</v>
       </c>
       <c r="J33" s="3">
-        <v>1383600</v>
+        <v>1416000</v>
       </c>
       <c r="K33" s="3">
         <v>1351100</v>
@@ -1707,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5867900</v>
+        <v>6005600</v>
       </c>
       <c r="E35" s="3">
-        <v>3544500</v>
+        <v>3627600</v>
       </c>
       <c r="F35" s="3">
-        <v>2585600</v>
+        <v>2646200</v>
       </c>
       <c r="G35" s="3">
-        <v>2584900</v>
+        <v>2645500</v>
       </c>
       <c r="H35" s="3">
-        <v>2061300</v>
+        <v>2109700</v>
       </c>
       <c r="I35" s="3">
-        <v>1553700</v>
+        <v>1590200</v>
       </c>
       <c r="J35" s="3">
-        <v>1383600</v>
+        <v>1416000</v>
       </c>
       <c r="K35" s="3">
         <v>1351100</v>
@@ -1824,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6933700</v>
+        <v>7096400</v>
       </c>
       <c r="E41" s="3">
-        <v>6033700</v>
+        <v>6175200</v>
       </c>
       <c r="F41" s="3">
-        <v>3523100</v>
+        <v>3605800</v>
       </c>
       <c r="G41" s="3">
-        <v>3113000</v>
+        <v>3186000</v>
       </c>
       <c r="H41" s="3">
-        <v>2253100</v>
+        <v>2306000</v>
       </c>
       <c r="I41" s="3">
-        <v>2899300</v>
+        <v>2967300</v>
       </c>
       <c r="J41" s="3">
-        <v>2452300</v>
+        <v>2509900</v>
       </c>
       <c r="K41" s="3">
         <v>2731800</v>
@@ -1863,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>636800</v>
+        <v>651800</v>
       </c>
       <c r="E42" s="3">
-        <v>1298800</v>
+        <v>1329300</v>
       </c>
       <c r="F42" s="3">
-        <v>1182700</v>
+        <v>1210500</v>
       </c>
       <c r="G42" s="3">
-        <v>910900</v>
+        <v>932300</v>
       </c>
       <c r="H42" s="3">
-        <v>1026600</v>
+        <v>1050700</v>
       </c>
       <c r="I42" s="3">
-        <v>1147000</v>
+        <v>1173900</v>
       </c>
       <c r="J42" s="3">
-        <v>947500</v>
+        <v>969800</v>
       </c>
       <c r="K42" s="3">
         <v>378100</v>
@@ -1902,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4545100</v>
+        <v>4651700</v>
       </c>
       <c r="E43" s="3">
-        <v>3324200</v>
+        <v>3402200</v>
       </c>
       <c r="F43" s="3">
-        <v>2843100</v>
+        <v>2909800</v>
       </c>
       <c r="G43" s="3">
-        <v>2394700</v>
+        <v>2450800</v>
       </c>
       <c r="H43" s="3">
-        <v>2193000</v>
+        <v>2244400</v>
       </c>
       <c r="I43" s="3">
-        <v>1217600</v>
+        <v>1246200</v>
       </c>
       <c r="J43" s="3">
-        <v>1161600</v>
+        <v>1188900</v>
       </c>
       <c r="K43" s="3">
         <v>1505800</v>
@@ -1941,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5165700</v>
+        <v>5286900</v>
       </c>
       <c r="E44" s="3">
-        <v>4557500</v>
+        <v>4664400</v>
       </c>
       <c r="F44" s="3">
-        <v>3799300</v>
+        <v>3888400</v>
       </c>
       <c r="G44" s="3">
-        <v>3430600</v>
+        <v>3511000</v>
       </c>
       <c r="H44" s="3">
-        <v>2947900</v>
+        <v>3017100</v>
       </c>
       <c r="I44" s="3">
-        <v>2773600</v>
+        <v>2838700</v>
       </c>
       <c r="J44" s="3">
-        <v>2567000</v>
+        <v>2627300</v>
       </c>
       <c r="K44" s="3">
         <v>2879000</v>
@@ -1980,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>861600</v>
+        <v>881800</v>
       </c>
       <c r="E45" s="3">
-        <v>674300</v>
+        <v>690200</v>
       </c>
       <c r="F45" s="3">
-        <v>751300</v>
+        <v>769000</v>
       </c>
       <c r="G45" s="3">
-        <v>654900</v>
+        <v>670300</v>
       </c>
       <c r="H45" s="3">
-        <v>442000</v>
+        <v>452400</v>
       </c>
       <c r="I45" s="3">
-        <v>497600</v>
+        <v>509300</v>
       </c>
       <c r="J45" s="3">
-        <v>559200</v>
+        <v>572300</v>
       </c>
       <c r="K45" s="3">
         <v>574100</v>
@@ -2019,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18142900</v>
+        <v>18568600</v>
       </c>
       <c r="E46" s="3">
-        <v>15888600</v>
+        <v>16261300</v>
       </c>
       <c r="F46" s="3">
-        <v>12099600</v>
+        <v>12383400</v>
       </c>
       <c r="G46" s="3">
-        <v>10504000</v>
+        <v>10750500</v>
       </c>
       <c r="H46" s="3">
-        <v>8862700</v>
+        <v>9070600</v>
       </c>
       <c r="I46" s="3">
-        <v>8535200</v>
+        <v>8735400</v>
       </c>
       <c r="J46" s="3">
-        <v>7687700</v>
+        <v>7868000</v>
       </c>
       <c r="K46" s="3">
         <v>8068800</v>
@@ -2058,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1404200</v>
+        <v>1437200</v>
       </c>
       <c r="E47" s="3">
-        <v>1240600</v>
+        <v>1269700</v>
       </c>
       <c r="F47" s="3">
-        <v>1318500</v>
+        <v>1349400</v>
       </c>
       <c r="G47" s="3">
-        <v>1338100</v>
+        <v>1369500</v>
       </c>
       <c r="H47" s="3">
-        <v>1138600</v>
+        <v>1165300</v>
       </c>
       <c r="I47" s="3">
-        <v>122400</v>
+        <v>125200</v>
       </c>
       <c r="J47" s="3">
-        <v>129100</v>
+        <v>132200</v>
       </c>
       <c r="K47" s="3">
         <v>68500</v>
@@ -2097,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3139300</v>
+        <v>3213000</v>
       </c>
       <c r="E48" s="3">
-        <v>2807900</v>
+        <v>2873800</v>
       </c>
       <c r="F48" s="3">
-        <v>2317200</v>
+        <v>2371500</v>
       </c>
       <c r="G48" s="3">
-        <v>1722600</v>
+        <v>1763000</v>
       </c>
       <c r="H48" s="3">
-        <v>1710000</v>
+        <v>1750200</v>
       </c>
       <c r="I48" s="3">
-        <v>1682900</v>
+        <v>1722300</v>
       </c>
       <c r="J48" s="3">
-        <v>1616500</v>
+        <v>1654400</v>
       </c>
       <c r="K48" s="3">
         <v>1634400</v>
@@ -2136,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5493400</v>
+        <v>5622300</v>
       </c>
       <c r="E49" s="3">
-        <v>5663200</v>
+        <v>5796100</v>
       </c>
       <c r="F49" s="3">
-        <v>5630800</v>
+        <v>5762900</v>
       </c>
       <c r="G49" s="3">
-        <v>5630400</v>
+        <v>5762500</v>
       </c>
       <c r="H49" s="3">
-        <v>5692300</v>
+        <v>5825800</v>
       </c>
       <c r="I49" s="3">
-        <v>6180700</v>
+        <v>6325700</v>
       </c>
       <c r="J49" s="3">
-        <v>3354000</v>
+        <v>3432700</v>
       </c>
       <c r="K49" s="3">
         <v>3479200</v>
@@ -2253,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1972600</v>
+        <v>2018800</v>
       </c>
       <c r="E52" s="3">
-        <v>1596200</v>
+        <v>1633700</v>
       </c>
       <c r="F52" s="3">
-        <v>1204800</v>
+        <v>1233000</v>
       </c>
       <c r="G52" s="3">
-        <v>889400</v>
+        <v>910200</v>
       </c>
       <c r="H52" s="3">
-        <v>738000</v>
+        <v>755300</v>
       </c>
       <c r="I52" s="3">
-        <v>640100</v>
+        <v>655100</v>
       </c>
       <c r="J52" s="3">
-        <v>473200</v>
+        <v>484300</v>
       </c>
       <c r="K52" s="3">
         <v>528600</v>
@@ -2331,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30152400</v>
+        <v>30859800</v>
       </c>
       <c r="E54" s="3">
-        <v>27196500</v>
+        <v>27834600</v>
       </c>
       <c r="F54" s="3">
-        <v>22570800</v>
+        <v>23100300</v>
       </c>
       <c r="G54" s="3">
-        <v>20084500</v>
+        <v>20555700</v>
       </c>
       <c r="H54" s="3">
-        <v>18141600</v>
+        <v>18567200</v>
       </c>
       <c r="I54" s="3">
-        <v>17161200</v>
+        <v>17563800</v>
       </c>
       <c r="J54" s="3">
-        <v>13260500</v>
+        <v>13571600</v>
       </c>
       <c r="K54" s="3">
         <v>13779500</v>
@@ -2404,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2110800</v>
+        <v>2160300</v>
       </c>
       <c r="E57" s="3">
-        <v>1374300</v>
+        <v>1406600</v>
       </c>
       <c r="F57" s="3">
-        <v>1059400</v>
+        <v>1084300</v>
       </c>
       <c r="G57" s="3">
-        <v>961500</v>
+        <v>984100</v>
       </c>
       <c r="H57" s="3">
-        <v>835100</v>
+        <v>854700</v>
       </c>
       <c r="I57" s="3">
-        <v>591700</v>
+        <v>605500</v>
       </c>
       <c r="J57" s="3">
-        <v>417800</v>
+        <v>427600</v>
       </c>
       <c r="K57" s="3">
         <v>560300</v>
@@ -2443,10 +2444,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>507800</v>
+        <v>519700</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2455,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="I58" s="3">
-        <v>247000</v>
+        <v>252800</v>
       </c>
       <c r="J58" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K58" s="3">
         <v>4800</v>
@@ -2482,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9647500</v>
+        <v>9873800</v>
       </c>
       <c r="E59" s="3">
-        <v>5196700</v>
+        <v>5318600</v>
       </c>
       <c r="F59" s="3">
-        <v>3622500</v>
+        <v>3707400</v>
       </c>
       <c r="G59" s="3">
-        <v>2820500</v>
+        <v>2886700</v>
       </c>
       <c r="H59" s="3">
-        <v>4622800</v>
+        <v>4731300</v>
       </c>
       <c r="I59" s="3">
-        <v>2433400</v>
+        <v>2490500</v>
       </c>
       <c r="J59" s="3">
-        <v>2677100</v>
+        <v>2739900</v>
       </c>
       <c r="K59" s="3">
         <v>2696700</v>
@@ -2521,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12266000</v>
+        <v>12553800</v>
       </c>
       <c r="E60" s="3">
-        <v>6586300</v>
+        <v>6740900</v>
       </c>
       <c r="F60" s="3">
-        <v>4681900</v>
+        <v>4791700</v>
       </c>
       <c r="G60" s="3">
-        <v>3782000</v>
+        <v>3870800</v>
       </c>
       <c r="H60" s="3">
-        <v>3161800</v>
+        <v>3235900</v>
       </c>
       <c r="I60" s="3">
-        <v>3272100</v>
+        <v>3348800</v>
       </c>
       <c r="J60" s="3">
-        <v>3099100</v>
+        <v>3171800</v>
       </c>
       <c r="K60" s="3">
         <v>3261800</v>
@@ -2560,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4064400</v>
+        <v>4159800</v>
       </c>
       <c r="E61" s="3">
-        <v>4650700</v>
+        <v>4759800</v>
       </c>
       <c r="F61" s="3">
-        <v>3100200</v>
+        <v>3173000</v>
       </c>
       <c r="G61" s="3">
-        <v>3018600</v>
+        <v>3089500</v>
       </c>
       <c r="H61" s="3">
-        <v>2992300</v>
+        <v>3062500</v>
       </c>
       <c r="I61" s="3">
-        <v>3063800</v>
+        <v>3135700</v>
       </c>
       <c r="J61" s="3">
-        <v>1122500</v>
+        <v>1148900</v>
       </c>
       <c r="K61" s="3">
         <v>1298300</v>
@@ -2599,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3707700</v>
+        <v>3794700</v>
       </c>
       <c r="E62" s="3">
-        <v>2130100</v>
+        <v>2180100</v>
       </c>
       <c r="F62" s="3">
-        <v>2229200</v>
+        <v>2281500</v>
       </c>
       <c r="G62" s="3">
-        <v>1673100</v>
+        <v>1712400</v>
       </c>
       <c r="H62" s="3">
-        <v>2087300</v>
+        <v>2136200</v>
       </c>
       <c r="I62" s="3">
-        <v>1030400</v>
+        <v>1054600</v>
       </c>
       <c r="J62" s="3">
-        <v>671800</v>
+        <v>687600</v>
       </c>
       <c r="K62" s="3">
         <v>736900</v>
@@ -2755,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20038200</v>
+        <v>20508300</v>
       </c>
       <c r="E66" s="3">
-        <v>13367200</v>
+        <v>13680800</v>
       </c>
       <c r="F66" s="3">
-        <v>10011300</v>
+        <v>10246200</v>
       </c>
       <c r="G66" s="3">
-        <v>8473800</v>
+        <v>8672600</v>
       </c>
       <c r="H66" s="3">
-        <v>7393200</v>
+        <v>7566700</v>
       </c>
       <c r="I66" s="3">
-        <v>7366300</v>
+        <v>7539100</v>
       </c>
       <c r="J66" s="3">
-        <v>4893400</v>
+        <v>5008200</v>
       </c>
       <c r="K66" s="3">
         <v>5297000</v>
@@ -2967,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8295700</v>
+        <v>8490300</v>
       </c>
       <c r="E72" s="3">
-        <v>10703600</v>
+        <v>10954700</v>
       </c>
       <c r="F72" s="3">
-        <v>9499000</v>
+        <v>9721900</v>
       </c>
       <c r="G72" s="3">
-        <v>9174000</v>
+        <v>9389200</v>
       </c>
       <c r="H72" s="3">
-        <v>7292500</v>
+        <v>7463600</v>
       </c>
       <c r="I72" s="3">
-        <v>6266200</v>
+        <v>6413200</v>
       </c>
       <c r="J72" s="3">
-        <v>5270600</v>
+        <v>5394200</v>
       </c>
       <c r="K72" s="3">
         <v>5248700</v>
@@ -3123,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10114200</v>
+        <v>10351500</v>
       </c>
       <c r="E76" s="3">
-        <v>13829300</v>
+        <v>14153800</v>
       </c>
       <c r="F76" s="3">
-        <v>12559500</v>
+        <v>12854100</v>
       </c>
       <c r="G76" s="3">
-        <v>11610700</v>
+        <v>11883100</v>
       </c>
       <c r="H76" s="3">
-        <v>10748400</v>
+        <v>11000500</v>
       </c>
       <c r="I76" s="3">
-        <v>9794900</v>
+        <v>10024700</v>
       </c>
       <c r="J76" s="3">
-        <v>8367000</v>
+        <v>8563300</v>
       </c>
       <c r="K76" s="3">
         <v>8482500</v>
@@ -3245,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5867900</v>
+        <v>6005600</v>
       </c>
       <c r="E81" s="3">
-        <v>3544500</v>
+        <v>3627600</v>
       </c>
       <c r="F81" s="3">
-        <v>2585600</v>
+        <v>2646200</v>
       </c>
       <c r="G81" s="3">
-        <v>2584900</v>
+        <v>2645500</v>
       </c>
       <c r="H81" s="3">
-        <v>2061300</v>
+        <v>2109700</v>
       </c>
       <c r="I81" s="3">
-        <v>1553700</v>
+        <v>1590200</v>
       </c>
       <c r="J81" s="3">
-        <v>1383600</v>
+        <v>1416000</v>
       </c>
       <c r="K81" s="3">
         <v>1351100</v>
@@ -3301,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>469800</v>
+        <v>480800</v>
       </c>
       <c r="E83" s="3">
-        <v>489500</v>
+        <v>501000</v>
       </c>
       <c r="F83" s="3">
-        <v>447300</v>
+        <v>457800</v>
       </c>
       <c r="G83" s="3">
-        <v>421600</v>
+        <v>431500</v>
       </c>
       <c r="H83" s="3">
-        <v>521600</v>
+        <v>533900</v>
       </c>
       <c r="I83" s="3">
-        <v>353400</v>
+        <v>361700</v>
       </c>
       <c r="J83" s="3">
-        <v>293400</v>
+        <v>300300</v>
       </c>
       <c r="K83" s="3">
         <v>286100</v>
@@ -3535,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10817600</v>
+        <v>11071400</v>
       </c>
       <c r="E89" s="3">
-        <v>4615600</v>
+        <v>4723900</v>
       </c>
       <c r="F89" s="3">
-        <v>3267900</v>
+        <v>3344500</v>
       </c>
       <c r="G89" s="3">
-        <v>3064700</v>
+        <v>3136600</v>
       </c>
       <c r="H89" s="3">
-        <v>1813600</v>
+        <v>1856100</v>
       </c>
       <c r="I89" s="3">
-        <v>1661600</v>
+        <v>1700600</v>
       </c>
       <c r="J89" s="3">
-        <v>2020300</v>
+        <v>2067700</v>
       </c>
       <c r="K89" s="3">
         <v>1157600</v>
@@ -3591,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-898400</v>
+        <v>-919400</v>
       </c>
       <c r="E91" s="3">
-        <v>-959500</v>
+        <v>-982000</v>
       </c>
       <c r="F91" s="3">
-        <v>-764600</v>
+        <v>-782500</v>
       </c>
       <c r="G91" s="3">
-        <v>-572500</v>
+        <v>-585900</v>
       </c>
       <c r="H91" s="3">
-        <v>-338000</v>
+        <v>-345900</v>
       </c>
       <c r="I91" s="3">
-        <v>-315500</v>
+        <v>-322900</v>
       </c>
       <c r="J91" s="3">
-        <v>-370800</v>
+        <v>-379500</v>
       </c>
       <c r="K91" s="3">
         <v>-404500</v>
@@ -3708,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71800</v>
+        <v>-73500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1348700</v>
+        <v>-1380300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1154500</v>
+        <v>-1181600</v>
       </c>
       <c r="G94" s="3">
-        <v>-490200</v>
+        <v>-501700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1225800</v>
+        <v>-1254600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3180200</v>
+        <v>-3254800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1156900</v>
+        <v>-1184000</v>
       </c>
       <c r="K94" s="3">
         <v>-18300</v>
@@ -3764,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1364700</v>
+        <v>-1396800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1063600</v>
+        <v>-1088600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1322300</v>
+        <v>-1353300</v>
       </c>
       <c r="G96" s="3">
-        <v>-595500</v>
+        <v>-609500</v>
       </c>
       <c r="H96" s="3">
-        <v>-515400</v>
+        <v>-527400</v>
       </c>
       <c r="I96" s="3">
-        <v>-444700</v>
+        <v>-455100</v>
       </c>
       <c r="J96" s="3">
-        <v>-301500</v>
+        <v>-308600</v>
       </c>
       <c r="K96" s="3">
         <v>-302600</v>
@@ -3920,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9866000</v>
+        <v>-10097400</v>
       </c>
       <c r="E100" s="3">
-        <v>-751000</v>
+        <v>-768700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1707800</v>
+        <v>-1747900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1719800</v>
+        <v>-1760200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1206000</v>
+        <v>-1234200</v>
       </c>
       <c r="I100" s="3">
-        <v>1958500</v>
+        <v>2004500</v>
       </c>
       <c r="J100" s="3">
-        <v>-831800</v>
+        <v>-851300</v>
       </c>
       <c r="K100" s="3">
         <v>-1048300</v>
@@ -3959,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20200</v>
+        <v>20700</v>
       </c>
       <c r="E101" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F101" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G101" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H101" s="3">
-        <v>-28000</v>
+        <v>-28700</v>
       </c>
       <c r="I101" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="K101" s="3">
         <v>9300</v>
@@ -3998,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>900100</v>
+        <v>921200</v>
       </c>
       <c r="E102" s="3">
-        <v>2510600</v>
+        <v>2569500</v>
       </c>
       <c r="F102" s="3">
-        <v>410100</v>
+        <v>419800</v>
       </c>
       <c r="G102" s="3">
-        <v>859900</v>
+        <v>880000</v>
       </c>
       <c r="H102" s="3">
-        <v>-646200</v>
+        <v>-661400</v>
       </c>
       <c r="I102" s="3">
-        <v>447000</v>
+        <v>457500</v>
       </c>
       <c r="J102" s="3">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="K102" s="3">
         <v>100300</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,191 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18998100</v>
+        <v>22401500</v>
       </c>
       <c r="E8" s="3">
-        <v>14269300</v>
+        <v>19690400</v>
       </c>
       <c r="F8" s="3">
-        <v>12065900</v>
+        <v>14789300</v>
       </c>
       <c r="G8" s="3">
-        <v>11171600</v>
+        <v>12505600</v>
       </c>
       <c r="H8" s="3">
-        <v>9149100</v>
+        <v>11578800</v>
       </c>
       <c r="I8" s="3">
-        <v>7018100</v>
+        <v>9482500</v>
       </c>
       <c r="J8" s="3">
+        <v>7273900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6418200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6612300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6274500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5308800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6633200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8985100</v>
+        <v>11080800</v>
       </c>
       <c r="E9" s="3">
-        <v>7330700</v>
+        <v>9312500</v>
       </c>
       <c r="F9" s="3">
-        <v>6676200</v>
+        <v>7597800</v>
       </c>
       <c r="G9" s="3">
-        <v>6037800</v>
+        <v>6919500</v>
       </c>
       <c r="H9" s="3">
-        <v>5045300</v>
+        <v>6257900</v>
       </c>
       <c r="I9" s="3">
-        <v>3807400</v>
+        <v>5229200</v>
       </c>
       <c r="J9" s="3">
+        <v>3946100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3462200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3680800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3670000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3058900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3758100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10013000</v>
+        <v>11320700</v>
       </c>
       <c r="E10" s="3">
-        <v>6938600</v>
+        <v>10377900</v>
       </c>
       <c r="F10" s="3">
-        <v>5389600</v>
+        <v>7191400</v>
       </c>
       <c r="G10" s="3">
-        <v>5133800</v>
+        <v>5586000</v>
       </c>
       <c r="H10" s="3">
-        <v>4103800</v>
+        <v>5320900</v>
       </c>
       <c r="I10" s="3">
-        <v>3210700</v>
+        <v>4253400</v>
       </c>
       <c r="J10" s="3">
+        <v>3327700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2956000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2931600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2604400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2249900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2875100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,47 +865,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2481700</v>
+        <v>3249800</v>
       </c>
       <c r="E12" s="3">
-        <v>2111900</v>
+        <v>2572100</v>
       </c>
       <c r="F12" s="3">
-        <v>1882200</v>
+        <v>2188900</v>
       </c>
       <c r="G12" s="3">
-        <v>1499200</v>
+        <v>1950700</v>
       </c>
       <c r="H12" s="3">
-        <v>1179900</v>
+        <v>1553900</v>
       </c>
       <c r="I12" s="3">
-        <v>1047900</v>
+        <v>1222900</v>
       </c>
       <c r="J12" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1068000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1169400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1004500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>661100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>692900</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,17 +946,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-218100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-226100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -956,60 +976,66 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>8100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>161500</v>
+        <v>239300</v>
       </c>
       <c r="E15" s="3">
-        <v>171000</v>
+        <v>167400</v>
       </c>
       <c r="F15" s="3">
-        <v>150300</v>
+        <v>177200</v>
       </c>
       <c r="G15" s="3">
-        <v>133000</v>
+        <v>155700</v>
       </c>
       <c r="H15" s="3">
-        <v>120800</v>
+        <v>137900</v>
       </c>
       <c r="I15" s="3">
-        <v>109100</v>
+        <v>125200</v>
       </c>
       <c r="J15" s="3">
+        <v>113100</v>
+      </c>
+      <c r="K15" s="3">
         <v>54500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>65000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12107600</v>
+        <v>15523700</v>
       </c>
       <c r="E17" s="3">
-        <v>10133500</v>
+        <v>12548800</v>
       </c>
       <c r="F17" s="3">
-        <v>9217000</v>
+        <v>10502800</v>
       </c>
       <c r="G17" s="3">
-        <v>8144700</v>
+        <v>9552900</v>
       </c>
       <c r="H17" s="3">
-        <v>6658700</v>
+        <v>8441500</v>
       </c>
       <c r="I17" s="3">
-        <v>5223000</v>
+        <v>6901300</v>
       </c>
       <c r="J17" s="3">
+        <v>5413400</v>
+      </c>
+      <c r="K17" s="3">
         <v>4820500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5164600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5020900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4010900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4706800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6890500</v>
+        <v>6877700</v>
       </c>
       <c r="E18" s="3">
-        <v>4135800</v>
+        <v>7141600</v>
       </c>
       <c r="F18" s="3">
-        <v>2848800</v>
+        <v>4286500</v>
       </c>
       <c r="G18" s="3">
-        <v>3027000</v>
+        <v>2952700</v>
       </c>
       <c r="H18" s="3">
-        <v>2490400</v>
+        <v>3137300</v>
       </c>
       <c r="I18" s="3">
-        <v>1795100</v>
+        <v>2581200</v>
       </c>
       <c r="J18" s="3">
+        <v>1860500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1597700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1447800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1253600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1297900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1926500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10200</v>
+        <v>17100</v>
       </c>
       <c r="E20" s="3">
-        <v>8600</v>
+        <v>10600</v>
       </c>
       <c r="F20" s="3">
-        <v>11800</v>
+        <v>8900</v>
       </c>
       <c r="G20" s="3">
-        <v>13800</v>
+        <v>12300</v>
       </c>
       <c r="H20" s="3">
-        <v>7300</v>
+        <v>14300</v>
       </c>
       <c r="I20" s="3">
-        <v>73200</v>
+        <v>7600</v>
       </c>
       <c r="J20" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K20" s="3">
         <v>11100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-29300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>48300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7372200</v>
+        <v>7510200</v>
       </c>
       <c r="E21" s="3">
-        <v>4635700</v>
+        <v>7648800</v>
       </c>
       <c r="F21" s="3">
-        <v>3309700</v>
+        <v>4812900</v>
       </c>
       <c r="G21" s="3">
-        <v>3463900</v>
+        <v>3437800</v>
       </c>
       <c r="H21" s="3">
-        <v>3021400</v>
+        <v>3597300</v>
       </c>
       <c r="I21" s="3">
-        <v>2223000</v>
+        <v>3140300</v>
       </c>
       <c r="J21" s="3">
+        <v>2309900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1903300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1750900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1491900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1526400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2168800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55700</v>
+        <v>64300</v>
       </c>
       <c r="E22" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="H22" s="3">
         <v>44200</v>
       </c>
-      <c r="F22" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>42700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>58700</v>
-      </c>
       <c r="I22" s="3">
-        <v>38800</v>
+        <v>60800</v>
       </c>
       <c r="J22" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26100</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39600</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6845000</v>
+        <v>6830600</v>
       </c>
       <c r="E23" s="3">
-        <v>4100100</v>
+        <v>7094400</v>
       </c>
       <c r="F23" s="3">
-        <v>2823300</v>
+        <v>4249600</v>
       </c>
       <c r="G23" s="3">
-        <v>2998100</v>
+        <v>2926200</v>
       </c>
       <c r="H23" s="3">
-        <v>2439100</v>
+        <v>3107300</v>
       </c>
       <c r="I23" s="3">
-        <v>1829500</v>
+        <v>2528000</v>
       </c>
       <c r="J23" s="3">
+        <v>1896100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1580800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1438100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1224300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1290900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1935200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1042600</v>
+        <v>1026200</v>
       </c>
       <c r="E24" s="3">
-        <v>563000</v>
+        <v>1080600</v>
       </c>
       <c r="F24" s="3">
-        <v>195700</v>
+        <v>583500</v>
       </c>
       <c r="G24" s="3">
-        <v>358900</v>
+        <v>202800</v>
       </c>
       <c r="H24" s="3">
-        <v>312400</v>
+        <v>372000</v>
       </c>
       <c r="I24" s="3">
-        <v>239300</v>
+        <v>323700</v>
       </c>
       <c r="J24" s="3">
+        <v>248000</v>
+      </c>
+      <c r="K24" s="3">
         <v>164800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>86900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>213300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5802300</v>
+        <v>5804400</v>
       </c>
       <c r="E26" s="3">
-        <v>3537200</v>
+        <v>6013800</v>
       </c>
       <c r="F26" s="3">
-        <v>2627600</v>
+        <v>3666100</v>
       </c>
       <c r="G26" s="3">
-        <v>2639200</v>
+        <v>2723400</v>
       </c>
       <c r="H26" s="3">
-        <v>2126700</v>
+        <v>2735400</v>
       </c>
       <c r="I26" s="3">
-        <v>1590200</v>
+        <v>2204200</v>
       </c>
       <c r="J26" s="3">
+        <v>1648200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1416000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1351100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1214700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1286200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1721900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6005600</v>
+        <v>5950400</v>
       </c>
       <c r="E27" s="3">
-        <v>3627600</v>
+        <v>6224400</v>
       </c>
       <c r="F27" s="3">
-        <v>2646200</v>
+        <v>3759800</v>
       </c>
       <c r="G27" s="3">
-        <v>2645500</v>
+        <v>2742700</v>
       </c>
       <c r="H27" s="3">
-        <v>2109700</v>
+        <v>2741900</v>
       </c>
       <c r="I27" s="3">
-        <v>1590200</v>
+        <v>2186600</v>
       </c>
       <c r="J27" s="3">
+        <v>1648200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1416000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1351100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1214700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1286200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1721900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10200</v>
+        <v>-17100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8600</v>
+        <v>-10600</v>
       </c>
       <c r="F32" s="3">
-        <v>-11800</v>
+        <v>-8900</v>
       </c>
       <c r="G32" s="3">
-        <v>-13800</v>
+        <v>-12300</v>
       </c>
       <c r="H32" s="3">
-        <v>-7300</v>
+        <v>-14300</v>
       </c>
       <c r="I32" s="3">
-        <v>-73200</v>
+        <v>-7600</v>
       </c>
       <c r="J32" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>29300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-48300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6005600</v>
+        <v>5950400</v>
       </c>
       <c r="E33" s="3">
-        <v>3627600</v>
+        <v>6224400</v>
       </c>
       <c r="F33" s="3">
-        <v>2646200</v>
+        <v>3759800</v>
       </c>
       <c r="G33" s="3">
-        <v>2645500</v>
+        <v>2742700</v>
       </c>
       <c r="H33" s="3">
-        <v>2109700</v>
+        <v>2741900</v>
       </c>
       <c r="I33" s="3">
-        <v>1590200</v>
+        <v>2186600</v>
       </c>
       <c r="J33" s="3">
+        <v>1648200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1416000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1351100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1214700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1286200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1721900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6005600</v>
+        <v>5950400</v>
       </c>
       <c r="E35" s="3">
-        <v>3627600</v>
+        <v>6224400</v>
       </c>
       <c r="F35" s="3">
-        <v>2646200</v>
+        <v>3759800</v>
       </c>
       <c r="G35" s="3">
-        <v>2645500</v>
+        <v>2742700</v>
       </c>
       <c r="H35" s="3">
-        <v>2109700</v>
+        <v>2741900</v>
       </c>
       <c r="I35" s="3">
-        <v>1590200</v>
+        <v>2186600</v>
       </c>
       <c r="J35" s="3">
+        <v>1648200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1416000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1351100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1214700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1286200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1721900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,359 +1905,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7096400</v>
+        <v>7689900</v>
       </c>
       <c r="E41" s="3">
-        <v>6175200</v>
+        <v>7355000</v>
       </c>
       <c r="F41" s="3">
-        <v>3605800</v>
+        <v>6400300</v>
       </c>
       <c r="G41" s="3">
-        <v>3186000</v>
+        <v>3737200</v>
       </c>
       <c r="H41" s="3">
-        <v>2306000</v>
+        <v>3302100</v>
       </c>
       <c r="I41" s="3">
-        <v>2967300</v>
+        <v>2390000</v>
       </c>
       <c r="J41" s="3">
+        <v>3075500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2509900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2731800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2788000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1983200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3206600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>651800</v>
+        <v>113900</v>
       </c>
       <c r="E42" s="3">
-        <v>1329300</v>
+        <v>675500</v>
       </c>
       <c r="F42" s="3">
-        <v>1210500</v>
+        <v>1377700</v>
       </c>
       <c r="G42" s="3">
-        <v>932300</v>
+        <v>1254600</v>
       </c>
       <c r="H42" s="3">
-        <v>1050700</v>
+        <v>966300</v>
       </c>
       <c r="I42" s="3">
-        <v>1173900</v>
+        <v>1089000</v>
       </c>
       <c r="J42" s="3">
+        <v>1216700</v>
+      </c>
+      <c r="K42" s="3">
         <v>969800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>378100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>813300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1043500</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4651700</v>
+        <v>7455700</v>
       </c>
       <c r="E43" s="3">
-        <v>3402200</v>
+        <v>4821200</v>
       </c>
       <c r="F43" s="3">
-        <v>2909800</v>
+        <v>3526200</v>
       </c>
       <c r="G43" s="3">
-        <v>2450800</v>
+        <v>3015800</v>
       </c>
       <c r="H43" s="3">
-        <v>2244400</v>
+        <v>2540200</v>
       </c>
       <c r="I43" s="3">
-        <v>1246200</v>
+        <v>2326200</v>
       </c>
       <c r="J43" s="3">
+        <v>1291600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1188900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1505800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1423300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1788300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1259900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5286900</v>
+        <v>7617300</v>
       </c>
       <c r="E44" s="3">
-        <v>4664400</v>
+        <v>5479600</v>
       </c>
       <c r="F44" s="3">
-        <v>3888400</v>
+        <v>4834400</v>
       </c>
       <c r="G44" s="3">
-        <v>3511000</v>
+        <v>4030100</v>
       </c>
       <c r="H44" s="3">
-        <v>3017100</v>
+        <v>3639000</v>
       </c>
       <c r="I44" s="3">
-        <v>2838700</v>
+        <v>3127000</v>
       </c>
       <c r="J44" s="3">
+        <v>2942200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2627300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2879000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2862500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4167000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1907000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>881800</v>
+        <v>1525800</v>
       </c>
       <c r="E45" s="3">
-        <v>690200</v>
+        <v>913900</v>
       </c>
       <c r="F45" s="3">
-        <v>769000</v>
+        <v>715300</v>
       </c>
       <c r="G45" s="3">
-        <v>670300</v>
+        <v>797000</v>
       </c>
       <c r="H45" s="3">
-        <v>452400</v>
+        <v>694700</v>
       </c>
       <c r="I45" s="3">
-        <v>509300</v>
+        <v>468900</v>
       </c>
       <c r="J45" s="3">
+        <v>527800</v>
+      </c>
+      <c r="K45" s="3">
         <v>572300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>574100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>516900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>325200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18568600</v>
+        <v>24402700</v>
       </c>
       <c r="E46" s="3">
-        <v>16261300</v>
+        <v>19245200</v>
       </c>
       <c r="F46" s="3">
-        <v>12383400</v>
+        <v>16853900</v>
       </c>
       <c r="G46" s="3">
-        <v>10750500</v>
+        <v>12834700</v>
       </c>
       <c r="H46" s="3">
-        <v>9070600</v>
+        <v>11142200</v>
       </c>
       <c r="I46" s="3">
-        <v>8735400</v>
+        <v>9401200</v>
       </c>
       <c r="J46" s="3">
+        <v>9053800</v>
+      </c>
+      <c r="K46" s="3">
         <v>7868000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8068800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8404000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6543300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6698700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1437200</v>
+        <v>1362700</v>
       </c>
       <c r="E47" s="3">
-        <v>1269700</v>
+        <v>1489600</v>
       </c>
       <c r="F47" s="3">
-        <v>1349400</v>
+        <v>1315900</v>
       </c>
       <c r="G47" s="3">
-        <v>1369500</v>
+        <v>1398600</v>
       </c>
       <c r="H47" s="3">
-        <v>1165300</v>
+        <v>1419400</v>
       </c>
       <c r="I47" s="3">
-        <v>125200</v>
+        <v>1207800</v>
       </c>
       <c r="J47" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K47" s="3">
         <v>132200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>68500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>61600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43300</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3213000</v>
+        <v>4376800</v>
       </c>
       <c r="E48" s="3">
-        <v>2873800</v>
+        <v>3330100</v>
       </c>
       <c r="F48" s="3">
-        <v>2371500</v>
+        <v>2978500</v>
       </c>
       <c r="G48" s="3">
-        <v>1763000</v>
+        <v>2457900</v>
       </c>
       <c r="H48" s="3">
-        <v>1750200</v>
+        <v>1827300</v>
       </c>
       <c r="I48" s="3">
-        <v>1722300</v>
+        <v>1813900</v>
       </c>
       <c r="J48" s="3">
+        <v>1785100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1654400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1634400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1456800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2311100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1236700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5622300</v>
+        <v>5711100</v>
       </c>
       <c r="E49" s="3">
-        <v>5796100</v>
+        <v>5827100</v>
       </c>
       <c r="F49" s="3">
-        <v>5762900</v>
+        <v>6007300</v>
       </c>
       <c r="G49" s="3">
-        <v>5762500</v>
+        <v>5972900</v>
       </c>
       <c r="H49" s="3">
-        <v>5825800</v>
+        <v>5972500</v>
       </c>
       <c r="I49" s="3">
-        <v>6325700</v>
+        <v>6038100</v>
       </c>
       <c r="J49" s="3">
+        <v>6556200</v>
+      </c>
+      <c r="K49" s="3">
         <v>3432700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3479200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3332900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>189700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>181200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2018800</v>
+        <v>2552500</v>
       </c>
       <c r="E52" s="3">
-        <v>1633700</v>
+        <v>2092400</v>
       </c>
       <c r="F52" s="3">
-        <v>1233000</v>
+        <v>1693200</v>
       </c>
       <c r="G52" s="3">
-        <v>910200</v>
+        <v>1278000</v>
       </c>
       <c r="H52" s="3">
-        <v>755300</v>
+        <v>943400</v>
       </c>
       <c r="I52" s="3">
-        <v>655100</v>
+        <v>782800</v>
       </c>
       <c r="J52" s="3">
+        <v>679000</v>
+      </c>
+      <c r="K52" s="3">
         <v>484300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>528600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>517500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>393800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>406100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30859800</v>
+        <v>38405800</v>
       </c>
       <c r="E54" s="3">
-        <v>27834600</v>
+        <v>31984400</v>
       </c>
       <c r="F54" s="3">
-        <v>23100300</v>
+        <v>28848900</v>
       </c>
       <c r="G54" s="3">
-        <v>20555700</v>
+        <v>23942100</v>
       </c>
       <c r="H54" s="3">
-        <v>18567200</v>
+        <v>21304800</v>
       </c>
       <c r="I54" s="3">
-        <v>17563800</v>
+        <v>19243900</v>
       </c>
       <c r="J54" s="3">
+        <v>18203900</v>
+      </c>
+      <c r="K54" s="3">
         <v>13571600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13779500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13772700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8314500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8522800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2160300</v>
+        <v>2714000</v>
       </c>
       <c r="E57" s="3">
-        <v>1406600</v>
+        <v>2239000</v>
       </c>
       <c r="F57" s="3">
-        <v>1084300</v>
+        <v>1457800</v>
       </c>
       <c r="G57" s="3">
-        <v>984100</v>
+        <v>1123800</v>
       </c>
       <c r="H57" s="3">
-        <v>854700</v>
+        <v>1019900</v>
       </c>
       <c r="I57" s="3">
-        <v>605500</v>
+        <v>885900</v>
       </c>
       <c r="J57" s="3">
+        <v>627600</v>
+      </c>
+      <c r="K57" s="3">
         <v>427600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>560300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>748700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>212000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>521500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>519700</v>
+        <v>789500</v>
       </c>
       <c r="E58" s="3">
-        <v>15700</v>
-      </c>
-      <c r="F58" s="3" t="s">
+        <v>538600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>252800</v>
+        <v>26700</v>
       </c>
       <c r="J58" s="3">
+        <v>262000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9873800</v>
+        <v>15523200</v>
       </c>
       <c r="E59" s="3">
-        <v>5318600</v>
+        <v>10233600</v>
       </c>
       <c r="F59" s="3">
-        <v>3707400</v>
+        <v>5512400</v>
       </c>
       <c r="G59" s="3">
-        <v>2886700</v>
+        <v>3842600</v>
       </c>
       <c r="H59" s="3">
-        <v>4731300</v>
+        <v>2991900</v>
       </c>
       <c r="I59" s="3">
-        <v>2490500</v>
+        <v>4903700</v>
       </c>
       <c r="J59" s="3">
+        <v>2581200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2739900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2696700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2677600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4465500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2096600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12553800</v>
+        <v>19026600</v>
       </c>
       <c r="E60" s="3">
-        <v>6740900</v>
+        <v>13011300</v>
       </c>
       <c r="F60" s="3">
-        <v>4791700</v>
+        <v>6986500</v>
       </c>
       <c r="G60" s="3">
-        <v>3870800</v>
+        <v>4966400</v>
       </c>
       <c r="H60" s="3">
-        <v>3235900</v>
+        <v>4011800</v>
       </c>
       <c r="I60" s="3">
-        <v>3348800</v>
+        <v>3353900</v>
       </c>
       <c r="J60" s="3">
+        <v>3470900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3171800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3261800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3431500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2340800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2621200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4159800</v>
+        <v>3718000</v>
       </c>
       <c r="E61" s="3">
-        <v>4759800</v>
+        <v>4311400</v>
       </c>
       <c r="F61" s="3">
-        <v>3173000</v>
+        <v>4933200</v>
       </c>
       <c r="G61" s="3">
-        <v>3089500</v>
+        <v>3288600</v>
       </c>
       <c r="H61" s="3">
-        <v>3062500</v>
+        <v>3202000</v>
       </c>
       <c r="I61" s="3">
-        <v>3135700</v>
+        <v>3174100</v>
       </c>
       <c r="J61" s="3">
+        <v>3250000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1148900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1298300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1280200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>848100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>861300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3794700</v>
+        <v>6339300</v>
       </c>
       <c r="E62" s="3">
-        <v>2180100</v>
+        <v>3933000</v>
       </c>
       <c r="F62" s="3">
-        <v>2281500</v>
+        <v>2259600</v>
       </c>
       <c r="G62" s="3">
-        <v>1712400</v>
+        <v>2364600</v>
       </c>
       <c r="H62" s="3">
-        <v>2136200</v>
+        <v>1774800</v>
       </c>
       <c r="I62" s="3">
-        <v>1054600</v>
+        <v>2214100</v>
       </c>
       <c r="J62" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="K62" s="3">
         <v>687600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>736900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>780500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>562600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>997500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20508300</v>
+        <v>29084000</v>
       </c>
       <c r="E66" s="3">
-        <v>13680800</v>
+        <v>21255600</v>
       </c>
       <c r="F66" s="3">
-        <v>10246200</v>
+        <v>14179300</v>
       </c>
       <c r="G66" s="3">
-        <v>8672600</v>
+        <v>10619600</v>
       </c>
       <c r="H66" s="3">
-        <v>7566700</v>
+        <v>8988700</v>
       </c>
       <c r="I66" s="3">
-        <v>7539100</v>
+        <v>7842400</v>
       </c>
       <c r="J66" s="3">
+        <v>7813800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5008200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5297000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5492100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3751500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4480000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8490300</v>
+        <v>9571400</v>
       </c>
       <c r="E72" s="3">
-        <v>10954700</v>
+        <v>8799700</v>
       </c>
       <c r="F72" s="3">
-        <v>9721900</v>
+        <v>11353900</v>
       </c>
       <c r="G72" s="3">
-        <v>9389200</v>
+        <v>10076200</v>
       </c>
       <c r="H72" s="3">
-        <v>7463600</v>
+        <v>9731400</v>
       </c>
       <c r="I72" s="3">
-        <v>6413200</v>
+        <v>7735600</v>
       </c>
       <c r="J72" s="3">
+        <v>6646900</v>
+      </c>
+      <c r="K72" s="3">
         <v>5394200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5248700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5184600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4499600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3839200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10351500</v>
+        <v>9321800</v>
       </c>
       <c r="E76" s="3">
-        <v>14153800</v>
+        <v>10728800</v>
       </c>
       <c r="F76" s="3">
-        <v>12854100</v>
+        <v>14669600</v>
       </c>
       <c r="G76" s="3">
-        <v>11883100</v>
+        <v>13322500</v>
       </c>
       <c r="H76" s="3">
-        <v>11000500</v>
+        <v>12316200</v>
       </c>
       <c r="I76" s="3">
-        <v>10024700</v>
+        <v>11401400</v>
       </c>
       <c r="J76" s="3">
+        <v>10390100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8563300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8482500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8280600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4563000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4042800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6005600</v>
+        <v>5950400</v>
       </c>
       <c r="E81" s="3">
-        <v>3627600</v>
+        <v>6224400</v>
       </c>
       <c r="F81" s="3">
-        <v>2646200</v>
+        <v>3759800</v>
       </c>
       <c r="G81" s="3">
-        <v>2645500</v>
+        <v>2742700</v>
       </c>
       <c r="H81" s="3">
-        <v>2109700</v>
+        <v>2741900</v>
       </c>
       <c r="I81" s="3">
-        <v>1590200</v>
+        <v>2186600</v>
       </c>
       <c r="J81" s="3">
+        <v>1648200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1416000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1351100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1214700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1286200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1721900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>480800</v>
+        <v>617400</v>
       </c>
       <c r="E83" s="3">
-        <v>501000</v>
+        <v>498300</v>
       </c>
       <c r="F83" s="3">
-        <v>457800</v>
+        <v>519300</v>
       </c>
       <c r="G83" s="3">
-        <v>431500</v>
+        <v>474500</v>
       </c>
       <c r="H83" s="3">
-        <v>533900</v>
+        <v>447200</v>
       </c>
       <c r="I83" s="3">
-        <v>361700</v>
+        <v>553300</v>
       </c>
       <c r="J83" s="3">
+        <v>374800</v>
+      </c>
+      <c r="K83" s="3">
         <v>300300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>286100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>268700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>209400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>193900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11071400</v>
+        <v>8979000</v>
       </c>
       <c r="E89" s="3">
-        <v>4723900</v>
+        <v>11474900</v>
       </c>
       <c r="F89" s="3">
-        <v>3344500</v>
+        <v>4896000</v>
       </c>
       <c r="G89" s="3">
-        <v>3136600</v>
+        <v>3466400</v>
       </c>
       <c r="H89" s="3">
-        <v>1856100</v>
+        <v>3250900</v>
       </c>
       <c r="I89" s="3">
-        <v>1700600</v>
+        <v>1923800</v>
       </c>
       <c r="J89" s="3">
+        <v>1762500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2067700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1157600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1261000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>789300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2430300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-919400</v>
+        <v>-1356100</v>
       </c>
       <c r="E91" s="3">
-        <v>-982000</v>
+        <v>-952900</v>
       </c>
       <c r="F91" s="3">
-        <v>-782500</v>
+        <v>-1017800</v>
       </c>
       <c r="G91" s="3">
-        <v>-585900</v>
+        <v>-811100</v>
       </c>
       <c r="H91" s="3">
-        <v>-345900</v>
+        <v>-607300</v>
       </c>
       <c r="I91" s="3">
-        <v>-322900</v>
+        <v>-358600</v>
       </c>
       <c r="J91" s="3">
+        <v>-334700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-379500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-404500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-252200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-192800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-353200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-73500</v>
+        <v>-1088600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1380300</v>
+        <v>-76200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1181600</v>
+        <v>-1430600</v>
       </c>
       <c r="G94" s="3">
-        <v>-501700</v>
+        <v>-1224600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1254600</v>
+        <v>-520000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3254800</v>
+        <v>-1300300</v>
       </c>
       <c r="J94" s="3">
+        <v>-3373400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1184000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-440600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1256400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-353200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1396800</v>
+        <v>-2708300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1088600</v>
+        <v>-1447700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1353300</v>
+        <v>-1128300</v>
       </c>
       <c r="G96" s="3">
-        <v>-609500</v>
+        <v>-1402600</v>
       </c>
       <c r="H96" s="3">
-        <v>-527400</v>
+        <v>-631700</v>
       </c>
       <c r="I96" s="3">
-        <v>-455100</v>
+        <v>-546700</v>
       </c>
       <c r="J96" s="3">
+        <v>-471700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-308600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-302600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-258500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-211900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-202700</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10097400</v>
+        <v>-7552300</v>
       </c>
       <c r="E100" s="3">
-        <v>-768700</v>
+        <v>-10465400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1747900</v>
+        <v>-796700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1760200</v>
+        <v>-1811600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1234200</v>
+        <v>-1824300</v>
       </c>
       <c r="I100" s="3">
-        <v>2004500</v>
+        <v>-1279200</v>
       </c>
       <c r="J100" s="3">
+        <v>2077500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-851300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1048300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-135300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-612100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1163900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20700</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-5400</v>
+        <v>21500</v>
       </c>
       <c r="F101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="G101" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>9300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>921200</v>
+        <v>334900</v>
       </c>
       <c r="E102" s="3">
-        <v>2569500</v>
+        <v>954700</v>
       </c>
       <c r="F102" s="3">
-        <v>419800</v>
+        <v>2663100</v>
       </c>
       <c r="G102" s="3">
-        <v>880000</v>
+        <v>435000</v>
       </c>
       <c r="H102" s="3">
-        <v>-661400</v>
+        <v>912100</v>
       </c>
       <c r="I102" s="3">
-        <v>457500</v>
+        <v>-685500</v>
       </c>
       <c r="J102" s="3">
+        <v>474100</v>
+      </c>
+      <c r="K102" s="3">
         <v>40000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>673600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1081800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>917900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22401500</v>
+        <v>22801600</v>
       </c>
       <c r="E8" s="3">
-        <v>19690400</v>
+        <v>20042200</v>
       </c>
       <c r="F8" s="3">
-        <v>14789300</v>
+        <v>15053400</v>
       </c>
       <c r="G8" s="3">
-        <v>12505600</v>
+        <v>12729000</v>
       </c>
       <c r="H8" s="3">
-        <v>11578800</v>
+        <v>11785600</v>
       </c>
       <c r="I8" s="3">
-        <v>9482500</v>
+        <v>9651900</v>
       </c>
       <c r="J8" s="3">
-        <v>7273900</v>
+        <v>7403800</v>
       </c>
       <c r="K8" s="3">
         <v>6418200</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11080800</v>
+        <v>11278700</v>
       </c>
       <c r="E9" s="3">
-        <v>9312500</v>
+        <v>9478900</v>
       </c>
       <c r="F9" s="3">
-        <v>7597800</v>
+        <v>7733500</v>
       </c>
       <c r="G9" s="3">
-        <v>6919500</v>
+        <v>7043100</v>
       </c>
       <c r="H9" s="3">
-        <v>6257900</v>
+        <v>6369600</v>
       </c>
       <c r="I9" s="3">
-        <v>5229200</v>
+        <v>5322600</v>
       </c>
       <c r="J9" s="3">
-        <v>3946100</v>
+        <v>4016600</v>
       </c>
       <c r="K9" s="3">
         <v>3462200</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11320700</v>
+        <v>11522900</v>
       </c>
       <c r="E10" s="3">
-        <v>10377900</v>
+        <v>10563300</v>
       </c>
       <c r="F10" s="3">
-        <v>7191400</v>
+        <v>7319900</v>
       </c>
       <c r="G10" s="3">
-        <v>5586000</v>
+        <v>5685800</v>
       </c>
       <c r="H10" s="3">
-        <v>5320900</v>
+        <v>5415900</v>
       </c>
       <c r="I10" s="3">
-        <v>4253400</v>
+        <v>4329400</v>
       </c>
       <c r="J10" s="3">
-        <v>3327700</v>
+        <v>3387200</v>
       </c>
       <c r="K10" s="3">
         <v>2956000</v>
@@ -872,25 +872,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3249800</v>
+        <v>3307800</v>
       </c>
       <c r="E12" s="3">
-        <v>2572100</v>
+        <v>2618100</v>
       </c>
       <c r="F12" s="3">
-        <v>2188900</v>
+        <v>2228000</v>
       </c>
       <c r="G12" s="3">
-        <v>1950700</v>
+        <v>1985600</v>
       </c>
       <c r="H12" s="3">
-        <v>1553900</v>
+        <v>1581600</v>
       </c>
       <c r="I12" s="3">
-        <v>1222900</v>
+        <v>1244800</v>
       </c>
       <c r="J12" s="3">
-        <v>1086000</v>
+        <v>1105400</v>
       </c>
       <c r="K12" s="3">
         <v>1068000</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-226100</v>
+        <v>-230100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>239300</v>
+        <v>243600</v>
       </c>
       <c r="E15" s="3">
-        <v>167400</v>
+        <v>170400</v>
       </c>
       <c r="F15" s="3">
-        <v>177200</v>
+        <v>180400</v>
       </c>
       <c r="G15" s="3">
-        <v>155700</v>
+        <v>158500</v>
       </c>
       <c r="H15" s="3">
-        <v>137900</v>
+        <v>140300</v>
       </c>
       <c r="I15" s="3">
-        <v>125200</v>
+        <v>127400</v>
       </c>
       <c r="J15" s="3">
-        <v>113100</v>
+        <v>115100</v>
       </c>
       <c r="K15" s="3">
         <v>54500</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15523700</v>
+        <v>15801000</v>
       </c>
       <c r="E17" s="3">
-        <v>12548800</v>
+        <v>12773000</v>
       </c>
       <c r="F17" s="3">
-        <v>10502800</v>
+        <v>10690400</v>
       </c>
       <c r="G17" s="3">
-        <v>9552900</v>
+        <v>9723500</v>
       </c>
       <c r="H17" s="3">
-        <v>8441500</v>
+        <v>8592300</v>
       </c>
       <c r="I17" s="3">
-        <v>6901300</v>
+        <v>7024600</v>
       </c>
       <c r="J17" s="3">
-        <v>5413400</v>
+        <v>5510100</v>
       </c>
       <c r="K17" s="3">
         <v>4820500</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6877700</v>
+        <v>7000600</v>
       </c>
       <c r="E18" s="3">
-        <v>7141600</v>
+        <v>7269200</v>
       </c>
       <c r="F18" s="3">
-        <v>4286500</v>
+        <v>4363100</v>
       </c>
       <c r="G18" s="3">
-        <v>2952700</v>
+        <v>3005400</v>
       </c>
       <c r="H18" s="3">
-        <v>3137300</v>
+        <v>3193300</v>
       </c>
       <c r="I18" s="3">
-        <v>2581200</v>
+        <v>2627300</v>
       </c>
       <c r="J18" s="3">
-        <v>1860500</v>
+        <v>1893700</v>
       </c>
       <c r="K18" s="3">
         <v>1597700</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="E20" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="F20" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="G20" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="H20" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="I20" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="J20" s="3">
-        <v>75900</v>
+        <v>77200</v>
       </c>
       <c r="K20" s="3">
         <v>11100</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7510200</v>
+        <v>7650600</v>
       </c>
       <c r="E21" s="3">
-        <v>7648800</v>
+        <v>7790500</v>
       </c>
       <c r="F21" s="3">
-        <v>4812900</v>
+        <v>4904100</v>
       </c>
       <c r="G21" s="3">
-        <v>3437800</v>
+        <v>3504000</v>
       </c>
       <c r="H21" s="3">
-        <v>3597300</v>
+        <v>3666000</v>
       </c>
       <c r="I21" s="3">
-        <v>3140300</v>
+        <v>3202000</v>
       </c>
       <c r="J21" s="3">
-        <v>2309900</v>
+        <v>2355000</v>
       </c>
       <c r="K21" s="3">
         <v>1903300</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64300</v>
+        <v>65500</v>
       </c>
       <c r="E22" s="3">
-        <v>57800</v>
+        <v>58800</v>
       </c>
       <c r="F22" s="3">
-        <v>45800</v>
+        <v>46600</v>
       </c>
       <c r="G22" s="3">
-        <v>38700</v>
+        <v>39400</v>
       </c>
       <c r="H22" s="3">
-        <v>44200</v>
+        <v>45000</v>
       </c>
       <c r="I22" s="3">
-        <v>60800</v>
+        <v>61900</v>
       </c>
       <c r="J22" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="K22" s="3">
         <v>28000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6830600</v>
+        <v>6952600</v>
       </c>
       <c r="E23" s="3">
-        <v>7094400</v>
+        <v>7221200</v>
       </c>
       <c r="F23" s="3">
-        <v>4249600</v>
+        <v>4325500</v>
       </c>
       <c r="G23" s="3">
-        <v>2926200</v>
+        <v>2978500</v>
       </c>
       <c r="H23" s="3">
-        <v>3107300</v>
+        <v>3162900</v>
       </c>
       <c r="I23" s="3">
-        <v>2528000</v>
+        <v>2573100</v>
       </c>
       <c r="J23" s="3">
-        <v>1896100</v>
+        <v>1930000</v>
       </c>
       <c r="K23" s="3">
         <v>1580800</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1026200</v>
+        <v>1044500</v>
       </c>
       <c r="E24" s="3">
-        <v>1080600</v>
+        <v>1099900</v>
       </c>
       <c r="F24" s="3">
-        <v>583500</v>
+        <v>593900</v>
       </c>
       <c r="G24" s="3">
-        <v>202800</v>
+        <v>206400</v>
       </c>
       <c r="H24" s="3">
-        <v>372000</v>
+        <v>378600</v>
       </c>
       <c r="I24" s="3">
-        <v>323700</v>
+        <v>329500</v>
       </c>
       <c r="J24" s="3">
-        <v>248000</v>
+        <v>252400</v>
       </c>
       <c r="K24" s="3">
         <v>164800</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5804400</v>
+        <v>5908100</v>
       </c>
       <c r="E26" s="3">
-        <v>6013800</v>
+        <v>6121200</v>
       </c>
       <c r="F26" s="3">
-        <v>3666100</v>
+        <v>3731600</v>
       </c>
       <c r="G26" s="3">
-        <v>2723400</v>
+        <v>2772000</v>
       </c>
       <c r="H26" s="3">
-        <v>2735400</v>
+        <v>2784200</v>
       </c>
       <c r="I26" s="3">
-        <v>2204200</v>
+        <v>2243600</v>
       </c>
       <c r="J26" s="3">
-        <v>1648200</v>
+        <v>1677600</v>
       </c>
       <c r="K26" s="3">
         <v>1416000</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5950400</v>
+        <v>6056700</v>
       </c>
       <c r="E27" s="3">
-        <v>6224400</v>
+        <v>6335600</v>
       </c>
       <c r="F27" s="3">
-        <v>3759800</v>
+        <v>3827000</v>
       </c>
       <c r="G27" s="3">
-        <v>2742700</v>
+        <v>2791600</v>
       </c>
       <c r="H27" s="3">
-        <v>2741900</v>
+        <v>2790900</v>
       </c>
       <c r="I27" s="3">
-        <v>2186600</v>
+        <v>2225600</v>
       </c>
       <c r="J27" s="3">
-        <v>1648200</v>
+        <v>1677600</v>
       </c>
       <c r="K27" s="3">
         <v>1416000</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17100</v>
+        <v>-17400</v>
       </c>
       <c r="E32" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="F32" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="G32" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="H32" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="I32" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="J32" s="3">
-        <v>-75900</v>
+        <v>-77200</v>
       </c>
       <c r="K32" s="3">
         <v>-11100</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5950400</v>
+        <v>6056700</v>
       </c>
       <c r="E33" s="3">
-        <v>6224400</v>
+        <v>6335600</v>
       </c>
       <c r="F33" s="3">
-        <v>3759800</v>
+        <v>3827000</v>
       </c>
       <c r="G33" s="3">
-        <v>2742700</v>
+        <v>2791600</v>
       </c>
       <c r="H33" s="3">
-        <v>2741900</v>
+        <v>2790900</v>
       </c>
       <c r="I33" s="3">
-        <v>2186600</v>
+        <v>2225600</v>
       </c>
       <c r="J33" s="3">
-        <v>1648200</v>
+        <v>1677600</v>
       </c>
       <c r="K33" s="3">
         <v>1416000</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5950400</v>
+        <v>6056700</v>
       </c>
       <c r="E35" s="3">
-        <v>6224400</v>
+        <v>6335600</v>
       </c>
       <c r="F35" s="3">
-        <v>3759800</v>
+        <v>3827000</v>
       </c>
       <c r="G35" s="3">
-        <v>2742700</v>
+        <v>2791600</v>
       </c>
       <c r="H35" s="3">
-        <v>2741900</v>
+        <v>2790900</v>
       </c>
       <c r="I35" s="3">
-        <v>2186600</v>
+        <v>2225600</v>
       </c>
       <c r="J35" s="3">
-        <v>1648200</v>
+        <v>1677600</v>
       </c>
       <c r="K35" s="3">
         <v>1416000</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7689900</v>
+        <v>7827200</v>
       </c>
       <c r="E41" s="3">
-        <v>7355000</v>
+        <v>7486400</v>
       </c>
       <c r="F41" s="3">
-        <v>6400300</v>
+        <v>6514600</v>
       </c>
       <c r="G41" s="3">
-        <v>3737200</v>
+        <v>3803900</v>
       </c>
       <c r="H41" s="3">
-        <v>3302100</v>
+        <v>3361100</v>
       </c>
       <c r="I41" s="3">
-        <v>2390000</v>
+        <v>2432700</v>
       </c>
       <c r="J41" s="3">
-        <v>3075500</v>
+        <v>3130400</v>
       </c>
       <c r="K41" s="3">
         <v>2509900</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>113900</v>
+        <v>116000</v>
       </c>
       <c r="E42" s="3">
-        <v>675500</v>
+        <v>687600</v>
       </c>
       <c r="F42" s="3">
-        <v>1377700</v>
+        <v>1402300</v>
       </c>
       <c r="G42" s="3">
-        <v>1254600</v>
+        <v>1277000</v>
       </c>
       <c r="H42" s="3">
-        <v>966300</v>
+        <v>983500</v>
       </c>
       <c r="I42" s="3">
-        <v>1089000</v>
+        <v>1108500</v>
       </c>
       <c r="J42" s="3">
-        <v>1216700</v>
+        <v>1238400</v>
       </c>
       <c r="K42" s="3">
         <v>969800</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7455700</v>
+        <v>7588900</v>
       </c>
       <c r="E43" s="3">
-        <v>4821200</v>
+        <v>4907300</v>
       </c>
       <c r="F43" s="3">
-        <v>3526200</v>
+        <v>3589200</v>
       </c>
       <c r="G43" s="3">
-        <v>3015800</v>
+        <v>3069700</v>
       </c>
       <c r="H43" s="3">
-        <v>2540200</v>
+        <v>2585500</v>
       </c>
       <c r="I43" s="3">
-        <v>2326200</v>
+        <v>2367800</v>
       </c>
       <c r="J43" s="3">
-        <v>1291600</v>
+        <v>1314700</v>
       </c>
       <c r="K43" s="3">
         <v>1188900</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7617300</v>
+        <v>7753400</v>
       </c>
       <c r="E44" s="3">
-        <v>5479600</v>
+        <v>5577500</v>
       </c>
       <c r="F44" s="3">
-        <v>4834400</v>
+        <v>4920800</v>
       </c>
       <c r="G44" s="3">
-        <v>4030100</v>
+        <v>4102100</v>
       </c>
       <c r="H44" s="3">
-        <v>3639000</v>
+        <v>3704000</v>
       </c>
       <c r="I44" s="3">
-        <v>3127000</v>
+        <v>3182900</v>
       </c>
       <c r="J44" s="3">
-        <v>2942200</v>
+        <v>2994700</v>
       </c>
       <c r="K44" s="3">
         <v>2627300</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1525800</v>
+        <v>1553100</v>
       </c>
       <c r="E45" s="3">
-        <v>913900</v>
+        <v>930200</v>
       </c>
       <c r="F45" s="3">
-        <v>715300</v>
+        <v>728100</v>
       </c>
       <c r="G45" s="3">
-        <v>797000</v>
+        <v>811200</v>
       </c>
       <c r="H45" s="3">
-        <v>694700</v>
+        <v>707100</v>
       </c>
       <c r="I45" s="3">
-        <v>468900</v>
+        <v>477300</v>
       </c>
       <c r="J45" s="3">
-        <v>527800</v>
+        <v>537300</v>
       </c>
       <c r="K45" s="3">
         <v>572300</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24402700</v>
+        <v>24838600</v>
       </c>
       <c r="E46" s="3">
-        <v>19245200</v>
+        <v>19589000</v>
       </c>
       <c r="F46" s="3">
-        <v>16853900</v>
+        <v>17155000</v>
       </c>
       <c r="G46" s="3">
-        <v>12834700</v>
+        <v>13064000</v>
       </c>
       <c r="H46" s="3">
-        <v>11142200</v>
+        <v>11341300</v>
       </c>
       <c r="I46" s="3">
-        <v>9401200</v>
+        <v>9569100</v>
       </c>
       <c r="J46" s="3">
-        <v>9053800</v>
+        <v>9215500</v>
       </c>
       <c r="K46" s="3">
         <v>7868000</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1362700</v>
+        <v>1387000</v>
       </c>
       <c r="E47" s="3">
-        <v>1489600</v>
+        <v>1516200</v>
       </c>
       <c r="F47" s="3">
-        <v>1315900</v>
+        <v>1339400</v>
       </c>
       <c r="G47" s="3">
-        <v>1398600</v>
+        <v>1423600</v>
       </c>
       <c r="H47" s="3">
-        <v>1419400</v>
+        <v>1444800</v>
       </c>
       <c r="I47" s="3">
-        <v>1207800</v>
+        <v>1229400</v>
       </c>
       <c r="J47" s="3">
-        <v>129800</v>
+        <v>132100</v>
       </c>
       <c r="K47" s="3">
         <v>132200</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4376800</v>
+        <v>4455000</v>
       </c>
       <c r="E48" s="3">
-        <v>3330100</v>
+        <v>3389500</v>
       </c>
       <c r="F48" s="3">
-        <v>2978500</v>
+        <v>3031700</v>
       </c>
       <c r="G48" s="3">
-        <v>2457900</v>
+        <v>2501900</v>
       </c>
       <c r="H48" s="3">
-        <v>1827300</v>
+        <v>1859900</v>
       </c>
       <c r="I48" s="3">
-        <v>1813900</v>
+        <v>1846300</v>
       </c>
       <c r="J48" s="3">
-        <v>1785100</v>
+        <v>1817000</v>
       </c>
       <c r="K48" s="3">
         <v>1654400</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5711100</v>
+        <v>5813100</v>
       </c>
       <c r="E49" s="3">
-        <v>5827100</v>
+        <v>5931200</v>
       </c>
       <c r="F49" s="3">
-        <v>6007300</v>
+        <v>6114600</v>
       </c>
       <c r="G49" s="3">
-        <v>5972900</v>
+        <v>6079600</v>
       </c>
       <c r="H49" s="3">
-        <v>5972500</v>
+        <v>6079200</v>
       </c>
       <c r="I49" s="3">
-        <v>6038100</v>
+        <v>6146000</v>
       </c>
       <c r="J49" s="3">
-        <v>6556200</v>
+        <v>6673400</v>
       </c>
       <c r="K49" s="3">
         <v>3432700</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2552500</v>
+        <v>2598100</v>
       </c>
       <c r="E52" s="3">
-        <v>2092400</v>
+        <v>2129800</v>
       </c>
       <c r="F52" s="3">
-        <v>1693200</v>
+        <v>1723500</v>
       </c>
       <c r="G52" s="3">
-        <v>1278000</v>
+        <v>1300800</v>
       </c>
       <c r="H52" s="3">
-        <v>943400</v>
+        <v>960300</v>
       </c>
       <c r="I52" s="3">
-        <v>782800</v>
+        <v>796800</v>
       </c>
       <c r="J52" s="3">
-        <v>679000</v>
+        <v>691200</v>
       </c>
       <c r="K52" s="3">
         <v>484300</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38405800</v>
+        <v>39091900</v>
       </c>
       <c r="E54" s="3">
-        <v>31984400</v>
+        <v>32555800</v>
       </c>
       <c r="F54" s="3">
-        <v>28848900</v>
+        <v>29364300</v>
       </c>
       <c r="G54" s="3">
-        <v>23942100</v>
+        <v>24369800</v>
       </c>
       <c r="H54" s="3">
-        <v>21304800</v>
+        <v>21685400</v>
       </c>
       <c r="I54" s="3">
-        <v>19243900</v>
+        <v>19587600</v>
       </c>
       <c r="J54" s="3">
-        <v>18203900</v>
+        <v>18529100</v>
       </c>
       <c r="K54" s="3">
         <v>13571600</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2714000</v>
+        <v>2762500</v>
       </c>
       <c r="E57" s="3">
-        <v>2239000</v>
+        <v>2279000</v>
       </c>
       <c r="F57" s="3">
-        <v>1457800</v>
+        <v>1483900</v>
       </c>
       <c r="G57" s="3">
-        <v>1123800</v>
+        <v>1143900</v>
       </c>
       <c r="H57" s="3">
-        <v>1019900</v>
+        <v>1038100</v>
       </c>
       <c r="I57" s="3">
-        <v>885900</v>
+        <v>901700</v>
       </c>
       <c r="J57" s="3">
-        <v>627600</v>
+        <v>638800</v>
       </c>
       <c r="K57" s="3">
         <v>427600</v>
@@ -2578,13 +2578,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>789500</v>
+        <v>803600</v>
       </c>
       <c r="E58" s="3">
-        <v>538600</v>
+        <v>548200</v>
       </c>
       <c r="F58" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>26700</v>
+        <v>27100</v>
       </c>
       <c r="J58" s="3">
-        <v>262000</v>
+        <v>266700</v>
       </c>
       <c r="K58" s="3">
         <v>4300</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15523200</v>
+        <v>15800500</v>
       </c>
       <c r="E59" s="3">
-        <v>10233600</v>
+        <v>10416400</v>
       </c>
       <c r="F59" s="3">
-        <v>5512400</v>
+        <v>5610900</v>
       </c>
       <c r="G59" s="3">
-        <v>3842600</v>
+        <v>3911200</v>
       </c>
       <c r="H59" s="3">
-        <v>2991900</v>
+        <v>3045400</v>
       </c>
       <c r="I59" s="3">
-        <v>4903700</v>
+        <v>4991300</v>
       </c>
       <c r="J59" s="3">
-        <v>2581200</v>
+        <v>2627300</v>
       </c>
       <c r="K59" s="3">
         <v>2739900</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19026600</v>
+        <v>19366500</v>
       </c>
       <c r="E60" s="3">
-        <v>13011300</v>
+        <v>13243700</v>
       </c>
       <c r="F60" s="3">
-        <v>6986500</v>
+        <v>7111300</v>
       </c>
       <c r="G60" s="3">
-        <v>4966400</v>
+        <v>5055100</v>
       </c>
       <c r="H60" s="3">
-        <v>4011800</v>
+        <v>4083500</v>
       </c>
       <c r="I60" s="3">
-        <v>3353900</v>
+        <v>3413800</v>
       </c>
       <c r="J60" s="3">
-        <v>3470900</v>
+        <v>3532900</v>
       </c>
       <c r="K60" s="3">
         <v>3171800</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3718000</v>
+        <v>3784400</v>
       </c>
       <c r="E61" s="3">
-        <v>4311400</v>
+        <v>4388400</v>
       </c>
       <c r="F61" s="3">
-        <v>4933200</v>
+        <v>5021400</v>
       </c>
       <c r="G61" s="3">
-        <v>3288600</v>
+        <v>3347300</v>
       </c>
       <c r="H61" s="3">
-        <v>3202000</v>
+        <v>3259200</v>
       </c>
       <c r="I61" s="3">
-        <v>3174100</v>
+        <v>3230800</v>
       </c>
       <c r="J61" s="3">
-        <v>3250000</v>
+        <v>3308000</v>
       </c>
       <c r="K61" s="3">
         <v>1148900</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6339300</v>
+        <v>6452600</v>
       </c>
       <c r="E62" s="3">
-        <v>3933000</v>
+        <v>4003300</v>
       </c>
       <c r="F62" s="3">
-        <v>2259600</v>
+        <v>2299900</v>
       </c>
       <c r="G62" s="3">
-        <v>2364600</v>
+        <v>2406900</v>
       </c>
       <c r="H62" s="3">
-        <v>1774800</v>
+        <v>1806500</v>
       </c>
       <c r="I62" s="3">
-        <v>2214100</v>
+        <v>2253600</v>
       </c>
       <c r="J62" s="3">
-        <v>1093000</v>
+        <v>1112500</v>
       </c>
       <c r="K62" s="3">
         <v>687600</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29084000</v>
+        <v>29603600</v>
       </c>
       <c r="E66" s="3">
-        <v>21255600</v>
+        <v>21635400</v>
       </c>
       <c r="F66" s="3">
-        <v>14179300</v>
+        <v>14432600</v>
       </c>
       <c r="G66" s="3">
-        <v>10619600</v>
+        <v>10809300</v>
       </c>
       <c r="H66" s="3">
-        <v>8988700</v>
+        <v>9149200</v>
       </c>
       <c r="I66" s="3">
-        <v>7842400</v>
+        <v>7982500</v>
       </c>
       <c r="J66" s="3">
-        <v>7813800</v>
+        <v>7953400</v>
       </c>
       <c r="K66" s="3">
         <v>5008200</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9571400</v>
+        <v>9742400</v>
       </c>
       <c r="E72" s="3">
-        <v>8799700</v>
+        <v>8956900</v>
       </c>
       <c r="F72" s="3">
-        <v>11353900</v>
+        <v>11556800</v>
       </c>
       <c r="G72" s="3">
-        <v>10076200</v>
+        <v>10256200</v>
       </c>
       <c r="H72" s="3">
-        <v>9731400</v>
+        <v>9905200</v>
       </c>
       <c r="I72" s="3">
-        <v>7735600</v>
+        <v>7873800</v>
       </c>
       <c r="J72" s="3">
-        <v>6646900</v>
+        <v>6765600</v>
       </c>
       <c r="K72" s="3">
         <v>5394200</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9321800</v>
+        <v>9488400</v>
       </c>
       <c r="E76" s="3">
-        <v>10728800</v>
+        <v>10920400</v>
       </c>
       <c r="F76" s="3">
-        <v>14669600</v>
+        <v>14931600</v>
       </c>
       <c r="G76" s="3">
-        <v>13322500</v>
+        <v>13560500</v>
       </c>
       <c r="H76" s="3">
-        <v>12316200</v>
+        <v>12536200</v>
       </c>
       <c r="I76" s="3">
-        <v>11401400</v>
+        <v>11605100</v>
       </c>
       <c r="J76" s="3">
-        <v>10390100</v>
+        <v>10575700</v>
       </c>
       <c r="K76" s="3">
         <v>8563300</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5950400</v>
+        <v>6056700</v>
       </c>
       <c r="E81" s="3">
-        <v>6224400</v>
+        <v>6335600</v>
       </c>
       <c r="F81" s="3">
-        <v>3759800</v>
+        <v>3827000</v>
       </c>
       <c r="G81" s="3">
-        <v>2742700</v>
+        <v>2791600</v>
       </c>
       <c r="H81" s="3">
-        <v>2741900</v>
+        <v>2790900</v>
       </c>
       <c r="I81" s="3">
-        <v>2186600</v>
+        <v>2225600</v>
       </c>
       <c r="J81" s="3">
-        <v>1648200</v>
+        <v>1677600</v>
       </c>
       <c r="K81" s="3">
         <v>1416000</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>617400</v>
+        <v>628500</v>
       </c>
       <c r="E83" s="3">
-        <v>498300</v>
+        <v>507200</v>
       </c>
       <c r="F83" s="3">
-        <v>519300</v>
+        <v>528500</v>
       </c>
       <c r="G83" s="3">
-        <v>474500</v>
+        <v>483000</v>
       </c>
       <c r="H83" s="3">
-        <v>447200</v>
+        <v>455200</v>
       </c>
       <c r="I83" s="3">
-        <v>553300</v>
+        <v>563200</v>
       </c>
       <c r="J83" s="3">
-        <v>374800</v>
+        <v>381500</v>
       </c>
       <c r="K83" s="3">
         <v>300300</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8979000</v>
+        <v>9139400</v>
       </c>
       <c r="E89" s="3">
-        <v>11474900</v>
+        <v>11679800</v>
       </c>
       <c r="F89" s="3">
-        <v>4896000</v>
+        <v>4983500</v>
       </c>
       <c r="G89" s="3">
-        <v>3466400</v>
+        <v>3528400</v>
       </c>
       <c r="H89" s="3">
-        <v>3250900</v>
+        <v>3309000</v>
       </c>
       <c r="I89" s="3">
-        <v>1923800</v>
+        <v>1958100</v>
       </c>
       <c r="J89" s="3">
-        <v>1762500</v>
+        <v>1794000</v>
       </c>
       <c r="K89" s="3">
         <v>2067700</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1356100</v>
+        <v>-1380400</v>
       </c>
       <c r="E91" s="3">
-        <v>-952900</v>
+        <v>-970000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1017800</v>
+        <v>-1036000</v>
       </c>
       <c r="G91" s="3">
-        <v>-811100</v>
+        <v>-825600</v>
       </c>
       <c r="H91" s="3">
-        <v>-607300</v>
+        <v>-618100</v>
       </c>
       <c r="I91" s="3">
-        <v>-358600</v>
+        <v>-365000</v>
       </c>
       <c r="J91" s="3">
-        <v>-334700</v>
+        <v>-340700</v>
       </c>
       <c r="K91" s="3">
         <v>-379500</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1088600</v>
+        <v>-1108000</v>
       </c>
       <c r="E94" s="3">
-        <v>-76200</v>
+        <v>-77500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1430600</v>
+        <v>-1456200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1224600</v>
+        <v>-1246500</v>
       </c>
       <c r="H94" s="3">
-        <v>-520000</v>
+        <v>-529300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1300300</v>
+        <v>-1323500</v>
       </c>
       <c r="J94" s="3">
-        <v>-3373400</v>
+        <v>-3433700</v>
       </c>
       <c r="K94" s="3">
         <v>-1184000</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2708300</v>
+        <v>-2756600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1447700</v>
+        <v>-1473500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1128300</v>
+        <v>-1148400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1402600</v>
+        <v>-1427600</v>
       </c>
       <c r="H96" s="3">
-        <v>-631700</v>
+        <v>-643000</v>
       </c>
       <c r="I96" s="3">
-        <v>-546700</v>
+        <v>-556400</v>
       </c>
       <c r="J96" s="3">
-        <v>-471700</v>
+        <v>-480200</v>
       </c>
       <c r="K96" s="3">
         <v>-308600</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7552300</v>
+        <v>-7687200</v>
       </c>
       <c r="E100" s="3">
-        <v>-10465400</v>
+        <v>-10652400</v>
       </c>
       <c r="F100" s="3">
-        <v>-796700</v>
+        <v>-810900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1811600</v>
+        <v>-1844000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1824300</v>
+        <v>-1856900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1279200</v>
+        <v>-1302100</v>
       </c>
       <c r="J100" s="3">
-        <v>2077500</v>
+        <v>2114600</v>
       </c>
       <c r="K100" s="3">
         <v>-851300</v>
@@ -4212,22 +4212,22 @@
         <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G101" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I101" s="3">
-        <v>-29700</v>
+        <v>-30300</v>
       </c>
       <c r="J101" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="K101" s="3">
         <v>7700</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>334900</v>
+        <v>340800</v>
       </c>
       <c r="E102" s="3">
-        <v>954700</v>
+        <v>971800</v>
       </c>
       <c r="F102" s="3">
-        <v>2663100</v>
+        <v>2710700</v>
       </c>
       <c r="G102" s="3">
-        <v>435000</v>
+        <v>442800</v>
       </c>
       <c r="H102" s="3">
-        <v>912100</v>
+        <v>928400</v>
       </c>
       <c r="I102" s="3">
-        <v>-685500</v>
+        <v>-697700</v>
       </c>
       <c r="J102" s="3">
-        <v>474100</v>
+        <v>482600</v>
       </c>
       <c r="K102" s="3">
         <v>40000</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22801600</v>
+        <v>22954100</v>
       </c>
       <c r="E8" s="3">
-        <v>20042200</v>
+        <v>20176200</v>
       </c>
       <c r="F8" s="3">
-        <v>15053400</v>
+        <v>15154100</v>
       </c>
       <c r="G8" s="3">
-        <v>12729000</v>
+        <v>12814100</v>
       </c>
       <c r="H8" s="3">
-        <v>11785600</v>
+        <v>11864400</v>
       </c>
       <c r="I8" s="3">
-        <v>9651900</v>
+        <v>9716500</v>
       </c>
       <c r="J8" s="3">
-        <v>7403800</v>
+        <v>7453300</v>
       </c>
       <c r="K8" s="3">
         <v>6418200</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11278700</v>
+        <v>11354100</v>
       </c>
       <c r="E9" s="3">
-        <v>9478900</v>
+        <v>9542200</v>
       </c>
       <c r="F9" s="3">
-        <v>7733500</v>
+        <v>7785200</v>
       </c>
       <c r="G9" s="3">
-        <v>7043100</v>
+        <v>7090200</v>
       </c>
       <c r="H9" s="3">
-        <v>6369600</v>
+        <v>6412200</v>
       </c>
       <c r="I9" s="3">
-        <v>5322600</v>
+        <v>5358200</v>
       </c>
       <c r="J9" s="3">
-        <v>4016600</v>
+        <v>4043500</v>
       </c>
       <c r="K9" s="3">
         <v>3462200</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11522900</v>
+        <v>11600000</v>
       </c>
       <c r="E10" s="3">
-        <v>10563300</v>
+        <v>10633900</v>
       </c>
       <c r="F10" s="3">
-        <v>7319900</v>
+        <v>7368800</v>
       </c>
       <c r="G10" s="3">
-        <v>5685800</v>
+        <v>5723800</v>
       </c>
       <c r="H10" s="3">
-        <v>5415900</v>
+        <v>5452200</v>
       </c>
       <c r="I10" s="3">
-        <v>4329400</v>
+        <v>4358300</v>
       </c>
       <c r="J10" s="3">
-        <v>3387200</v>
+        <v>3409800</v>
       </c>
       <c r="K10" s="3">
         <v>2956000</v>
@@ -872,25 +872,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3307800</v>
+        <v>3329900</v>
       </c>
       <c r="E12" s="3">
-        <v>2618100</v>
+        <v>2635600</v>
       </c>
       <c r="F12" s="3">
-        <v>2228000</v>
+        <v>2242900</v>
       </c>
       <c r="G12" s="3">
-        <v>1985600</v>
+        <v>1998900</v>
       </c>
       <c r="H12" s="3">
-        <v>1581600</v>
+        <v>1592200</v>
       </c>
       <c r="I12" s="3">
-        <v>1244800</v>
+        <v>1253100</v>
       </c>
       <c r="J12" s="3">
-        <v>1105400</v>
+        <v>1112800</v>
       </c>
       <c r="K12" s="3">
         <v>1068000</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-230100</v>
+        <v>-231700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>243600</v>
+        <v>245200</v>
       </c>
       <c r="E15" s="3">
-        <v>170400</v>
+        <v>171500</v>
       </c>
       <c r="F15" s="3">
-        <v>180400</v>
+        <v>181600</v>
       </c>
       <c r="G15" s="3">
-        <v>158500</v>
+        <v>159600</v>
       </c>
       <c r="H15" s="3">
-        <v>140300</v>
+        <v>141300</v>
       </c>
       <c r="I15" s="3">
-        <v>127400</v>
+        <v>128200</v>
       </c>
       <c r="J15" s="3">
-        <v>115100</v>
+        <v>115900</v>
       </c>
       <c r="K15" s="3">
         <v>54500</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15801000</v>
+        <v>15906700</v>
       </c>
       <c r="E17" s="3">
-        <v>12773000</v>
+        <v>12858400</v>
       </c>
       <c r="F17" s="3">
-        <v>10690400</v>
+        <v>10761900</v>
       </c>
       <c r="G17" s="3">
-        <v>9723500</v>
+        <v>9788600</v>
       </c>
       <c r="H17" s="3">
-        <v>8592300</v>
+        <v>8649700</v>
       </c>
       <c r="I17" s="3">
-        <v>7024600</v>
+        <v>7071600</v>
       </c>
       <c r="J17" s="3">
-        <v>5510100</v>
+        <v>5546900</v>
       </c>
       <c r="K17" s="3">
         <v>4820500</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7000600</v>
+        <v>7047400</v>
       </c>
       <c r="E18" s="3">
-        <v>7269200</v>
+        <v>7317800</v>
       </c>
       <c r="F18" s="3">
-        <v>4363100</v>
+        <v>4392200</v>
       </c>
       <c r="G18" s="3">
-        <v>3005400</v>
+        <v>3025500</v>
       </c>
       <c r="H18" s="3">
-        <v>3193300</v>
+        <v>3214700</v>
       </c>
       <c r="I18" s="3">
-        <v>2627300</v>
+        <v>2644900</v>
       </c>
       <c r="J18" s="3">
-        <v>1893700</v>
+        <v>1906400</v>
       </c>
       <c r="K18" s="3">
         <v>1597700</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="E20" s="3">
         <v>10800</v>
       </c>
       <c r="F20" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="G20" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="H20" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="I20" s="3">
         <v>7800</v>
       </c>
       <c r="J20" s="3">
-        <v>77200</v>
+        <v>77700</v>
       </c>
       <c r="K20" s="3">
         <v>11100</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7650600</v>
+        <v>7697700</v>
       </c>
       <c r="E21" s="3">
-        <v>7790500</v>
+        <v>7839200</v>
       </c>
       <c r="F21" s="3">
-        <v>4904100</v>
+        <v>4933400</v>
       </c>
       <c r="G21" s="3">
-        <v>3504000</v>
+        <v>3524300</v>
       </c>
       <c r="H21" s="3">
-        <v>3666000</v>
+        <v>3687600</v>
       </c>
       <c r="I21" s="3">
-        <v>3202000</v>
+        <v>3219700</v>
       </c>
       <c r="J21" s="3">
-        <v>2355000</v>
+        <v>2368200</v>
       </c>
       <c r="K21" s="3">
         <v>1903300</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65500</v>
+        <v>65900</v>
       </c>
       <c r="E22" s="3">
-        <v>58800</v>
+        <v>59200</v>
       </c>
       <c r="F22" s="3">
-        <v>46600</v>
+        <v>46900</v>
       </c>
       <c r="G22" s="3">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="H22" s="3">
-        <v>45000</v>
+        <v>45300</v>
       </c>
       <c r="I22" s="3">
-        <v>61900</v>
+        <v>62300</v>
       </c>
       <c r="J22" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="K22" s="3">
         <v>28000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6952600</v>
+        <v>6999100</v>
       </c>
       <c r="E23" s="3">
-        <v>7221200</v>
+        <v>7269400</v>
       </c>
       <c r="F23" s="3">
-        <v>4325500</v>
+        <v>4354400</v>
       </c>
       <c r="G23" s="3">
-        <v>2978500</v>
+        <v>2998400</v>
       </c>
       <c r="H23" s="3">
-        <v>3162900</v>
+        <v>3184000</v>
       </c>
       <c r="I23" s="3">
-        <v>2573100</v>
+        <v>2590300</v>
       </c>
       <c r="J23" s="3">
-        <v>1930000</v>
+        <v>1942900</v>
       </c>
       <c r="K23" s="3">
         <v>1580800</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1044500</v>
+        <v>1051500</v>
       </c>
       <c r="E24" s="3">
-        <v>1099900</v>
+        <v>1107300</v>
       </c>
       <c r="F24" s="3">
-        <v>593900</v>
+        <v>597900</v>
       </c>
       <c r="G24" s="3">
-        <v>206400</v>
+        <v>207800</v>
       </c>
       <c r="H24" s="3">
-        <v>378600</v>
+        <v>381200</v>
       </c>
       <c r="I24" s="3">
-        <v>329500</v>
+        <v>331700</v>
       </c>
       <c r="J24" s="3">
-        <v>252400</v>
+        <v>254100</v>
       </c>
       <c r="K24" s="3">
         <v>164800</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5908100</v>
+        <v>5947600</v>
       </c>
       <c r="E26" s="3">
-        <v>6121200</v>
+        <v>6162100</v>
       </c>
       <c r="F26" s="3">
-        <v>3731600</v>
+        <v>3756500</v>
       </c>
       <c r="G26" s="3">
-        <v>2772000</v>
+        <v>2790600</v>
       </c>
       <c r="H26" s="3">
-        <v>2784200</v>
+        <v>2802800</v>
       </c>
       <c r="I26" s="3">
-        <v>2243600</v>
+        <v>2258600</v>
       </c>
       <c r="J26" s="3">
-        <v>1677600</v>
+        <v>1688800</v>
       </c>
       <c r="K26" s="3">
         <v>1416000</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6056700</v>
+        <v>6097200</v>
       </c>
       <c r="E27" s="3">
-        <v>6335600</v>
+        <v>6378000</v>
       </c>
       <c r="F27" s="3">
-        <v>3827000</v>
+        <v>3852600</v>
       </c>
       <c r="G27" s="3">
-        <v>2791600</v>
+        <v>2810300</v>
       </c>
       <c r="H27" s="3">
-        <v>2790900</v>
+        <v>2809600</v>
       </c>
       <c r="I27" s="3">
-        <v>2225600</v>
+        <v>2240500</v>
       </c>
       <c r="J27" s="3">
-        <v>1677600</v>
+        <v>1688800</v>
       </c>
       <c r="K27" s="3">
         <v>1416000</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="E32" s="3">
         <v>-10800</v>
       </c>
       <c r="F32" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="G32" s="3">
-        <v>-12500</v>
+        <v>-12600</v>
       </c>
       <c r="H32" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="I32" s="3">
         <v>-7800</v>
       </c>
       <c r="J32" s="3">
-        <v>-77200</v>
+        <v>-77700</v>
       </c>
       <c r="K32" s="3">
         <v>-11100</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6056700</v>
+        <v>6097200</v>
       </c>
       <c r="E33" s="3">
-        <v>6335600</v>
+        <v>6378000</v>
       </c>
       <c r="F33" s="3">
-        <v>3827000</v>
+        <v>3852600</v>
       </c>
       <c r="G33" s="3">
-        <v>2791600</v>
+        <v>2810300</v>
       </c>
       <c r="H33" s="3">
-        <v>2790900</v>
+        <v>2809600</v>
       </c>
       <c r="I33" s="3">
-        <v>2225600</v>
+        <v>2240500</v>
       </c>
       <c r="J33" s="3">
-        <v>1677600</v>
+        <v>1688800</v>
       </c>
       <c r="K33" s="3">
         <v>1416000</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6056700</v>
+        <v>6097200</v>
       </c>
       <c r="E35" s="3">
-        <v>6335600</v>
+        <v>6378000</v>
       </c>
       <c r="F35" s="3">
-        <v>3827000</v>
+        <v>3852600</v>
       </c>
       <c r="G35" s="3">
-        <v>2791600</v>
+        <v>2810300</v>
       </c>
       <c r="H35" s="3">
-        <v>2790900</v>
+        <v>2809600</v>
       </c>
       <c r="I35" s="3">
-        <v>2225600</v>
+        <v>2240500</v>
       </c>
       <c r="J35" s="3">
-        <v>1677600</v>
+        <v>1688800</v>
       </c>
       <c r="K35" s="3">
         <v>1416000</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7827200</v>
+        <v>7879600</v>
       </c>
       <c r="E41" s="3">
-        <v>7486400</v>
+        <v>7536400</v>
       </c>
       <c r="F41" s="3">
-        <v>6514600</v>
+        <v>6558200</v>
       </c>
       <c r="G41" s="3">
-        <v>3803900</v>
+        <v>3829400</v>
       </c>
       <c r="H41" s="3">
-        <v>3361100</v>
+        <v>3383600</v>
       </c>
       <c r="I41" s="3">
-        <v>2432700</v>
+        <v>2449000</v>
       </c>
       <c r="J41" s="3">
-        <v>3130400</v>
+        <v>3151300</v>
       </c>
       <c r="K41" s="3">
         <v>2509900</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>116000</v>
+        <v>116800</v>
       </c>
       <c r="E42" s="3">
-        <v>687600</v>
+        <v>692200</v>
       </c>
       <c r="F42" s="3">
-        <v>1402300</v>
+        <v>1411700</v>
       </c>
       <c r="G42" s="3">
-        <v>1277000</v>
+        <v>1285500</v>
       </c>
       <c r="H42" s="3">
-        <v>983500</v>
+        <v>990100</v>
       </c>
       <c r="I42" s="3">
-        <v>1108500</v>
+        <v>1115900</v>
       </c>
       <c r="J42" s="3">
-        <v>1238400</v>
+        <v>1246700</v>
       </c>
       <c r="K42" s="3">
         <v>969800</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7588900</v>
+        <v>7639700</v>
       </c>
       <c r="E43" s="3">
-        <v>4907300</v>
+        <v>4940100</v>
       </c>
       <c r="F43" s="3">
-        <v>3589200</v>
+        <v>3613200</v>
       </c>
       <c r="G43" s="3">
-        <v>3069700</v>
+        <v>3090200</v>
       </c>
       <c r="H43" s="3">
-        <v>2585500</v>
+        <v>2602800</v>
       </c>
       <c r="I43" s="3">
-        <v>2367800</v>
+        <v>2383600</v>
       </c>
       <c r="J43" s="3">
-        <v>1314700</v>
+        <v>1323400</v>
       </c>
       <c r="K43" s="3">
         <v>1188900</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7753400</v>
+        <v>7805200</v>
       </c>
       <c r="E44" s="3">
-        <v>5577500</v>
+        <v>5614800</v>
       </c>
       <c r="F44" s="3">
-        <v>4920800</v>
+        <v>4953700</v>
       </c>
       <c r="G44" s="3">
-        <v>4102100</v>
+        <v>4129600</v>
       </c>
       <c r="H44" s="3">
-        <v>3704000</v>
+        <v>3728800</v>
       </c>
       <c r="I44" s="3">
-        <v>3182900</v>
+        <v>3204200</v>
       </c>
       <c r="J44" s="3">
-        <v>2994700</v>
+        <v>3014700</v>
       </c>
       <c r="K44" s="3">
         <v>2627300</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1553100</v>
+        <v>1563500</v>
       </c>
       <c r="E45" s="3">
-        <v>930200</v>
+        <v>936400</v>
       </c>
       <c r="F45" s="3">
-        <v>728100</v>
+        <v>733000</v>
       </c>
       <c r="G45" s="3">
-        <v>811200</v>
+        <v>816700</v>
       </c>
       <c r="H45" s="3">
-        <v>707100</v>
+        <v>711800</v>
       </c>
       <c r="I45" s="3">
-        <v>477300</v>
+        <v>480500</v>
       </c>
       <c r="J45" s="3">
-        <v>537300</v>
+        <v>540900</v>
       </c>
       <c r="K45" s="3">
         <v>572300</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24838600</v>
+        <v>25004700</v>
       </c>
       <c r="E46" s="3">
-        <v>19589000</v>
+        <v>19720000</v>
       </c>
       <c r="F46" s="3">
-        <v>17155000</v>
+        <v>17269700</v>
       </c>
       <c r="G46" s="3">
-        <v>13064000</v>
+        <v>13151300</v>
       </c>
       <c r="H46" s="3">
-        <v>11341300</v>
+        <v>11417100</v>
       </c>
       <c r="I46" s="3">
-        <v>9569100</v>
+        <v>9633100</v>
       </c>
       <c r="J46" s="3">
-        <v>9215500</v>
+        <v>9277100</v>
       </c>
       <c r="K46" s="3">
         <v>7868000</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1387000</v>
+        <v>1396300</v>
       </c>
       <c r="E47" s="3">
-        <v>1516200</v>
+        <v>1526300</v>
       </c>
       <c r="F47" s="3">
-        <v>1339400</v>
+        <v>1348400</v>
       </c>
       <c r="G47" s="3">
-        <v>1423600</v>
+        <v>1433100</v>
       </c>
       <c r="H47" s="3">
-        <v>1444800</v>
+        <v>1454400</v>
       </c>
       <c r="I47" s="3">
-        <v>1229400</v>
+        <v>1237600</v>
       </c>
       <c r="J47" s="3">
-        <v>132100</v>
+        <v>133000</v>
       </c>
       <c r="K47" s="3">
         <v>132200</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4455000</v>
+        <v>4484800</v>
       </c>
       <c r="E48" s="3">
-        <v>3389500</v>
+        <v>3412200</v>
       </c>
       <c r="F48" s="3">
-        <v>3031700</v>
+        <v>3052000</v>
       </c>
       <c r="G48" s="3">
-        <v>2501900</v>
+        <v>2518600</v>
       </c>
       <c r="H48" s="3">
-        <v>1859900</v>
+        <v>1872300</v>
       </c>
       <c r="I48" s="3">
-        <v>1846300</v>
+        <v>1858700</v>
       </c>
       <c r="J48" s="3">
-        <v>1817000</v>
+        <v>1829100</v>
       </c>
       <c r="K48" s="3">
         <v>1654400</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5813100</v>
+        <v>5852000</v>
       </c>
       <c r="E49" s="3">
-        <v>5931200</v>
+        <v>5970900</v>
       </c>
       <c r="F49" s="3">
-        <v>6114600</v>
+        <v>6155500</v>
       </c>
       <c r="G49" s="3">
-        <v>6079600</v>
+        <v>6120300</v>
       </c>
       <c r="H49" s="3">
-        <v>6079200</v>
+        <v>6119900</v>
       </c>
       <c r="I49" s="3">
-        <v>6146000</v>
+        <v>6187100</v>
       </c>
       <c r="J49" s="3">
-        <v>6673400</v>
+        <v>6718000</v>
       </c>
       <c r="K49" s="3">
         <v>3432700</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2598100</v>
+        <v>2615500</v>
       </c>
       <c r="E52" s="3">
-        <v>2129800</v>
+        <v>2144000</v>
       </c>
       <c r="F52" s="3">
-        <v>1723500</v>
+        <v>1735000</v>
       </c>
       <c r="G52" s="3">
-        <v>1300800</v>
+        <v>1309500</v>
       </c>
       <c r="H52" s="3">
-        <v>960300</v>
+        <v>966700</v>
       </c>
       <c r="I52" s="3">
-        <v>796800</v>
+        <v>802100</v>
       </c>
       <c r="J52" s="3">
-        <v>691200</v>
+        <v>695800</v>
       </c>
       <c r="K52" s="3">
         <v>484300</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39091900</v>
+        <v>39353300</v>
       </c>
       <c r="E54" s="3">
-        <v>32555800</v>
+        <v>32773400</v>
       </c>
       <c r="F54" s="3">
-        <v>29364300</v>
+        <v>29560600</v>
       </c>
       <c r="G54" s="3">
-        <v>24369800</v>
+        <v>24532700</v>
       </c>
       <c r="H54" s="3">
-        <v>21685400</v>
+        <v>21830400</v>
       </c>
       <c r="I54" s="3">
-        <v>19587600</v>
+        <v>19718600</v>
       </c>
       <c r="J54" s="3">
-        <v>18529100</v>
+        <v>18653000</v>
       </c>
       <c r="K54" s="3">
         <v>13571600</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2762500</v>
+        <v>2780900</v>
       </c>
       <c r="E57" s="3">
-        <v>2279000</v>
+        <v>2294300</v>
       </c>
       <c r="F57" s="3">
-        <v>1483900</v>
+        <v>1493800</v>
       </c>
       <c r="G57" s="3">
-        <v>1143900</v>
+        <v>1151500</v>
       </c>
       <c r="H57" s="3">
-        <v>1038100</v>
+        <v>1045100</v>
       </c>
       <c r="I57" s="3">
-        <v>901700</v>
+        <v>907700</v>
       </c>
       <c r="J57" s="3">
-        <v>638800</v>
+        <v>643100</v>
       </c>
       <c r="K57" s="3">
         <v>427600</v>
@@ -2578,13 +2578,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>803600</v>
+        <v>809000</v>
       </c>
       <c r="E58" s="3">
-        <v>548200</v>
+        <v>551900</v>
       </c>
       <c r="F58" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="J58" s="3">
-        <v>266700</v>
+        <v>268500</v>
       </c>
       <c r="K58" s="3">
         <v>4300</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15800500</v>
+        <v>15906100</v>
       </c>
       <c r="E59" s="3">
-        <v>10416400</v>
+        <v>10486100</v>
       </c>
       <c r="F59" s="3">
-        <v>5610900</v>
+        <v>5648400</v>
       </c>
       <c r="G59" s="3">
-        <v>3911200</v>
+        <v>3937300</v>
       </c>
       <c r="H59" s="3">
-        <v>3045400</v>
+        <v>3065700</v>
       </c>
       <c r="I59" s="3">
-        <v>4991300</v>
+        <v>5024700</v>
       </c>
       <c r="J59" s="3">
-        <v>2627300</v>
+        <v>2644900</v>
       </c>
       <c r="K59" s="3">
         <v>2739900</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19366500</v>
+        <v>19496000</v>
       </c>
       <c r="E60" s="3">
-        <v>13243700</v>
+        <v>13332300</v>
       </c>
       <c r="F60" s="3">
-        <v>7111300</v>
+        <v>7158900</v>
       </c>
       <c r="G60" s="3">
-        <v>5055100</v>
+        <v>5088900</v>
       </c>
       <c r="H60" s="3">
-        <v>4083500</v>
+        <v>4110800</v>
       </c>
       <c r="I60" s="3">
-        <v>3413800</v>
+        <v>3436600</v>
       </c>
       <c r="J60" s="3">
-        <v>3532900</v>
+        <v>3556500</v>
       </c>
       <c r="K60" s="3">
         <v>3171800</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3784400</v>
+        <v>3809700</v>
       </c>
       <c r="E61" s="3">
-        <v>4388400</v>
+        <v>4417700</v>
       </c>
       <c r="F61" s="3">
-        <v>5021400</v>
+        <v>5054900</v>
       </c>
       <c r="G61" s="3">
-        <v>3347300</v>
+        <v>3369700</v>
       </c>
       <c r="H61" s="3">
-        <v>3259200</v>
+        <v>3281000</v>
       </c>
       <c r="I61" s="3">
-        <v>3230800</v>
+        <v>3252400</v>
       </c>
       <c r="J61" s="3">
-        <v>3308000</v>
+        <v>3330100</v>
       </c>
       <c r="K61" s="3">
         <v>1148900</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6452600</v>
+        <v>6495700</v>
       </c>
       <c r="E62" s="3">
-        <v>4003300</v>
+        <v>4030000</v>
       </c>
       <c r="F62" s="3">
-        <v>2299900</v>
+        <v>2315300</v>
       </c>
       <c r="G62" s="3">
-        <v>2406900</v>
+        <v>2423000</v>
       </c>
       <c r="H62" s="3">
-        <v>1806500</v>
+        <v>1818600</v>
       </c>
       <c r="I62" s="3">
-        <v>2253600</v>
+        <v>2268700</v>
       </c>
       <c r="J62" s="3">
-        <v>1112500</v>
+        <v>1120000</v>
       </c>
       <c r="K62" s="3">
         <v>687600</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29603600</v>
+        <v>29801500</v>
       </c>
       <c r="E66" s="3">
-        <v>21635400</v>
+        <v>21780000</v>
       </c>
       <c r="F66" s="3">
-        <v>14432600</v>
+        <v>14529100</v>
       </c>
       <c r="G66" s="3">
-        <v>10809300</v>
+        <v>10881500</v>
       </c>
       <c r="H66" s="3">
-        <v>9149200</v>
+        <v>9210400</v>
       </c>
       <c r="I66" s="3">
-        <v>7982500</v>
+        <v>8035900</v>
       </c>
       <c r="J66" s="3">
-        <v>7953400</v>
+        <v>8006600</v>
       </c>
       <c r="K66" s="3">
         <v>5008200</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9742400</v>
+        <v>9807500</v>
       </c>
       <c r="E72" s="3">
-        <v>8956900</v>
+        <v>9016800</v>
       </c>
       <c r="F72" s="3">
-        <v>11556800</v>
+        <v>11634000</v>
       </c>
       <c r="G72" s="3">
-        <v>10256200</v>
+        <v>10324800</v>
       </c>
       <c r="H72" s="3">
-        <v>9905200</v>
+        <v>9971400</v>
       </c>
       <c r="I72" s="3">
-        <v>7873800</v>
+        <v>7926400</v>
       </c>
       <c r="J72" s="3">
-        <v>6765600</v>
+        <v>6810900</v>
       </c>
       <c r="K72" s="3">
         <v>5394200</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9488400</v>
+        <v>9551800</v>
       </c>
       <c r="E76" s="3">
-        <v>10920400</v>
+        <v>10993400</v>
       </c>
       <c r="F76" s="3">
-        <v>14931600</v>
+        <v>15031500</v>
       </c>
       <c r="G76" s="3">
-        <v>13560500</v>
+        <v>13651200</v>
       </c>
       <c r="H76" s="3">
-        <v>12536200</v>
+        <v>12620000</v>
       </c>
       <c r="I76" s="3">
-        <v>11605100</v>
+        <v>11682700</v>
       </c>
       <c r="J76" s="3">
-        <v>10575700</v>
+        <v>10646400</v>
       </c>
       <c r="K76" s="3">
         <v>8563300</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6056700</v>
+        <v>6097200</v>
       </c>
       <c r="E81" s="3">
-        <v>6335600</v>
+        <v>6378000</v>
       </c>
       <c r="F81" s="3">
-        <v>3827000</v>
+        <v>3852600</v>
       </c>
       <c r="G81" s="3">
-        <v>2791600</v>
+        <v>2810300</v>
       </c>
       <c r="H81" s="3">
-        <v>2790900</v>
+        <v>2809600</v>
       </c>
       <c r="I81" s="3">
-        <v>2225600</v>
+        <v>2240500</v>
       </c>
       <c r="J81" s="3">
-        <v>1677600</v>
+        <v>1688800</v>
       </c>
       <c r="K81" s="3">
         <v>1416000</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>628500</v>
+        <v>632700</v>
       </c>
       <c r="E83" s="3">
-        <v>507200</v>
+        <v>510600</v>
       </c>
       <c r="F83" s="3">
-        <v>528500</v>
+        <v>532100</v>
       </c>
       <c r="G83" s="3">
-        <v>483000</v>
+        <v>486200</v>
       </c>
       <c r="H83" s="3">
-        <v>455200</v>
+        <v>458200</v>
       </c>
       <c r="I83" s="3">
-        <v>563200</v>
+        <v>567000</v>
       </c>
       <c r="J83" s="3">
-        <v>381500</v>
+        <v>384100</v>
       </c>
       <c r="K83" s="3">
         <v>300300</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9139400</v>
+        <v>9200500</v>
       </c>
       <c r="E89" s="3">
-        <v>11679800</v>
+        <v>11757900</v>
       </c>
       <c r="F89" s="3">
-        <v>4983500</v>
+        <v>5016800</v>
       </c>
       <c r="G89" s="3">
-        <v>3528400</v>
+        <v>3551900</v>
       </c>
       <c r="H89" s="3">
-        <v>3309000</v>
+        <v>3331100</v>
       </c>
       <c r="I89" s="3">
-        <v>1958100</v>
+        <v>1971200</v>
       </c>
       <c r="J89" s="3">
-        <v>1794000</v>
+        <v>1806000</v>
       </c>
       <c r="K89" s="3">
         <v>2067700</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1380400</v>
+        <v>-1389600</v>
       </c>
       <c r="E91" s="3">
-        <v>-970000</v>
+        <v>-976400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1036000</v>
+        <v>-1042900</v>
       </c>
       <c r="G91" s="3">
-        <v>-825600</v>
+        <v>-831100</v>
       </c>
       <c r="H91" s="3">
-        <v>-618100</v>
+        <v>-622300</v>
       </c>
       <c r="I91" s="3">
-        <v>-365000</v>
+        <v>-367400</v>
       </c>
       <c r="J91" s="3">
-        <v>-340700</v>
+        <v>-342900</v>
       </c>
       <c r="K91" s="3">
         <v>-379500</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1108000</v>
+        <v>-1115400</v>
       </c>
       <c r="E94" s="3">
-        <v>-77500</v>
+        <v>-78100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1456200</v>
+        <v>-1465900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1246500</v>
+        <v>-1254800</v>
       </c>
       <c r="H94" s="3">
-        <v>-529300</v>
+        <v>-532800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1323500</v>
+        <v>-1332400</v>
       </c>
       <c r="J94" s="3">
-        <v>-3433700</v>
+        <v>-3456600</v>
       </c>
       <c r="K94" s="3">
         <v>-1184000</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2756600</v>
+        <v>-2775100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1473500</v>
+        <v>-1483400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1148400</v>
+        <v>-1156100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1427600</v>
+        <v>-1437200</v>
       </c>
       <c r="H96" s="3">
-        <v>-643000</v>
+        <v>-647300</v>
       </c>
       <c r="I96" s="3">
-        <v>-556400</v>
+        <v>-560200</v>
       </c>
       <c r="J96" s="3">
-        <v>-480200</v>
+        <v>-483400</v>
       </c>
       <c r="K96" s="3">
         <v>-308600</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7687200</v>
+        <v>-7738600</v>
       </c>
       <c r="E100" s="3">
-        <v>-10652400</v>
+        <v>-10723600</v>
       </c>
       <c r="F100" s="3">
-        <v>-810900</v>
+        <v>-816300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1844000</v>
+        <v>-1856300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1856900</v>
+        <v>-1869300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1302100</v>
+        <v>-1310800</v>
       </c>
       <c r="J100" s="3">
-        <v>2114600</v>
+        <v>2128800</v>
       </c>
       <c r="K100" s="3">
         <v>-851300</v>
@@ -4209,10 +4209,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="F101" s="3">
         <v>-5700</v>
@@ -4224,10 +4224,10 @@
         <v>5600</v>
       </c>
       <c r="I101" s="3">
-        <v>-30300</v>
+        <v>-30500</v>
       </c>
       <c r="J101" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="K101" s="3">
         <v>7700</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>340800</v>
+        <v>343100</v>
       </c>
       <c r="E102" s="3">
-        <v>971800</v>
+        <v>978300</v>
       </c>
       <c r="F102" s="3">
-        <v>2710700</v>
+        <v>2728800</v>
       </c>
       <c r="G102" s="3">
-        <v>442800</v>
+        <v>445800</v>
       </c>
       <c r="H102" s="3">
-        <v>928400</v>
+        <v>934600</v>
       </c>
       <c r="I102" s="3">
-        <v>-697700</v>
+        <v>-702400</v>
       </c>
       <c r="J102" s="3">
-        <v>482600</v>
+        <v>485800</v>
       </c>
       <c r="K102" s="3">
         <v>40000</v>

--- a/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASML_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22954100</v>
+        <v>22973100</v>
       </c>
       <c r="E8" s="3">
-        <v>20176200</v>
+        <v>20192900</v>
       </c>
       <c r="F8" s="3">
-        <v>15154100</v>
+        <v>15166700</v>
       </c>
       <c r="G8" s="3">
-        <v>12814100</v>
+        <v>12824700</v>
       </c>
       <c r="H8" s="3">
-        <v>11864400</v>
+        <v>11874200</v>
       </c>
       <c r="I8" s="3">
-        <v>9716500</v>
+        <v>9724500</v>
       </c>
       <c r="J8" s="3">
-        <v>7453300</v>
+        <v>7459500</v>
       </c>
       <c r="K8" s="3">
         <v>6418200</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11354100</v>
+        <v>11363500</v>
       </c>
       <c r="E9" s="3">
-        <v>9542200</v>
+        <v>9550200</v>
       </c>
       <c r="F9" s="3">
-        <v>7785200</v>
+        <v>7791700</v>
       </c>
       <c r="G9" s="3">
-        <v>7090200</v>
+        <v>7096100</v>
       </c>
       <c r="H9" s="3">
-        <v>6412200</v>
+        <v>6417600</v>
       </c>
       <c r="I9" s="3">
-        <v>5358200</v>
+        <v>5362600</v>
       </c>
       <c r="J9" s="3">
-        <v>4043500</v>
+        <v>4046800</v>
       </c>
       <c r="K9" s="3">
         <v>3462200</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11600000</v>
+        <v>11609600</v>
       </c>
       <c r="E10" s="3">
-        <v>10633900</v>
+        <v>10642800</v>
       </c>
       <c r="F10" s="3">
-        <v>7368800</v>
+        <v>7375000</v>
       </c>
       <c r="G10" s="3">
-        <v>5723800</v>
+        <v>5728600</v>
       </c>
       <c r="H10" s="3">
-        <v>5452200</v>
+        <v>5456700</v>
       </c>
       <c r="I10" s="3">
-        <v>4358300</v>
+        <v>4361900</v>
       </c>
       <c r="J10" s="3">
-        <v>3409800</v>
+        <v>3412700</v>
       </c>
       <c r="K10" s="3">
         <v>2956000</v>
@@ -872,25 +872,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3329900</v>
+        <v>3332700</v>
       </c>
       <c r="E12" s="3">
-        <v>2635600</v>
+        <v>2637700</v>
       </c>
       <c r="F12" s="3">
-        <v>2242900</v>
+        <v>2244800</v>
       </c>
       <c r="G12" s="3">
-        <v>1998900</v>
+        <v>2000500</v>
       </c>
       <c r="H12" s="3">
-        <v>1592200</v>
+        <v>1593500</v>
       </c>
       <c r="I12" s="3">
-        <v>1253100</v>
+        <v>1254200</v>
       </c>
       <c r="J12" s="3">
-        <v>1112800</v>
+        <v>1113800</v>
       </c>
       <c r="K12" s="3">
         <v>1068000</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-231700</v>
+        <v>-231900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>245200</v>
+        <v>245400</v>
       </c>
       <c r="E15" s="3">
-        <v>171500</v>
+        <v>171600</v>
       </c>
       <c r="F15" s="3">
-        <v>181600</v>
+        <v>181700</v>
       </c>
       <c r="G15" s="3">
-        <v>159600</v>
+        <v>159700</v>
       </c>
       <c r="H15" s="3">
-        <v>141300</v>
+        <v>141400</v>
       </c>
       <c r="I15" s="3">
-        <v>128200</v>
+        <v>128400</v>
       </c>
       <c r="J15" s="3">
-        <v>115900</v>
+        <v>116000</v>
       </c>
       <c r="K15" s="3">
         <v>54500</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15906700</v>
+        <v>15919900</v>
       </c>
       <c r="E17" s="3">
-        <v>12858400</v>
+        <v>12869100</v>
       </c>
       <c r="F17" s="3">
-        <v>10761900</v>
+        <v>10770800</v>
       </c>
       <c r="G17" s="3">
-        <v>9788600</v>
+        <v>9796700</v>
       </c>
       <c r="H17" s="3">
-        <v>8649700</v>
+        <v>8656900</v>
       </c>
       <c r="I17" s="3">
-        <v>7071600</v>
+        <v>7077500</v>
       </c>
       <c r="J17" s="3">
-        <v>5546900</v>
+        <v>5551500</v>
       </c>
       <c r="K17" s="3">
         <v>4820500</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7047400</v>
+        <v>7053300</v>
       </c>
       <c r="E18" s="3">
-        <v>7317800</v>
+        <v>7323900</v>
       </c>
       <c r="F18" s="3">
-        <v>4392200</v>
+        <v>4395900</v>
       </c>
       <c r="G18" s="3">
-        <v>3025500</v>
+        <v>3028000</v>
       </c>
       <c r="H18" s="3">
-        <v>3214700</v>
+        <v>3217400</v>
       </c>
       <c r="I18" s="3">
-        <v>2644900</v>
+        <v>2647100</v>
       </c>
       <c r="J18" s="3">
-        <v>1906400</v>
+        <v>1908000</v>
       </c>
       <c r="K18" s="3">
         <v>1597700</v>
@@ -1160,7 +1160,7 @@
         <v>17600</v>
       </c>
       <c r="E20" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="F20" s="3">
         <v>9100</v>
@@ -1175,7 +1175,7 @@
         <v>7800</v>
       </c>
       <c r="J20" s="3">
-        <v>77700</v>
+        <v>77800</v>
       </c>
       <c r="K20" s="3">
         <v>11100</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7697700</v>
+        <v>7703800</v>
       </c>
       <c r="E21" s="3">
-        <v>7839200</v>
+        <v>7845600</v>
       </c>
       <c r="F21" s="3">
-        <v>4933400</v>
+        <v>4937300</v>
       </c>
       <c r="G21" s="3">
-        <v>3524300</v>
+        <v>3527000</v>
       </c>
       <c r="H21" s="3">
-        <v>3687600</v>
+        <v>3690500</v>
       </c>
       <c r="I21" s="3">
-        <v>3219700</v>
+        <v>3222100</v>
       </c>
       <c r="J21" s="3">
-        <v>2368200</v>
+        <v>2370000</v>
       </c>
       <c r="K21" s="3">
         <v>1903300</v>
@@ -1241,22 +1241,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65900</v>
+        <v>66000</v>
       </c>
       <c r="E22" s="3">
         <v>59200</v>
       </c>
       <c r="F22" s="3">
-        <v>46900</v>
+        <v>47000</v>
       </c>
       <c r="G22" s="3">
         <v>39700</v>
       </c>
       <c r="H22" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="I22" s="3">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="J22" s="3">
         <v>41200</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6999100</v>
+        <v>7004900</v>
       </c>
       <c r="E23" s="3">
-        <v>7269400</v>
+        <v>7275500</v>
       </c>
       <c r="F23" s="3">
-        <v>4354400</v>
+        <v>4358000</v>
       </c>
       <c r="G23" s="3">
-        <v>2998400</v>
+        <v>3000900</v>
       </c>
       <c r="H23" s="3">
-        <v>3184000</v>
+        <v>3186600</v>
       </c>
       <c r="I23" s="3">
-        <v>2590300</v>
+        <v>2592500</v>
       </c>
       <c r="J23" s="3">
-        <v>1942900</v>
+        <v>1944500</v>
       </c>
       <c r="K23" s="3">
         <v>1580800</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1051500</v>
+        <v>1052300</v>
       </c>
       <c r="E24" s="3">
-        <v>1107300</v>
+        <v>1108200</v>
       </c>
       <c r="F24" s="3">
-        <v>597900</v>
+        <v>598400</v>
       </c>
       <c r="G24" s="3">
-        <v>207800</v>
+        <v>208000</v>
       </c>
       <c r="H24" s="3">
-        <v>381200</v>
+        <v>381500</v>
       </c>
       <c r="I24" s="3">
-        <v>331700</v>
+        <v>332000</v>
       </c>
       <c r="J24" s="3">
-        <v>254100</v>
+        <v>254300</v>
       </c>
       <c r="K24" s="3">
         <v>164800</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5947600</v>
+        <v>5952500</v>
       </c>
       <c r="E26" s="3">
-        <v>6162100</v>
+        <v>6167200</v>
       </c>
       <c r="F26" s="3">
-        <v>3756500</v>
+        <v>3759600</v>
       </c>
       <c r="G26" s="3">
-        <v>2790600</v>
+        <v>2792900</v>
       </c>
       <c r="H26" s="3">
-        <v>2802800</v>
+        <v>2805200</v>
       </c>
       <c r="I26" s="3">
-        <v>2258600</v>
+        <v>2260500</v>
       </c>
       <c r="J26" s="3">
-        <v>1688800</v>
+        <v>1690200</v>
       </c>
       <c r="K26" s="3">
         <v>1416000</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6097200</v>
+        <v>6102300</v>
       </c>
       <c r="E27" s="3">
-        <v>6378000</v>
+        <v>6383300</v>
       </c>
       <c r="F27" s="3">
-        <v>3852600</v>
+        <v>3855800</v>
       </c>
       <c r="G27" s="3">
-        <v>2810300</v>
+        <v>2812600</v>
       </c>
       <c r="H27" s="3">
-        <v>2809600</v>
+        <v>2811900</v>
       </c>
       <c r="I27" s="3">
-        <v>2240500</v>
+        <v>2242400</v>
       </c>
       <c r="J27" s="3">
-        <v>1688800</v>
+        <v>1690200</v>
       </c>
       <c r="K27" s="3">
         <v>1416000</v>
@@ -1664,7 +1664,7 @@
         <v>-17600</v>
       </c>
       <c r="E32" s="3">
-        <v>-10800</v>
+        <v>-10900</v>
       </c>
       <c r="F32" s="3">
         <v>-9100</v>
@@ -1679,7 +1679,7 @@
         <v>-7800</v>
       </c>
       <c r="J32" s="3">
-        <v>-77700</v>
+        <v>-77800</v>
       </c>
       <c r="K32" s="3">
         <v>-11100</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6097200</v>
+        <v>6102300</v>
       </c>
       <c r="E33" s="3">
-        <v>6378000</v>
+        <v>6383300</v>
       </c>
       <c r="F33" s="3">
-        <v>3852600</v>
+        <v>3855800</v>
       </c>
       <c r="G33" s="3">
-        <v>2810300</v>
+        <v>2812600</v>
       </c>
       <c r="H33" s="3">
-        <v>2809600</v>
+        <v>2811900</v>
       </c>
       <c r="I33" s="3">
-        <v>2240500</v>
+        <v>2242400</v>
       </c>
       <c r="J33" s="3">
-        <v>1688800</v>
+        <v>1690200</v>
       </c>
       <c r="K33" s="3">
         <v>1416000</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6097200</v>
+        <v>6102300</v>
       </c>
       <c r="E35" s="3">
-        <v>6378000</v>
+        <v>6383300</v>
       </c>
       <c r="F35" s="3">
-        <v>3852600</v>
+        <v>3855800</v>
       </c>
       <c r="G35" s="3">
-        <v>2810300</v>
+        <v>2812600</v>
       </c>
       <c r="H35" s="3">
-        <v>2809600</v>
+        <v>2811900</v>
       </c>
       <c r="I35" s="3">
-        <v>2240500</v>
+        <v>2242400</v>
       </c>
       <c r="J35" s="3">
-        <v>1688800</v>
+        <v>1690200</v>
       </c>
       <c r="K35" s="3">
         <v>1416000</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7879600</v>
+        <v>7886100</v>
       </c>
       <c r="E41" s="3">
-        <v>7536400</v>
+        <v>7542700</v>
       </c>
       <c r="F41" s="3">
-        <v>6558200</v>
+        <v>6563600</v>
       </c>
       <c r="G41" s="3">
-        <v>3829400</v>
+        <v>3832500</v>
       </c>
       <c r="H41" s="3">
-        <v>3383600</v>
+        <v>3386400</v>
       </c>
       <c r="I41" s="3">
-        <v>2449000</v>
+        <v>2451000</v>
       </c>
       <c r="J41" s="3">
-        <v>3151300</v>
+        <v>3154000</v>
       </c>
       <c r="K41" s="3">
         <v>2509900</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>116800</v>
+        <v>116900</v>
       </c>
       <c r="E42" s="3">
-        <v>692200</v>
+        <v>692800</v>
       </c>
       <c r="F42" s="3">
-        <v>1411700</v>
+        <v>1412900</v>
       </c>
       <c r="G42" s="3">
-        <v>1285500</v>
+        <v>1286600</v>
       </c>
       <c r="H42" s="3">
-        <v>990100</v>
+        <v>990900</v>
       </c>
       <c r="I42" s="3">
-        <v>1115900</v>
+        <v>1116800</v>
       </c>
       <c r="J42" s="3">
-        <v>1246700</v>
+        <v>1247800</v>
       </c>
       <c r="K42" s="3">
         <v>969800</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7639700</v>
+        <v>7646000</v>
       </c>
       <c r="E43" s="3">
-        <v>4940100</v>
+        <v>4944200</v>
       </c>
       <c r="F43" s="3">
-        <v>3613200</v>
+        <v>3616200</v>
       </c>
       <c r="G43" s="3">
-        <v>3090200</v>
+        <v>3092800</v>
       </c>
       <c r="H43" s="3">
-        <v>2602800</v>
+        <v>2605000</v>
       </c>
       <c r="I43" s="3">
-        <v>2383600</v>
+        <v>2385600</v>
       </c>
       <c r="J43" s="3">
-        <v>1323400</v>
+        <v>1324500</v>
       </c>
       <c r="K43" s="3">
         <v>1188900</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7805200</v>
+        <v>7811700</v>
       </c>
       <c r="E44" s="3">
-        <v>5614800</v>
+        <v>5619400</v>
       </c>
       <c r="F44" s="3">
-        <v>4953700</v>
+        <v>4957800</v>
       </c>
       <c r="G44" s="3">
-        <v>4129600</v>
+        <v>4133000</v>
       </c>
       <c r="H44" s="3">
-        <v>3728800</v>
+        <v>3731900</v>
       </c>
       <c r="I44" s="3">
-        <v>3204200</v>
+        <v>3206800</v>
       </c>
       <c r="J44" s="3">
-        <v>3014700</v>
+        <v>3017300</v>
       </c>
       <c r="K44" s="3">
         <v>2627300</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1563500</v>
+        <v>1564800</v>
       </c>
       <c r="E45" s="3">
-        <v>936400</v>
+        <v>937200</v>
       </c>
       <c r="F45" s="3">
-        <v>733000</v>
+        <v>733600</v>
       </c>
       <c r="G45" s="3">
-        <v>816700</v>
+        <v>817300</v>
       </c>
       <c r="H45" s="3">
-        <v>711800</v>
+        <v>712400</v>
       </c>
       <c r="I45" s="3">
-        <v>480500</v>
+        <v>480900</v>
       </c>
       <c r="J45" s="3">
-        <v>540900</v>
+        <v>541300</v>
       </c>
       <c r="K45" s="3">
         <v>572300</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25004700</v>
+        <v>25025400</v>
       </c>
       <c r="E46" s="3">
-        <v>19720000</v>
+        <v>19736400</v>
       </c>
       <c r="F46" s="3">
-        <v>17269700</v>
+        <v>17284000</v>
       </c>
       <c r="G46" s="3">
-        <v>13151300</v>
+        <v>13162200</v>
       </c>
       <c r="H46" s="3">
-        <v>11417100</v>
+        <v>11426600</v>
       </c>
       <c r="I46" s="3">
-        <v>9633100</v>
+        <v>9641100</v>
       </c>
       <c r="J46" s="3">
-        <v>9277100</v>
+        <v>9284800</v>
       </c>
       <c r="K46" s="3">
         <v>7868000</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1396300</v>
+        <v>1397500</v>
       </c>
       <c r="E47" s="3">
-        <v>1526300</v>
+        <v>1527600</v>
       </c>
       <c r="F47" s="3">
-        <v>1348400</v>
+        <v>1349500</v>
       </c>
       <c r="G47" s="3">
-        <v>1433100</v>
+        <v>1434300</v>
       </c>
       <c r="H47" s="3">
-        <v>1454400</v>
+        <v>1455600</v>
       </c>
       <c r="I47" s="3">
-        <v>1237600</v>
+        <v>1238600</v>
       </c>
       <c r="J47" s="3">
-        <v>133000</v>
+        <v>133100</v>
       </c>
       <c r="K47" s="3">
         <v>132200</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4484800</v>
+        <v>4488500</v>
       </c>
       <c r="E48" s="3">
-        <v>3412200</v>
+        <v>3415000</v>
       </c>
       <c r="F48" s="3">
-        <v>3052000</v>
+        <v>3054500</v>
       </c>
       <c r="G48" s="3">
-        <v>2518600</v>
+        <v>2520700</v>
       </c>
       <c r="H48" s="3">
-        <v>1872300</v>
+        <v>1873900</v>
       </c>
       <c r="I48" s="3">
-        <v>1858700</v>
+        <v>1860200</v>
       </c>
       <c r="J48" s="3">
-        <v>1829100</v>
+        <v>1830700</v>
       </c>
       <c r="K48" s="3">
         <v>1654400</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5852000</v>
+        <v>5856800</v>
       </c>
       <c r="E49" s="3">
-        <v>5970900</v>
+        <v>5975900</v>
       </c>
       <c r="F49" s="3">
-        <v>6155500</v>
+        <v>6160600</v>
       </c>
       <c r="G49" s="3">
-        <v>6120300</v>
+        <v>6125400</v>
       </c>
       <c r="H49" s="3">
-        <v>6119900</v>
+        <v>6124900</v>
       </c>
       <c r="I49" s="3">
-        <v>6187100</v>
+        <v>6192200</v>
       </c>
       <c r="J49" s="3">
-        <v>6718000</v>
+        <v>6723500</v>
       </c>
       <c r="K49" s="3">
         <v>3432700</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2615500</v>
+        <v>2617700</v>
       </c>
       <c r="E52" s="3">
-        <v>2144000</v>
+        <v>2145800</v>
       </c>
       <c r="F52" s="3">
-        <v>1735000</v>
+        <v>1736400</v>
       </c>
       <c r="G52" s="3">
-        <v>1309500</v>
+        <v>1310600</v>
       </c>
       <c r="H52" s="3">
-        <v>966700</v>
+        <v>967500</v>
       </c>
       <c r="I52" s="3">
-        <v>802100</v>
+        <v>802800</v>
       </c>
       <c r="J52" s="3">
-        <v>695800</v>
+        <v>696400</v>
       </c>
       <c r="K52" s="3">
         <v>484300</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39353300</v>
+        <v>39385900</v>
       </c>
       <c r="E54" s="3">
-        <v>32773400</v>
+        <v>32800600</v>
       </c>
       <c r="F54" s="3">
-        <v>29560600</v>
+        <v>29585100</v>
       </c>
       <c r="G54" s="3">
-        <v>24532700</v>
+        <v>24553100</v>
       </c>
       <c r="H54" s="3">
-        <v>21830400</v>
+        <v>21848500</v>
       </c>
       <c r="I54" s="3">
-        <v>19718600</v>
+        <v>19735000</v>
       </c>
       <c r="J54" s="3">
-        <v>18653000</v>
+        <v>18668500</v>
       </c>
       <c r="K54" s="3">
         <v>13571600</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2780900</v>
+        <v>2783200</v>
       </c>
       <c r="E57" s="3">
-        <v>2294300</v>
+        <v>2296200</v>
       </c>
       <c r="F57" s="3">
-        <v>1493800</v>
+        <v>1495000</v>
       </c>
       <c r="G57" s="3">
-        <v>1151500</v>
+        <v>1152500</v>
       </c>
       <c r="H57" s="3">
-        <v>1045100</v>
+        <v>1045900</v>
       </c>
       <c r="I57" s="3">
-        <v>907700</v>
+        <v>908500</v>
       </c>
       <c r="J57" s="3">
-        <v>643100</v>
+        <v>643600</v>
       </c>
       <c r="K57" s="3">
         <v>427600</v>
@@ -2578,10 +2578,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>809000</v>
+        <v>809600</v>
       </c>
       <c r="E58" s="3">
-        <v>551900</v>
+        <v>552400</v>
       </c>
       <c r="F58" s="3">
         <v>16700</v>
@@ -2596,7 +2596,7 @@
         <v>27300</v>
       </c>
       <c r="J58" s="3">
-        <v>268500</v>
+        <v>268700</v>
       </c>
       <c r="K58" s="3">
         <v>4300</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15906100</v>
+        <v>15919300</v>
       </c>
       <c r="E59" s="3">
-        <v>10486100</v>
+        <v>10494800</v>
       </c>
       <c r="F59" s="3">
-        <v>5648400</v>
+        <v>5653100</v>
       </c>
       <c r="G59" s="3">
-        <v>3937300</v>
+        <v>3940600</v>
       </c>
       <c r="H59" s="3">
-        <v>3065700</v>
+        <v>3068300</v>
       </c>
       <c r="I59" s="3">
-        <v>5024700</v>
+        <v>5028900</v>
       </c>
       <c r="J59" s="3">
-        <v>2644900</v>
+        <v>2647100</v>
       </c>
       <c r="K59" s="3">
         <v>2739900</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19496000</v>
+        <v>19512200</v>
       </c>
       <c r="E60" s="3">
-        <v>13332300</v>
+        <v>13343300</v>
       </c>
       <c r="F60" s="3">
-        <v>7158900</v>
+        <v>7164800</v>
       </c>
       <c r="G60" s="3">
-        <v>5088900</v>
+        <v>5093100</v>
       </c>
       <c r="H60" s="3">
-        <v>4110800</v>
+        <v>4114200</v>
       </c>
       <c r="I60" s="3">
-        <v>3436600</v>
+        <v>3439400</v>
       </c>
       <c r="J60" s="3">
-        <v>3556500</v>
+        <v>3559400</v>
       </c>
       <c r="K60" s="3">
         <v>3171800</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3809700</v>
+        <v>3812900</v>
       </c>
       <c r="E61" s="3">
-        <v>4417700</v>
+        <v>4421400</v>
       </c>
       <c r="F61" s="3">
-        <v>5054900</v>
+        <v>5059100</v>
       </c>
       <c r="G61" s="3">
-        <v>3369700</v>
+        <v>3372500</v>
       </c>
       <c r="H61" s="3">
-        <v>3281000</v>
+        <v>3283800</v>
       </c>
       <c r="I61" s="3">
-        <v>3252400</v>
+        <v>3255100</v>
       </c>
       <c r="J61" s="3">
-        <v>3330100</v>
+        <v>3332900</v>
       </c>
       <c r="K61" s="3">
         <v>1148900</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6495700</v>
+        <v>6501100</v>
       </c>
       <c r="E62" s="3">
-        <v>4030000</v>
+        <v>4033400</v>
       </c>
       <c r="F62" s="3">
-        <v>2315300</v>
+        <v>2317200</v>
       </c>
       <c r="G62" s="3">
-        <v>2423000</v>
+        <v>2425000</v>
       </c>
       <c r="H62" s="3">
-        <v>1818600</v>
+        <v>1820100</v>
       </c>
       <c r="I62" s="3">
-        <v>2268700</v>
+        <v>2270600</v>
       </c>
       <c r="J62" s="3">
-        <v>1120000</v>
+        <v>1120900</v>
       </c>
       <c r="K62" s="3">
         <v>687600</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29801500</v>
+        <v>29826200</v>
       </c>
       <c r="E66" s="3">
-        <v>21780000</v>
+        <v>21798100</v>
       </c>
       <c r="F66" s="3">
-        <v>14529100</v>
+        <v>14541200</v>
       </c>
       <c r="G66" s="3">
-        <v>10881500</v>
+        <v>10890600</v>
       </c>
       <c r="H66" s="3">
-        <v>9210400</v>
+        <v>9218100</v>
       </c>
       <c r="I66" s="3">
-        <v>8035900</v>
+        <v>8042600</v>
       </c>
       <c r="J66" s="3">
-        <v>8006600</v>
+        <v>8013200</v>
       </c>
       <c r="K66" s="3">
         <v>5008200</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9807500</v>
+        <v>9815700</v>
       </c>
       <c r="E72" s="3">
-        <v>9016800</v>
+        <v>9024300</v>
       </c>
       <c r="F72" s="3">
-        <v>11634000</v>
+        <v>11643700</v>
       </c>
       <c r="G72" s="3">
-        <v>10324800</v>
+        <v>10333300</v>
       </c>
       <c r="H72" s="3">
-        <v>9971400</v>
+        <v>9979700</v>
       </c>
       <c r="I72" s="3">
-        <v>7926400</v>
+        <v>7933000</v>
       </c>
       <c r="J72" s="3">
-        <v>6810900</v>
+        <v>6816500</v>
       </c>
       <c r="K72" s="3">
         <v>5394200</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9551800</v>
+        <v>9559700</v>
       </c>
       <c r="E76" s="3">
-        <v>10993400</v>
+        <v>11002600</v>
       </c>
       <c r="F76" s="3">
-        <v>15031500</v>
+        <v>15044000</v>
       </c>
       <c r="G76" s="3">
-        <v>13651200</v>
+        <v>13662500</v>
       </c>
       <c r="H76" s="3">
-        <v>12620000</v>
+        <v>12630500</v>
       </c>
       <c r="I76" s="3">
-        <v>11682700</v>
+        <v>11692400</v>
       </c>
       <c r="J76" s="3">
-        <v>10646400</v>
+        <v>10655200</v>
       </c>
       <c r="K76" s="3">
         <v>8563300</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6097200</v>
+        <v>6102300</v>
       </c>
       <c r="E81" s="3">
-        <v>6378000</v>
+        <v>6383300</v>
       </c>
       <c r="F81" s="3">
-        <v>3852600</v>
+        <v>3855800</v>
       </c>
       <c r="G81" s="3">
-        <v>2810300</v>
+        <v>2812600</v>
       </c>
       <c r="H81" s="3">
-        <v>2809600</v>
+        <v>2811900</v>
       </c>
       <c r="I81" s="3">
-        <v>2240500</v>
+        <v>2242400</v>
       </c>
       <c r="J81" s="3">
-        <v>1688800</v>
+        <v>1690200</v>
       </c>
       <c r="K81" s="3">
         <v>1416000</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>632700</v>
+        <v>633200</v>
       </c>
       <c r="E83" s="3">
-        <v>510600</v>
+        <v>511000</v>
       </c>
       <c r="F83" s="3">
-        <v>532100</v>
+        <v>532500</v>
       </c>
       <c r="G83" s="3">
-        <v>486200</v>
+        <v>486600</v>
       </c>
       <c r="H83" s="3">
-        <v>458200</v>
+        <v>458600</v>
       </c>
       <c r="I83" s="3">
-        <v>567000</v>
+        <v>567500</v>
       </c>
       <c r="J83" s="3">
-        <v>384100</v>
+        <v>384400</v>
       </c>
       <c r="K83" s="3">
         <v>300300</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9200500</v>
+        <v>9208200</v>
       </c>
       <c r="E89" s="3">
-        <v>11757900</v>
+        <v>11767700</v>
       </c>
       <c r="F89" s="3">
-        <v>5016800</v>
+        <v>5020900</v>
       </c>
       <c r="G89" s="3">
-        <v>3551900</v>
+        <v>3554900</v>
       </c>
       <c r="H89" s="3">
-        <v>3331100</v>
+        <v>3333900</v>
       </c>
       <c r="I89" s="3">
-        <v>1971200</v>
+        <v>1972900</v>
       </c>
       <c r="J89" s="3">
-        <v>1806000</v>
+        <v>1807500</v>
       </c>
       <c r="K89" s="3">
         <v>2067700</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1389600</v>
+        <v>-1390800</v>
       </c>
       <c r="E91" s="3">
-        <v>-976400</v>
+        <v>-977300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1042900</v>
+        <v>-1043800</v>
       </c>
       <c r="G91" s="3">
-        <v>-831100</v>
+        <v>-831800</v>
       </c>
       <c r="H91" s="3">
-        <v>-622300</v>
+        <v>-622800</v>
       </c>
       <c r="I91" s="3">
-        <v>-367400</v>
+        <v>-367700</v>
       </c>
       <c r="J91" s="3">
-        <v>-342900</v>
+        <v>-343200</v>
       </c>
       <c r="K91" s="3">
         <v>-379500</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1115400</v>
+        <v>-1116400</v>
       </c>
       <c r="E94" s="3">
         <v>-78100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1465900</v>
+        <v>-1467100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1254800</v>
+        <v>-1255900</v>
       </c>
       <c r="H94" s="3">
-        <v>-532800</v>
+        <v>-533300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1332400</v>
+        <v>-1333500</v>
       </c>
       <c r="J94" s="3">
-        <v>-3456600</v>
+        <v>-3459500</v>
       </c>
       <c r="K94" s="3">
         <v>-1184000</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2775100</v>
+        <v>-2777400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1483400</v>
+        <v>-1484600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1156100</v>
+        <v>-1157000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1437200</v>
+        <v>-1438400</v>
       </c>
       <c r="H96" s="3">
-        <v>-647300</v>
+        <v>-647900</v>
       </c>
       <c r="I96" s="3">
-        <v>-560200</v>
+        <v>-560600</v>
       </c>
       <c r="J96" s="3">
-        <v>-483400</v>
+        <v>-483800</v>
       </c>
       <c r="K96" s="3">
         <v>-308600</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7738600</v>
+        <v>-7745100</v>
       </c>
       <c r="E100" s="3">
-        <v>-10723600</v>
+        <v>-10732500</v>
       </c>
       <c r="F100" s="3">
-        <v>-816300</v>
+        <v>-817000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1856300</v>
+        <v>-1857800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1869300</v>
+        <v>-1870900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1310800</v>
+        <v>-1311900</v>
       </c>
       <c r="J100" s="3">
-        <v>2128800</v>
+        <v>2130500</v>
       </c>
       <c r="K100" s="3">
         <v>-851300</v>
@@ -4215,7 +4215,7 @@
         <v>22000</v>
       </c>
       <c r="F101" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="G101" s="3">
         <v>5000</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>343100</v>
+        <v>343400</v>
       </c>
       <c r="E102" s="3">
-        <v>978300</v>
+        <v>979100</v>
       </c>
       <c r="F102" s="3">
-        <v>2728800</v>
+        <v>2731100</v>
       </c>
       <c r="G102" s="3">
-        <v>445800</v>
+        <v>446200</v>
       </c>
       <c r="H102" s="3">
-        <v>934600</v>
+        <v>935400</v>
       </c>
       <c r="I102" s="3">
-        <v>-702400</v>
+        <v>-703000</v>
       </c>
       <c r="J102" s="3">
-        <v>485800</v>
+        <v>486200</v>
       </c>
       <c r="K102" s="3">
         <v>40000</v>
